--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$71</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -15624,18 +15624,18 @@
           <t>212318@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F63" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F63" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G63" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H63" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63" s="13" t="n">
         <v>27</v>
@@ -15647,19 +15647,19 @@
         <v>29</v>
       </c>
       <c r="L63" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O63" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="14" t="inlineStr">
         <is>
@@ -18744,18 +18744,18 @@
           <t>220314@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F76" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F76" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G76" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H76" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I76" s="13" t="n">
         <v>27</v>
@@ -18767,19 +18767,19 @@
         <v>29</v>
       </c>
       <c r="L76" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N76" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O76" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="14" t="inlineStr">
         <is>
@@ -19944,18 +19944,18 @@
           <t>220618@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F81" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F81" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G81" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H81" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I81" s="13" t="n">
         <v>27</v>
@@ -19967,19 +19967,19 @@
         <v>29</v>
       </c>
       <c r="L81" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O81" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="14" t="inlineStr">
         <is>
@@ -20904,18 +20904,18 @@
           <t>220811@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F85" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F85" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G85" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H85" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>27</v>
@@ -20927,19 +20927,19 @@
         <v>29</v>
       </c>
       <c r="L85" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O85" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="14" t="inlineStr">
         <is>
@@ -21624,18 +21624,18 @@
           <t>220877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F88" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F88" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G88" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H88" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I88" s="13" t="n">
         <v>27</v>
@@ -21647,19 +21647,19 @@
         <v>29</v>
       </c>
       <c r="L88" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N88" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O88" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="14" t="inlineStr">
         <is>
@@ -27144,18 +27144,18 @@
           <t>221324@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F111" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F111" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G111" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H111" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I111" s="13" t="n">
         <v>27</v>
@@ -27167,19 +27167,19 @@
         <v>29</v>
       </c>
       <c r="L111" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N111" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O111" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111" s="14" t="inlineStr">
         <is>
@@ -31944,18 +31944,18 @@
           <t>221476@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F131" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F131" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G131" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H131" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I131" s="13" t="n">
         <v>27</v>
@@ -31967,19 +31967,19 @@
         <v>29</v>
       </c>
       <c r="L131" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N131" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O131" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131" s="14" t="inlineStr">
         <is>
@@ -42744,18 +42744,18 @@
           <t>221682@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F176" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F176" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G176" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H176" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I176" s="13" t="n">
         <v>27</v>
@@ -42767,19 +42767,19 @@
         <v>29</v>
       </c>
       <c r="L176" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M176" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N176" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O176" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P176" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q176" s="14" t="inlineStr">
         <is>
@@ -61210,7 +61210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -64825,8 +64825,464 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>221324</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>مجد ذوقان خليل قيشاوي</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>221324@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>14:41:19</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>221476</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>صالح هيثم صالح سواحلي</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>221476@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>14:41:33</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>220811</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>يعقوب يوسف يوسف</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>220811@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>14:41:41</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>220314</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>احمد ربيع قطب عبد المطلب بهوت</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>220314@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>14:41:47</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>220877</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>محمد نور عبد المنعم كرنازي</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>220877@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>14:41:52</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>212318</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>مازن مصدق يس عبد اللطيف</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>212318@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>14:42:10</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>221682</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>سرين حاج صدوق</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>221682@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>14:42:25</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>220618</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>غيداء مرزوق الرفاعى</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>220618@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>14:42:36</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K63"/>
+  <autoFilter ref="A1:K71"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$77</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -42264,18 +42264,18 @@
           <t>221668@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F174" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F174" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G174" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H174" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I174" s="13" t="n">
         <v>27</v>
@@ -42287,10 +42287,10 @@
         <v>29</v>
       </c>
       <c r="L174" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M174" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N174" s="14" t="n">
         <v>5</v>
@@ -42460,7 +42460,7 @@
         <v>3</v>
       </c>
       <c r="BC174" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD174" s="21" t="inlineStr">
         <is>
@@ -47304,18 +47304,18 @@
           <t>221822@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F195" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F195" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G195" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H195" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I195" s="13" t="n">
         <v>27</v>
@@ -47327,10 +47327,10 @@
         <v>29</v>
       </c>
       <c r="L195" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N195" s="14" t="n">
         <v>5</v>
@@ -47500,7 +47500,7 @@
         <v>3</v>
       </c>
       <c r="BC195" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD195" s="21" t="inlineStr">
         <is>
@@ -49224,18 +49224,18 @@
           <t>221866@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F203" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F203" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G203" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H203" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I203" s="13" t="n">
         <v>27</v>
@@ -49247,10 +49247,10 @@
         <v>29</v>
       </c>
       <c r="L203" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M203" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N203" s="14" t="n">
         <v>5</v>
@@ -49420,7 +49420,7 @@
         <v>3</v>
       </c>
       <c r="BC203" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD203" s="21" t="inlineStr">
         <is>
@@ -50904,18 +50904,18 @@
           <t>221909@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F210" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F210" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G210" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H210" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I210" s="13" t="n">
         <v>27</v>
@@ -50927,10 +50927,10 @@
         <v>29</v>
       </c>
       <c r="L210" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N210" s="14" t="n">
         <v>5</v>
@@ -51100,7 +51100,7 @@
         <v>3</v>
       </c>
       <c r="BC210" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD210" s="21" t="inlineStr">
         <is>
@@ -52584,18 +52584,18 @@
           <t>221938@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F217" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G217" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H217" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I217" s="13" t="n">
         <v>27</v>
@@ -52607,10 +52607,10 @@
         <v>29</v>
       </c>
       <c r="L217" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M217" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N217" s="14" t="n">
         <v>5</v>
@@ -52780,7 +52780,7 @@
         <v>3</v>
       </c>
       <c r="BC217" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD217" s="21" t="inlineStr">
         <is>
@@ -54984,18 +54984,18 @@
           <t>221982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="22" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F227" s="11" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G227" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H227" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I227" s="13" t="n">
         <v>27</v>
@@ -55007,10 +55007,10 @@
         <v>29</v>
       </c>
       <c r="L227" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M227" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N227" s="14" t="n">
         <v>5</v>
@@ -55180,7 +55180,7 @@
         <v>3</v>
       </c>
       <c r="BC227" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD227" s="21" t="inlineStr">
         <is>
@@ -61210,7 +61210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -65281,8 +65281,350 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>221668</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>محمد اسامه حسين</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>221668@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>09:16:15</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>221938</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>مانويلا ناكوتا مارينو لوكالى</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>221938@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>09:16:41</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>221909</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ديكتور يمبيك بول نيان</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>221909@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>09:16:45</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>221982</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>امنويل اكوى اقوتو كوت</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>221982@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>09:17:17</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>221866</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>امينة موسى رمبو</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>221866@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>09:17:29</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>221822</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>سعادة يوسف عليو</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>221822@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>09:17:50</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K71"/>
+  <autoFilter ref="A1:K77"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$137</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -230,6 +230,7 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1222,18 +1223,18 @@
           <t>200540@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F3" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G3" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H3" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>26</v>
@@ -1245,10 +1246,10 @@
         <v>29</v>
       </c>
       <c r="L3" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M3" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N3" s="14" t="n">
         <v>5</v>
@@ -1418,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="BC3" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="21" t="inlineStr">
         <is>
@@ -3364,18 +3365,18 @@
           <t>202107@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F12" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G12" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H12" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>26</v>
@@ -3387,10 +3388,10 @@
         <v>29</v>
       </c>
       <c r="L12" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M12" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N12" s="14" t="n">
         <v>5</v>
@@ -3560,10 +3561,10 @@
         <v>3</v>
       </c>
       <c r="BC12" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="21" t="inlineStr">
         <is>
@@ -3847,11 +3848,11 @@
       </c>
       <c r="G14" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H14" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="13" t="n">
         <v>26</v>
@@ -3863,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="L14" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" s="14" t="n">
         <v>5</v>
@@ -4036,10 +4037,10 @@
         <v>3</v>
       </c>
       <c r="BC14" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="21" t="inlineStr">
         <is>
@@ -5744,18 +5745,18 @@
           <t>210935@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F22" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F22" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G22" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H22" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="13" t="n">
         <v>26</v>
@@ -5767,10 +5768,10 @@
         <v>29</v>
       </c>
       <c r="L22" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M22" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N22" s="14" t="n">
         <v>5</v>
@@ -5940,10 +5941,10 @@
         <v>3</v>
       </c>
       <c r="BC22" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="21" t="inlineStr">
         <is>
@@ -5989,11 +5990,11 @@
       </c>
       <c r="G23" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H23" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="13" t="n">
         <v>26</v>
@@ -6005,10 +6006,10 @@
         <v>29</v>
       </c>
       <c r="L23" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="14" t="n">
         <v>5</v>
@@ -6178,10 +6179,10 @@
         <v>3</v>
       </c>
       <c r="BC23" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="21" t="inlineStr">
         <is>
@@ -6227,11 +6228,11 @@
       </c>
       <c r="G24" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H24" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>26</v>
@@ -6243,10 +6244,10 @@
         <v>29</v>
       </c>
       <c r="L24" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" s="14" t="n">
         <v>5</v>
@@ -6416,10 +6417,10 @@
         <v>3</v>
       </c>
       <c r="BC24" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="21" t="inlineStr">
         <is>
@@ -8131,11 +8132,11 @@
       </c>
       <c r="G32" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H32" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" s="13" t="n">
         <v>26</v>
@@ -8147,10 +8148,10 @@
         <v>29</v>
       </c>
       <c r="L32" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" s="14" t="n">
         <v>5</v>
@@ -8320,10 +8321,10 @@
         <v>3</v>
       </c>
       <c r="BC32" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD32" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE32" s="21" t="inlineStr">
         <is>
@@ -9559,11 +9560,11 @@
       </c>
       <c r="G38" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H38" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>26</v>
@@ -9575,10 +9576,10 @@
         <v>29</v>
       </c>
       <c r="L38" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38" s="14" t="n">
         <v>5</v>
@@ -9748,10 +9749,10 @@
         <v>3</v>
       </c>
       <c r="BC38" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD38" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE38" s="21" t="inlineStr">
         <is>
@@ -10028,18 +10029,18 @@
           <t>211788@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F40" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F40" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G40" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H40" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>26</v>
@@ -10051,10 +10052,10 @@
         <v>29</v>
       </c>
       <c r="L40" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M40" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N40" s="14" t="n">
         <v>5</v>
@@ -10224,10 +10225,10 @@
         <v>3</v>
       </c>
       <c r="BC40" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD40" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE40" s="21" t="inlineStr">
         <is>
@@ -11225,11 +11226,11 @@
       </c>
       <c r="G45" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H45" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" s="13" t="n">
         <v>26</v>
@@ -11241,10 +11242,10 @@
         <v>29</v>
       </c>
       <c r="L45" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" s="14" t="n">
         <v>5</v>
@@ -11414,10 +11415,10 @@
         <v>3</v>
       </c>
       <c r="BC45" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD45" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE45" s="21" t="inlineStr">
         <is>
@@ -15740,18 +15741,18 @@
           <t>212322@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F64" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F64" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G64" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H64" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>26</v>
@@ -15763,10 +15764,10 @@
         <v>29</v>
       </c>
       <c r="L64" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M64" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N64" s="14" t="n">
         <v>5</v>
@@ -15936,10 +15937,10 @@
         <v>3</v>
       </c>
       <c r="BC64" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD64" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE64" s="21" t="inlineStr">
         <is>
@@ -17413,11 +17414,11 @@
       </c>
       <c r="G71" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H71" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I71" s="13" t="n">
         <v>26</v>
@@ -17429,10 +17430,10 @@
         <v>29</v>
       </c>
       <c r="L71" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N71" s="14" t="n">
         <v>5</v>
@@ -17602,10 +17603,10 @@
         <v>3</v>
       </c>
       <c r="BC71" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD71" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE71" s="21" t="inlineStr">
         <is>
@@ -18120,18 +18121,18 @@
           <t>212543@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F74" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F74" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G74" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H74" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>26</v>
@@ -18143,10 +18144,10 @@
         <v>29</v>
       </c>
       <c r="L74" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M74" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N74" s="14" t="n">
         <v>5</v>
@@ -18316,10 +18317,10 @@
         <v>3</v>
       </c>
       <c r="BC74" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD74" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE74" s="21" t="inlineStr">
         <is>
@@ -18365,11 +18366,11 @@
       </c>
       <c r="G75" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H75" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I75" s="13" t="n">
         <v>26</v>
@@ -18381,10 +18382,10 @@
         <v>29</v>
       </c>
       <c r="L75" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N75" s="14" t="n">
         <v>5</v>
@@ -18554,10 +18555,10 @@
         <v>3</v>
       </c>
       <c r="BC75" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD75" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE75" s="21" t="inlineStr">
         <is>
@@ -19310,18 +19311,18 @@
           <t>220444@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F79" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F79" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G79" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H79" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I79" s="13" t="n">
         <v>26</v>
@@ -19333,10 +19334,10 @@
         <v>29</v>
       </c>
       <c r="L79" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M79" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N79" s="14" t="n">
         <v>5</v>
@@ -19506,10 +19507,10 @@
         <v>3</v>
       </c>
       <c r="BC79" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD79" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE79" s="21" t="inlineStr">
         <is>
@@ -20507,11 +20508,11 @@
       </c>
       <c r="G84" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H84" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>26</v>
@@ -20523,10 +20524,10 @@
         <v>29</v>
       </c>
       <c r="L84" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N84" s="14" t="n">
         <v>5</v>
@@ -20696,10 +20697,10 @@
         <v>3</v>
       </c>
       <c r="BC84" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD84" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE84" s="21" t="inlineStr">
         <is>
@@ -21452,18 +21453,18 @@
           <t>220877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F88" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F88" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G88" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H88" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I88" s="13" t="n">
         <v>26</v>
@@ -21475,10 +21476,10 @@
         <v>29</v>
       </c>
       <c r="L88" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M88" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N88" s="14" t="n">
         <v>5</v>
@@ -21648,10 +21649,10 @@
         <v>3</v>
       </c>
       <c r="BC88" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD88" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE88" s="21" t="inlineStr">
         <is>
@@ -23118,18 +23119,18 @@
           <t>220990@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F95" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F95" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G95" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H95" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I95" s="13" t="n">
         <v>26</v>
@@ -23141,10 +23142,10 @@
         <v>29</v>
       </c>
       <c r="L95" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M95" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N95" s="14" t="n">
         <v>5</v>
@@ -23314,10 +23315,10 @@
         <v>3</v>
       </c>
       <c r="BC95" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD95" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE95" s="21" t="inlineStr">
         <is>
@@ -23832,18 +23833,18 @@
           <t>221022@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F98" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F98" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G98" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H98" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>26</v>
@@ -23855,10 +23856,10 @@
         <v>29</v>
       </c>
       <c r="L98" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M98" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N98" s="14" t="n">
         <v>5</v>
@@ -24028,10 +24029,10 @@
         <v>3</v>
       </c>
       <c r="BC98" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD98" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE98" s="21" t="inlineStr">
         <is>
@@ -24315,11 +24316,11 @@
       </c>
       <c r="G100" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H100" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I100" s="13" t="n">
         <v>26</v>
@@ -24331,10 +24332,10 @@
         <v>29</v>
       </c>
       <c r="L100" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N100" s="14" t="n">
         <v>5</v>
@@ -24504,10 +24505,10 @@
         <v>3</v>
       </c>
       <c r="BC100" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD100" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE100" s="21" t="inlineStr">
         <is>
@@ -27402,18 +27403,18 @@
           <t>221351@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F113" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F113" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G113" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H113" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I113" s="13" t="n">
         <v>26</v>
@@ -27425,10 +27426,10 @@
         <v>29</v>
       </c>
       <c r="L113" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M113" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N113" s="14" t="n">
         <v>5</v>
@@ -27598,10 +27599,10 @@
         <v>3</v>
       </c>
       <c r="BC113" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD113" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE113" s="21" t="inlineStr">
         <is>
@@ -28361,11 +28362,11 @@
       </c>
       <c r="G117" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H117" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I117" s="13" t="n">
         <v>26</v>
@@ -28377,10 +28378,10 @@
         <v>29</v>
       </c>
       <c r="L117" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N117" s="14" t="n">
         <v>5</v>
@@ -28550,10 +28551,10 @@
         <v>3</v>
       </c>
       <c r="BC117" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD117" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE117" s="21" t="inlineStr">
         <is>
@@ -29075,11 +29076,11 @@
       </c>
       <c r="G120" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H120" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>26</v>
@@ -29091,10 +29092,10 @@
         <v>29</v>
       </c>
       <c r="L120" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N120" s="14" t="n">
         <v>5</v>
@@ -29264,10 +29265,10 @@
         <v>3</v>
       </c>
       <c r="BC120" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD120" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE120" s="21" t="inlineStr">
         <is>
@@ -30496,18 +30497,18 @@
           <t>221435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F126" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F126" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G126" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H126" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I126" s="13" t="n">
         <v>26</v>
@@ -30519,10 +30520,10 @@
         <v>29</v>
       </c>
       <c r="L126" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M126" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N126" s="14" t="n">
         <v>5</v>
@@ -30692,10 +30693,10 @@
         <v>3</v>
       </c>
       <c r="BC126" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD126" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE126" s="21" t="inlineStr">
         <is>
@@ -31448,18 +31449,18 @@
           <t>221459@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F130" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F130" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G130" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H130" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I130" s="13" t="n">
         <v>26</v>
@@ -31471,10 +31472,10 @@
         <v>29</v>
       </c>
       <c r="L130" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M130" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M130" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N130" s="14" t="n">
         <v>5</v>
@@ -31644,10 +31645,10 @@
         <v>3</v>
       </c>
       <c r="BC130" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD130" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE130" s="21" t="inlineStr">
         <is>
@@ -32169,11 +32170,11 @@
       </c>
       <c r="G133" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H133" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>26</v>
@@ -32185,10 +32186,10 @@
         <v>29</v>
       </c>
       <c r="L133" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N133" s="14" t="n">
         <v>5</v>
@@ -32358,10 +32359,10 @@
         <v>3</v>
       </c>
       <c r="BC133" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD133" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE133" s="21" t="inlineStr">
         <is>
@@ -32400,18 +32401,18 @@
           <t>221494@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F134" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F134" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G134" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H134" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>26</v>
@@ -32423,10 +32424,10 @@
         <v>29</v>
       </c>
       <c r="L134" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M134" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N134" s="14" t="n">
         <v>5</v>
@@ -32596,10 +32597,10 @@
         <v>3</v>
       </c>
       <c r="BC134" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD134" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE134" s="21" t="inlineStr">
         <is>
@@ -33597,11 +33598,11 @@
       </c>
       <c r="G139" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H139" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I139" s="13" t="n">
         <v>26</v>
@@ -33613,10 +33614,10 @@
         <v>29</v>
       </c>
       <c r="L139" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N139" s="14" t="n">
         <v>5</v>
@@ -33786,10 +33787,10 @@
         <v>3</v>
       </c>
       <c r="BC139" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD139" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE139" s="21" t="inlineStr">
         <is>
@@ -33835,11 +33836,11 @@
       </c>
       <c r="G140" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H140" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I140" s="13" t="n">
         <v>26</v>
@@ -33851,10 +33852,10 @@
         <v>29</v>
       </c>
       <c r="L140" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M140" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N140" s="14" t="n">
         <v>5</v>
@@ -34024,10 +34025,10 @@
         <v>3</v>
       </c>
       <c r="BC140" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD140" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE140" s="21" t="inlineStr">
         <is>
@@ -34549,11 +34550,11 @@
       </c>
       <c r="G143" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H143" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I143" s="13" t="n">
         <v>26</v>
@@ -34565,10 +34566,10 @@
         <v>29</v>
       </c>
       <c r="L143" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N143" s="14" t="n">
         <v>5</v>
@@ -34738,10 +34739,10 @@
         <v>3</v>
       </c>
       <c r="BC143" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD143" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE143" s="21" t="inlineStr">
         <is>
@@ -35018,18 +35019,18 @@
           <t>221527@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F145" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F145" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G145" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H145" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>26</v>
@@ -35041,10 +35042,10 @@
         <v>29</v>
       </c>
       <c r="L145" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M145" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N145" s="14" t="n">
         <v>5</v>
@@ -35214,10 +35215,10 @@
         <v>3</v>
       </c>
       <c r="BC145" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD145" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE145" s="21" t="inlineStr">
         <is>
@@ -35263,11 +35264,11 @@
       </c>
       <c r="G146" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H146" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>26</v>
@@ -35279,10 +35280,10 @@
         <v>29</v>
       </c>
       <c r="L146" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N146" s="14" t="n">
         <v>5</v>
@@ -35452,10 +35453,10 @@
         <v>3</v>
       </c>
       <c r="BC146" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD146" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE146" s="21" t="inlineStr">
         <is>
@@ -35739,11 +35740,11 @@
       </c>
       <c r="G148" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H148" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I148" s="13" t="n">
         <v>26</v>
@@ -35755,10 +35756,10 @@
         <v>29</v>
       </c>
       <c r="L148" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N148" s="14" t="n">
         <v>5</v>
@@ -35928,10 +35929,10 @@
         <v>3</v>
       </c>
       <c r="BC148" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD148" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE148" s="21" t="inlineStr">
         <is>
@@ -36929,11 +36930,11 @@
       </c>
       <c r="G153" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H153" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I153" s="13" t="n">
         <v>26</v>
@@ -36945,10 +36946,10 @@
         <v>29</v>
       </c>
       <c r="L153" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M153" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N153" s="14" t="n">
         <v>5</v>
@@ -37118,10 +37119,10 @@
         <v>3</v>
       </c>
       <c r="BC153" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD153" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE153" s="21" t="inlineStr">
         <is>
@@ -37398,18 +37399,18 @@
           <t>221579@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F155" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F155" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G155" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H155" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I155" s="13" t="n">
         <v>26</v>
@@ -37421,10 +37422,10 @@
         <v>29</v>
       </c>
       <c r="L155" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M155" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N155" s="14" t="n">
         <v>5</v>
@@ -37594,10 +37595,10 @@
         <v>3</v>
       </c>
       <c r="BC155" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD155" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE155" s="21" t="inlineStr">
         <is>
@@ -37636,18 +37637,18 @@
           <t>221583@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F156" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F156" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G156" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H156" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I156" s="13" t="n">
         <v>26</v>
@@ -37659,10 +37660,10 @@
         <v>29</v>
       </c>
       <c r="L156" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M156" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N156" s="14" t="n">
         <v>5</v>
@@ -37832,10 +37833,10 @@
         <v>3</v>
       </c>
       <c r="BC156" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD156" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE156" s="21" t="inlineStr">
         <is>
@@ -38826,18 +38827,18 @@
           <t>221600@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F161" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G161" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H161" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I161" s="13" t="n">
         <v>26</v>
@@ -38849,10 +38850,10 @@
         <v>29</v>
       </c>
       <c r="L161" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M161" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M161" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N161" s="14" t="n">
         <v>5</v>
@@ -39022,10 +39023,10 @@
         <v>3</v>
       </c>
       <c r="BC161" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD161" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE161" s="21" t="inlineStr">
         <is>
@@ -39064,18 +39065,18 @@
           <t>221606@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F162" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F162" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G162" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H162" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I162" s="13" t="n">
         <v>26</v>
@@ -39087,10 +39088,10 @@
         <v>29</v>
       </c>
       <c r="L162" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M162" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N162" s="14" t="n">
         <v>5</v>
@@ -39260,10 +39261,10 @@
         <v>3</v>
       </c>
       <c r="BC162" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD162" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE162" s="21" t="inlineStr">
         <is>
@@ -40975,11 +40976,11 @@
       </c>
       <c r="G170" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H170" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I170" s="13" t="n">
         <v>26</v>
@@ -40991,10 +40992,10 @@
         <v>29</v>
       </c>
       <c r="L170" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M170" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N170" s="14" t="n">
         <v>5</v>
@@ -41164,10 +41165,10 @@
         <v>3</v>
       </c>
       <c r="BC170" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD170" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE170" s="21" t="inlineStr">
         <is>
@@ -41213,11 +41214,11 @@
       </c>
       <c r="G171" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H171" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I171" s="13" t="n">
         <v>26</v>
@@ -41229,10 +41230,10 @@
         <v>29</v>
       </c>
       <c r="L171" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M171" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N171" s="14" t="n">
         <v>5</v>
@@ -41402,10 +41403,10 @@
         <v>3</v>
       </c>
       <c r="BC171" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD171" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE171" s="21" t="inlineStr">
         <is>
@@ -42158,18 +42159,18 @@
           <t>221675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F175" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G175" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H175" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I175" s="13" t="n">
         <v>26</v>
@@ -42181,10 +42182,10 @@
         <v>29</v>
       </c>
       <c r="L175" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M175" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N175" s="14" t="n">
         <v>5</v>
@@ -42354,10 +42355,10 @@
         <v>3</v>
       </c>
       <c r="BC175" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD175" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE175" s="21" t="inlineStr">
         <is>
@@ -42396,18 +42397,18 @@
           <t>221682@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F176" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F176" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G176" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H176" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I176" s="13" t="n">
         <v>26</v>
@@ -42419,10 +42420,10 @@
         <v>29</v>
       </c>
       <c r="L176" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M176" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N176" s="14" t="n">
         <v>5</v>
@@ -42592,10 +42593,10 @@
         <v>3</v>
       </c>
       <c r="BC176" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD176" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE176" s="21" t="inlineStr">
         <is>
@@ -43824,18 +43825,18 @@
           <t>221730@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F182" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F182" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G182" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H182" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I182" s="13" t="n">
         <v>26</v>
@@ -43847,10 +43848,10 @@
         <v>29</v>
       </c>
       <c r="L182" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M182" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M182" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N182" s="14" t="n">
         <v>5</v>
@@ -44020,10 +44021,10 @@
         <v>3</v>
       </c>
       <c r="BC182" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD182" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE182" s="21" t="inlineStr">
         <is>
@@ -44538,18 +44539,18 @@
           <t>221756@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F185" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G185" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H185" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I185" s="13" t="n">
         <v>26</v>
@@ -44561,10 +44562,10 @@
         <v>29</v>
       </c>
       <c r="L185" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M185" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M185" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N185" s="14" t="n">
         <v>5</v>
@@ -44734,10 +44735,10 @@
         <v>3</v>
       </c>
       <c r="BC185" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD185" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE185" s="21" t="inlineStr">
         <is>
@@ -45490,18 +45491,18 @@
           <t>221779@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F189" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F189" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G189" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H189" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I189" s="13" t="n">
         <v>26</v>
@@ -45513,10 +45514,10 @@
         <v>29</v>
       </c>
       <c r="L189" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M189" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N189" s="14" t="n">
         <v>5</v>
@@ -45686,10 +45687,10 @@
         <v>3</v>
       </c>
       <c r="BC189" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD189" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE189" s="21" t="inlineStr">
         <is>
@@ -45735,11 +45736,11 @@
       </c>
       <c r="G190" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H190" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I190" s="13" t="n">
         <v>26</v>
@@ -45751,10 +45752,10 @@
         <v>29</v>
       </c>
       <c r="L190" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N190" s="14" t="n">
         <v>5</v>
@@ -45924,10 +45925,10 @@
         <v>3</v>
       </c>
       <c r="BC190" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD190" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE190" s="21" t="inlineStr">
         <is>
@@ -47401,11 +47402,11 @@
       </c>
       <c r="G197" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H197" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I197" s="13" t="n">
         <v>26</v>
@@ -47417,10 +47418,10 @@
         <v>29</v>
       </c>
       <c r="L197" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M197" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N197" s="14" t="n">
         <v>5</v>
@@ -47590,10 +47591,10 @@
         <v>3</v>
       </c>
       <c r="BC197" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD197" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE197" s="21" t="inlineStr">
         <is>
@@ -47639,11 +47640,11 @@
       </c>
       <c r="G198" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H198" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I198" s="13" t="n">
         <v>26</v>
@@ -47655,10 +47656,10 @@
         <v>29</v>
       </c>
       <c r="L198" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M198" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N198" s="14" t="n">
         <v>5</v>
@@ -47828,10 +47829,10 @@
         <v>3</v>
       </c>
       <c r="BC198" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD198" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE198" s="21" t="inlineStr">
         <is>
@@ -48108,18 +48109,18 @@
           <t>221850@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F200" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F200" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G200" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H200" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I200" s="13" t="n">
         <v>26</v>
@@ -48131,10 +48132,10 @@
         <v>29</v>
       </c>
       <c r="L200" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M200" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N200" s="14" t="n">
         <v>5</v>
@@ -48304,10 +48305,10 @@
         <v>3</v>
       </c>
       <c r="BC200" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD200" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE200" s="21" t="inlineStr">
         <is>
@@ -49067,11 +49068,11 @@
       </c>
       <c r="G204" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H204" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I204" s="13" t="n">
         <v>26</v>
@@ -49083,10 +49084,10 @@
         <v>29</v>
       </c>
       <c r="L204" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M204" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N204" s="14" t="n">
         <v>5</v>
@@ -49256,10 +49257,10 @@
         <v>3</v>
       </c>
       <c r="BC204" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD204" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE204" s="21" t="inlineStr">
         <is>
@@ -51678,18 +51679,18 @@
           <t>221930@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F215" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F215" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G215" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H215" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I215" s="13" t="n">
         <v>26</v>
@@ -51701,10 +51702,10 @@
         <v>29</v>
       </c>
       <c r="L215" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M215" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N215" s="14" t="n">
         <v>5</v>
@@ -51874,10 +51875,10 @@
         <v>3</v>
       </c>
       <c r="BC215" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD215" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE215" s="21" t="inlineStr">
         <is>
@@ -52630,18 +52631,18 @@
           <t>221944@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F219" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F219" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G219" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H219" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I219" s="13" t="n">
         <v>26</v>
@@ -52653,10 +52654,10 @@
         <v>29</v>
       </c>
       <c r="L219" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M219" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M219" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N219" s="14" t="n">
         <v>5</v>
@@ -52826,10 +52827,10 @@
         <v>3</v>
       </c>
       <c r="BC219" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD219" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE219" s="21" t="inlineStr">
         <is>
@@ -55724,18 +55725,18 @@
           <t>222003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F232" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G232" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H232" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I232" s="13" t="n">
         <v>26</v>
@@ -55747,10 +55748,10 @@
         <v>29</v>
       </c>
       <c r="L232" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M232" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M232" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N232" s="14" t="n">
         <v>5</v>
@@ -55920,10 +55921,10 @@
         <v>3</v>
       </c>
       <c r="BC232" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD232" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE232" s="21" t="inlineStr">
         <is>
@@ -55962,18 +55963,18 @@
           <t>222004@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F233" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G233" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H233" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I233" s="13" t="n">
         <v>26</v>
@@ -55985,10 +55986,10 @@
         <v>29</v>
       </c>
       <c r="L233" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M233" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M233" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N233" s="14" t="n">
         <v>5</v>
@@ -56158,10 +56159,10 @@
         <v>3</v>
       </c>
       <c r="BC233" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD233" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE233" s="21" t="inlineStr">
         <is>
@@ -56676,18 +56677,18 @@
           <t>222026@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F236" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F236" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G236" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H236" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I236" s="13" t="n">
         <v>26</v>
@@ -56699,10 +56700,10 @@
         <v>29</v>
       </c>
       <c r="L236" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M236" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M236" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N236" s="14" t="n">
         <v>5</v>
@@ -56872,10 +56873,10 @@
         <v>3</v>
       </c>
       <c r="BC236" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD236" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE236" s="21" t="inlineStr">
         <is>
@@ -57152,18 +57153,18 @@
           <t>222028@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F238" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F238" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G238" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H238" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I238" s="13" t="n">
         <v>26</v>
@@ -57175,10 +57176,10 @@
         <v>29</v>
       </c>
       <c r="L238" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M238" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M238" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N238" s="14" t="n">
         <v>5</v>
@@ -57348,10 +57349,10 @@
         <v>3</v>
       </c>
       <c r="BC238" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD238" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE238" s="21" t="inlineStr">
         <is>
@@ -57866,18 +57867,18 @@
           <t>222035@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F241" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F241" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G241" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H241" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I241" s="13" t="n">
         <v>26</v>
@@ -57889,10 +57890,10 @@
         <v>29</v>
       </c>
       <c r="L241" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M241" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M241" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N241" s="14" t="n">
         <v>5</v>
@@ -58062,10 +58063,10 @@
         <v>3</v>
       </c>
       <c r="BC241" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD241" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE241" s="21" t="inlineStr">
         <is>
@@ -58349,11 +58350,11 @@
       </c>
       <c r="G243" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H243" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I243" s="13" t="n">
         <v>26</v>
@@ -58365,10 +58366,10 @@
         <v>29</v>
       </c>
       <c r="L243" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M243" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N243" s="14" t="n">
         <v>5</v>
@@ -58538,10 +58539,10 @@
         <v>3</v>
       </c>
       <c r="BC243" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD243" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE243" s="21" t="inlineStr">
         <is>
@@ -58818,18 +58819,18 @@
           <t>222058@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F245" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F245" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G245" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H245" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I245" s="13" t="n">
         <v>26</v>
@@ -58841,10 +58842,10 @@
         <v>29</v>
       </c>
       <c r="L245" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M245" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="M245" s="13" t="n">
-        <v>2</v>
       </c>
       <c r="N245" s="14" t="n">
         <v>5</v>
@@ -59014,10 +59015,10 @@
         <v>3</v>
       </c>
       <c r="BC245" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD245" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE245" s="21" t="inlineStr">
         <is>
@@ -60491,11 +60492,11 @@
       </c>
       <c r="G252" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H252" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I252" s="13" t="n">
         <v>26</v>
@@ -60507,10 +60508,10 @@
         <v>29</v>
       </c>
       <c r="L252" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M252" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N252" s="14" t="n">
         <v>5</v>
@@ -60680,10 +60681,10 @@
         <v>3</v>
       </c>
       <c r="BC252" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD252" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE252" s="21" t="inlineStr">
         <is>
@@ -60708,7 +60709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -60720,7 +60721,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
@@ -65121,8 +65122,3308 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>221649</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ماريا صالح اسحاق يوسكو</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>221649@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J78" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>221653</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>يزن يحيى سليمان طبش</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>221653@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J79" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>221675</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ساره بنت سعيد بن عثمان الكناني</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>221675@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J80" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>221682</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>سرين حاج صدوق</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>221682@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J81" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>221730</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>بيان حسن عثمان عباس</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>221730@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J82" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>221756</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ماريا صالح حسن مثنى محمد</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>221756@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J83" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>221779</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>اميرة رمضان سلمان ابو جامع</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>221779@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J84" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>221799</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>سعاد عبد الماجد احمد عيسى</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>221799@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J85" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>221435</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>احمد سامى عثمان الدى</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>221435@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J86" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>221459</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>محمد الطيب محمد زين</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>221459@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J87" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>221484</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>نمارق عثمان حسن محمد نصر</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>221484@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J88" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>221494</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>حسن الصادق مصطفى الحاج</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>221494@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J89" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>221507</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>قتيبه فايز السعيد</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>221507@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J90" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>221508</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>هاله عادل محمد احمد على</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>221508@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J91" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>221522</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>آدم محمد احمد البديرات</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>221522@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J92" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>221527</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>شهد محمد عبدالرحمن ادريس</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>221527@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J93" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>221536</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>عبده دفع الله سليمان كوكو</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>221536@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J94" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>221546</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>محمدزين ابوبكر محمد زين احمد</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>221546@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J95" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>221574</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>عمر براء رجب</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>221574@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J96" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>221579</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>لينا مكرم محمد يسن</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>221579@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J97" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>221583</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>غدير بنت عمر بن سعيد الفارسية</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>221583@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J98" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>221600</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>مروان معاوية عثمان الطيب</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>221600@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J99" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>221606</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>راوية الطاهر عبدالله ناصر</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>221606@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J100" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>222004</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>احمد ايمن احمد بشير</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>222004@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J101" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>222026</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>عثمان موسى محمد ادم</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>222026@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J102" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>222028</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>هاجر عبد الحفيظ سيد صالح</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>222028@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J103" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>222035</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>علا عبد الوهاب خليل محمود</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>222035@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J104" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>222053</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>صباح سيف الدين عثمان اسحق</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>222053@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J105" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>222058</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>رفا السيد قسم الله السيد</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>222058@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J106" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>222113</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ابرار محمد عبد الله عبد الحميد</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>222113@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J107" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>221833</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>صفا محمود صايل صايل</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>221833@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J108" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>221838</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>الاء سيد احمد احمد ابن ادريس</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>221838@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J109" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>221850</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>مؤمن محمد عبد الله محمد</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>221850@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J110" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>221869</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>اميرة حامد عبدالجبار ابراهيم</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>221869@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J111" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>221930</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>احمد محمود عبد الباقى محمد</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>221930@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J112" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>221944</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ضحى عمر سيف الدين محمد</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>221944@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J113" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>222003</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>اسراء بدر الدين جعفر عثمان</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>222003@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J114" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>220990</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>جاد زياد سلوم</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>220990@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J115" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>221022</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>شهد عبدالعظيم فرج بابكر</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>221022@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J116" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>221031</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>امنيه عبدالله عبد اللطيف محمد</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>221031@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J117" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>221351</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ريان الطاهر عبد الله ناصر</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>221351@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J118" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>221375</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>محمد عمران محمد الهندى</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>221375@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J119" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>221415</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>داليا عبد العزيز مبروك عبد العزيز بكار</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>221415@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J120" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>212322</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>مهند حافظ عابدين الفاضل</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>212322@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J121" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>212442</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>رميساء محى الدين الامين الطيب</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>212442@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J122" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>212543</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>زينب سيف الدين محمد ادم</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>212543@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J123" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>220304</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>احمد الكامل محمد عبدون عثمان</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>220304@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J124" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>220444</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>جنه تامر محمد يوسف</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>220444@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J125" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>220766</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ميار بنت خالد بن محمد الشيخ</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>220766@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J126" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>220877</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>محمد نور عبد المنعم كرنازي</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>220877@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J127" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>211294</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>نور الهدى خلاوى الشحاذه</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>211294@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J128" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>211704</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>الياس احمد بكردان</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>211704@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J129" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>211788</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>محمد صادق محمد الكردى</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>211788@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J130" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>211963</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>الاء سمعان محمود العرايضه</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>211963@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J131" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>200540</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>محمد سعيد ابراهيم عواد درويش</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>200540@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J132" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>خديجة ادم محمد ادريس موسى</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>202107@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J133" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>210576</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>عمرو محمد محمد ابراهيم</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>210576@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J134" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>210935</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>يعقوب سليمان يعقوب يحى</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>210935@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J135" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>210967</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ملاك كمال اسماعيل ابو جلاله</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>210967@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J136" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>210998</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>زينب نادر عوض السيد عبد القادر</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>210998@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>PHYSIOLOGY</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="J137" s="24" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K77"/>
+  <autoFilter ref="A1:K137"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$258</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -5248,11 +5248,11 @@
       </c>
       <c r="G20" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H20" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="13" t="n">
         <v>25</v>
@@ -5264,10 +5264,10 @@
         <v>29</v>
       </c>
       <c r="L20" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="14" t="n">
         <v>5</v>
@@ -5353,7 +5353,7 @@
         <v>6</v>
       </c>
       <c r="AI20" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="18" t="inlineStr">
         <is>
@@ -10905,18 +10905,18 @@
           <t>211915@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F44" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F44" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G44" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H44" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" s="13" t="n">
         <v>25</v>
@@ -10928,10 +10928,10 @@
         <v>29</v>
       </c>
       <c r="L44" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="14" t="n">
         <v>5</v>
@@ -11017,7 +11017,7 @@
         <v>6</v>
       </c>
       <c r="AI44" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="18" t="inlineStr">
         <is>
@@ -18700,11 +18700,11 @@
       </c>
       <c r="G77" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H77" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I77" s="13" t="n">
         <v>25</v>
@@ -18716,10 +18716,10 @@
         <v>29</v>
       </c>
       <c r="L77" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N77" s="14" t="n">
         <v>5</v>
@@ -18805,7 +18805,7 @@
         <v>6</v>
       </c>
       <c r="AI77" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ77" s="18" t="inlineStr">
         <is>
@@ -20345,18 +20345,18 @@
           <t>220766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F84" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G84" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H84" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>25</v>
@@ -20368,10 +20368,10 @@
         <v>29</v>
       </c>
       <c r="L84" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M84" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N84" s="14" t="n">
         <v>5</v>
@@ -20457,7 +20457,7 @@
         <v>6</v>
       </c>
       <c r="AI84" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ84" s="18" t="inlineStr">
         <is>
@@ -23420,11 +23420,11 @@
       </c>
       <c r="G97" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H97" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>25</v>
@@ -23436,10 +23436,10 @@
         <v>29</v>
       </c>
       <c r="L97" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N97" s="14" t="n">
         <v>5</v>
@@ -23525,7 +23525,7 @@
         <v>6</v>
       </c>
       <c r="AI97" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ97" s="18" t="inlineStr">
         <is>
@@ -27189,18 +27189,18 @@
           <t>221351@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F113" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F113" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G113" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H113" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I113" s="13" t="n">
         <v>25</v>
@@ -27212,10 +27212,10 @@
         <v>29</v>
       </c>
       <c r="L113" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M113" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N113" s="14" t="n">
         <v>5</v>
@@ -27301,7 +27301,7 @@
         <v>6</v>
       </c>
       <c r="AI113" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ113" s="18" t="inlineStr">
         <is>
@@ -27425,18 +27425,18 @@
           <t>221355@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F114" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F114" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G114" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H114" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I114" s="13" t="n">
         <v>25</v>
@@ -27448,10 +27448,10 @@
         <v>29</v>
       </c>
       <c r="L114" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M114" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N114" s="14" t="n">
         <v>5</v>
@@ -27537,7 +27537,7 @@
         <v>6</v>
       </c>
       <c r="AI114" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ114" s="18" t="inlineStr">
         <is>
@@ -28841,18 +28841,18 @@
           <t>221415@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F120" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F120" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G120" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H120" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>25</v>
@@ -28864,10 +28864,10 @@
         <v>29</v>
       </c>
       <c r="L120" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M120" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120" s="14" t="n">
         <v>5</v>
@@ -28953,7 +28953,7 @@
         <v>6</v>
       </c>
       <c r="AI120" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ120" s="18" t="inlineStr">
         <is>
@@ -29792,11 +29792,11 @@
       </c>
       <c r="G124" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H124" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I124" s="13" t="n">
         <v>25</v>
@@ -29808,10 +29808,10 @@
         <v>29</v>
       </c>
       <c r="L124" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M124" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N124" s="14" t="n">
         <v>5</v>
@@ -29897,7 +29897,7 @@
         <v>6</v>
       </c>
       <c r="AI124" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ124" s="18" t="inlineStr">
         <is>
@@ -30257,18 +30257,18 @@
           <t>221435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F126" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F126" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G126" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H126" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I126" s="13" t="n">
         <v>25</v>
@@ -30280,10 +30280,10 @@
         <v>29</v>
       </c>
       <c r="L126" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M126" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N126" s="14" t="n">
         <v>5</v>
@@ -30369,7 +30369,7 @@
         <v>6</v>
       </c>
       <c r="AI126" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ126" s="18" t="inlineStr">
         <is>
@@ -31916,11 +31916,11 @@
       </c>
       <c r="G133" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H133" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>25</v>
@@ -31932,10 +31932,10 @@
         <v>29</v>
       </c>
       <c r="L133" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M133" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N133" s="14" t="n">
         <v>5</v>
@@ -32021,7 +32021,7 @@
         <v>6</v>
       </c>
       <c r="AI133" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ133" s="18" t="inlineStr">
         <is>
@@ -33561,18 +33561,18 @@
           <t>221508@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F140" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F140" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G140" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H140" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I140" s="13" t="n">
         <v>25</v>
@@ -33584,10 +33584,10 @@
         <v>29</v>
       </c>
       <c r="L140" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M140" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N140" s="14" t="n">
         <v>5</v>
@@ -33673,7 +33673,7 @@
         <v>6</v>
       </c>
       <c r="AI140" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ140" s="18" t="inlineStr">
         <is>
@@ -35921,18 +35921,18 @@
           <t>221558@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F150" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F150" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G150" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H150" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I150" s="13" t="n">
         <v>25</v>
@@ -35944,10 +35944,10 @@
         <v>29</v>
       </c>
       <c r="L150" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N150" s="14" t="n">
         <v>5</v>
@@ -36033,7 +36033,7 @@
         <v>6</v>
       </c>
       <c r="AI150" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ150" s="18" t="inlineStr">
         <is>
@@ -37101,18 +37101,18 @@
           <t>221579@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F155" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F155" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G155" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H155" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I155" s="13" t="n">
         <v>25</v>
@@ -37124,10 +37124,10 @@
         <v>29</v>
       </c>
       <c r="L155" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M155" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N155" s="14" t="n">
         <v>5</v>
@@ -37213,7 +37213,7 @@
         <v>6</v>
       </c>
       <c r="AI155" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ155" s="18" t="inlineStr">
         <is>
@@ -38760,11 +38760,11 @@
       </c>
       <c r="G162" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H162" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I162" s="13" t="n">
         <v>25</v>
@@ -38776,10 +38776,10 @@
         <v>29</v>
       </c>
       <c r="L162" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M162" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N162" s="14" t="n">
         <v>5</v>
@@ -38865,7 +38865,7 @@
         <v>6</v>
       </c>
       <c r="AI162" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ162" s="18" t="inlineStr">
         <is>
@@ -44181,18 +44181,18 @@
           <t>221756@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F185" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G185" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H185" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I185" s="13" t="n">
         <v>25</v>
@@ -44204,10 +44204,10 @@
         <v>29</v>
       </c>
       <c r="L185" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M185" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N185" s="14" t="n">
         <v>5</v>
@@ -44293,7 +44293,7 @@
         <v>6</v>
       </c>
       <c r="AI185" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ185" s="18" t="inlineStr">
         <is>
@@ -44889,18 +44889,18 @@
           <t>221774@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F188" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F188" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G188" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H188" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I188" s="13" t="n">
         <v>25</v>
@@ -44912,10 +44912,10 @@
         <v>29</v>
       </c>
       <c r="L188" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M188" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N188" s="14" t="n">
         <v>5</v>
@@ -45001,7 +45001,7 @@
         <v>6</v>
       </c>
       <c r="AI188" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ188" s="18" t="inlineStr">
         <is>
@@ -53628,11 +53628,11 @@
       </c>
       <c r="G225" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H225" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I225" s="13" t="n">
         <v>25</v>
@@ -53644,10 +53644,10 @@
         <v>29</v>
       </c>
       <c r="L225" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M225" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N225" s="14" t="n">
         <v>5</v>
@@ -53733,7 +53733,7 @@
         <v>6</v>
       </c>
       <c r="AI225" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ225" s="18" t="inlineStr">
         <is>
@@ -54329,18 +54329,18 @@
           <t>221996@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F228" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F228" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G228" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H228" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I228" s="13" t="n">
         <v>25</v>
@@ -54352,10 +54352,10 @@
         <v>29</v>
       </c>
       <c r="L228" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M228" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N228" s="14" t="n">
         <v>5</v>
@@ -54441,7 +54441,7 @@
         <v>6</v>
       </c>
       <c r="AI228" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ228" s="18" t="inlineStr">
         <is>
@@ -60215,7 +60215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K239"/>
+  <dimension ref="A1:K258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -73742,8 +73742,1091 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>221355</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>لمى ابكر سعيد جبرين محمد</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>221355@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>10:17:40</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>221606</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>راوية الطاهر عبدالله ناصر</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>221606@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>10:17:49</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>221774</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>يدجوك جيمس كوانقو اكوك</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>221774@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>10:17:50</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>221415</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>داليا عبد العزيز مبروك عبد العزيز بكار</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>221415@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>10:17:51</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>221996</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>نياقوط فال توت دوير</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>221996@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>10:17:53</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>221508</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>هاله عادل محمد احمد على</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>221508@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>10:17:54</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>221558</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>محمد عادل عوض باحاج</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>221558@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>10:17:58</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>221966</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>ساكى جوزيف اليساما زونقبيتى</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>221966@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>10:18:08</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>221579</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>لينا مكرم محمد يسن</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>221579@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>10:18:10</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>210926</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>كوثر محمد المبارك يوسف</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>210926@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>10:18:15</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>221351</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ريان الطاهر عبد الله ناصر</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>221351@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>10:18:22</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>220766</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>ميار بنت خالد بن محمد الشيخ</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>220766@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>10:18:27</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>221013</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>قاسم مفلح الرفاعى</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>221013@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>10:18:30</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>221435</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>احمد سامى عثمان الدى</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>221435@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>10:18:33</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>220370</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>اغيد مرزوق الرفاعى</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>220370@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>10:18:37</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>211915</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>ابايزيد عبد الله سعيد ابو رصاص</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>211915@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>10:18:44</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>221756</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ماريا صالح حسن مثنى محمد</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>221756@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>10:18:47</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>221484</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>نمارق عثمان حسن محمد نصر</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>221484@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>10:18:53</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>221432</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>راويه ادريس جمعه جاسر</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>221432@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>10:18:58</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K239"/>
+  <autoFilter ref="A1:K258"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$271</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -25780,11 +25780,11 @@
       </c>
       <c r="G107" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H107" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I107" s="13" t="n">
         <v>25</v>
@@ -25796,10 +25796,10 @@
         <v>29</v>
       </c>
       <c r="L107" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M107" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N107" s="14" t="n">
         <v>5</v>
@@ -25885,7 +25885,7 @@
         <v>6</v>
       </c>
       <c r="AI107" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ107" s="18" t="inlineStr">
         <is>
@@ -32152,11 +32152,11 @@
       </c>
       <c r="G134" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H134" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>25</v>
@@ -32168,10 +32168,10 @@
         <v>29</v>
       </c>
       <c r="L134" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M134" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134" s="14" t="n">
         <v>5</v>
@@ -32257,7 +32257,7 @@
         <v>6</v>
       </c>
       <c r="AI134" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ134" s="18" t="inlineStr">
         <is>
@@ -33096,11 +33096,11 @@
       </c>
       <c r="G138" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H138" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I138" s="13" t="n">
         <v>25</v>
@@ -33112,10 +33112,10 @@
         <v>29</v>
       </c>
       <c r="L138" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M138" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N138" s="14" t="n">
         <v>5</v>
@@ -33201,7 +33201,7 @@
         <v>6</v>
       </c>
       <c r="AI138" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ138" s="18" t="inlineStr">
         <is>
@@ -36393,18 +36393,18 @@
           <t>221569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F152" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G152" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H152" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I152" s="13" t="n">
         <v>25</v>
@@ -36416,10 +36416,10 @@
         <v>29</v>
       </c>
       <c r="L152" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M152" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N152" s="14" t="n">
         <v>5</v>
@@ -36505,7 +36505,7 @@
         <v>6</v>
       </c>
       <c r="AI152" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ152" s="18" t="inlineStr">
         <is>
@@ -36629,18 +36629,18 @@
           <t>221574@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F153" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F153" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G153" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H153" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I153" s="13" t="n">
         <v>25</v>
@@ -36652,10 +36652,10 @@
         <v>29</v>
       </c>
       <c r="L153" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M153" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N153" s="14" t="n">
         <v>5</v>
@@ -36741,7 +36741,7 @@
         <v>6</v>
       </c>
       <c r="AI153" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ153" s="18" t="inlineStr">
         <is>
@@ -37809,18 +37809,18 @@
           <t>221587@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F158" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F158" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G158" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H158" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>25</v>
@@ -37832,10 +37832,10 @@
         <v>29</v>
       </c>
       <c r="L158" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N158" s="14" t="n">
         <v>5</v>
@@ -37921,7 +37921,7 @@
         <v>6</v>
       </c>
       <c r="AI158" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ158" s="18" t="inlineStr">
         <is>
@@ -38288,11 +38288,11 @@
       </c>
       <c r="G160" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H160" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I160" s="13" t="n">
         <v>25</v>
@@ -38304,10 +38304,10 @@
         <v>29</v>
       </c>
       <c r="L160" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M160" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N160" s="14" t="n">
         <v>5</v>
@@ -38393,7 +38393,7 @@
         <v>6</v>
       </c>
       <c r="AI160" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ160" s="18" t="inlineStr">
         <is>
@@ -38989,18 +38989,18 @@
           <t>221617@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F163" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F163" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G163" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H163" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I163" s="13" t="n">
         <v>25</v>
@@ -39012,10 +39012,10 @@
         <v>29</v>
       </c>
       <c r="L163" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M163" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N163" s="14" t="n">
         <v>5</v>
@@ -39101,7 +39101,7 @@
         <v>6</v>
       </c>
       <c r="AI163" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ163" s="18" t="inlineStr">
         <is>
@@ -39468,11 +39468,11 @@
       </c>
       <c r="G165" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H165" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I165" s="13" t="n">
         <v>25</v>
@@ -39484,10 +39484,10 @@
         <v>29</v>
       </c>
       <c r="L165" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M165" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N165" s="14" t="n">
         <v>5</v>
@@ -39573,7 +39573,7 @@
         <v>6</v>
       </c>
       <c r="AI165" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ165" s="18" t="inlineStr">
         <is>
@@ -39704,11 +39704,11 @@
       </c>
       <c r="G166" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H166" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I166" s="13" t="n">
         <v>25</v>
@@ -39720,10 +39720,10 @@
         <v>29</v>
       </c>
       <c r="L166" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M166" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N166" s="14" t="n">
         <v>5</v>
@@ -39809,7 +39809,7 @@
         <v>6</v>
       </c>
       <c r="AI166" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ166" s="18" t="inlineStr">
         <is>
@@ -47964,11 +47964,11 @@
       </c>
       <c r="G201" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H201" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I201" s="13" t="n">
         <v>25</v>
@@ -47980,10 +47980,10 @@
         <v>29</v>
       </c>
       <c r="L201" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M201" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N201" s="14" t="n">
         <v>5</v>
@@ -48069,7 +48069,7 @@
         <v>6</v>
       </c>
       <c r="AI201" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ201" s="18" t="inlineStr">
         <is>
@@ -51733,18 +51733,18 @@
           <t>221938@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F217" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G217" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H217" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I217" s="13" t="n">
         <v>25</v>
@@ -51756,10 +51756,10 @@
         <v>29</v>
       </c>
       <c r="L217" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M217" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N217" s="14" t="n">
         <v>5</v>
@@ -51845,7 +51845,7 @@
         <v>6</v>
       </c>
       <c r="AI217" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ217" s="18" t="inlineStr">
         <is>
@@ -55516,11 +55516,11 @@
       </c>
       <c r="G233" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H233" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I233" s="13" t="n">
         <v>25</v>
@@ -55532,10 +55532,10 @@
         <v>29</v>
       </c>
       <c r="L233" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M233" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233" s="14" t="n">
         <v>5</v>
@@ -55621,7 +55621,7 @@
         <v>6</v>
       </c>
       <c r="AI233" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ233" s="18" t="inlineStr">
         <is>
@@ -60215,7 +60215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K258"/>
+  <dimension ref="A1:K271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -74825,8 +74825,749 @@
         </is>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>221506</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>فاطمه احمد اسماعيل الناجي</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>221506@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>10:43:22</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>221938</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>مانويلا ناكوتا مارينو لوكالى</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>221938@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>10:43:24</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>221574</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>عمر براء رجب</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>221574@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>10:43:26</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>221863</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>ميسم ايمن زيدان</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>221863@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>10:43:27</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>221587</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>ليم عثمان السر الشمباتي</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>221587@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>10:43:29</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>221617</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>محمد رياض جمال خشفه</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>221617@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>10:43:31</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>221569</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>هبه جعفر محمد شوكت</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>221569@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>10:43:33</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>221294</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>هاله يحى ابكر ابراهيم</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>221294@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>10:43:34</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>221494</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>حسن الصادق مصطفى الحاج</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>221494@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>10:43:35</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>221631</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>رغد الحاج حسين عبدالمتعال</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>221631@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>10:43:37</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>222004</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>احمد ايمن احمد بشير</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>222004@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>10:43:39</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>221599</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>سلمى عبد الرحمن عبيد موسى</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>221599@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>10:43:40</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>221629</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>ناصر عبدالحميد الحسيني</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>221629@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>10:43:42</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K258"/>
+  <autoFilter ref="A1:K271"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$301</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -6185,18 +6185,18 @@
           <t>210998@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F24" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G24" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H24" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>25</v>
@@ -6208,10 +6208,10 @@
         <v>29</v>
       </c>
       <c r="L24" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="14" t="n">
         <v>5</v>
@@ -6297,7 +6297,7 @@
         <v>6</v>
       </c>
       <c r="AI24" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="18" t="inlineStr">
         <is>
@@ -15389,18 +15389,18 @@
           <t>212318@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F63" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F63" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G63" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H63" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I63" s="13" t="n">
         <v>25</v>
@@ -15412,10 +15412,10 @@
         <v>29</v>
       </c>
       <c r="L63" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M63" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63" s="14" t="n">
         <v>5</v>
@@ -15501,7 +15501,7 @@
         <v>6</v>
       </c>
       <c r="AI63" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ63" s="18" t="inlineStr">
         <is>
@@ -15632,11 +15632,11 @@
       </c>
       <c r="G64" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H64" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>25</v>
@@ -15648,10 +15648,10 @@
         <v>29</v>
       </c>
       <c r="L64" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M64" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="14" t="n">
         <v>5</v>
@@ -15737,7 +15737,7 @@
         <v>6</v>
       </c>
       <c r="AI64" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ64" s="18" t="inlineStr">
         <is>
@@ -15861,18 +15861,18 @@
           <t>212386@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F65" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F65" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G65" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H65" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I65" s="13" t="n">
         <v>25</v>
@@ -15884,10 +15884,10 @@
         <v>29</v>
       </c>
       <c r="L65" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65" s="14" t="n">
         <v>5</v>
@@ -15973,7 +15973,7 @@
         <v>6</v>
       </c>
       <c r="AI65" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ65" s="18" t="inlineStr">
         <is>
@@ -17992,11 +17992,11 @@
       </c>
       <c r="G74" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H74" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>25</v>
@@ -18008,10 +18008,10 @@
         <v>29</v>
       </c>
       <c r="L74" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" s="14" t="n">
         <v>5</v>
@@ -18097,7 +18097,7 @@
         <v>6</v>
       </c>
       <c r="AI74" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ74" s="18" t="inlineStr">
         <is>
@@ -18221,18 +18221,18 @@
           <t>220304@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F75" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F75" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G75" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H75" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I75" s="13" t="n">
         <v>25</v>
@@ -18244,10 +18244,10 @@
         <v>29</v>
       </c>
       <c r="L75" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M75" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N75" s="14" t="n">
         <v>5</v>
@@ -18333,7 +18333,7 @@
         <v>6</v>
       </c>
       <c r="AI75" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ75" s="18" t="inlineStr">
         <is>
@@ -18936,11 +18936,11 @@
       </c>
       <c r="G78" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H78" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I78" s="13" t="n">
         <v>25</v>
@@ -18952,10 +18952,10 @@
         <v>29</v>
       </c>
       <c r="L78" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N78" s="14" t="n">
         <v>5</v>
@@ -19041,7 +19041,7 @@
         <v>6</v>
       </c>
       <c r="AI78" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ78" s="18" t="inlineStr">
         <is>
@@ -19873,18 +19873,18 @@
           <t>220675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F82" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F82" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G82" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H82" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I82" s="13" t="n">
         <v>25</v>
@@ -19896,10 +19896,10 @@
         <v>29</v>
       </c>
       <c r="L82" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N82" s="14" t="n">
         <v>5</v>
@@ -19985,7 +19985,7 @@
         <v>6</v>
       </c>
       <c r="AI82" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ82" s="18" t="inlineStr">
         <is>
@@ -20588,11 +20588,11 @@
       </c>
       <c r="G85" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H85" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>25</v>
@@ -20604,10 +20604,10 @@
         <v>29</v>
       </c>
       <c r="L85" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N85" s="14" t="n">
         <v>5</v>
@@ -20693,7 +20693,7 @@
         <v>6</v>
       </c>
       <c r="AI85" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ85" s="18" t="inlineStr">
         <is>
@@ -22476,11 +22476,11 @@
       </c>
       <c r="G93" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H93" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I93" s="13" t="n">
         <v>25</v>
@@ -22492,10 +22492,10 @@
         <v>29</v>
       </c>
       <c r="L93" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N93" s="14" t="n">
         <v>5</v>
@@ -22581,7 +22581,7 @@
         <v>6</v>
       </c>
       <c r="AI93" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ93" s="18" t="inlineStr">
         <is>
@@ -23885,18 +23885,18 @@
           <t>221027@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F99" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F99" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G99" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H99" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I99" s="13" t="n">
         <v>25</v>
@@ -23908,10 +23908,10 @@
         <v>29</v>
       </c>
       <c r="L99" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N99" s="14" t="n">
         <v>5</v>
@@ -23997,7 +23997,7 @@
         <v>6</v>
       </c>
       <c r="AI99" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ99" s="18" t="inlineStr">
         <is>
@@ -28133,18 +28133,18 @@
           <t>221375@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F117" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F117" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G117" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H117" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I117" s="13" t="n">
         <v>25</v>
@@ -28156,10 +28156,10 @@
         <v>29</v>
       </c>
       <c r="L117" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M117" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N117" s="14" t="n">
         <v>5</v>
@@ -28245,7 +28245,7 @@
         <v>6</v>
       </c>
       <c r="AI117" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ117" s="18" t="inlineStr">
         <is>
@@ -28369,18 +28369,18 @@
           <t>221404@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F118" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F118" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G118" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H118" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I118" s="13" t="n">
         <v>25</v>
@@ -28392,10 +28392,10 @@
         <v>29</v>
       </c>
       <c r="L118" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M118" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N118" s="14" t="n">
         <v>5</v>
@@ -28481,7 +28481,7 @@
         <v>6</v>
       </c>
       <c r="AI118" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ118" s="18" t="inlineStr">
         <is>
@@ -33804,11 +33804,11 @@
       </c>
       <c r="G141" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H141" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I141" s="13" t="n">
         <v>25</v>
@@ -33820,10 +33820,10 @@
         <v>29</v>
       </c>
       <c r="L141" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M141" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N141" s="14" t="n">
         <v>5</v>
@@ -33909,7 +33909,7 @@
         <v>6</v>
       </c>
       <c r="AI141" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ141" s="18" t="inlineStr">
         <is>
@@ -35456,11 +35456,11 @@
       </c>
       <c r="G148" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H148" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I148" s="13" t="n">
         <v>25</v>
@@ -35472,10 +35472,10 @@
         <v>29</v>
       </c>
       <c r="L148" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M148" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N148" s="14" t="n">
         <v>5</v>
@@ -35561,7 +35561,7 @@
         <v>6</v>
       </c>
       <c r="AI148" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ148" s="18" t="inlineStr">
         <is>
@@ -36872,11 +36872,11 @@
       </c>
       <c r="G154" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H154" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I154" s="13" t="n">
         <v>25</v>
@@ -36888,10 +36888,10 @@
         <v>29</v>
       </c>
       <c r="L154" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M154" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N154" s="14" t="n">
         <v>5</v>
@@ -36977,7 +36977,7 @@
         <v>6</v>
       </c>
       <c r="AI154" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ154" s="18" t="inlineStr">
         <is>
@@ -37573,18 +37573,18 @@
           <t>221584@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F157" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F157" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G157" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H157" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I157" s="13" t="n">
         <v>25</v>
@@ -37596,10 +37596,10 @@
         <v>29</v>
       </c>
       <c r="L157" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N157" s="14" t="n">
         <v>5</v>
@@ -37685,7 +37685,7 @@
         <v>6</v>
       </c>
       <c r="AI157" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ157" s="18" t="inlineStr">
         <is>
@@ -42772,11 +42772,11 @@
       </c>
       <c r="G179" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H179" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I179" s="13" t="n">
         <v>25</v>
@@ -42788,10 +42788,10 @@
         <v>29</v>
       </c>
       <c r="L179" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M179" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N179" s="14" t="n">
         <v>5</v>
@@ -42877,7 +42877,7 @@
         <v>6</v>
       </c>
       <c r="AI179" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ179" s="18" t="inlineStr">
         <is>
@@ -43237,18 +43237,18 @@
           <t>221720@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F181" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F181" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G181" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H181" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I181" s="13" t="n">
         <v>25</v>
@@ -43260,10 +43260,10 @@
         <v>29</v>
       </c>
       <c r="L181" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N181" s="14" t="n">
         <v>5</v>
@@ -43349,7 +43349,7 @@
         <v>6</v>
       </c>
       <c r="AI181" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ181" s="18" t="inlineStr">
         <is>
@@ -44417,18 +44417,18 @@
           <t>221764@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F186" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F186" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G186" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H186" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I186" s="13" t="n">
         <v>25</v>
@@ -44440,10 +44440,10 @@
         <v>29</v>
       </c>
       <c r="L186" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M186" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N186" s="14" t="n">
         <v>5</v>
@@ -44529,7 +44529,7 @@
         <v>6</v>
       </c>
       <c r="AI186" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ186" s="18" t="inlineStr">
         <is>
@@ -45604,11 +45604,11 @@
       </c>
       <c r="G191" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H191" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I191" s="13" t="n">
         <v>25</v>
@@ -45620,10 +45620,10 @@
         <v>29</v>
       </c>
       <c r="L191" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M191" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N191" s="14" t="n">
         <v>5</v>
@@ -45709,7 +45709,7 @@
         <v>6</v>
       </c>
       <c r="AI191" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ191" s="18" t="inlineStr">
         <is>
@@ -46076,11 +46076,11 @@
       </c>
       <c r="G193" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H193" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I193" s="13" t="n">
         <v>25</v>
@@ -46092,10 +46092,10 @@
         <v>29</v>
       </c>
       <c r="L193" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M193" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N193" s="14" t="n">
         <v>5</v>
@@ -46181,7 +46181,7 @@
         <v>6</v>
       </c>
       <c r="AI193" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ193" s="18" t="inlineStr">
         <is>
@@ -46312,11 +46312,11 @@
       </c>
       <c r="G194" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H194" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I194" s="13" t="n">
         <v>25</v>
@@ -46328,10 +46328,10 @@
         <v>29</v>
       </c>
       <c r="L194" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M194" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N194" s="14" t="n">
         <v>5</v>
@@ -46417,7 +46417,7 @@
         <v>6</v>
       </c>
       <c r="AI194" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ194" s="18" t="inlineStr">
         <is>
@@ -47492,11 +47492,11 @@
       </c>
       <c r="G199" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H199" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I199" s="13" t="n">
         <v>25</v>
@@ -47508,10 +47508,10 @@
         <v>29</v>
       </c>
       <c r="L199" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M199" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N199" s="14" t="n">
         <v>5</v>
@@ -47597,7 +47597,7 @@
         <v>6</v>
       </c>
       <c r="AI199" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ199" s="18" t="inlineStr">
         <is>
@@ -47728,11 +47728,11 @@
       </c>
       <c r="G200" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H200" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I200" s="13" t="n">
         <v>25</v>
@@ -47744,10 +47744,10 @@
         <v>29</v>
       </c>
       <c r="L200" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M200" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200" s="14" t="n">
         <v>5</v>
@@ -47833,7 +47833,7 @@
         <v>6</v>
       </c>
       <c r="AI200" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ200" s="18" t="inlineStr">
         <is>
@@ -52212,11 +52212,11 @@
       </c>
       <c r="G219" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H219" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I219" s="13" t="n">
         <v>25</v>
@@ -52228,10 +52228,10 @@
         <v>29</v>
       </c>
       <c r="L219" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M219" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219" s="14" t="n">
         <v>5</v>
@@ -52317,7 +52317,7 @@
         <v>6</v>
       </c>
       <c r="AI219" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ219" s="18" t="inlineStr">
         <is>
@@ -54093,18 +54093,18 @@
           <t>221982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F227" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G227" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H227" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I227" s="13" t="n">
         <v>25</v>
@@ -54116,10 +54116,10 @@
         <v>29</v>
       </c>
       <c r="L227" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M227" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N227" s="14" t="n">
         <v>5</v>
@@ -54205,7 +54205,7 @@
         <v>6</v>
       </c>
       <c r="AI227" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ227" s="18" t="inlineStr">
         <is>
@@ -55037,18 +55037,18 @@
           <t>222002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F231" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F231" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G231" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H231" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I231" s="13" t="n">
         <v>25</v>
@@ -55060,10 +55060,10 @@
         <v>29</v>
       </c>
       <c r="L231" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M231" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N231" s="14" t="n">
         <v>5</v>
@@ -55149,7 +55149,7 @@
         <v>6</v>
       </c>
       <c r="AI231" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ231" s="18" t="inlineStr">
         <is>
@@ -57633,18 +57633,18 @@
           <t>222036@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F242" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F242" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G242" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H242" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I242" s="13" t="n">
         <v>25</v>
@@ -57656,10 +57656,10 @@
         <v>29</v>
       </c>
       <c r="L242" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M242" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N242" s="14" t="n">
         <v>5</v>
@@ -57745,7 +57745,7 @@
         <v>6</v>
       </c>
       <c r="AI242" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ242" s="18" t="inlineStr">
         <is>
@@ -59049,18 +59049,18 @@
           <t>222076@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F248" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G248" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H248" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I248" s="13" t="n">
         <v>25</v>
@@ -59072,10 +59072,10 @@
         <v>29</v>
       </c>
       <c r="L248" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M248" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N248" s="14" t="n">
         <v>5</v>
@@ -59161,7 +59161,7 @@
         <v>6</v>
       </c>
       <c r="AI248" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ248" s="18" t="inlineStr">
         <is>
@@ -60215,7 +60215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K271"/>
+  <dimension ref="A1:K301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -75566,8 +75566,1718 @@
         </is>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>221027</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>شهد اياد مصطفى الشويات</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>221027@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>10:49:34</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>221546</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>محمدزين ابوبكر محمد زين احمد</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>221546@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>10:50:39</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>221802</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>بشاير ابوبكر على عيسى ابراهيم</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>221802@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>10:51:37</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>221699</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>بيسان محمود محمد عبد الكريم</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>221699@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>10:51:57</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>222002</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>يوسف عثمان باباغانا</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>222002@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>10:52:24</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>222036</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>عثمان على محمد خالد</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>222036@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>10:52:31</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>212543</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>زينب سيف الدين محمد ادم</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>212543@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>10:53:14</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>221510</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>أماني عبدالله محمد صالح عبدربه</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>221510@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>10:53:59</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>221720</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>شهاب عبده محمد الحصماني</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>221720@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>10:54:07</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>221375</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>محمد عمران محمد الهندى</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>221375@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>10:54:47</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>221944</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>ضحى عمر سيف الدين محمد</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>221944@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>10:55:31</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>221818</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>جيهان محارب الشيخ الكيلاني</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>221818@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>10:55:51</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>221810</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>رهان محارب الشيخ الكيلاني</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>221810@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>10:55:55</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>221404</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>محمد يزن محمد مازن ماوردى</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>221404@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>10:56:02</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>220304</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>احمد الكامل محمد عبدون عثمان</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>220304@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>10:56:20</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>220967</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>لارا حربي عبدالله الزيادات</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>220967@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>10:56:33</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>221842</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>الشيماء خلف الله عوض الجيد احمد</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>221842@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>10:56:44</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>210998</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>زينب نادر عوض السيد عبد القادر</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>210998@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>10:56:56</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>221764</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>محمد نور ديب محمود الحمامي</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>221764@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>10:57:25</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>220675</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>محمد بدرالدين عبد العال عبد العال صبح</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>220675@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>10:57:58</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>221850</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>مؤمن محمد عبد الله محمد</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>221850@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>10:58:10</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>221577</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>ريل امير عوض محمدين</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>221577@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>10:58:18</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>220811</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>يعقوب يوسف يوسف</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>220811@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>10:58:58</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>221982</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>امنويل اكوى اقوتو كوت</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>221982@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>10:59:20</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>212322</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>مهند حافظ عابدين الفاضل</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>212322@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>10:59:41</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>221584</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>عزه بنت محمد بن عوض الصمداني</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>221584@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>11:00:01</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>212386</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>لويد اليكس موجا</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>212386@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>11:00:18</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>220428</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>بسمله محمد عبد الحميد محمد</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>220428@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>11:00:33</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>222076</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>ابرار عبد الماجد عبد العزيز عثمان</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>222076@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>11:01:01</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>212318</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>مازن مصدق يس عبد اللطيف</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>212318@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>11:01:22</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K271"/>
+  <autoFilter ref="A1:K301"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$332</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="G3" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H3" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>25</v>
@@ -1252,10 +1252,10 @@
         <v>29</v>
       </c>
       <c r="L3" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14" t="n">
         <v>5</v>
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="AI3" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="18" t="inlineStr">
         <is>
@@ -5720,11 +5720,11 @@
       </c>
       <c r="G22" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H22" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="13" t="n">
         <v>25</v>
@@ -5736,10 +5736,10 @@
         <v>29</v>
       </c>
       <c r="L22" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="14" t="n">
         <v>5</v>
@@ -5825,7 +5825,7 @@
         <v>6</v>
       </c>
       <c r="AI22" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="18" t="inlineStr">
         <is>
@@ -11620,11 +11620,11 @@
       </c>
       <c r="G47" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H47" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I47" s="13" t="n">
         <v>25</v>
@@ -11636,10 +11636,10 @@
         <v>29</v>
       </c>
       <c r="L47" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N47" s="14" t="n">
         <v>5</v>
@@ -11725,7 +11725,7 @@
         <v>6</v>
       </c>
       <c r="AI47" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ47" s="18" t="inlineStr">
         <is>
@@ -12793,18 +12793,18 @@
           <t>212145@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F52" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F52" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G52" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H52" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>25</v>
@@ -12816,10 +12816,10 @@
         <v>29</v>
       </c>
       <c r="L52" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" s="14" t="n">
         <v>5</v>
@@ -12905,7 +12905,7 @@
         <v>6</v>
       </c>
       <c r="AI52" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ52" s="18" t="inlineStr">
         <is>
@@ -19172,11 +19172,11 @@
       </c>
       <c r="G79" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H79" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I79" s="13" t="n">
         <v>25</v>
@@ -19188,10 +19188,10 @@
         <v>29</v>
       </c>
       <c r="L79" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M79" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" s="14" t="n">
         <v>5</v>
@@ -19277,7 +19277,7 @@
         <v>6</v>
       </c>
       <c r="AI79" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ79" s="18" t="inlineStr">
         <is>
@@ -21296,11 +21296,11 @@
       </c>
       <c r="G88" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H88" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I88" s="13" t="n">
         <v>25</v>
@@ -21312,10 +21312,10 @@
         <v>29</v>
       </c>
       <c r="L88" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M88" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" s="14" t="n">
         <v>5</v>
@@ -21401,7 +21401,7 @@
         <v>6</v>
       </c>
       <c r="AI88" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ88" s="18" t="inlineStr">
         <is>
@@ -22941,18 +22941,18 @@
           <t>220990@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F95" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F95" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G95" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H95" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I95" s="13" t="n">
         <v>25</v>
@@ -22964,10 +22964,10 @@
         <v>29</v>
       </c>
       <c r="L95" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M95" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N95" s="14" t="n">
         <v>5</v>
@@ -23053,7 +23053,7 @@
         <v>6</v>
       </c>
       <c r="AI95" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ95" s="18" t="inlineStr">
         <is>
@@ -23656,11 +23656,11 @@
       </c>
       <c r="G98" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H98" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>25</v>
@@ -23672,10 +23672,10 @@
         <v>29</v>
       </c>
       <c r="L98" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M98" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" s="14" t="n">
         <v>5</v>
@@ -23761,7 +23761,7 @@
         <v>6</v>
       </c>
       <c r="AI98" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ98" s="18" t="inlineStr">
         <is>
@@ -24121,18 +24121,18 @@
           <t>221031@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F100" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F100" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G100" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H100" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I100" s="13" t="n">
         <v>25</v>
@@ -24144,10 +24144,10 @@
         <v>29</v>
       </c>
       <c r="L100" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M100" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N100" s="14" t="n">
         <v>5</v>
@@ -24233,7 +24233,7 @@
         <v>6</v>
       </c>
       <c r="AI100" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ100" s="18" t="inlineStr">
         <is>
@@ -26016,11 +26016,11 @@
       </c>
       <c r="G108" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H108" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>25</v>
@@ -26032,10 +26032,10 @@
         <v>29</v>
       </c>
       <c r="L108" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M108" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N108" s="14" t="n">
         <v>5</v>
@@ -26121,7 +26121,7 @@
         <v>6</v>
       </c>
       <c r="AI108" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ108" s="18" t="inlineStr">
         <is>
@@ -26717,18 +26717,18 @@
           <t>221324@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F111" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F111" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G111" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H111" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I111" s="13" t="n">
         <v>25</v>
@@ -26740,10 +26740,10 @@
         <v>29</v>
       </c>
       <c r="L111" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M111" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N111" s="14" t="n">
         <v>5</v>
@@ -26829,7 +26829,7 @@
         <v>6</v>
       </c>
       <c r="AI111" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ111" s="18" t="inlineStr">
         <is>
@@ -27661,18 +27661,18 @@
           <t>221357@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F115" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F115" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G115" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H115" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I115" s="13" t="n">
         <v>25</v>
@@ -27684,10 +27684,10 @@
         <v>29</v>
       </c>
       <c r="L115" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M115" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N115" s="14" t="n">
         <v>5</v>
@@ -27773,7 +27773,7 @@
         <v>6</v>
       </c>
       <c r="AI115" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ115" s="18" t="inlineStr">
         <is>
@@ -34269,18 +34269,18 @@
           <t>221522@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F143" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F143" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G143" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H143" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I143" s="13" t="n">
         <v>25</v>
@@ -34292,10 +34292,10 @@
         <v>29</v>
       </c>
       <c r="L143" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M143" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N143" s="14" t="n">
         <v>5</v>
@@ -34381,7 +34381,7 @@
         <v>6</v>
       </c>
       <c r="AI143" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ143" s="18" t="inlineStr">
         <is>
@@ -34505,18 +34505,18 @@
           <t>221523@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F144" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F144" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G144" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H144" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>25</v>
@@ -34528,10 +34528,10 @@
         <v>29</v>
       </c>
       <c r="L144" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N144" s="14" t="n">
         <v>5</v>
@@ -34617,7 +34617,7 @@
         <v>6</v>
       </c>
       <c r="AI144" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ144" s="18" t="inlineStr">
         <is>
@@ -34977,18 +34977,18 @@
           <t>221536@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F146" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G146" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H146" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>25</v>
@@ -35000,10 +35000,10 @@
         <v>29</v>
       </c>
       <c r="L146" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M146" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N146" s="14" t="n">
         <v>5</v>
@@ -35089,7 +35089,7 @@
         <v>6</v>
       </c>
       <c r="AI146" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ146" s="18" t="inlineStr">
         <is>
@@ -35220,11 +35220,11 @@
       </c>
       <c r="G147" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H147" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I147" s="13" t="n">
         <v>25</v>
@@ -35236,10 +35236,10 @@
         <v>29</v>
       </c>
       <c r="L147" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M147" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N147" s="14" t="n">
         <v>5</v>
@@ -35325,7 +35325,7 @@
         <v>6</v>
       </c>
       <c r="AI147" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ147" s="18" t="inlineStr">
         <is>
@@ -38052,11 +38052,11 @@
       </c>
       <c r="G159" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H159" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I159" s="13" t="n">
         <v>25</v>
@@ -38068,10 +38068,10 @@
         <v>29</v>
       </c>
       <c r="L159" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M159" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N159" s="14" t="n">
         <v>5</v>
@@ -38157,7 +38157,7 @@
         <v>6</v>
       </c>
       <c r="AI159" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ159" s="18" t="inlineStr">
         <is>
@@ -42064,11 +42064,11 @@
       </c>
       <c r="G176" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H176" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I176" s="13" t="n">
         <v>25</v>
@@ -42080,10 +42080,10 @@
         <v>29</v>
       </c>
       <c r="L176" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M176" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176" s="14" t="n">
         <v>5</v>
@@ -42169,7 +42169,7 @@
         <v>6</v>
       </c>
       <c r="AI176" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ176" s="18" t="inlineStr">
         <is>
@@ -43952,11 +43952,11 @@
       </c>
       <c r="G184" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H184" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I184" s="13" t="n">
         <v>25</v>
@@ -43968,10 +43968,10 @@
         <v>29</v>
       </c>
       <c r="L184" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M184" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N184" s="14" t="n">
         <v>5</v>
@@ -44057,7 +44057,7 @@
         <v>6</v>
       </c>
       <c r="AI184" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ184" s="18" t="inlineStr">
         <is>
@@ -45361,18 +45361,18 @@
           <t>221799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F190" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G190" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H190" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I190" s="13" t="n">
         <v>25</v>
@@ -45384,10 +45384,10 @@
         <v>29</v>
       </c>
       <c r="L190" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M190" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N190" s="14" t="n">
         <v>5</v>
@@ -45473,7 +45473,7 @@
         <v>6</v>
       </c>
       <c r="AI190" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ190" s="18" t="inlineStr">
         <is>
@@ -46784,11 +46784,11 @@
       </c>
       <c r="G196" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H196" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I196" s="13" t="n">
         <v>25</v>
@@ -46800,10 +46800,10 @@
         <v>29</v>
       </c>
       <c r="L196" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M196" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N196" s="14" t="n">
         <v>5</v>
@@ -46889,7 +46889,7 @@
         <v>6</v>
       </c>
       <c r="AI196" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ196" s="18" t="inlineStr">
         <is>
@@ -47013,18 +47013,18 @@
           <t>221833@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F197" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F197" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G197" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H197" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I197" s="13" t="n">
         <v>25</v>
@@ -47036,10 +47036,10 @@
         <v>29</v>
       </c>
       <c r="L197" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M197" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N197" s="14" t="n">
         <v>5</v>
@@ -47125,7 +47125,7 @@
         <v>6</v>
       </c>
       <c r="AI197" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ197" s="18" t="inlineStr">
         <is>
@@ -49845,18 +49845,18 @@
           <t>221904@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F209" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F209" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G209" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H209" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I209" s="13" t="n">
         <v>25</v>
@@ -49868,10 +49868,10 @@
         <v>29</v>
       </c>
       <c r="L209" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M209" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N209" s="14" t="n">
         <v>5</v>
@@ -49957,7 +49957,7 @@
         <v>6</v>
       </c>
       <c r="AI209" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ209" s="18" t="inlineStr">
         <is>
@@ -50324,11 +50324,11 @@
       </c>
       <c r="G211" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H211" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I211" s="13" t="n">
         <v>25</v>
@@ -50340,10 +50340,10 @@
         <v>29</v>
       </c>
       <c r="L211" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M211" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N211" s="14" t="n">
         <v>5</v>
@@ -50429,7 +50429,7 @@
         <v>6</v>
       </c>
       <c r="AI211" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ211" s="18" t="inlineStr">
         <is>
@@ -54565,18 +54565,18 @@
           <t>221997@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F229" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F229" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G229" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H229" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I229" s="13" t="n">
         <v>25</v>
@@ -54588,10 +54588,10 @@
         <v>29</v>
       </c>
       <c r="L229" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M229" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N229" s="14" t="n">
         <v>5</v>
@@ -54677,7 +54677,7 @@
         <v>6</v>
       </c>
       <c r="AI229" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ229" s="18" t="inlineStr">
         <is>
@@ -55280,11 +55280,11 @@
       </c>
       <c r="G232" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H232" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I232" s="13" t="n">
         <v>25</v>
@@ -55296,10 +55296,10 @@
         <v>29</v>
       </c>
       <c r="L232" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M232" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N232" s="14" t="n">
         <v>5</v>
@@ -55385,7 +55385,7 @@
         <v>6</v>
       </c>
       <c r="AI232" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ232" s="18" t="inlineStr">
         <is>
@@ -56224,11 +56224,11 @@
       </c>
       <c r="G236" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H236" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I236" s="13" t="n">
         <v>25</v>
@@ -56240,10 +56240,10 @@
         <v>29</v>
       </c>
       <c r="L236" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M236" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N236" s="14" t="n">
         <v>5</v>
@@ -56329,7 +56329,7 @@
         <v>6</v>
       </c>
       <c r="AI236" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ236" s="18" t="inlineStr">
         <is>
@@ -56696,11 +56696,11 @@
       </c>
       <c r="G238" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H238" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I238" s="13" t="n">
         <v>25</v>
@@ -56712,10 +56712,10 @@
         <v>29</v>
       </c>
       <c r="L238" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M238" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N238" s="14" t="n">
         <v>5</v>
@@ -56801,7 +56801,7 @@
         <v>6</v>
       </c>
       <c r="AI238" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ238" s="18" t="inlineStr">
         <is>
@@ -57168,11 +57168,11 @@
       </c>
       <c r="G240" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H240" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I240" s="13" t="n">
         <v>25</v>
@@ -57184,10 +57184,10 @@
         <v>29</v>
       </c>
       <c r="L240" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M240" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N240" s="14" t="n">
         <v>5</v>
@@ -57273,7 +57273,7 @@
         <v>6</v>
       </c>
       <c r="AI240" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ240" s="18" t="inlineStr">
         <is>
@@ -57404,11 +57404,11 @@
       </c>
       <c r="G241" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H241" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I241" s="13" t="n">
         <v>25</v>
@@ -57420,10 +57420,10 @@
         <v>29</v>
       </c>
       <c r="L241" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M241" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N241" s="14" t="n">
         <v>5</v>
@@ -57509,7 +57509,7 @@
         <v>6</v>
       </c>
       <c r="AI241" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ241" s="18" t="inlineStr">
         <is>
@@ -58584,11 +58584,11 @@
       </c>
       <c r="G246" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H246" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I246" s="13" t="n">
         <v>25</v>
@@ -58600,10 +58600,10 @@
         <v>29</v>
       </c>
       <c r="L246" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M246" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N246" s="14" t="n">
         <v>5</v>
@@ -58689,7 +58689,7 @@
         <v>6</v>
       </c>
       <c r="AI246" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ246" s="18" t="inlineStr">
         <is>
@@ -60215,7 +60215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K301"/>
+  <dimension ref="A1:K332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -77276,8 +77276,1775 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>221022</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>شهد عبدالعظيم فرج بابكر</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>221022@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>11:03:10</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>210935</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>يعقوب سليمان يعقوب يحى</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>210935@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>11:03:16</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>222028</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>هاجر عبد الحفيظ سيد صالح</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>222028@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>11:03:23</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>211970</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>محمد اسامه المحمد</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>211970@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>11:03:28</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>221536</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>عبده دفع الله سليمان كوكو</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>221536@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>11:10:17</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>222032</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>احمد شوقى عبد الرحيم طه</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>222032@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>11:10:51</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>221997</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>خالد مبارك احمد عثمان</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>221997@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>11:11:38</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>221522</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>آدم محمد احمد البديرات</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>221522@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>11:11:45</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>221682</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>سرين حاج صدوق</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>221682@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>11:11:51</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>220444</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>جنه تامر محمد يوسف</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>220444@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>11:12:00</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>222063</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>محمد مصطفى حامد التوم</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>222063@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>11:12:06</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>200540</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>محمد سعيد ابراهيم عواد درويش</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>200540@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>11:12:39</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>221523</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>سمر جيت كور</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>221523@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>11:12:46</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>212145</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>سميه لاوان شايبو</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>212145@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>11:12:51</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>221911</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>دينق ضيو نقوك اكوانق</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>221911@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>11:12:56</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>222035</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>علا عبد الوهاب خليل محمود</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>222035@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>11:14:33</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>221833</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>صفا محمود صايل صايل</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>221833@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>11:14:40</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>221589</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>أوينق استيفن أجوك مو</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>221589@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>11:14:45</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>221826</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>بخيتة اوت قور كول</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>221826@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>11:14:53</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>221755</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>سعدية عاشق</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>221755@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>11:15:00</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>221904</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>عائشه نور شيهو</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>221904@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>11:15:07</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>221539</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>تحريم شوكات مالك</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>221539@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>11:15:30</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>220877</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>محمد نور عبد المنعم كرنازي</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>220877@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>11:15:34</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>222003</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>اسراء بدر الدين جعفر عثمان</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>222003@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>11:15:38</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>221799</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>سعاد عبد الماجد احمد عيسى</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>221799@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>11:15:43</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>221324</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>مجد ذوقان خليل قيشاوي</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>221324@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>11:15:48</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>221357</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>عبد الله محمد نصر قناوى</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>221357@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>11:16:00</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>222026</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>عثمان موسى محمد ادم</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>222026@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>11:16:06</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>221307</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>دعاء عاصم على العوض</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>221307@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>11:16:10</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>220990</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>جاد زياد سلوم</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>220990@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>11:16:17</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>221031</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>امنيه عبدالله عبد اللطيف محمد</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>221031@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>11:16:21</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K301"/>
+  <autoFilter ref="A1:K332"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -1007,10 +1007,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="13" t="n">
         <v>29</v>
@@ -1019,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" s="14" t="n">
         <v>5</v>
@@ -1107,10 +1107,8 @@
       <c r="AI2" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ2" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK2" s="18" t="inlineStr">
         <is>
@@ -1243,10 +1241,10 @@
         <v>18</v>
       </c>
       <c r="I3" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="13" t="n">
         <v>29</v>
@@ -1255,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="14" t="n">
         <v>5</v>
@@ -1343,10 +1341,8 @@
       <c r="AI3" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ3" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ3" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK3" s="18" t="inlineStr">
         <is>
@@ -1479,10 +1475,10 @@
         <v>22</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" s="13" t="n">
         <v>29</v>
@@ -1491,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" s="14" t="n">
         <v>5</v>
@@ -1579,10 +1575,8 @@
       <c r="AI4" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ4" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ4" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK4" s="18" t="inlineStr">
         <is>
@@ -1701,9 +1695,9 @@
           <t>201441@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F5" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
@@ -1715,10 +1709,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="13" t="n">
         <v>29</v>
@@ -1727,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="14" t="n">
         <v>5</v>
@@ -1815,10 +1809,8 @@
       <c r="AI5" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ5" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK5" s="18" t="inlineStr">
         <is>
@@ -1951,10 +1943,10 @@
         <v>22</v>
       </c>
       <c r="I6" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="13" t="n">
         <v>29</v>
@@ -1963,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="14" t="n">
         <v>5</v>
@@ -2051,10 +2043,8 @@
       <c r="AI6" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ6" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK6" s="18" t="inlineStr">
         <is>
@@ -2187,10 +2177,10 @@
         <v>22</v>
       </c>
       <c r="I7" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="13" t="n">
         <v>29</v>
@@ -2199,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" s="14" t="n">
         <v>5</v>
@@ -2287,10 +2277,8 @@
       <c r="AI7" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ7" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK7" s="18" t="inlineStr">
         <is>
@@ -2423,10 +2411,10 @@
         <v>22</v>
       </c>
       <c r="I8" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" s="13" t="n">
         <v>29</v>
@@ -2435,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="14" t="n">
         <v>5</v>
@@ -2523,10 +2511,8 @@
       <c r="AI8" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ8" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK8" s="18" t="inlineStr">
         <is>
@@ -2659,10 +2645,10 @@
         <v>22</v>
       </c>
       <c r="I9" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="13" t="n">
         <v>29</v>
@@ -2671,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" s="14" t="n">
         <v>5</v>
@@ -2759,10 +2745,8 @@
       <c r="AI9" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ9" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK9" s="18" t="inlineStr">
         <is>
@@ -2895,10 +2879,10 @@
         <v>22</v>
       </c>
       <c r="I10" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="13" t="n">
         <v>29</v>
@@ -2907,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" s="14" t="n">
         <v>5</v>
@@ -2995,10 +2979,8 @@
       <c r="AI10" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ10" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK10" s="18" t="inlineStr">
         <is>
@@ -3131,10 +3113,10 @@
         <v>22</v>
       </c>
       <c r="I11" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" s="13" t="n">
         <v>29</v>
@@ -3143,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" s="14" t="n">
         <v>5</v>
@@ -3231,10 +3213,8 @@
       <c r="AI11" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ11" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK11" s="18" t="inlineStr">
         <is>
@@ -3367,10 +3347,10 @@
         <v>20</v>
       </c>
       <c r="I12" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="13" t="n">
         <v>29</v>
@@ -3379,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="14" t="n">
         <v>5</v>
@@ -3467,10 +3447,8 @@
       <c r="AI12" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ12" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK12" s="18" t="inlineStr">
         <is>
@@ -3603,10 +3581,10 @@
         <v>22</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="13" t="n">
         <v>29</v>
@@ -3615,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="14" t="n">
         <v>5</v>
@@ -3703,10 +3681,8 @@
       <c r="AI13" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ13" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK13" s="18" t="inlineStr">
         <is>
@@ -3839,10 +3815,10 @@
         <v>20</v>
       </c>
       <c r="I14" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" s="13" t="n">
         <v>29</v>
@@ -3851,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="14" t="n">
         <v>5</v>
@@ -3939,10 +3915,8 @@
       <c r="AI14" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ14" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK14" s="18" t="inlineStr">
         <is>
@@ -4075,10 +4049,10 @@
         <v>22</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" s="13" t="n">
         <v>29</v>
@@ -4087,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" s="14" t="n">
         <v>5</v>
@@ -4175,10 +4149,8 @@
       <c r="AI15" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ15" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK15" s="18" t="inlineStr">
         <is>
@@ -4311,10 +4283,10 @@
         <v>22</v>
       </c>
       <c r="I16" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="13" t="n">
         <v>29</v>
@@ -4323,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" s="14" t="n">
         <v>5</v>
@@ -4411,10 +4383,8 @@
       <c r="AI16" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ16" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK16" s="18" t="inlineStr">
         <is>
@@ -4547,10 +4517,10 @@
         <v>22</v>
       </c>
       <c r="I17" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" s="13" t="n">
         <v>29</v>
@@ -4559,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="14" t="n">
         <v>5</v>
@@ -4647,10 +4617,8 @@
       <c r="AI17" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ17" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK17" s="18" t="inlineStr">
         <is>
@@ -4783,10 +4751,10 @@
         <v>22</v>
       </c>
       <c r="I18" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" s="13" t="n">
         <v>29</v>
@@ -4795,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="14" t="n">
         <v>5</v>
@@ -4883,10 +4851,8 @@
       <c r="AI18" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ18" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK18" s="18" t="inlineStr">
         <is>
@@ -5019,10 +4985,10 @@
         <v>20</v>
       </c>
       <c r="I19" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" s="13" t="n">
         <v>29</v>
@@ -5031,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="M19" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="14" t="n">
         <v>5</v>
@@ -5119,10 +5085,8 @@
       <c r="AI19" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ19" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK19" s="18" t="inlineStr">
         <is>
@@ -5255,10 +5219,10 @@
         <v>20</v>
       </c>
       <c r="I20" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20" s="13" t="n">
         <v>29</v>
@@ -5267,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="14" t="n">
         <v>5</v>
@@ -5355,10 +5319,8 @@
       <c r="AI20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ20" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ20" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK20" s="18" t="inlineStr">
         <is>
@@ -5491,10 +5453,10 @@
         <v>22</v>
       </c>
       <c r="I21" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K21" s="13" t="n">
         <v>29</v>
@@ -5503,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" s="14" t="n">
         <v>5</v>
@@ -5591,10 +5553,8 @@
       <c r="AI21" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ21" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK21" s="18" t="inlineStr">
         <is>
@@ -5727,10 +5687,10 @@
         <v>18</v>
       </c>
       <c r="I22" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" s="13" t="n">
         <v>29</v>
@@ -5739,7 +5699,7 @@
         <v>4</v>
       </c>
       <c r="M22" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="14" t="n">
         <v>5</v>
@@ -5827,10 +5787,8 @@
       <c r="AI22" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ22" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ22" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK22" s="18" t="inlineStr">
         <is>
@@ -5949,9 +5907,9 @@
           <t>210967@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F23" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F23" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G23" s="12" t="inlineStr">
@@ -5963,10 +5921,10 @@
         <v>21</v>
       </c>
       <c r="I23" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="13" t="n">
         <v>29</v>
@@ -5975,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" s="14" t="n">
         <v>5</v>
@@ -6063,10 +6021,8 @@
       <c r="AI23" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ23" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK23" s="18" t="inlineStr">
         <is>
@@ -6185,9 +6141,9 @@
           <t>210998@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F24" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F24" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G24" s="12" t="inlineStr">
@@ -6199,10 +6155,10 @@
         <v>19</v>
       </c>
       <c r="I24" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J24" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K24" s="13" t="n">
         <v>29</v>
@@ -6211,7 +6167,7 @@
         <v>3</v>
       </c>
       <c r="M24" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="14" t="n">
         <v>5</v>
@@ -6299,10 +6255,8 @@
       <c r="AI24" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ24" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ24" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK24" s="18" t="inlineStr">
         <is>
@@ -6435,10 +6389,10 @@
         <v>22</v>
       </c>
       <c r="I25" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" s="13" t="n">
         <v>29</v>
@@ -6447,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" s="14" t="n">
         <v>5</v>
@@ -6535,10 +6489,8 @@
       <c r="AI25" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ25" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK25" s="18" t="inlineStr">
         <is>
@@ -6671,10 +6623,10 @@
         <v>22</v>
       </c>
       <c r="I26" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K26" s="13" t="n">
         <v>29</v>
@@ -6683,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" s="14" t="n">
         <v>5</v>
@@ -6771,10 +6723,8 @@
       <c r="AI26" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ26" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ26" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK26" s="18" t="inlineStr">
         <is>
@@ -6907,10 +6857,10 @@
         <v>22</v>
       </c>
       <c r="I27" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" s="13" t="n">
         <v>29</v>
@@ -6919,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" s="14" t="n">
         <v>5</v>
@@ -7007,10 +6957,8 @@
       <c r="AI27" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ27" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ27" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK27" s="18" t="inlineStr">
         <is>
@@ -7143,10 +7091,10 @@
         <v>22</v>
       </c>
       <c r="I28" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28" s="13" t="n">
         <v>29</v>
@@ -7155,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" s="14" t="n">
         <v>5</v>
@@ -7243,10 +7191,8 @@
       <c r="AI28" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ28" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ28" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK28" s="18" t="inlineStr">
         <is>
@@ -7379,10 +7325,10 @@
         <v>22</v>
       </c>
       <c r="I29" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K29" s="13" t="n">
         <v>29</v>
@@ -7391,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" s="14" t="n">
         <v>5</v>
@@ -7479,10 +7425,8 @@
       <c r="AI29" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ29" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ29" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK29" s="18" t="inlineStr">
         <is>
@@ -7615,10 +7559,10 @@
         <v>22</v>
       </c>
       <c r="I30" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30" s="13" t="n">
         <v>29</v>
@@ -7627,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" s="14" t="n">
         <v>5</v>
@@ -7715,10 +7659,8 @@
       <c r="AI30" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ30" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ30" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK30" s="18" t="inlineStr">
         <is>
@@ -7851,10 +7793,10 @@
         <v>22</v>
       </c>
       <c r="I31" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" s="13" t="n">
         <v>29</v>
@@ -7863,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" s="14" t="n">
         <v>5</v>
@@ -7951,10 +7893,8 @@
       <c r="AI31" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ31" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ31" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK31" s="18" t="inlineStr">
         <is>
@@ -8073,9 +8013,9 @@
           <t>211294@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F32" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F32" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G32" s="12" t="inlineStr">
@@ -8087,10 +8027,10 @@
         <v>21</v>
       </c>
       <c r="I32" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32" s="13" t="n">
         <v>29</v>
@@ -8099,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" s="14" t="n">
         <v>5</v>
@@ -8187,10 +8127,8 @@
       <c r="AI32" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ32" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ32" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK32" s="18" t="inlineStr">
         <is>
@@ -8323,10 +8261,10 @@
         <v>22</v>
       </c>
       <c r="I33" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J33" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33" s="13" t="n">
         <v>29</v>
@@ -8335,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" s="14" t="n">
         <v>5</v>
@@ -8423,10 +8361,8 @@
       <c r="AI33" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ33" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ33" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK33" s="18" t="inlineStr">
         <is>
@@ -8545,9 +8481,9 @@
           <t>211569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F34" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F34" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G34" s="12" t="inlineStr">
@@ -8559,10 +8495,10 @@
         <v>21</v>
       </c>
       <c r="I34" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" s="13" t="n">
         <v>29</v>
@@ -8571,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" s="14" t="n">
         <v>5</v>
@@ -8659,10 +8595,8 @@
       <c r="AI34" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ34" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ34" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK34" s="18" t="inlineStr">
         <is>
@@ -8795,10 +8729,10 @@
         <v>22</v>
       </c>
       <c r="I35" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35" s="13" t="n">
         <v>29</v>
@@ -8807,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" s="14" t="n">
         <v>5</v>
@@ -8895,10 +8829,8 @@
       <c r="AI35" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ35" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ35" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK35" s="18" t="inlineStr">
         <is>
@@ -9031,10 +8963,10 @@
         <v>22</v>
       </c>
       <c r="I36" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J36" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K36" s="13" t="n">
         <v>29</v>
@@ -9043,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" s="14" t="n">
         <v>5</v>
@@ -9131,10 +9063,8 @@
       <c r="AI36" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ36" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ36" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK36" s="18" t="inlineStr">
         <is>
@@ -9267,10 +9197,10 @@
         <v>22</v>
       </c>
       <c r="I37" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J37" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K37" s="13" t="n">
         <v>29</v>
@@ -9279,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" s="14" t="n">
         <v>5</v>
@@ -9367,10 +9297,8 @@
       <c r="AI37" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ37" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ37" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK37" s="18" t="inlineStr">
         <is>
@@ -9503,10 +9431,10 @@
         <v>20</v>
       </c>
       <c r="I38" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K38" s="13" t="n">
         <v>29</v>
@@ -9515,7 +9443,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38" s="14" t="n">
         <v>5</v>
@@ -9603,10 +9531,8 @@
       <c r="AI38" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ38" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ38" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK38" s="18" t="inlineStr">
         <is>
@@ -9725,9 +9651,9 @@
           <t>211776@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F39" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G39" s="12" t="inlineStr">
@@ -9739,10 +9665,10 @@
         <v>21</v>
       </c>
       <c r="I39" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J39" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K39" s="13" t="n">
         <v>29</v>
@@ -9751,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" s="14" t="n">
         <v>5</v>
@@ -9839,10 +9765,8 @@
       <c r="AI39" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ39" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ39" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK39" s="18" t="inlineStr">
         <is>
@@ -9975,10 +9899,10 @@
         <v>20</v>
       </c>
       <c r="I40" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J40" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" s="13" t="n">
         <v>29</v>
@@ -9987,7 +9911,7 @@
         <v>2</v>
       </c>
       <c r="M40" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" s="14" t="n">
         <v>5</v>
@@ -10075,10 +9999,8 @@
       <c r="AI40" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ40" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ40" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK40" s="18" t="inlineStr">
         <is>
@@ -10211,10 +10133,10 @@
         <v>22</v>
       </c>
       <c r="I41" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J41" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41" s="13" t="n">
         <v>29</v>
@@ -10223,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" s="14" t="n">
         <v>5</v>
@@ -10311,10 +10233,8 @@
       <c r="AI41" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ41" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ41" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK41" s="18" t="inlineStr">
         <is>
@@ -10447,10 +10367,10 @@
         <v>22</v>
       </c>
       <c r="I42" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K42" s="13" t="n">
         <v>29</v>
@@ -10459,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" s="14" t="n">
         <v>5</v>
@@ -10547,10 +10467,8 @@
       <c r="AI42" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ42" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ42" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK42" s="18" t="inlineStr">
         <is>
@@ -10683,10 +10601,10 @@
         <v>22</v>
       </c>
       <c r="I43" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J43" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K43" s="13" t="n">
         <v>29</v>
@@ -10695,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" s="14" t="n">
         <v>5</v>
@@ -10783,10 +10701,8 @@
       <c r="AI43" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ43" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ43" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK43" s="18" t="inlineStr">
         <is>
@@ -10905,9 +10821,9 @@
           <t>211915@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F44" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F44" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G44" s="12" t="inlineStr">
@@ -10919,10 +10835,10 @@
         <v>19</v>
       </c>
       <c r="I44" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J44" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K44" s="13" t="n">
         <v>29</v>
@@ -10931,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="M44" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44" s="14" t="n">
         <v>5</v>
@@ -11019,10 +10935,8 @@
       <c r="AI44" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ44" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ44" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK44" s="18" t="inlineStr">
         <is>
@@ -11155,10 +11069,10 @@
         <v>20</v>
       </c>
       <c r="I45" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J45" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K45" s="13" t="n">
         <v>29</v>
@@ -11167,7 +11081,7 @@
         <v>2</v>
       </c>
       <c r="M45" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" s="14" t="n">
         <v>5</v>
@@ -11255,10 +11169,8 @@
       <c r="AI45" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ45" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ45" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK45" s="18" t="inlineStr">
         <is>
@@ -11391,10 +11303,10 @@
         <v>22</v>
       </c>
       <c r="I46" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J46" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K46" s="13" t="n">
         <v>29</v>
@@ -11403,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" s="14" t="n">
         <v>5</v>
@@ -11491,10 +11403,8 @@
       <c r="AI46" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ46" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ46" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK46" s="18" t="inlineStr">
         <is>
@@ -11627,10 +11537,10 @@
         <v>20</v>
       </c>
       <c r="I47" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J47" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K47" s="13" t="n">
         <v>29</v>
@@ -11639,7 +11549,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" s="14" t="n">
         <v>5</v>
@@ -11727,10 +11637,8 @@
       <c r="AI47" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ47" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ47" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK47" s="18" t="inlineStr">
         <is>
@@ -11849,9 +11757,9 @@
           <t>212039@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F48" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F48" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G48" s="12" t="inlineStr">
@@ -11863,10 +11771,10 @@
         <v>21</v>
       </c>
       <c r="I48" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48" s="13" t="n">
         <v>29</v>
@@ -11875,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" s="14" t="n">
         <v>5</v>
@@ -11963,10 +11871,8 @@
       <c r="AI48" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ48" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ48" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK48" s="18" t="inlineStr">
         <is>
@@ -12099,10 +12005,10 @@
         <v>22</v>
       </c>
       <c r="I49" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J49" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K49" s="13" t="n">
         <v>29</v>
@@ -12111,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" s="14" t="n">
         <v>5</v>
@@ -12199,10 +12105,8 @@
       <c r="AI49" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ49" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ49" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK49" s="18" t="inlineStr">
         <is>
@@ -12335,10 +12239,10 @@
         <v>22</v>
       </c>
       <c r="I50" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J50" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50" s="13" t="n">
         <v>29</v>
@@ -12347,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" s="14" t="n">
         <v>5</v>
@@ -12435,10 +12339,8 @@
       <c r="AI50" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ50" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ50" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK50" s="18" t="inlineStr">
         <is>
@@ -12571,10 +12473,10 @@
         <v>22</v>
       </c>
       <c r="I51" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J51" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" s="13" t="n">
         <v>29</v>
@@ -12583,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" s="14" t="n">
         <v>5</v>
@@ -12671,10 +12573,8 @@
       <c r="AI51" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ51" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ51" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK51" s="18" t="inlineStr">
         <is>
@@ -12793,9 +12693,9 @@
           <t>212145@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F52" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F52" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G52" s="12" t="inlineStr">
@@ -12807,10 +12707,10 @@
         <v>21</v>
       </c>
       <c r="I52" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J52" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" s="13" t="n">
         <v>29</v>
@@ -12819,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N52" s="14" t="n">
         <v>5</v>
@@ -12907,10 +12807,8 @@
       <c r="AI52" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ52" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ52" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK52" s="18" t="inlineStr">
         <is>
@@ -13043,10 +12941,10 @@
         <v>22</v>
       </c>
       <c r="I53" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J53" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K53" s="13" t="n">
         <v>29</v>
@@ -13055,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" s="14" t="n">
         <v>5</v>
@@ -13143,10 +13041,8 @@
       <c r="AI53" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ53" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ53" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK53" s="18" t="inlineStr">
         <is>
@@ -13279,10 +13175,10 @@
         <v>22</v>
       </c>
       <c r="I54" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J54" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K54" s="13" t="n">
         <v>29</v>
@@ -13291,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" s="14" t="n">
         <v>5</v>
@@ -13379,10 +13275,8 @@
       <c r="AI54" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ54" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ54" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK54" s="18" t="inlineStr">
         <is>
@@ -13501,9 +13395,9 @@
           <t>212163@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F55" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F55" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G55" s="12" t="inlineStr">
@@ -13515,10 +13409,10 @@
         <v>21</v>
       </c>
       <c r="I55" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J55" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K55" s="13" t="n">
         <v>29</v>
@@ -13527,7 +13421,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" s="14" t="n">
         <v>5</v>
@@ -13615,10 +13509,8 @@
       <c r="AI55" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ55" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ55" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK55" s="18" t="inlineStr">
         <is>
@@ -13751,10 +13643,10 @@
         <v>22</v>
       </c>
       <c r="I56" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J56" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K56" s="13" t="n">
         <v>29</v>
@@ -13763,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" s="14" t="n">
         <v>5</v>
@@ -13851,10 +13743,8 @@
       <c r="AI56" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ56" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ56" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK56" s="18" t="inlineStr">
         <is>
@@ -13987,10 +13877,10 @@
         <v>22</v>
       </c>
       <c r="I57" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J57" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K57" s="13" t="n">
         <v>29</v>
@@ -13999,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" s="14" t="n">
         <v>5</v>
@@ -14087,10 +13977,8 @@
       <c r="AI57" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ57" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ57" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK57" s="18" t="inlineStr">
         <is>
@@ -14223,10 +14111,10 @@
         <v>22</v>
       </c>
       <c r="I58" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J58" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K58" s="13" t="n">
         <v>29</v>
@@ -14235,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" s="14" t="n">
         <v>5</v>
@@ -14323,10 +14211,8 @@
       <c r="AI58" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ58" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ58" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK58" s="18" t="inlineStr">
         <is>
@@ -14459,10 +14345,10 @@
         <v>22</v>
       </c>
       <c r="I59" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J59" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K59" s="13" t="n">
         <v>29</v>
@@ -14471,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" s="14" t="n">
         <v>5</v>
@@ -14559,10 +14445,8 @@
       <c r="AI59" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ59" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ59" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK59" s="18" t="inlineStr">
         <is>
@@ -14695,10 +14579,10 @@
         <v>22</v>
       </c>
       <c r="I60" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J60" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K60" s="13" t="n">
         <v>29</v>
@@ -14707,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" s="14" t="n">
         <v>5</v>
@@ -14795,10 +14679,8 @@
       <c r="AI60" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ60" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ60" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK60" s="18" t="inlineStr">
         <is>
@@ -14931,10 +14813,10 @@
         <v>22</v>
       </c>
       <c r="I61" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J61" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K61" s="13" t="n">
         <v>29</v>
@@ -14943,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" s="14" t="n">
         <v>5</v>
@@ -15031,10 +14913,8 @@
       <c r="AI61" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ61" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ61" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK61" s="18" t="inlineStr">
         <is>
@@ -15153,9 +15033,9 @@
           <t>212308@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F62" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F62" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G62" s="12" t="inlineStr">
@@ -15167,10 +15047,10 @@
         <v>21</v>
       </c>
       <c r="I62" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J62" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K62" s="13" t="n">
         <v>29</v>
@@ -15179,7 +15059,7 @@
         <v>1</v>
       </c>
       <c r="M62" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62" s="14" t="n">
         <v>5</v>
@@ -15267,10 +15147,8 @@
       <c r="AI62" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ62" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ62" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK62" s="18" t="inlineStr">
         <is>
@@ -15389,9 +15267,9 @@
           <t>212318@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F63" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F63" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G63" s="12" t="inlineStr">
@@ -15403,10 +15281,10 @@
         <v>19</v>
       </c>
       <c r="I63" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J63" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K63" s="13" t="n">
         <v>29</v>
@@ -15415,7 +15293,7 @@
         <v>3</v>
       </c>
       <c r="M63" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63" s="14" t="n">
         <v>5</v>
@@ -15503,10 +15381,8 @@
       <c r="AI63" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ63" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ63" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK63" s="18" t="inlineStr">
         <is>
@@ -15639,10 +15515,10 @@
         <v>18</v>
       </c>
       <c r="I64" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J64" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K64" s="13" t="n">
         <v>29</v>
@@ -15651,7 +15527,7 @@
         <v>4</v>
       </c>
       <c r="M64" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="14" t="n">
         <v>5</v>
@@ -15739,10 +15615,8 @@
       <c r="AI64" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ64" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ64" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK64" s="18" t="inlineStr">
         <is>
@@ -15861,9 +15735,9 @@
           <t>212386@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F65" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F65" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G65" s="12" t="inlineStr">
@@ -15875,10 +15749,10 @@
         <v>19</v>
       </c>
       <c r="I65" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J65" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K65" s="13" t="n">
         <v>29</v>
@@ -15887,7 +15761,7 @@
         <v>3</v>
       </c>
       <c r="M65" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N65" s="14" t="n">
         <v>5</v>
@@ -15975,10 +15849,8 @@
       <c r="AI65" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ65" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ65" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK65" s="18" t="inlineStr">
         <is>
@@ -16111,10 +15983,10 @@
         <v>22</v>
       </c>
       <c r="I66" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J66" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K66" s="13" t="n">
         <v>29</v>
@@ -16123,7 +15995,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N66" s="14" t="n">
         <v>5</v>
@@ -16211,10 +16083,8 @@
       <c r="AI66" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ66" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ66" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK66" s="18" t="inlineStr">
         <is>
@@ -16347,10 +16217,10 @@
         <v>22</v>
       </c>
       <c r="I67" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J67" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K67" s="13" t="n">
         <v>29</v>
@@ -16359,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N67" s="14" t="n">
         <v>5</v>
@@ -16447,10 +16317,8 @@
       <c r="AI67" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ67" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ67" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK67" s="18" t="inlineStr">
         <is>
@@ -16583,10 +16451,10 @@
         <v>20</v>
       </c>
       <c r="I68" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J68" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K68" s="13" t="n">
         <v>29</v>
@@ -16595,7 +16463,7 @@
         <v>2</v>
       </c>
       <c r="M68" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N68" s="14" t="n">
         <v>5</v>
@@ -16683,10 +16551,8 @@
       <c r="AI68" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ68" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ68" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK68" s="18" t="inlineStr">
         <is>
@@ -16819,10 +16685,10 @@
         <v>22</v>
       </c>
       <c r="I69" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J69" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K69" s="13" t="n">
         <v>29</v>
@@ -16831,7 +16697,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N69" s="14" t="n">
         <v>5</v>
@@ -16919,10 +16785,8 @@
       <c r="AI69" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ69" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ69" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK69" s="18" t="inlineStr">
         <is>
@@ -17055,10 +16919,10 @@
         <v>22</v>
       </c>
       <c r="I70" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J70" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K70" s="13" t="n">
         <v>29</v>
@@ -17067,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N70" s="14" t="n">
         <v>5</v>
@@ -17155,10 +17019,8 @@
       <c r="AI70" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ70" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ70" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK70" s="18" t="inlineStr">
         <is>
@@ -17291,10 +17153,10 @@
         <v>20</v>
       </c>
       <c r="I71" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J71" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K71" s="13" t="n">
         <v>29</v>
@@ -17303,7 +17165,7 @@
         <v>2</v>
       </c>
       <c r="M71" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N71" s="14" t="n">
         <v>5</v>
@@ -17391,10 +17253,8 @@
       <c r="AI71" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ71" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ71" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK71" s="18" t="inlineStr">
         <is>
@@ -17527,10 +17387,10 @@
         <v>22</v>
       </c>
       <c r="I72" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J72" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K72" s="13" t="n">
         <v>29</v>
@@ -17539,7 +17399,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N72" s="14" t="n">
         <v>5</v>
@@ -17627,10 +17487,8 @@
       <c r="AI72" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ72" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ72" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK72" s="18" t="inlineStr">
         <is>
@@ -17763,10 +17621,10 @@
         <v>22</v>
       </c>
       <c r="I73" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J73" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K73" s="13" t="n">
         <v>29</v>
@@ -17775,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N73" s="14" t="n">
         <v>5</v>
@@ -17863,10 +17721,8 @@
       <c r="AI73" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ73" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ73" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK73" s="18" t="inlineStr">
         <is>
@@ -17999,10 +17855,10 @@
         <v>18</v>
       </c>
       <c r="I74" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J74" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K74" s="13" t="n">
         <v>29</v>
@@ -18011,7 +17867,7 @@
         <v>4</v>
       </c>
       <c r="M74" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" s="14" t="n">
         <v>5</v>
@@ -18099,10 +17955,8 @@
       <c r="AI74" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ74" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ74" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK74" s="18" t="inlineStr">
         <is>
@@ -18221,9 +18075,9 @@
           <t>220304@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F75" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F75" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G75" s="12" t="inlineStr">
@@ -18235,10 +18089,10 @@
         <v>19</v>
       </c>
       <c r="I75" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J75" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K75" s="13" t="n">
         <v>29</v>
@@ -18247,7 +18101,7 @@
         <v>3</v>
       </c>
       <c r="M75" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75" s="14" t="n">
         <v>5</v>
@@ -18335,10 +18189,8 @@
       <c r="AI75" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ75" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ75" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK75" s="18" t="inlineStr">
         <is>
@@ -18471,10 +18323,10 @@
         <v>20</v>
       </c>
       <c r="I76" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J76" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K76" s="13" t="n">
         <v>29</v>
@@ -18483,7 +18335,7 @@
         <v>2</v>
       </c>
       <c r="M76" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N76" s="14" t="n">
         <v>5</v>
@@ -18571,10 +18423,8 @@
       <c r="AI76" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ76" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ76" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK76" s="18" t="inlineStr">
         <is>
@@ -18707,10 +18557,10 @@
         <v>20</v>
       </c>
       <c r="I77" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J77" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K77" s="13" t="n">
         <v>29</v>
@@ -18719,7 +18569,7 @@
         <v>2</v>
       </c>
       <c r="M77" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N77" s="14" t="n">
         <v>5</v>
@@ -18807,10 +18657,8 @@
       <c r="AI77" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ77" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ77" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK77" s="18" t="inlineStr">
         <is>
@@ -18943,10 +18791,10 @@
         <v>20</v>
       </c>
       <c r="I78" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J78" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K78" s="13" t="n">
         <v>29</v>
@@ -18955,7 +18803,7 @@
         <v>2</v>
       </c>
       <c r="M78" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78" s="14" t="n">
         <v>5</v>
@@ -19043,10 +18891,8 @@
       <c r="AI78" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ78" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ78" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK78" s="18" t="inlineStr">
         <is>
@@ -19179,10 +19025,10 @@
         <v>18</v>
       </c>
       <c r="I79" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J79" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K79" s="13" t="n">
         <v>29</v>
@@ -19191,7 +19037,7 @@
         <v>4</v>
       </c>
       <c r="M79" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" s="14" t="n">
         <v>5</v>
@@ -19279,10 +19125,8 @@
       <c r="AI79" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ79" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ79" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK79" s="18" t="inlineStr">
         <is>
@@ -19415,10 +19259,10 @@
         <v>22</v>
       </c>
       <c r="I80" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J80" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K80" s="13" t="n">
         <v>29</v>
@@ -19427,7 +19271,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N80" s="14" t="n">
         <v>5</v>
@@ -19515,10 +19359,8 @@
       <c r="AI80" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ80" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ80" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK80" s="18" t="inlineStr">
         <is>
@@ -19651,10 +19493,10 @@
         <v>20</v>
       </c>
       <c r="I81" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J81" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K81" s="13" t="n">
         <v>29</v>
@@ -19663,7 +19505,7 @@
         <v>2</v>
       </c>
       <c r="M81" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N81" s="14" t="n">
         <v>5</v>
@@ -19751,10 +19593,8 @@
       <c r="AI81" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ81" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ81" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK81" s="18" t="inlineStr">
         <is>
@@ -19873,9 +19713,9 @@
           <t>220675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F82" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F82" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G82" s="12" t="inlineStr">
@@ -19887,10 +19727,10 @@
         <v>21</v>
       </c>
       <c r="I82" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J82" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K82" s="13" t="n">
         <v>29</v>
@@ -19899,7 +19739,7 @@
         <v>1</v>
       </c>
       <c r="M82" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N82" s="14" t="n">
         <v>5</v>
@@ -19987,10 +19827,8 @@
       <c r="AI82" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ82" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ82" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK82" s="18" t="inlineStr">
         <is>
@@ -20123,10 +19961,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J83" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K83" s="13" t="n">
         <v>29</v>
@@ -20135,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N83" s="14" t="n">
         <v>5</v>
@@ -20223,10 +20061,8 @@
       <c r="AI83" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ83" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ83" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK83" s="18" t="inlineStr">
         <is>
@@ -20345,9 +20181,9 @@
           <t>220766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F84" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G84" s="12" t="inlineStr">
@@ -20359,10 +20195,10 @@
         <v>19</v>
       </c>
       <c r="I84" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J84" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K84" s="13" t="n">
         <v>29</v>
@@ -20371,7 +20207,7 @@
         <v>3</v>
       </c>
       <c r="M84" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N84" s="14" t="n">
         <v>5</v>
@@ -20459,10 +20295,8 @@
       <c r="AI84" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ84" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ84" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK84" s="18" t="inlineStr">
         <is>
@@ -20595,10 +20429,10 @@
         <v>20</v>
       </c>
       <c r="I85" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J85" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K85" s="13" t="n">
         <v>29</v>
@@ -20607,7 +20441,7 @@
         <v>2</v>
       </c>
       <c r="M85" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N85" s="14" t="n">
         <v>5</v>
@@ -20695,10 +20529,8 @@
       <c r="AI85" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ85" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ85" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK85" s="18" t="inlineStr">
         <is>
@@ -20831,10 +20663,10 @@
         <v>22</v>
       </c>
       <c r="I86" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J86" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K86" s="13" t="n">
         <v>29</v>
@@ -20843,7 +20675,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N86" s="14" t="n">
         <v>5</v>
@@ -20931,10 +20763,8 @@
       <c r="AI86" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ86" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ86" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK86" s="18" t="inlineStr">
         <is>
@@ -21067,10 +20897,10 @@
         <v>22</v>
       </c>
       <c r="I87" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J87" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K87" s="13" t="n">
         <v>29</v>
@@ -21079,7 +20909,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N87" s="14" t="n">
         <v>5</v>
@@ -21167,10 +20997,8 @@
       <c r="AI87" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ87" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ87" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK87" s="18" t="inlineStr">
         <is>
@@ -21303,10 +21131,10 @@
         <v>18</v>
       </c>
       <c r="I88" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J88" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K88" s="13" t="n">
         <v>29</v>
@@ -21315,7 +21143,7 @@
         <v>4</v>
       </c>
       <c r="M88" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" s="14" t="n">
         <v>5</v>
@@ -21403,10 +21231,8 @@
       <c r="AI88" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ88" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ88" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK88" s="18" t="inlineStr">
         <is>
@@ -21539,10 +21365,10 @@
         <v>22</v>
       </c>
       <c r="I89" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J89" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K89" s="13" t="n">
         <v>29</v>
@@ -21551,7 +21377,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N89" s="14" t="n">
         <v>5</v>
@@ -21639,10 +21465,8 @@
       <c r="AI89" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ89" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ89" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK89" s="18" t="inlineStr">
         <is>
@@ -21761,9 +21585,9 @@
           <t>220926@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F90" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F90" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G90" s="12" t="inlineStr">
@@ -21775,10 +21599,10 @@
         <v>21</v>
       </c>
       <c r="I90" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J90" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K90" s="13" t="n">
         <v>29</v>
@@ -21787,7 +21611,7 @@
         <v>1</v>
       </c>
       <c r="M90" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N90" s="14" t="n">
         <v>5</v>
@@ -21875,10 +21699,8 @@
       <c r="AI90" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ90" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ90" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK90" s="18" t="inlineStr">
         <is>
@@ -22011,10 +21833,10 @@
         <v>22</v>
       </c>
       <c r="I91" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J91" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K91" s="13" t="n">
         <v>29</v>
@@ -22023,7 +21845,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N91" s="14" t="n">
         <v>5</v>
@@ -22111,10 +21933,8 @@
       <c r="AI91" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ91" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ91" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK91" s="18" t="inlineStr">
         <is>
@@ -22247,10 +22067,10 @@
         <v>22</v>
       </c>
       <c r="I92" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J92" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K92" s="13" t="n">
         <v>29</v>
@@ -22259,7 +22079,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N92" s="14" t="n">
         <v>5</v>
@@ -22347,10 +22167,8 @@
       <c r="AI92" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ92" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ92" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK92" s="18" t="inlineStr">
         <is>
@@ -22483,10 +22301,10 @@
         <v>20</v>
       </c>
       <c r="I93" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J93" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K93" s="13" t="n">
         <v>29</v>
@@ -22495,7 +22313,7 @@
         <v>2</v>
       </c>
       <c r="M93" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N93" s="14" t="n">
         <v>5</v>
@@ -22583,10 +22401,8 @@
       <c r="AI93" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ93" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ93" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK93" s="18" t="inlineStr">
         <is>
@@ -22719,10 +22535,10 @@
         <v>22</v>
       </c>
       <c r="I94" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J94" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K94" s="13" t="n">
         <v>29</v>
@@ -22731,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N94" s="14" t="n">
         <v>5</v>
@@ -22819,10 +22635,8 @@
       <c r="AI94" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ94" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ94" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK94" s="18" t="inlineStr">
         <is>
@@ -22941,9 +22755,9 @@
           <t>220990@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F95" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F95" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G95" s="12" t="inlineStr">
@@ -22955,10 +22769,10 @@
         <v>19</v>
       </c>
       <c r="I95" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J95" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K95" s="13" t="n">
         <v>29</v>
@@ -22967,7 +22781,7 @@
         <v>3</v>
       </c>
       <c r="M95" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N95" s="14" t="n">
         <v>5</v>
@@ -23055,10 +22869,8 @@
       <c r="AI95" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ95" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ95" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK95" s="18" t="inlineStr">
         <is>
@@ -23191,10 +23003,10 @@
         <v>20</v>
       </c>
       <c r="I96" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J96" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K96" s="13" t="n">
         <v>29</v>
@@ -23203,7 +23015,7 @@
         <v>2</v>
       </c>
       <c r="M96" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N96" s="14" t="n">
         <v>5</v>
@@ -23291,10 +23103,8 @@
       <c r="AI96" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ96" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ96" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK96" s="18" t="inlineStr">
         <is>
@@ -23427,10 +23237,10 @@
         <v>20</v>
       </c>
       <c r="I97" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J97" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K97" s="13" t="n">
         <v>29</v>
@@ -23439,7 +23249,7 @@
         <v>2</v>
       </c>
       <c r="M97" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N97" s="14" t="n">
         <v>5</v>
@@ -23527,10 +23337,8 @@
       <c r="AI97" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ97" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ97" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK97" s="18" t="inlineStr">
         <is>
@@ -23663,10 +23471,10 @@
         <v>18</v>
       </c>
       <c r="I98" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J98" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K98" s="13" t="n">
         <v>29</v>
@@ -23675,7 +23483,7 @@
         <v>4</v>
       </c>
       <c r="M98" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" s="14" t="n">
         <v>5</v>
@@ -23763,10 +23571,8 @@
       <c r="AI98" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ98" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ98" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK98" s="18" t="inlineStr">
         <is>
@@ -23885,9 +23691,9 @@
           <t>221027@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F99" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F99" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G99" s="12" t="inlineStr">
@@ -23899,10 +23705,10 @@
         <v>21</v>
       </c>
       <c r="I99" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J99" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K99" s="13" t="n">
         <v>29</v>
@@ -23911,7 +23717,7 @@
         <v>1</v>
       </c>
       <c r="M99" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N99" s="14" t="n">
         <v>5</v>
@@ -23999,10 +23805,8 @@
       <c r="AI99" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ99" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ99" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK99" s="18" t="inlineStr">
         <is>
@@ -24121,9 +23925,9 @@
           <t>221031@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F100" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F100" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G100" s="12" t="inlineStr">
@@ -24135,10 +23939,10 @@
         <v>19</v>
       </c>
       <c r="I100" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J100" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K100" s="13" t="n">
         <v>29</v>
@@ -24147,7 +23951,7 @@
         <v>3</v>
       </c>
       <c r="M100" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N100" s="14" t="n">
         <v>5</v>
@@ -24235,10 +24039,8 @@
       <c r="AI100" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ100" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ100" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK100" s="18" t="inlineStr">
         <is>
@@ -24371,10 +24173,10 @@
         <v>22</v>
       </c>
       <c r="I101" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J101" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K101" s="13" t="n">
         <v>29</v>
@@ -24383,7 +24185,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N101" s="14" t="n">
         <v>5</v>
@@ -24471,10 +24273,8 @@
       <c r="AI101" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ101" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ101" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK101" s="18" t="inlineStr">
         <is>
@@ -24607,10 +24407,10 @@
         <v>22</v>
       </c>
       <c r="I102" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J102" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K102" s="13" t="n">
         <v>29</v>
@@ -24619,7 +24419,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N102" s="14" t="n">
         <v>5</v>
@@ -24707,10 +24507,8 @@
       <c r="AI102" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ102" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ102" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK102" s="18" t="inlineStr">
         <is>
@@ -24843,10 +24641,10 @@
         <v>22</v>
       </c>
       <c r="I103" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J103" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K103" s="13" t="n">
         <v>29</v>
@@ -24855,7 +24653,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N103" s="14" t="n">
         <v>5</v>
@@ -24943,10 +24741,8 @@
       <c r="AI103" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ103" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ103" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK103" s="18" t="inlineStr">
         <is>
@@ -25079,10 +24875,10 @@
         <v>22</v>
       </c>
       <c r="I104" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J104" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K104" s="13" t="n">
         <v>29</v>
@@ -25091,7 +24887,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N104" s="14" t="n">
         <v>5</v>
@@ -25179,10 +24975,8 @@
       <c r="AI104" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ104" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ104" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK104" s="18" t="inlineStr">
         <is>
@@ -25315,10 +25109,10 @@
         <v>22</v>
       </c>
       <c r="I105" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J105" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K105" s="13" t="n">
         <v>29</v>
@@ -25327,7 +25121,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N105" s="14" t="n">
         <v>5</v>
@@ -25415,10 +25209,8 @@
       <c r="AI105" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ105" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ105" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK105" s="18" t="inlineStr">
         <is>
@@ -25551,10 +25343,10 @@
         <v>22</v>
       </c>
       <c r="I106" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J106" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K106" s="13" t="n">
         <v>29</v>
@@ -25563,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N106" s="14" t="n">
         <v>5</v>
@@ -25651,10 +25443,8 @@
       <c r="AI106" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ106" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ106" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK106" s="18" t="inlineStr">
         <is>
@@ -25787,10 +25577,10 @@
         <v>20</v>
       </c>
       <c r="I107" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J107" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K107" s="13" t="n">
         <v>29</v>
@@ -25799,7 +25589,7 @@
         <v>2</v>
       </c>
       <c r="M107" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N107" s="14" t="n">
         <v>5</v>
@@ -25887,10 +25677,8 @@
       <c r="AI107" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ107" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ107" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK107" s="18" t="inlineStr">
         <is>
@@ -26023,10 +25811,10 @@
         <v>20</v>
       </c>
       <c r="I108" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J108" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K108" s="13" t="n">
         <v>29</v>
@@ -26035,7 +25823,7 @@
         <v>2</v>
       </c>
       <c r="M108" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N108" s="14" t="n">
         <v>5</v>
@@ -26123,10 +25911,8 @@
       <c r="AI108" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ108" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ108" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK108" s="18" t="inlineStr">
         <is>
@@ -26259,10 +26045,10 @@
         <v>22</v>
       </c>
       <c r="I109" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J109" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K109" s="13" t="n">
         <v>29</v>
@@ -26271,7 +26057,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N109" s="14" t="n">
         <v>5</v>
@@ -26359,10 +26145,8 @@
       <c r="AI109" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ109" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ109" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK109" s="18" t="inlineStr">
         <is>
@@ -26481,9 +26265,9 @@
           <t>221319@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F110" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F110" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G110" s="12" t="inlineStr">
@@ -26495,10 +26279,10 @@
         <v>21</v>
       </c>
       <c r="I110" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J110" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K110" s="13" t="n">
         <v>29</v>
@@ -26507,7 +26291,7 @@
         <v>1</v>
       </c>
       <c r="M110" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N110" s="14" t="n">
         <v>5</v>
@@ -26595,10 +26379,8 @@
       <c r="AI110" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ110" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ110" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK110" s="18" t="inlineStr">
         <is>
@@ -26717,9 +26499,9 @@
           <t>221324@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F111" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F111" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G111" s="12" t="inlineStr">
@@ -26731,10 +26513,10 @@
         <v>19</v>
       </c>
       <c r="I111" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J111" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K111" s="13" t="n">
         <v>29</v>
@@ -26743,7 +26525,7 @@
         <v>3</v>
       </c>
       <c r="M111" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N111" s="14" t="n">
         <v>5</v>
@@ -26831,10 +26613,8 @@
       <c r="AI111" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ111" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ111" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK111" s="18" t="inlineStr">
         <is>
@@ -26967,10 +26747,10 @@
         <v>22</v>
       </c>
       <c r="I112" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J112" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K112" s="13" t="n">
         <v>29</v>
@@ -26979,7 +26759,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N112" s="14" t="n">
         <v>5</v>
@@ -27067,10 +26847,8 @@
       <c r="AI112" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ112" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ112" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK112" s="18" t="inlineStr">
         <is>
@@ -27189,9 +26967,9 @@
           <t>221351@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F113" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F113" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G113" s="12" t="inlineStr">
@@ -27203,10 +26981,10 @@
         <v>19</v>
       </c>
       <c r="I113" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J113" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K113" s="13" t="n">
         <v>29</v>
@@ -27215,7 +26993,7 @@
         <v>3</v>
       </c>
       <c r="M113" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N113" s="14" t="n">
         <v>5</v>
@@ -27303,10 +27081,8 @@
       <c r="AI113" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ113" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ113" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK113" s="18" t="inlineStr">
         <is>
@@ -27425,9 +27201,9 @@
           <t>221355@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F114" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F114" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G114" s="12" t="inlineStr">
@@ -27439,10 +27215,10 @@
         <v>19</v>
       </c>
       <c r="I114" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J114" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K114" s="13" t="n">
         <v>29</v>
@@ -27451,7 +27227,7 @@
         <v>3</v>
       </c>
       <c r="M114" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N114" s="14" t="n">
         <v>5</v>
@@ -27539,10 +27315,8 @@
       <c r="AI114" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ114" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ114" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK114" s="18" t="inlineStr">
         <is>
@@ -27661,9 +27435,9 @@
           <t>221357@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F115" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F115" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G115" s="12" t="inlineStr">
@@ -27675,10 +27449,10 @@
         <v>19</v>
       </c>
       <c r="I115" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J115" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K115" s="13" t="n">
         <v>29</v>
@@ -27687,7 +27461,7 @@
         <v>3</v>
       </c>
       <c r="M115" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N115" s="14" t="n">
         <v>5</v>
@@ -27775,10 +27549,8 @@
       <c r="AI115" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ115" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ115" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK115" s="18" t="inlineStr">
         <is>
@@ -27911,10 +27683,10 @@
         <v>22</v>
       </c>
       <c r="I116" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J116" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K116" s="13" t="n">
         <v>29</v>
@@ -27923,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N116" s="14" t="n">
         <v>5</v>
@@ -28011,10 +27783,8 @@
       <c r="AI116" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ116" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ116" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK116" s="18" t="inlineStr">
         <is>
@@ -28133,9 +27903,9 @@
           <t>221375@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F117" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F117" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G117" s="12" t="inlineStr">
@@ -28147,10 +27917,10 @@
         <v>19</v>
       </c>
       <c r="I117" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J117" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K117" s="13" t="n">
         <v>29</v>
@@ -28159,7 +27929,7 @@
         <v>3</v>
       </c>
       <c r="M117" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N117" s="14" t="n">
         <v>5</v>
@@ -28247,10 +28017,8 @@
       <c r="AI117" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ117" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ117" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK117" s="18" t="inlineStr">
         <is>
@@ -28369,9 +28137,9 @@
           <t>221404@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F118" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F118" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G118" s="12" t="inlineStr">
@@ -28383,10 +28151,10 @@
         <v>19</v>
       </c>
       <c r="I118" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J118" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K118" s="13" t="n">
         <v>29</v>
@@ -28395,7 +28163,7 @@
         <v>3</v>
       </c>
       <c r="M118" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N118" s="14" t="n">
         <v>5</v>
@@ -28483,10 +28251,8 @@
       <c r="AI118" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ118" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ118" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK118" s="18" t="inlineStr">
         <is>
@@ -28605,9 +28371,9 @@
           <t>221409@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F119" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F119" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G119" s="12" t="inlineStr">
@@ -28619,10 +28385,10 @@
         <v>21</v>
       </c>
       <c r="I119" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J119" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K119" s="13" t="n">
         <v>29</v>
@@ -28631,7 +28397,7 @@
         <v>1</v>
       </c>
       <c r="M119" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N119" s="14" t="n">
         <v>5</v>
@@ -28719,10 +28485,8 @@
       <c r="AI119" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ119" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ119" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK119" s="18" t="inlineStr">
         <is>
@@ -28841,9 +28605,9 @@
           <t>221415@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F120" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F120" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G120" s="12" t="inlineStr">
@@ -28855,10 +28619,10 @@
         <v>19</v>
       </c>
       <c r="I120" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J120" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K120" s="13" t="n">
         <v>29</v>
@@ -28867,7 +28631,7 @@
         <v>3</v>
       </c>
       <c r="M120" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N120" s="14" t="n">
         <v>5</v>
@@ -28955,10 +28719,8 @@
       <c r="AI120" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ120" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ120" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK120" s="18" t="inlineStr">
         <is>
@@ -29091,10 +28853,10 @@
         <v>22</v>
       </c>
       <c r="I121" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J121" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K121" s="13" t="n">
         <v>29</v>
@@ -29103,7 +28865,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N121" s="14" t="n">
         <v>5</v>
@@ -29191,10 +28953,8 @@
       <c r="AI121" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ121" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ121" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK121" s="18" t="inlineStr">
         <is>
@@ -29327,10 +29087,10 @@
         <v>22</v>
       </c>
       <c r="I122" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J122" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K122" s="13" t="n">
         <v>29</v>
@@ -29339,7 +29099,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N122" s="14" t="n">
         <v>5</v>
@@ -29427,10 +29187,8 @@
       <c r="AI122" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ122" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ122" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK122" s="18" t="inlineStr">
         <is>
@@ -29563,10 +29321,10 @@
         <v>22</v>
       </c>
       <c r="I123" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J123" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K123" s="13" t="n">
         <v>29</v>
@@ -29575,7 +29333,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N123" s="14" t="n">
         <v>5</v>
@@ -29663,10 +29421,8 @@
       <c r="AI123" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ123" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ123" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK123" s="18" t="inlineStr">
         <is>
@@ -29799,10 +29555,10 @@
         <v>20</v>
       </c>
       <c r="I124" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J124" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K124" s="13" t="n">
         <v>29</v>
@@ -29811,7 +29567,7 @@
         <v>2</v>
       </c>
       <c r="M124" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N124" s="14" t="n">
         <v>5</v>
@@ -29899,10 +29655,8 @@
       <c r="AI124" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ124" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ124" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK124" s="18" t="inlineStr">
         <is>
@@ -30021,9 +29775,9 @@
           <t>221433@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F125" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F125" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G125" s="12" t="inlineStr">
@@ -30035,10 +29789,10 @@
         <v>21</v>
       </c>
       <c r="I125" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J125" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K125" s="13" t="n">
         <v>29</v>
@@ -30047,7 +29801,7 @@
         <v>1</v>
       </c>
       <c r="M125" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N125" s="14" t="n">
         <v>5</v>
@@ -30135,10 +29889,8 @@
       <c r="AI125" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ125" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ125" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK125" s="18" t="inlineStr">
         <is>
@@ -30257,9 +30009,9 @@
           <t>221435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F126" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F126" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G126" s="12" t="inlineStr">
@@ -30271,10 +30023,10 @@
         <v>19</v>
       </c>
       <c r="I126" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J126" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K126" s="13" t="n">
         <v>29</v>
@@ -30283,7 +30035,7 @@
         <v>3</v>
       </c>
       <c r="M126" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N126" s="14" t="n">
         <v>5</v>
@@ -30371,10 +30123,8 @@
       <c r="AI126" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ126" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ126" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK126" s="18" t="inlineStr">
         <is>
@@ -30493,9 +30243,9 @@
           <t>221437@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F127" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F127" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G127" s="12" t="inlineStr">
@@ -30507,10 +30257,10 @@
         <v>21</v>
       </c>
       <c r="I127" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J127" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K127" s="13" t="n">
         <v>29</v>
@@ -30519,7 +30269,7 @@
         <v>1</v>
       </c>
       <c r="M127" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N127" s="14" t="n">
         <v>5</v>
@@ -30607,10 +30357,8 @@
       <c r="AI127" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ127" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ127" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK127" s="18" t="inlineStr">
         <is>
@@ -30729,9 +30477,9 @@
           <t>221438@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F128" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F128" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G128" s="12" t="inlineStr">
@@ -30743,10 +30491,10 @@
         <v>21</v>
       </c>
       <c r="I128" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J128" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K128" s="13" t="n">
         <v>29</v>
@@ -30755,7 +30503,7 @@
         <v>1</v>
       </c>
       <c r="M128" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N128" s="14" t="n">
         <v>5</v>
@@ -30843,10 +30591,8 @@
       <c r="AI128" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ128" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ128" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK128" s="18" t="inlineStr">
         <is>
@@ -30979,10 +30725,10 @@
         <v>22</v>
       </c>
       <c r="I129" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J129" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K129" s="13" t="n">
         <v>29</v>
@@ -30991,7 +30737,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N129" s="14" t="n">
         <v>5</v>
@@ -31079,10 +30825,8 @@
       <c r="AI129" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ129" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ129" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK129" s="18" t="inlineStr">
         <is>
@@ -31201,9 +30945,9 @@
           <t>221459@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F130" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F130" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G130" s="12" t="inlineStr">
@@ -31215,10 +30959,10 @@
         <v>19</v>
       </c>
       <c r="I130" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J130" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K130" s="13" t="n">
         <v>29</v>
@@ -31227,7 +30971,7 @@
         <v>3</v>
       </c>
       <c r="M130" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N130" s="14" t="n">
         <v>5</v>
@@ -31315,10 +31059,8 @@
       <c r="AI130" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ130" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ130" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK130" s="18" t="inlineStr">
         <is>
@@ -31437,9 +31179,9 @@
           <t>221476@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F131" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F131" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G131" s="12" t="inlineStr">
@@ -31451,10 +31193,10 @@
         <v>21</v>
       </c>
       <c r="I131" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J131" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K131" s="13" t="n">
         <v>29</v>
@@ -31463,7 +31205,7 @@
         <v>1</v>
       </c>
       <c r="M131" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N131" s="14" t="n">
         <v>5</v>
@@ -31551,10 +31293,8 @@
       <c r="AI131" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ131" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ131" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK131" s="18" t="inlineStr">
         <is>
@@ -31687,10 +31427,10 @@
         <v>22</v>
       </c>
       <c r="I132" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J132" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K132" s="13" t="n">
         <v>29</v>
@@ -31699,7 +31439,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N132" s="14" t="n">
         <v>5</v>
@@ -31787,10 +31527,8 @@
       <c r="AI132" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ132" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ132" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK132" s="18" t="inlineStr">
         <is>
@@ -31923,10 +31661,10 @@
         <v>20</v>
       </c>
       <c r="I133" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J133" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K133" s="13" t="n">
         <v>29</v>
@@ -31935,7 +31673,7 @@
         <v>2</v>
       </c>
       <c r="M133" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N133" s="14" t="n">
         <v>5</v>
@@ -32023,10 +31761,8 @@
       <c r="AI133" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ133" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ133" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK133" s="18" t="inlineStr">
         <is>
@@ -32159,10 +31895,10 @@
         <v>18</v>
       </c>
       <c r="I134" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J134" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K134" s="13" t="n">
         <v>29</v>
@@ -32171,7 +31907,7 @@
         <v>4</v>
       </c>
       <c r="M134" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134" s="14" t="n">
         <v>5</v>
@@ -32259,10 +31995,8 @@
       <c r="AI134" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ134" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ134" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK134" s="18" t="inlineStr">
         <is>
@@ -32381,9 +32115,9 @@
           <t>221495@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F135" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F135" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G135" s="12" t="inlineStr">
@@ -32395,10 +32129,10 @@
         <v>21</v>
       </c>
       <c r="I135" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J135" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K135" s="13" t="n">
         <v>29</v>
@@ -32407,7 +32141,7 @@
         <v>1</v>
       </c>
       <c r="M135" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N135" s="14" t="n">
         <v>5</v>
@@ -32495,10 +32229,8 @@
       <c r="AI135" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ135" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ135" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK135" s="18" t="inlineStr">
         <is>
@@ -32631,10 +32363,10 @@
         <v>22</v>
       </c>
       <c r="I136" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J136" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K136" s="13" t="n">
         <v>29</v>
@@ -32643,7 +32375,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N136" s="14" t="n">
         <v>5</v>
@@ -32731,10 +32463,8 @@
       <c r="AI136" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ136" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ136" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK136" s="18" t="inlineStr">
         <is>
@@ -32867,10 +32597,10 @@
         <v>22</v>
       </c>
       <c r="I137" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J137" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K137" s="13" t="n">
         <v>29</v>
@@ -32879,7 +32609,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N137" s="14" t="n">
         <v>5</v>
@@ -32967,10 +32697,8 @@
       <c r="AI137" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ137" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ137" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK137" s="18" t="inlineStr">
         <is>
@@ -33103,10 +32831,10 @@
         <v>20</v>
       </c>
       <c r="I138" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J138" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K138" s="13" t="n">
         <v>29</v>
@@ -33115,7 +32843,7 @@
         <v>2</v>
       </c>
       <c r="M138" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N138" s="14" t="n">
         <v>5</v>
@@ -33203,10 +32931,8 @@
       <c r="AI138" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ138" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ138" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK138" s="18" t="inlineStr">
         <is>
@@ -33325,9 +33051,9 @@
           <t>221507@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F139" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F139" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G139" s="12" t="inlineStr">
@@ -33339,10 +33065,10 @@
         <v>21</v>
       </c>
       <c r="I139" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J139" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K139" s="13" t="n">
         <v>29</v>
@@ -33351,7 +33077,7 @@
         <v>1</v>
       </c>
       <c r="M139" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N139" s="14" t="n">
         <v>5</v>
@@ -33439,10 +33165,8 @@
       <c r="AI139" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ139" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ139" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK139" s="18" t="inlineStr">
         <is>
@@ -33561,9 +33285,9 @@
           <t>221508@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F140" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F140" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G140" s="12" t="inlineStr">
@@ -33575,10 +33299,10 @@
         <v>19</v>
       </c>
       <c r="I140" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J140" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K140" s="13" t="n">
         <v>29</v>
@@ -33587,7 +33311,7 @@
         <v>3</v>
       </c>
       <c r="M140" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N140" s="14" t="n">
         <v>5</v>
@@ -33675,10 +33399,8 @@
       <c r="AI140" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ140" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ140" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK140" s="18" t="inlineStr">
         <is>
@@ -33811,10 +33533,10 @@
         <v>20</v>
       </c>
       <c r="I141" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J141" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K141" s="13" t="n">
         <v>29</v>
@@ -33823,7 +33545,7 @@
         <v>2</v>
       </c>
       <c r="M141" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N141" s="14" t="n">
         <v>5</v>
@@ -33911,10 +33633,8 @@
       <c r="AI141" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ141" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ141" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK141" s="18" t="inlineStr">
         <is>
@@ -34047,10 +33767,10 @@
         <v>22</v>
       </c>
       <c r="I142" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J142" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K142" s="13" t="n">
         <v>29</v>
@@ -34059,7 +33779,7 @@
         <v>0</v>
       </c>
       <c r="M142" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N142" s="14" t="n">
         <v>5</v>
@@ -34147,10 +33867,8 @@
       <c r="AI142" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ142" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ142" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK142" s="18" t="inlineStr">
         <is>
@@ -34269,9 +33987,9 @@
           <t>221522@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F143" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F143" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G143" s="12" t="inlineStr">
@@ -34283,10 +34001,10 @@
         <v>19</v>
       </c>
       <c r="I143" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J143" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K143" s="13" t="n">
         <v>29</v>
@@ -34295,7 +34013,7 @@
         <v>3</v>
       </c>
       <c r="M143" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N143" s="14" t="n">
         <v>5</v>
@@ -34383,10 +34101,8 @@
       <c r="AI143" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ143" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ143" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK143" s="18" t="inlineStr">
         <is>
@@ -34505,9 +34221,9 @@
           <t>221523@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F144" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F144" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G144" s="12" t="inlineStr">
@@ -34519,10 +34235,10 @@
         <v>21</v>
       </c>
       <c r="I144" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J144" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K144" s="13" t="n">
         <v>29</v>
@@ -34531,7 +34247,7 @@
         <v>1</v>
       </c>
       <c r="M144" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N144" s="14" t="n">
         <v>5</v>
@@ -34619,10 +34335,8 @@
       <c r="AI144" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ144" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ144" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK144" s="18" t="inlineStr">
         <is>
@@ -34741,9 +34455,9 @@
           <t>221527@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F145" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F145" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G145" s="12" t="inlineStr">
@@ -34755,10 +34469,10 @@
         <v>19</v>
       </c>
       <c r="I145" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J145" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K145" s="13" t="n">
         <v>29</v>
@@ -34767,7 +34481,7 @@
         <v>3</v>
       </c>
       <c r="M145" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N145" s="14" t="n">
         <v>5</v>
@@ -34855,10 +34569,8 @@
       <c r="AI145" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ145" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ145" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK145" s="18" t="inlineStr">
         <is>
@@ -34977,9 +34689,9 @@
           <t>221536@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F146" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G146" s="12" t="inlineStr">
@@ -34991,10 +34703,10 @@
         <v>19</v>
       </c>
       <c r="I146" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J146" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K146" s="13" t="n">
         <v>29</v>
@@ -35003,7 +34715,7 @@
         <v>3</v>
       </c>
       <c r="M146" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N146" s="14" t="n">
         <v>5</v>
@@ -35091,10 +34803,8 @@
       <c r="AI146" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ146" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ146" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK146" s="18" t="inlineStr">
         <is>
@@ -35227,10 +34937,10 @@
         <v>20</v>
       </c>
       <c r="I147" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J147" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K147" s="13" t="n">
         <v>29</v>
@@ -35239,7 +34949,7 @@
         <v>2</v>
       </c>
       <c r="M147" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N147" s="14" t="n">
         <v>5</v>
@@ -35327,10 +35037,8 @@
       <c r="AI147" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ147" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ147" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK147" s="18" t="inlineStr">
         <is>
@@ -35463,10 +35171,10 @@
         <v>20</v>
       </c>
       <c r="I148" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J148" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K148" s="13" t="n">
         <v>29</v>
@@ -35475,7 +35183,7 @@
         <v>2</v>
       </c>
       <c r="M148" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N148" s="14" t="n">
         <v>5</v>
@@ -35563,10 +35271,8 @@
       <c r="AI148" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ148" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ148" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK148" s="18" t="inlineStr">
         <is>
@@ -35699,10 +35405,10 @@
         <v>22</v>
       </c>
       <c r="I149" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J149" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K149" s="13" t="n">
         <v>29</v>
@@ -35711,7 +35417,7 @@
         <v>0</v>
       </c>
       <c r="M149" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N149" s="14" t="n">
         <v>5</v>
@@ -35799,10 +35505,8 @@
       <c r="AI149" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ149" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ149" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK149" s="18" t="inlineStr">
         <is>
@@ -35921,9 +35625,9 @@
           <t>221558@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F150" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F150" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G150" s="12" t="inlineStr">
@@ -35935,10 +35639,10 @@
         <v>21</v>
       </c>
       <c r="I150" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J150" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K150" s="13" t="n">
         <v>29</v>
@@ -35947,7 +35651,7 @@
         <v>1</v>
       </c>
       <c r="M150" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N150" s="14" t="n">
         <v>5</v>
@@ -36035,10 +35739,8 @@
       <c r="AI150" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ150" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ150" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK150" s="18" t="inlineStr">
         <is>
@@ -36171,10 +35873,10 @@
         <v>22</v>
       </c>
       <c r="I151" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J151" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K151" s="13" t="n">
         <v>29</v>
@@ -36183,7 +35885,7 @@
         <v>0</v>
       </c>
       <c r="M151" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N151" s="14" t="n">
         <v>5</v>
@@ -36271,10 +35973,8 @@
       <c r="AI151" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ151" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ151" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK151" s="18" t="inlineStr">
         <is>
@@ -36393,9 +36093,9 @@
           <t>221569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F152" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G152" s="12" t="inlineStr">
@@ -36407,10 +36107,10 @@
         <v>19</v>
       </c>
       <c r="I152" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J152" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K152" s="13" t="n">
         <v>29</v>
@@ -36419,7 +36119,7 @@
         <v>3</v>
       </c>
       <c r="M152" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N152" s="14" t="n">
         <v>5</v>
@@ -36507,10 +36207,8 @@
       <c r="AI152" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ152" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ152" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK152" s="18" t="inlineStr">
         <is>
@@ -36629,9 +36327,9 @@
           <t>221574@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F153" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F153" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G153" s="12" t="inlineStr">
@@ -36643,10 +36341,10 @@
         <v>19</v>
       </c>
       <c r="I153" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J153" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K153" s="13" t="n">
         <v>29</v>
@@ -36655,7 +36353,7 @@
         <v>3</v>
       </c>
       <c r="M153" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N153" s="14" t="n">
         <v>5</v>
@@ -36743,10 +36441,8 @@
       <c r="AI153" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ153" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ153" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK153" s="18" t="inlineStr">
         <is>
@@ -36879,10 +36575,10 @@
         <v>20</v>
       </c>
       <c r="I154" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J154" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K154" s="13" t="n">
         <v>29</v>
@@ -36891,7 +36587,7 @@
         <v>2</v>
       </c>
       <c r="M154" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N154" s="14" t="n">
         <v>5</v>
@@ -36979,10 +36675,8 @@
       <c r="AI154" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ154" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ154" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK154" s="18" t="inlineStr">
         <is>
@@ -37101,9 +36795,9 @@
           <t>221579@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F155" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F155" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G155" s="12" t="inlineStr">
@@ -37115,10 +36809,10 @@
         <v>19</v>
       </c>
       <c r="I155" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J155" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K155" s="13" t="n">
         <v>29</v>
@@ -37127,7 +36821,7 @@
         <v>3</v>
       </c>
       <c r="M155" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N155" s="14" t="n">
         <v>5</v>
@@ -37215,10 +36909,8 @@
       <c r="AI155" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ155" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ155" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK155" s="18" t="inlineStr">
         <is>
@@ -37337,9 +37029,9 @@
           <t>221583@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F156" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F156" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G156" s="12" t="inlineStr">
@@ -37351,10 +37043,10 @@
         <v>19</v>
       </c>
       <c r="I156" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J156" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K156" s="13" t="n">
         <v>29</v>
@@ -37363,7 +37055,7 @@
         <v>3</v>
       </c>
       <c r="M156" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N156" s="14" t="n">
         <v>5</v>
@@ -37451,10 +37143,8 @@
       <c r="AI156" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ156" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ156" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK156" s="18" t="inlineStr">
         <is>
@@ -37573,9 +37263,9 @@
           <t>221584@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F157" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F157" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G157" s="12" t="inlineStr">
@@ -37587,10 +37277,10 @@
         <v>21</v>
       </c>
       <c r="I157" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J157" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K157" s="13" t="n">
         <v>29</v>
@@ -37599,7 +37289,7 @@
         <v>1</v>
       </c>
       <c r="M157" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N157" s="14" t="n">
         <v>5</v>
@@ -37687,10 +37377,8 @@
       <c r="AI157" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ157" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ157" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK157" s="18" t="inlineStr">
         <is>
@@ -37809,9 +37497,9 @@
           <t>221587@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F158" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F158" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G158" s="12" t="inlineStr">
@@ -37823,10 +37511,10 @@
         <v>21</v>
       </c>
       <c r="I158" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J158" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K158" s="13" t="n">
         <v>29</v>
@@ -37835,7 +37523,7 @@
         <v>1</v>
       </c>
       <c r="M158" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N158" s="14" t="n">
         <v>5</v>
@@ -37923,10 +37611,8 @@
       <c r="AI158" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ158" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ158" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK158" s="18" t="inlineStr">
         <is>
@@ -38059,10 +37745,10 @@
         <v>20</v>
       </c>
       <c r="I159" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J159" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K159" s="13" t="n">
         <v>29</v>
@@ -38071,7 +37757,7 @@
         <v>2</v>
       </c>
       <c r="M159" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N159" s="14" t="n">
         <v>5</v>
@@ -38159,10 +37845,8 @@
       <c r="AI159" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ159" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ159" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK159" s="18" t="inlineStr">
         <is>
@@ -38295,10 +37979,10 @@
         <v>20</v>
       </c>
       <c r="I160" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J160" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K160" s="13" t="n">
         <v>29</v>
@@ -38307,7 +37991,7 @@
         <v>2</v>
       </c>
       <c r="M160" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N160" s="14" t="n">
         <v>5</v>
@@ -38395,10 +38079,8 @@
       <c r="AI160" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ160" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ160" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK160" s="18" t="inlineStr">
         <is>
@@ -38517,9 +38199,9 @@
           <t>221600@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F161" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G161" s="12" t="inlineStr">
@@ -38531,10 +38213,10 @@
         <v>19</v>
       </c>
       <c r="I161" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J161" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K161" s="13" t="n">
         <v>29</v>
@@ -38543,7 +38225,7 @@
         <v>3</v>
       </c>
       <c r="M161" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N161" s="14" t="n">
         <v>5</v>
@@ -38631,10 +38313,8 @@
       <c r="AI161" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ161" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ161" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK161" s="18" t="inlineStr">
         <is>
@@ -38767,10 +38447,10 @@
         <v>18</v>
       </c>
       <c r="I162" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J162" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K162" s="13" t="n">
         <v>29</v>
@@ -38779,7 +38459,7 @@
         <v>4</v>
       </c>
       <c r="M162" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N162" s="14" t="n">
         <v>5</v>
@@ -38867,10 +38547,8 @@
       <c r="AI162" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ162" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ162" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK162" s="18" t="inlineStr">
         <is>
@@ -38989,9 +38667,9 @@
           <t>221617@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F163" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F163" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G163" s="12" t="inlineStr">
@@ -39003,10 +38681,10 @@
         <v>21</v>
       </c>
       <c r="I163" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J163" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K163" s="13" t="n">
         <v>29</v>
@@ -39015,7 +38693,7 @@
         <v>1</v>
       </c>
       <c r="M163" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N163" s="14" t="n">
         <v>5</v>
@@ -39103,10 +38781,8 @@
       <c r="AI163" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ163" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ163" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK163" s="18" t="inlineStr">
         <is>
@@ -39225,9 +38901,9 @@
           <t>221622@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F164" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F164" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G164" s="12" t="inlineStr">
@@ -39239,10 +38915,10 @@
         <v>21</v>
       </c>
       <c r="I164" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J164" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K164" s="13" t="n">
         <v>29</v>
@@ -39251,7 +38927,7 @@
         <v>1</v>
       </c>
       <c r="M164" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N164" s="14" t="n">
         <v>5</v>
@@ -39339,10 +39015,8 @@
       <c r="AI164" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ164" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ164" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK164" s="18" t="inlineStr">
         <is>
@@ -39475,10 +39149,10 @@
         <v>20</v>
       </c>
       <c r="I165" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J165" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K165" s="13" t="n">
         <v>29</v>
@@ -39487,7 +39161,7 @@
         <v>2</v>
       </c>
       <c r="M165" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N165" s="14" t="n">
         <v>5</v>
@@ -39575,10 +39249,8 @@
       <c r="AI165" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ165" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ165" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK165" s="18" t="inlineStr">
         <is>
@@ -39711,10 +39383,10 @@
         <v>20</v>
       </c>
       <c r="I166" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J166" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K166" s="13" t="n">
         <v>29</v>
@@ -39723,7 +39395,7 @@
         <v>2</v>
       </c>
       <c r="M166" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N166" s="14" t="n">
         <v>5</v>
@@ -39811,10 +39483,8 @@
       <c r="AI166" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ166" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ166" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK166" s="18" t="inlineStr">
         <is>
@@ -39947,10 +39617,10 @@
         <v>22</v>
       </c>
       <c r="I167" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J167" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K167" s="13" t="n">
         <v>29</v>
@@ -39959,7 +39629,7 @@
         <v>0</v>
       </c>
       <c r="M167" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N167" s="14" t="n">
         <v>5</v>
@@ -40047,10 +39717,8 @@
       <c r="AI167" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ167" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ167" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK167" s="18" t="inlineStr">
         <is>
@@ -40183,10 +39851,10 @@
         <v>22</v>
       </c>
       <c r="I168" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J168" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K168" s="13" t="n">
         <v>29</v>
@@ -40195,7 +39863,7 @@
         <v>0</v>
       </c>
       <c r="M168" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N168" s="14" t="n">
         <v>5</v>
@@ -40283,10 +39951,8 @@
       <c r="AI168" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ168" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ168" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK168" s="18" t="inlineStr">
         <is>
@@ -40419,10 +40085,10 @@
         <v>22</v>
       </c>
       <c r="I169" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J169" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K169" s="13" t="n">
         <v>29</v>
@@ -40431,7 +40097,7 @@
         <v>0</v>
       </c>
       <c r="M169" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N169" s="14" t="n">
         <v>5</v>
@@ -40519,10 +40185,8 @@
       <c r="AI169" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ169" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ169" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK169" s="18" t="inlineStr">
         <is>
@@ -40641,9 +40305,9 @@
           <t>221649@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F170" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F170" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G170" s="12" t="inlineStr">
@@ -40655,10 +40319,10 @@
         <v>21</v>
       </c>
       <c r="I170" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J170" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K170" s="13" t="n">
         <v>29</v>
@@ -40667,7 +40331,7 @@
         <v>1</v>
       </c>
       <c r="M170" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N170" s="14" t="n">
         <v>5</v>
@@ -40755,10 +40419,8 @@
       <c r="AI170" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ170" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ170" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK170" s="18" t="inlineStr">
         <is>
@@ -40891,10 +40553,10 @@
         <v>20</v>
       </c>
       <c r="I171" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J171" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K171" s="13" t="n">
         <v>29</v>
@@ -40903,7 +40565,7 @@
         <v>2</v>
       </c>
       <c r="M171" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N171" s="14" t="n">
         <v>5</v>
@@ -40991,10 +40653,8 @@
       <c r="AI171" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ171" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ171" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK171" s="18" t="inlineStr">
         <is>
@@ -41113,9 +40773,9 @@
           <t>221654@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F172" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F172" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G172" s="12" t="inlineStr">
@@ -41127,10 +40787,10 @@
         <v>21</v>
       </c>
       <c r="I172" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J172" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K172" s="13" t="n">
         <v>29</v>
@@ -41139,7 +40799,7 @@
         <v>1</v>
       </c>
       <c r="M172" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N172" s="14" t="n">
         <v>5</v>
@@ -41227,10 +40887,8 @@
       <c r="AI172" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ172" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ172" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK172" s="18" t="inlineStr">
         <is>
@@ -41349,9 +41007,9 @@
           <t>221660@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F173" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F173" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G173" s="12" t="inlineStr">
@@ -41363,10 +41021,10 @@
         <v>21</v>
       </c>
       <c r="I173" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J173" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K173" s="13" t="n">
         <v>29</v>
@@ -41375,7 +41033,7 @@
         <v>1</v>
       </c>
       <c r="M173" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N173" s="14" t="n">
         <v>5</v>
@@ -41463,10 +41121,8 @@
       <c r="AI173" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ173" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ173" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK173" s="18" t="inlineStr">
         <is>
@@ -41599,10 +41255,10 @@
         <v>20</v>
       </c>
       <c r="I174" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J174" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K174" s="13" t="n">
         <v>29</v>
@@ -41611,7 +41267,7 @@
         <v>2</v>
       </c>
       <c r="M174" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N174" s="14" t="n">
         <v>5</v>
@@ -41699,10 +41355,8 @@
       <c r="AI174" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ174" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ174" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK174" s="18" t="inlineStr">
         <is>
@@ -41821,9 +41475,9 @@
           <t>221675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F175" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G175" s="12" t="inlineStr">
@@ -41835,10 +41489,10 @@
         <v>19</v>
       </c>
       <c r="I175" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J175" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K175" s="13" t="n">
         <v>29</v>
@@ -41847,7 +41501,7 @@
         <v>3</v>
       </c>
       <c r="M175" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N175" s="14" t="n">
         <v>5</v>
@@ -41935,10 +41589,8 @@
       <c r="AI175" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ175" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ175" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK175" s="18" t="inlineStr">
         <is>
@@ -42071,10 +41723,10 @@
         <v>18</v>
       </c>
       <c r="I176" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J176" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K176" s="13" t="n">
         <v>29</v>
@@ -42083,7 +41735,7 @@
         <v>4</v>
       </c>
       <c r="M176" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N176" s="14" t="n">
         <v>5</v>
@@ -42171,10 +41823,8 @@
       <c r="AI176" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ176" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ176" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK176" s="18" t="inlineStr">
         <is>
@@ -42307,10 +41957,10 @@
         <v>22</v>
       </c>
       <c r="I177" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J177" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K177" s="13" t="n">
         <v>29</v>
@@ -42319,7 +41969,7 @@
         <v>0</v>
       </c>
       <c r="M177" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N177" s="14" t="n">
         <v>5</v>
@@ -42407,10 +42057,8 @@
       <c r="AI177" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ177" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ177" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK177" s="18" t="inlineStr">
         <is>
@@ -42543,10 +42191,10 @@
         <v>22</v>
       </c>
       <c r="I178" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J178" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K178" s="13" t="n">
         <v>29</v>
@@ -42555,7 +42203,7 @@
         <v>0</v>
       </c>
       <c r="M178" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N178" s="14" t="n">
         <v>5</v>
@@ -42643,10 +42291,8 @@
       <c r="AI178" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ178" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ178" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK178" s="18" t="inlineStr">
         <is>
@@ -42779,10 +42425,10 @@
         <v>20</v>
       </c>
       <c r="I179" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J179" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K179" s="13" t="n">
         <v>29</v>
@@ -42791,7 +42437,7 @@
         <v>2</v>
       </c>
       <c r="M179" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N179" s="14" t="n">
         <v>5</v>
@@ -42879,10 +42525,8 @@
       <c r="AI179" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ179" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ179" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK179" s="18" t="inlineStr">
         <is>
@@ -43015,10 +42659,10 @@
         <v>22</v>
       </c>
       <c r="I180" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J180" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K180" s="13" t="n">
         <v>29</v>
@@ -43027,7 +42671,7 @@
         <v>0</v>
       </c>
       <c r="M180" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N180" s="14" t="n">
         <v>5</v>
@@ -43115,10 +42759,8 @@
       <c r="AI180" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ180" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ180" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK180" s="18" t="inlineStr">
         <is>
@@ -43237,9 +42879,9 @@
           <t>221720@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F181" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F181" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G181" s="12" t="inlineStr">
@@ -43251,10 +42893,10 @@
         <v>21</v>
       </c>
       <c r="I181" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J181" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K181" s="13" t="n">
         <v>29</v>
@@ -43263,7 +42905,7 @@
         <v>1</v>
       </c>
       <c r="M181" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N181" s="14" t="n">
         <v>5</v>
@@ -43351,10 +42993,8 @@
       <c r="AI181" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ181" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ181" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK181" s="18" t="inlineStr">
         <is>
@@ -43473,9 +43113,9 @@
           <t>221730@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F182" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F182" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G182" s="12" t="inlineStr">
@@ -43487,10 +43127,10 @@
         <v>19</v>
       </c>
       <c r="I182" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J182" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K182" s="13" t="n">
         <v>29</v>
@@ -43499,7 +43139,7 @@
         <v>3</v>
       </c>
       <c r="M182" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N182" s="14" t="n">
         <v>5</v>
@@ -43587,10 +43227,8 @@
       <c r="AI182" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ182" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ182" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK182" s="18" t="inlineStr">
         <is>
@@ -43723,10 +43361,10 @@
         <v>22</v>
       </c>
       <c r="I183" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J183" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K183" s="13" t="n">
         <v>29</v>
@@ -43735,7 +43373,7 @@
         <v>0</v>
       </c>
       <c r="M183" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N183" s="14" t="n">
         <v>5</v>
@@ -43823,10 +43461,8 @@
       <c r="AI183" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ183" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ183" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK183" s="18" t="inlineStr">
         <is>
@@ -43959,10 +43595,10 @@
         <v>20</v>
       </c>
       <c r="I184" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J184" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K184" s="13" t="n">
         <v>29</v>
@@ -43971,7 +43607,7 @@
         <v>2</v>
       </c>
       <c r="M184" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N184" s="14" t="n">
         <v>5</v>
@@ -44059,10 +43695,8 @@
       <c r="AI184" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ184" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ184" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK184" s="18" t="inlineStr">
         <is>
@@ -44181,9 +43815,9 @@
           <t>221756@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F185" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G185" s="12" t="inlineStr">
@@ -44195,10 +43829,10 @@
         <v>19</v>
       </c>
       <c r="I185" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J185" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K185" s="13" t="n">
         <v>29</v>
@@ -44207,7 +43841,7 @@
         <v>3</v>
       </c>
       <c r="M185" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N185" s="14" t="n">
         <v>5</v>
@@ -44295,10 +43929,8 @@
       <c r="AI185" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ185" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ185" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK185" s="18" t="inlineStr">
         <is>
@@ -44417,9 +44049,9 @@
           <t>221764@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F186" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F186" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G186" s="12" t="inlineStr">
@@ -44431,10 +44063,10 @@
         <v>19</v>
       </c>
       <c r="I186" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J186" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K186" s="13" t="n">
         <v>29</v>
@@ -44443,7 +44075,7 @@
         <v>3</v>
       </c>
       <c r="M186" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N186" s="14" t="n">
         <v>5</v>
@@ -44531,10 +44163,8 @@
       <c r="AI186" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ186" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ186" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK186" s="18" t="inlineStr">
         <is>
@@ -44667,10 +44297,10 @@
         <v>22</v>
       </c>
       <c r="I187" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J187" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K187" s="13" t="n">
         <v>29</v>
@@ -44679,7 +44309,7 @@
         <v>0</v>
       </c>
       <c r="M187" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N187" s="14" t="n">
         <v>5</v>
@@ -44767,10 +44397,8 @@
       <c r="AI187" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ187" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ187" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK187" s="18" t="inlineStr">
         <is>
@@ -44889,9 +44517,9 @@
           <t>221774@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F188" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F188" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G188" s="12" t="inlineStr">
@@ -44903,10 +44531,10 @@
         <v>21</v>
       </c>
       <c r="I188" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J188" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K188" s="13" t="n">
         <v>29</v>
@@ -44915,7 +44543,7 @@
         <v>1</v>
       </c>
       <c r="M188" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N188" s="14" t="n">
         <v>5</v>
@@ -45003,10 +44631,8 @@
       <c r="AI188" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ188" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ188" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK188" s="18" t="inlineStr">
         <is>
@@ -45125,9 +44751,9 @@
           <t>221779@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F189" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F189" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G189" s="12" t="inlineStr">
@@ -45139,10 +44765,10 @@
         <v>19</v>
       </c>
       <c r="I189" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J189" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K189" s="13" t="n">
         <v>29</v>
@@ -45151,7 +44777,7 @@
         <v>3</v>
       </c>
       <c r="M189" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N189" s="14" t="n">
         <v>5</v>
@@ -45239,10 +44865,8 @@
       <c r="AI189" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ189" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ189" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK189" s="18" t="inlineStr">
         <is>
@@ -45361,9 +44985,9 @@
           <t>221799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F190" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G190" s="12" t="inlineStr">
@@ -45375,10 +44999,10 @@
         <v>19</v>
       </c>
       <c r="I190" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J190" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K190" s="13" t="n">
         <v>29</v>
@@ -45387,7 +45011,7 @@
         <v>3</v>
       </c>
       <c r="M190" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N190" s="14" t="n">
         <v>5</v>
@@ -45475,10 +45099,8 @@
       <c r="AI190" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ190" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ190" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK190" s="18" t="inlineStr">
         <is>
@@ -45611,10 +45233,10 @@
         <v>20</v>
       </c>
       <c r="I191" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J191" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K191" s="13" t="n">
         <v>29</v>
@@ -45623,7 +45245,7 @@
         <v>2</v>
       </c>
       <c r="M191" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N191" s="14" t="n">
         <v>5</v>
@@ -45711,10 +45333,8 @@
       <c r="AI191" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ191" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ191" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK191" s="18" t="inlineStr">
         <is>
@@ -45847,10 +45467,10 @@
         <v>22</v>
       </c>
       <c r="I192" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J192" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K192" s="13" t="n">
         <v>29</v>
@@ -45859,7 +45479,7 @@
         <v>0</v>
       </c>
       <c r="M192" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N192" s="14" t="n">
         <v>5</v>
@@ -45947,10 +45567,8 @@
       <c r="AI192" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ192" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ192" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK192" s="18" t="inlineStr">
         <is>
@@ -46083,10 +45701,10 @@
         <v>20</v>
       </c>
       <c r="I193" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J193" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K193" s="13" t="n">
         <v>29</v>
@@ -46095,7 +45713,7 @@
         <v>2</v>
       </c>
       <c r="M193" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N193" s="14" t="n">
         <v>5</v>
@@ -46183,10 +45801,8 @@
       <c r="AI193" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ193" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ193" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK193" s="18" t="inlineStr">
         <is>
@@ -46319,10 +45935,10 @@
         <v>20</v>
       </c>
       <c r="I194" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J194" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K194" s="13" t="n">
         <v>29</v>
@@ -46331,7 +45947,7 @@
         <v>2</v>
       </c>
       <c r="M194" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N194" s="14" t="n">
         <v>5</v>
@@ -46419,10 +46035,8 @@
       <c r="AI194" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ194" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ194" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK194" s="18" t="inlineStr">
         <is>
@@ -46555,10 +46169,10 @@
         <v>20</v>
       </c>
       <c r="I195" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J195" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K195" s="13" t="n">
         <v>29</v>
@@ -46567,7 +46181,7 @@
         <v>2</v>
       </c>
       <c r="M195" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N195" s="14" t="n">
         <v>5</v>
@@ -46655,10 +46269,8 @@
       <c r="AI195" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ195" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ195" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK195" s="18" t="inlineStr">
         <is>
@@ -46791,10 +46403,10 @@
         <v>20</v>
       </c>
       <c r="I196" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J196" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K196" s="13" t="n">
         <v>29</v>
@@ -46803,7 +46415,7 @@
         <v>2</v>
       </c>
       <c r="M196" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N196" s="14" t="n">
         <v>5</v>
@@ -46891,10 +46503,8 @@
       <c r="AI196" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ196" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ196" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK196" s="18" t="inlineStr">
         <is>
@@ -47013,9 +46623,9 @@
           <t>221833@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F197" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F197" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G197" s="12" t="inlineStr">
@@ -47027,10 +46637,10 @@
         <v>19</v>
       </c>
       <c r="I197" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J197" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K197" s="13" t="n">
         <v>29</v>
@@ -47039,7 +46649,7 @@
         <v>3</v>
       </c>
       <c r="M197" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N197" s="14" t="n">
         <v>5</v>
@@ -47127,10 +46737,8 @@
       <c r="AI197" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ197" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ197" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK197" s="18" t="inlineStr">
         <is>
@@ -47263,10 +46871,10 @@
         <v>20</v>
       </c>
       <c r="I198" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J198" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K198" s="13" t="n">
         <v>29</v>
@@ -47275,7 +46883,7 @@
         <v>2</v>
       </c>
       <c r="M198" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N198" s="14" t="n">
         <v>5</v>
@@ -47363,10 +46971,8 @@
       <c r="AI198" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ198" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ198" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK198" s="18" t="inlineStr">
         <is>
@@ -47499,10 +47105,10 @@
         <v>20</v>
       </c>
       <c r="I199" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J199" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K199" s="13" t="n">
         <v>29</v>
@@ -47511,7 +47117,7 @@
         <v>2</v>
       </c>
       <c r="M199" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N199" s="14" t="n">
         <v>5</v>
@@ -47599,10 +47205,8 @@
       <c r="AI199" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ199" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ199" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK199" s="18" t="inlineStr">
         <is>
@@ -47735,10 +47339,10 @@
         <v>18</v>
       </c>
       <c r="I200" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J200" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K200" s="13" t="n">
         <v>29</v>
@@ -47747,7 +47351,7 @@
         <v>4</v>
       </c>
       <c r="M200" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N200" s="14" t="n">
         <v>5</v>
@@ -47835,10 +47439,8 @@
       <c r="AI200" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ200" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ200" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK200" s="18" t="inlineStr">
         <is>
@@ -47971,10 +47573,10 @@
         <v>20</v>
       </c>
       <c r="I201" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J201" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K201" s="13" t="n">
         <v>29</v>
@@ -47983,7 +47585,7 @@
         <v>2</v>
       </c>
       <c r="M201" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N201" s="14" t="n">
         <v>5</v>
@@ -48071,10 +47673,8 @@
       <c r="AI201" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ201" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ201" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK201" s="18" t="inlineStr">
         <is>
@@ -48207,10 +47807,10 @@
         <v>22</v>
       </c>
       <c r="I202" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J202" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K202" s="13" t="n">
         <v>29</v>
@@ -48219,7 +47819,7 @@
         <v>0</v>
       </c>
       <c r="M202" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N202" s="14" t="n">
         <v>5</v>
@@ -48307,10 +47907,8 @@
       <c r="AI202" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ202" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ202" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK202" s="18" t="inlineStr">
         <is>
@@ -48429,9 +48027,9 @@
           <t>221866@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F203" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F203" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G203" s="12" t="inlineStr">
@@ -48443,10 +48041,10 @@
         <v>21</v>
       </c>
       <c r="I203" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J203" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K203" s="13" t="n">
         <v>29</v>
@@ -48455,7 +48053,7 @@
         <v>1</v>
       </c>
       <c r="M203" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N203" s="14" t="n">
         <v>5</v>
@@ -48543,10 +48141,8 @@
       <c r="AI203" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ203" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ203" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK203" s="18" t="inlineStr">
         <is>
@@ -48679,10 +48275,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J204" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K204" s="13" t="n">
         <v>29</v>
@@ -48691,7 +48287,7 @@
         <v>2</v>
       </c>
       <c r="M204" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N204" s="14" t="n">
         <v>5</v>
@@ -48779,10 +48375,8 @@
       <c r="AI204" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ204" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ204" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK204" s="18" t="inlineStr">
         <is>
@@ -48915,10 +48509,10 @@
         <v>22</v>
       </c>
       <c r="I205" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J205" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K205" s="13" t="n">
         <v>29</v>
@@ -48927,7 +48521,7 @@
         <v>0</v>
       </c>
       <c r="M205" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N205" s="14" t="n">
         <v>5</v>
@@ -49015,10 +48609,8 @@
       <c r="AI205" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ205" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ205" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK205" s="18" t="inlineStr">
         <is>
@@ -49151,10 +48743,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J206" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K206" s="13" t="n">
         <v>29</v>
@@ -49163,7 +48755,7 @@
         <v>0</v>
       </c>
       <c r="M206" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N206" s="14" t="n">
         <v>5</v>
@@ -49251,10 +48843,8 @@
       <c r="AI206" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ206" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ206" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK206" s="18" t="inlineStr">
         <is>
@@ -49387,10 +48977,10 @@
         <v>22</v>
       </c>
       <c r="I207" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J207" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K207" s="13" t="n">
         <v>29</v>
@@ -49399,7 +48989,7 @@
         <v>0</v>
       </c>
       <c r="M207" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N207" s="14" t="n">
         <v>5</v>
@@ -49487,10 +49077,8 @@
       <c r="AI207" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ207" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ207" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK207" s="18" t="inlineStr">
         <is>
@@ -49623,10 +49211,10 @@
         <v>22</v>
       </c>
       <c r="I208" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J208" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K208" s="13" t="n">
         <v>29</v>
@@ -49635,7 +49223,7 @@
         <v>0</v>
       </c>
       <c r="M208" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N208" s="14" t="n">
         <v>5</v>
@@ -49723,10 +49311,8 @@
       <c r="AI208" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ208" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ208" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK208" s="18" t="inlineStr">
         <is>
@@ -49845,9 +49431,9 @@
           <t>221904@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F209" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F209" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G209" s="12" t="inlineStr">
@@ -49859,10 +49445,10 @@
         <v>21</v>
       </c>
       <c r="I209" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J209" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K209" s="13" t="n">
         <v>29</v>
@@ -49871,7 +49457,7 @@
         <v>1</v>
       </c>
       <c r="M209" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N209" s="14" t="n">
         <v>5</v>
@@ -49959,10 +49545,8 @@
       <c r="AI209" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ209" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ209" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK209" s="18" t="inlineStr">
         <is>
@@ -50095,10 +49679,10 @@
         <v>20</v>
       </c>
       <c r="I210" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J210" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K210" s="13" t="n">
         <v>29</v>
@@ -50107,7 +49691,7 @@
         <v>2</v>
       </c>
       <c r="M210" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N210" s="14" t="n">
         <v>5</v>
@@ -50195,10 +49779,8 @@
       <c r="AI210" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ210" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ210" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK210" s="18" t="inlineStr">
         <is>
@@ -50331,10 +49913,10 @@
         <v>20</v>
       </c>
       <c r="I211" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J211" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K211" s="13" t="n">
         <v>29</v>
@@ -50343,7 +49925,7 @@
         <v>2</v>
       </c>
       <c r="M211" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N211" s="14" t="n">
         <v>5</v>
@@ -50431,10 +50013,8 @@
       <c r="AI211" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ211" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ211" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK211" s="18" t="inlineStr">
         <is>
@@ -50553,9 +50133,9 @@
           <t>221914@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F212" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F212" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G212" s="12" t="inlineStr">
@@ -50567,10 +50147,10 @@
         <v>21</v>
       </c>
       <c r="I212" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J212" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K212" s="13" t="n">
         <v>29</v>
@@ -50579,7 +50159,7 @@
         <v>1</v>
       </c>
       <c r="M212" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N212" s="14" t="n">
         <v>5</v>
@@ -50667,10 +50247,8 @@
       <c r="AI212" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ212" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ212" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK212" s="18" t="inlineStr">
         <is>
@@ -50803,10 +50381,10 @@
         <v>22</v>
       </c>
       <c r="I213" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J213" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K213" s="13" t="n">
         <v>29</v>
@@ -50815,7 +50393,7 @@
         <v>0</v>
       </c>
       <c r="M213" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N213" s="14" t="n">
         <v>5</v>
@@ -50903,10 +50481,8 @@
       <c r="AI213" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ213" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ213" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK213" s="18" t="inlineStr">
         <is>
@@ -51025,9 +50601,9 @@
           <t>221923@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F214" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F214" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G214" s="12" t="inlineStr">
@@ -51039,10 +50615,10 @@
         <v>21</v>
       </c>
       <c r="I214" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J214" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K214" s="13" t="n">
         <v>29</v>
@@ -51051,7 +50627,7 @@
         <v>1</v>
       </c>
       <c r="M214" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N214" s="14" t="n">
         <v>5</v>
@@ -51139,10 +50715,8 @@
       <c r="AI214" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ214" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ214" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK214" s="18" t="inlineStr">
         <is>
@@ -51261,9 +50835,9 @@
           <t>221930@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F215" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F215" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G215" s="12" t="inlineStr">
@@ -51275,10 +50849,10 @@
         <v>19</v>
       </c>
       <c r="I215" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J215" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K215" s="13" t="n">
         <v>29</v>
@@ -51287,7 +50861,7 @@
         <v>3</v>
       </c>
       <c r="M215" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N215" s="14" t="n">
         <v>5</v>
@@ -51375,10 +50949,8 @@
       <c r="AI215" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ215" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ215" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK215" s="18" t="inlineStr">
         <is>
@@ -51497,9 +51069,9 @@
           <t>221933@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F216" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F216" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G216" s="12" t="inlineStr">
@@ -51511,10 +51083,10 @@
         <v>21</v>
       </c>
       <c r="I216" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J216" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K216" s="13" t="n">
         <v>29</v>
@@ -51523,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="M216" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N216" s="14" t="n">
         <v>5</v>
@@ -51611,10 +51183,8 @@
       <c r="AI216" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ216" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ216" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK216" s="18" t="inlineStr">
         <is>
@@ -51733,9 +51303,9 @@
           <t>221938@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F217" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G217" s="12" t="inlineStr">
@@ -51747,10 +51317,10 @@
         <v>19</v>
       </c>
       <c r="I217" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J217" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K217" s="13" t="n">
         <v>29</v>
@@ -51759,7 +51329,7 @@
         <v>3</v>
       </c>
       <c r="M217" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N217" s="14" t="n">
         <v>5</v>
@@ -51847,10 +51417,8 @@
       <c r="AI217" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ217" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ217" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK217" s="18" t="inlineStr">
         <is>
@@ -51983,10 +51551,10 @@
         <v>22</v>
       </c>
       <c r="I218" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J218" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K218" s="13" t="n">
         <v>29</v>
@@ -51995,7 +51563,7 @@
         <v>0</v>
       </c>
       <c r="M218" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N218" s="14" t="n">
         <v>5</v>
@@ -52083,10 +51651,8 @@
       <c r="AI218" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ218" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ218" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK218" s="18" t="inlineStr">
         <is>
@@ -52219,10 +51785,10 @@
         <v>18</v>
       </c>
       <c r="I219" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J219" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K219" s="13" t="n">
         <v>29</v>
@@ -52231,7 +51797,7 @@
         <v>4</v>
       </c>
       <c r="M219" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N219" s="14" t="n">
         <v>5</v>
@@ -52319,10 +51885,8 @@
       <c r="AI219" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ219" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ219" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK219" s="18" t="inlineStr">
         <is>
@@ -52441,9 +52005,9 @@
           <t>221948@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F220" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F220" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G220" s="12" t="inlineStr">
@@ -52455,10 +52019,10 @@
         <v>21</v>
       </c>
       <c r="I220" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J220" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K220" s="13" t="n">
         <v>29</v>
@@ -52467,7 +52031,7 @@
         <v>1</v>
       </c>
       <c r="M220" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N220" s="14" t="n">
         <v>5</v>
@@ -52555,10 +52119,8 @@
       <c r="AI220" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ220" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ220" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK220" s="18" t="inlineStr">
         <is>
@@ -52677,9 +52239,9 @@
           <t>221949@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F221" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F221" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G221" s="12" t="inlineStr">
@@ -52691,10 +52253,10 @@
         <v>21</v>
       </c>
       <c r="I221" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J221" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K221" s="13" t="n">
         <v>29</v>
@@ -52703,7 +52265,7 @@
         <v>1</v>
       </c>
       <c r="M221" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N221" s="14" t="n">
         <v>5</v>
@@ -52791,10 +52353,8 @@
       <c r="AI221" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ221" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ221" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK221" s="18" t="inlineStr">
         <is>
@@ -52927,10 +52487,10 @@
         <v>22</v>
       </c>
       <c r="I222" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J222" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K222" s="13" t="n">
         <v>29</v>
@@ -52939,7 +52499,7 @@
         <v>0</v>
       </c>
       <c r="M222" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N222" s="14" t="n">
         <v>5</v>
@@ -53027,10 +52587,8 @@
       <c r="AI222" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ222" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ222" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK222" s="18" t="inlineStr">
         <is>
@@ -53163,10 +52721,10 @@
         <v>22</v>
       </c>
       <c r="I223" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J223" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K223" s="13" t="n">
         <v>29</v>
@@ -53175,7 +52733,7 @@
         <v>0</v>
       </c>
       <c r="M223" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N223" s="14" t="n">
         <v>5</v>
@@ -53263,10 +52821,8 @@
       <c r="AI223" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ223" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ223" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK223" s="18" t="inlineStr">
         <is>
@@ -53399,10 +52955,10 @@
         <v>22</v>
       </c>
       <c r="I224" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J224" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K224" s="13" t="n">
         <v>29</v>
@@ -53411,7 +52967,7 @@
         <v>0</v>
       </c>
       <c r="M224" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N224" s="14" t="n">
         <v>5</v>
@@ -53499,10 +53055,8 @@
       <c r="AI224" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ224" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ224" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK224" s="18" t="inlineStr">
         <is>
@@ -53635,10 +53189,10 @@
         <v>20</v>
       </c>
       <c r="I225" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J225" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K225" s="13" t="n">
         <v>29</v>
@@ -53647,7 +53201,7 @@
         <v>2</v>
       </c>
       <c r="M225" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N225" s="14" t="n">
         <v>5</v>
@@ -53735,10 +53289,8 @@
       <c r="AI225" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ225" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ225" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK225" s="18" t="inlineStr">
         <is>
@@ -53871,10 +53423,10 @@
         <v>22</v>
       </c>
       <c r="I226" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J226" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K226" s="13" t="n">
         <v>29</v>
@@ -53883,7 +53435,7 @@
         <v>0</v>
       </c>
       <c r="M226" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N226" s="14" t="n">
         <v>5</v>
@@ -53971,10 +53523,8 @@
       <c r="AI226" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ226" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ226" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK226" s="18" t="inlineStr">
         <is>
@@ -54093,9 +53643,9 @@
           <t>221982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F227" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G227" s="12" t="inlineStr">
@@ -54107,10 +53657,10 @@
         <v>19</v>
       </c>
       <c r="I227" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J227" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K227" s="13" t="n">
         <v>29</v>
@@ -54119,7 +53669,7 @@
         <v>3</v>
       </c>
       <c r="M227" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N227" s="14" t="n">
         <v>5</v>
@@ -54207,10 +53757,8 @@
       <c r="AI227" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ227" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ227" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK227" s="18" t="inlineStr">
         <is>
@@ -54329,9 +53877,9 @@
           <t>221996@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F228" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F228" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G228" s="12" t="inlineStr">
@@ -54343,10 +53891,10 @@
         <v>21</v>
       </c>
       <c r="I228" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J228" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K228" s="13" t="n">
         <v>29</v>
@@ -54355,7 +53903,7 @@
         <v>1</v>
       </c>
       <c r="M228" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N228" s="14" t="n">
         <v>5</v>
@@ -54443,10 +53991,8 @@
       <c r="AI228" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ228" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ228" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK228" s="18" t="inlineStr">
         <is>
@@ -54565,9 +54111,9 @@
           <t>221997@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F229" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F229" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G229" s="12" t="inlineStr">
@@ -54579,10 +54125,10 @@
         <v>21</v>
       </c>
       <c r="I229" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J229" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K229" s="13" t="n">
         <v>29</v>
@@ -54591,7 +54137,7 @@
         <v>1</v>
       </c>
       <c r="M229" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N229" s="14" t="n">
         <v>5</v>
@@ -54679,10 +54225,8 @@
       <c r="AI229" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ229" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ229" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK229" s="18" t="inlineStr">
         <is>
@@ -54815,10 +54359,10 @@
         <v>22</v>
       </c>
       <c r="I230" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J230" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K230" s="13" t="n">
         <v>29</v>
@@ -54827,7 +54371,7 @@
         <v>0</v>
       </c>
       <c r="M230" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N230" s="14" t="n">
         <v>5</v>
@@ -54915,10 +54459,8 @@
       <c r="AI230" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ230" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ230" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK230" s="18" t="inlineStr">
         <is>
@@ -55037,9 +54579,9 @@
           <t>222002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F231" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F231" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G231" s="12" t="inlineStr">
@@ -55051,10 +54593,10 @@
         <v>21</v>
       </c>
       <c r="I231" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J231" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K231" s="13" t="n">
         <v>29</v>
@@ -55063,7 +54605,7 @@
         <v>1</v>
       </c>
       <c r="M231" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N231" s="14" t="n">
         <v>5</v>
@@ -55151,10 +54693,8 @@
       <c r="AI231" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ231" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ231" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK231" s="18" t="inlineStr">
         <is>
@@ -55287,10 +54827,10 @@
         <v>18</v>
       </c>
       <c r="I232" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J232" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K232" s="13" t="n">
         <v>29</v>
@@ -55299,7 +54839,7 @@
         <v>4</v>
       </c>
       <c r="M232" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N232" s="14" t="n">
         <v>5</v>
@@ -55387,10 +54927,8 @@
       <c r="AI232" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ232" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ232" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK232" s="18" t="inlineStr">
         <is>
@@ -55523,10 +55061,10 @@
         <v>18</v>
       </c>
       <c r="I233" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J233" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K233" s="13" t="n">
         <v>29</v>
@@ -55535,7 +55073,7 @@
         <v>4</v>
       </c>
       <c r="M233" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N233" s="14" t="n">
         <v>5</v>
@@ -55623,10 +55161,8 @@
       <c r="AI233" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ233" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ233" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK233" s="18" t="inlineStr">
         <is>
@@ -55759,10 +55295,10 @@
         <v>22</v>
       </c>
       <c r="I234" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J234" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K234" s="13" t="n">
         <v>29</v>
@@ -55771,7 +55307,7 @@
         <v>0</v>
       </c>
       <c r="M234" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N234" s="14" t="n">
         <v>5</v>
@@ -55859,10 +55395,8 @@
       <c r="AI234" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ234" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ234" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK234" s="18" t="inlineStr">
         <is>
@@ -55995,10 +55529,10 @@
         <v>22</v>
       </c>
       <c r="I235" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J235" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K235" s="13" t="n">
         <v>29</v>
@@ -56007,7 +55541,7 @@
         <v>0</v>
       </c>
       <c r="M235" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N235" s="14" t="n">
         <v>5</v>
@@ -56095,10 +55629,8 @@
       <c r="AI235" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ235" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ235" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK235" s="18" t="inlineStr">
         <is>
@@ -56231,10 +55763,10 @@
         <v>18</v>
       </c>
       <c r="I236" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J236" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K236" s="13" t="n">
         <v>29</v>
@@ -56243,7 +55775,7 @@
         <v>4</v>
       </c>
       <c r="M236" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N236" s="14" t="n">
         <v>5</v>
@@ -56331,10 +55863,8 @@
       <c r="AI236" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ236" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ236" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK236" s="18" t="inlineStr">
         <is>
@@ -56453,9 +55983,9 @@
           <t>222027@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F237" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F237" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G237" s="12" t="inlineStr">
@@ -56467,10 +55997,10 @@
         <v>21</v>
       </c>
       <c r="I237" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J237" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K237" s="13" t="n">
         <v>29</v>
@@ -56479,7 +56009,7 @@
         <v>1</v>
       </c>
       <c r="M237" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N237" s="14" t="n">
         <v>5</v>
@@ -56567,10 +56097,8 @@
       <c r="AI237" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ237" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ237" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK237" s="18" t="inlineStr">
         <is>
@@ -56703,10 +56231,10 @@
         <v>18</v>
       </c>
       <c r="I238" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J238" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K238" s="13" t="n">
         <v>29</v>
@@ -56715,7 +56243,7 @@
         <v>4</v>
       </c>
       <c r="M238" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N238" s="14" t="n">
         <v>5</v>
@@ -56803,10 +56331,8 @@
       <c r="AI238" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ238" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ238" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK238" s="18" t="inlineStr">
         <is>
@@ -56939,10 +56465,10 @@
         <v>22</v>
       </c>
       <c r="I239" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J239" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K239" s="13" t="n">
         <v>29</v>
@@ -56951,7 +56477,7 @@
         <v>0</v>
       </c>
       <c r="M239" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N239" s="14" t="n">
         <v>5</v>
@@ -57039,10 +56565,8 @@
       <c r="AI239" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ239" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ239" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK239" s="18" t="inlineStr">
         <is>
@@ -57175,10 +56699,10 @@
         <v>20</v>
       </c>
       <c r="I240" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J240" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K240" s="13" t="n">
         <v>29</v>
@@ -57187,7 +56711,7 @@
         <v>2</v>
       </c>
       <c r="M240" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N240" s="14" t="n">
         <v>5</v>
@@ -57275,10 +56799,8 @@
       <c r="AI240" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ240" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ240" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK240" s="18" t="inlineStr">
         <is>
@@ -57411,10 +56933,10 @@
         <v>18</v>
       </c>
       <c r="I241" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J241" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K241" s="13" t="n">
         <v>29</v>
@@ -57423,7 +56945,7 @@
         <v>4</v>
       </c>
       <c r="M241" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N241" s="14" t="n">
         <v>5</v>
@@ -57511,10 +57033,8 @@
       <c r="AI241" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ241" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ241" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK241" s="18" t="inlineStr">
         <is>
@@ -57633,9 +57153,9 @@
           <t>222036@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F242" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F242" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G242" s="12" t="inlineStr">
@@ -57647,10 +57167,10 @@
         <v>19</v>
       </c>
       <c r="I242" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J242" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K242" s="13" t="n">
         <v>29</v>
@@ -57659,7 +57179,7 @@
         <v>3</v>
       </c>
       <c r="M242" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N242" s="14" t="n">
         <v>5</v>
@@ -57747,10 +57267,8 @@
       <c r="AI242" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ242" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ242" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK242" s="18" t="inlineStr">
         <is>
@@ -57869,9 +57387,9 @@
           <t>222053@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F243" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F243" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G243" s="12" t="inlineStr">
@@ -57883,10 +57401,10 @@
         <v>19</v>
       </c>
       <c r="I243" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J243" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K243" s="13" t="n">
         <v>29</v>
@@ -57895,7 +57413,7 @@
         <v>3</v>
       </c>
       <c r="M243" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N243" s="14" t="n">
         <v>5</v>
@@ -57983,10 +57501,8 @@
       <c r="AI243" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ243" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ243" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK243" s="18" t="inlineStr">
         <is>
@@ -58119,10 +57635,10 @@
         <v>22</v>
       </c>
       <c r="I244" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J244" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K244" s="13" t="n">
         <v>29</v>
@@ -58131,7 +57647,7 @@
         <v>0</v>
       </c>
       <c r="M244" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N244" s="14" t="n">
         <v>5</v>
@@ -58219,10 +57735,8 @@
       <c r="AI244" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ244" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ244" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK244" s="18" t="inlineStr">
         <is>
@@ -58341,9 +57855,9 @@
           <t>222058@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F245" s="22" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F245" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G245" s="12" t="inlineStr">
@@ -58355,10 +57869,10 @@
         <v>19</v>
       </c>
       <c r="I245" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J245" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K245" s="13" t="n">
         <v>29</v>
@@ -58367,7 +57881,7 @@
         <v>3</v>
       </c>
       <c r="M245" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N245" s="14" t="n">
         <v>5</v>
@@ -58455,10 +57969,8 @@
       <c r="AI245" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ245" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ245" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK245" s="18" t="inlineStr">
         <is>
@@ -58591,10 +58103,10 @@
         <v>20</v>
       </c>
       <c r="I246" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J246" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K246" s="13" t="n">
         <v>29</v>
@@ -58603,7 +58115,7 @@
         <v>2</v>
       </c>
       <c r="M246" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N246" s="14" t="n">
         <v>5</v>
@@ -58691,10 +58203,8 @@
       <c r="AI246" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ246" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ246" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK246" s="18" t="inlineStr">
         <is>
@@ -58827,10 +58337,10 @@
         <v>22</v>
       </c>
       <c r="I247" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J247" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K247" s="13" t="n">
         <v>29</v>
@@ -58839,7 +58349,7 @@
         <v>0</v>
       </c>
       <c r="M247" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N247" s="14" t="n">
         <v>5</v>
@@ -58927,10 +58437,8 @@
       <c r="AI247" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ247" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ247" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK247" s="18" t="inlineStr">
         <is>
@@ -59049,9 +58557,9 @@
           <t>222076@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F248" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G248" s="12" t="inlineStr">
@@ -59063,10 +58571,10 @@
         <v>21</v>
       </c>
       <c r="I248" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J248" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K248" s="13" t="n">
         <v>29</v>
@@ -59075,7 +58583,7 @@
         <v>1</v>
       </c>
       <c r="M248" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N248" s="14" t="n">
         <v>5</v>
@@ -59163,10 +58671,8 @@
       <c r="AI248" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AJ248" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ248" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="AK248" s="18" t="inlineStr">
         <is>
@@ -59285,9 +58791,9 @@
           <t>222079@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F249" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F249" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G249" s="12" t="inlineStr">
@@ -59299,10 +58805,10 @@
         <v>21</v>
       </c>
       <c r="I249" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J249" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K249" s="13" t="n">
         <v>29</v>
@@ -59311,7 +58817,7 @@
         <v>1</v>
       </c>
       <c r="M249" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N249" s="14" t="n">
         <v>5</v>
@@ -59399,10 +58905,8 @@
       <c r="AI249" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ249" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ249" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK249" s="18" t="inlineStr">
         <is>
@@ -59535,10 +59039,10 @@
         <v>22</v>
       </c>
       <c r="I250" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J250" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K250" s="13" t="n">
         <v>29</v>
@@ -59547,7 +59051,7 @@
         <v>0</v>
       </c>
       <c r="M250" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N250" s="14" t="n">
         <v>5</v>
@@ -59635,10 +59139,8 @@
       <c r="AI250" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ250" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ250" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK250" s="18" t="inlineStr">
         <is>
@@ -59771,10 +59273,10 @@
         <v>22</v>
       </c>
       <c r="I251" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J251" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K251" s="13" t="n">
         <v>29</v>
@@ -59783,7 +59285,7 @@
         <v>0</v>
       </c>
       <c r="M251" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N251" s="14" t="n">
         <v>5</v>
@@ -59871,10 +59373,8 @@
       <c r="AI251" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ251" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ251" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK251" s="18" t="inlineStr">
         <is>
@@ -60007,10 +59507,10 @@
         <v>20</v>
       </c>
       <c r="I252" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J252" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K252" s="13" t="n">
         <v>29</v>
@@ -60019,7 +59519,7 @@
         <v>2</v>
       </c>
       <c r="M252" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N252" s="14" t="n">
         <v>5</v>
@@ -60107,10 +59607,8 @@
       <c r="AI252" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ252" s="18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="AJ252" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AK252" s="18" t="inlineStr">
         <is>

--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$351</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1234,11 +1234,11 @@
       </c>
       <c r="G3" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H3" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>24</v>
@@ -1250,16 +1250,16 @@
         <v>29</v>
       </c>
       <c r="L3" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O3" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="14" t="n">
         <v>1</v>
@@ -1695,18 +1695,18 @@
           <t>201441@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F5" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H5" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="13" t="n">
         <v>24</v>
@@ -1718,16 +1718,16 @@
         <v>29</v>
       </c>
       <c r="L5" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O5" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="14" t="n">
         <v>1</v>
@@ -3340,11 +3340,11 @@
       </c>
       <c r="G12" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H12" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>24</v>
@@ -3356,16 +3356,16 @@
         <v>29</v>
       </c>
       <c r="L12" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="14" t="n">
         <v>1</v>
@@ -4978,11 +4978,11 @@
       </c>
       <c r="G19" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H19" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="13" t="n">
         <v>24</v>
@@ -4994,16 +4994,16 @@
         <v>29</v>
       </c>
       <c r="L19" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O19" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="14" t="n">
         <v>1</v>
@@ -5212,11 +5212,11 @@
       </c>
       <c r="G20" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H20" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="13" t="n">
         <v>24</v>
@@ -5228,16 +5228,16 @@
         <v>29</v>
       </c>
       <c r="L20" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O20" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="14" t="n">
         <v>0</v>
@@ -6141,18 +6141,18 @@
           <t>210998@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F24" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G24" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H24" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>24</v>
@@ -6164,16 +6164,16 @@
         <v>29</v>
       </c>
       <c r="L24" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O24" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="14" t="n">
         <v>0</v>
@@ -8013,18 +8013,18 @@
           <t>211294@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F32" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F32" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G32" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H32" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="13" t="n">
         <v>24</v>
@@ -8036,16 +8036,16 @@
         <v>29</v>
       </c>
       <c r="L32" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O32" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="14" t="n">
         <v>0</v>
@@ -9424,11 +9424,11 @@
       </c>
       <c r="G38" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H38" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>24</v>
@@ -9440,16 +9440,16 @@
         <v>29</v>
       </c>
       <c r="L38" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M38" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O38" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="14" t="n">
         <v>0</v>
@@ -14104,11 +14104,11 @@
       </c>
       <c r="G58" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H58" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58" s="13" t="n">
         <v>24</v>
@@ -14120,16 +14120,16 @@
         <v>29</v>
       </c>
       <c r="L58" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O58" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="14" t="n">
         <v>0</v>
@@ -15508,11 +15508,11 @@
       </c>
       <c r="G64" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H64" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>24</v>
@@ -15524,16 +15524,16 @@
         <v>29</v>
       </c>
       <c r="L64" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M64" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O64" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" s="14" t="n">
         <v>1</v>
@@ -16444,11 +16444,11 @@
       </c>
       <c r="G68" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H68" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I68" s="13" t="n">
         <v>24</v>
@@ -16460,16 +16460,16 @@
         <v>29</v>
       </c>
       <c r="L68" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M68" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N68" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O68" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" s="14" t="n">
         <v>1</v>
@@ -17146,11 +17146,11 @@
       </c>
       <c r="G71" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H71" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I71" s="13" t="n">
         <v>24</v>
@@ -17162,16 +17162,16 @@
         <v>29</v>
       </c>
       <c r="L71" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M71" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N71" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O71" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" s="14" t="n">
         <v>0</v>
@@ -18316,11 +18316,11 @@
       </c>
       <c r="G76" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H76" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I76" s="13" t="n">
         <v>24</v>
@@ -18332,16 +18332,16 @@
         <v>29</v>
       </c>
       <c r="L76" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M76" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N76" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O76" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76" s="14" t="n">
         <v>1</v>
@@ -18550,11 +18550,11 @@
       </c>
       <c r="G77" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H77" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I77" s="13" t="n">
         <v>24</v>
@@ -18566,16 +18566,16 @@
         <v>29</v>
       </c>
       <c r="L77" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M77" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N77" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O77" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" s="14" t="n">
         <v>0</v>
@@ -18784,11 +18784,11 @@
       </c>
       <c r="G78" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H78" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I78" s="13" t="n">
         <v>24</v>
@@ -18800,16 +18800,16 @@
         <v>29</v>
       </c>
       <c r="L78" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M78" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N78" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O78" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" s="14" t="n">
         <v>0</v>
@@ -20181,18 +20181,18 @@
           <t>220766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="11" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F84" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G84" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H84" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>24</v>
@@ -20204,16 +20204,16 @@
         <v>29</v>
       </c>
       <c r="L84" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M84" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N84" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O84" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84" s="14" t="n">
         <v>0</v>
@@ -20422,11 +20422,11 @@
       </c>
       <c r="G85" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H85" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>24</v>
@@ -20438,16 +20438,16 @@
         <v>29</v>
       </c>
       <c r="L85" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M85" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N85" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O85" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P85" s="14" t="n">
         <v>1</v>
@@ -26265,18 +26265,18 @@
           <t>221319@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F110" s="23" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F110" s="11" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G110" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H110" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>24</v>
@@ -26288,16 +26288,16 @@
         <v>29</v>
       </c>
       <c r="L110" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M110" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N110" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O110" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P110" s="14" t="n">
         <v>1</v>
@@ -41716,11 +41716,11 @@
       </c>
       <c r="G176" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H176" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I176" s="13" t="n">
         <v>24</v>
@@ -41732,16 +41732,16 @@
         <v>29</v>
       </c>
       <c r="L176" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M176" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O176" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P176" s="14" t="n">
         <v>1</v>
@@ -59713,7 +59713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K332"/>
+  <dimension ref="A1:K351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -78541,8 +78541,1091 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>خديجة ادم محمد ادريس موسى</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>202107@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>14:37:29</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>210926</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>كوثر محمد المبارك يوسف</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>210926@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>14:37:32</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>212412</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>شارلز ماكوك مالوك</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>212412@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>14:37:37</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>210870</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>عبد الله جعفر عثمان جعفر</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>210870@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>14:37:44</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>212442</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>رميساء محى الدين الامين الطيب</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>212442@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>14:37:48</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>200540</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>محمد سعيد ابراهيم عواد درويش</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>200540@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>14:37:52</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>220370</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>اغيد مرزوق الرفاعى</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>220370@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>14:37:56</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>211704</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>الياس احمد بكردان</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>211704@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>14:38:11</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>212211</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>سوزان جيريمياه لادو</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>212211@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>14:38:19</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>211294</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>نور الهدى خلاوى الشحاذه</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>211294@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>14:38:26</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>221319</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>روان صلاح طاهر الوهباني</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>221319@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>14:38:47</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>220811</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>يعقوب يوسف يوسف</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>220811@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>14:38:53</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>220766</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>ميار بنت خالد بن محمد الشيخ</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>220766@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>14:39:01</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>212322</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>مهند حافظ عابدين الفاضل</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>212322@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>14:39:08</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>220314</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>احمد ربيع قطب عبد المطلب بهوت</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>220314@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>14:39:17</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>220428</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>بسمله محمد عبد الحميد محمد</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>220428@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>14:39:27</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>221682</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>سرين حاج صدوق</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>221682@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>14:39:34</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>201441</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>هند محمد ادم عيسى</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>201441@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>14:39:41</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>210998</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>زينب نادر عوض السيد عبد القادر</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>210998@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>14:39:56</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K332"/>
+  <autoFilter ref="A1:K351"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$351</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$370</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -13065,18 +13065,18 @@
           <t>212160@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F54" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F54" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H54" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>23</v>
@@ -13088,22 +13088,22 @@
         <v>29</v>
       </c>
       <c r="L54" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N54" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O54" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="14" t="inlineStr">
         <is>
@@ -20953,18 +20953,18 @@
           <t>220877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F88" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F88" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G88" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H88" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I88" s="13" t="n">
         <v>23</v>
@@ -20976,22 +20976,22 @@
         <v>29</v>
       </c>
       <c r="L88" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M88" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N88" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O88" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P88" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q88" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" s="14" t="inlineStr">
         <is>
@@ -23041,18 +23041,18 @@
           <t>221013@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F97" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F97" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G97" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H97" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>23</v>
@@ -23064,22 +23064,22 @@
         <v>29</v>
       </c>
       <c r="L97" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M97" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N97" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O97" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q97" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R97" s="14" t="inlineStr">
         <is>
@@ -25361,18 +25361,18 @@
           <t>221294@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F107" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F107" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G107" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H107" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I107" s="13" t="n">
         <v>23</v>
@@ -25384,22 +25384,22 @@
         <v>29</v>
       </c>
       <c r="L107" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M107" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N107" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O107" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q107" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" s="14" t="inlineStr">
         <is>
@@ -27920,11 +27920,11 @@
       </c>
       <c r="G118" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H118" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I118" s="13" t="n">
         <v>23</v>
@@ -27936,22 +27936,22 @@
         <v>29</v>
       </c>
       <c r="L118" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M118" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N118" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O118" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P118" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q118" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118" s="14" t="inlineStr">
         <is>
@@ -28152,11 +28152,11 @@
       </c>
       <c r="G119" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H119" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I119" s="13" t="n">
         <v>23</v>
@@ -28168,22 +28168,22 @@
         <v>29</v>
       </c>
       <c r="L119" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M119" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N119" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O119" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P119" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q119" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119" s="14" t="inlineStr">
         <is>
@@ -29305,18 +29305,18 @@
           <t>221432@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F124" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F124" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G124" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H124" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I124" s="13" t="n">
         <v>23</v>
@@ -29328,22 +29328,22 @@
         <v>29</v>
       </c>
       <c r="L124" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M124" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N124" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O124" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P124" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q124" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R124" s="14" t="inlineStr">
         <is>
@@ -29776,11 +29776,11 @@
       </c>
       <c r="G126" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H126" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I126" s="13" t="n">
         <v>23</v>
@@ -29792,22 +29792,22 @@
         <v>29</v>
       </c>
       <c r="L126" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M126" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N126" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O126" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P126" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q126" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126" s="14" t="inlineStr">
         <is>
@@ -31161,18 +31161,18 @@
           <t>221478@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F132" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F132" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G132" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H132" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>23</v>
@@ -31184,22 +31184,22 @@
         <v>29</v>
       </c>
       <c r="L132" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N132" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O132" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q132" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R132" s="14" t="inlineStr">
         <is>
@@ -33024,11 +33024,11 @@
       </c>
       <c r="G140" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H140" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I140" s="13" t="n">
         <v>23</v>
@@ -33040,22 +33040,22 @@
         <v>29</v>
       </c>
       <c r="L140" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M140" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N140" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O140" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q140" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R140" s="14" t="inlineStr">
         <is>
@@ -34184,11 +34184,11 @@
       </c>
       <c r="G145" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H145" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>23</v>
@@ -34200,22 +34200,22 @@
         <v>29</v>
       </c>
       <c r="L145" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M145" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N145" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O145" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P145" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q145" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R145" s="14" t="inlineStr">
         <is>
@@ -37200,11 +37200,11 @@
       </c>
       <c r="G158" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H158" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>23</v>
@@ -37216,22 +37216,22 @@
         <v>29</v>
       </c>
       <c r="L158" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M158" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N158" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O158" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q158" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R158" s="14" t="inlineStr">
         <is>
@@ -37896,11 +37896,11 @@
       </c>
       <c r="G161" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H161" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I161" s="13" t="n">
         <v>23</v>
@@ -37912,22 +37912,22 @@
         <v>29</v>
       </c>
       <c r="L161" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M161" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N161" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O161" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P161" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q161" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R161" s="14" t="inlineStr">
         <is>
@@ -38592,11 +38592,11 @@
       </c>
       <c r="G164" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H164" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I164" s="13" t="n">
         <v>23</v>
@@ -38608,22 +38608,22 @@
         <v>29</v>
       </c>
       <c r="L164" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M164" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N164" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O164" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P164" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q164" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R164" s="14" t="inlineStr">
         <is>
@@ -41144,11 +41144,11 @@
       </c>
       <c r="G175" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H175" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I175" s="13" t="n">
         <v>23</v>
@@ -41160,22 +41160,22 @@
         <v>29</v>
       </c>
       <c r="L175" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M175" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N175" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O175" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P175" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q175" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R175" s="14" t="inlineStr">
         <is>
@@ -43464,11 +43464,11 @@
       </c>
       <c r="G185" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H185" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I185" s="13" t="n">
         <v>23</v>
@@ -43480,22 +43480,22 @@
         <v>29</v>
       </c>
       <c r="L185" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M185" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N185" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O185" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P185" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q185" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R185" s="14" t="inlineStr">
         <is>
@@ -43696,11 +43696,11 @@
       </c>
       <c r="G186" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H186" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I186" s="13" t="n">
         <v>23</v>
@@ -43712,22 +43712,22 @@
         <v>29</v>
       </c>
       <c r="L186" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M186" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N186" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O186" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P186" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q186" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R186" s="14" t="inlineStr">
         <is>
@@ -56688,11 +56688,11 @@
       </c>
       <c r="G242" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H242" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I242" s="13" t="n">
         <v>23</v>
@@ -56704,22 +56704,22 @@
         <v>29</v>
       </c>
       <c r="L242" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M242" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N242" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O242" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P242" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q242" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R242" s="14" t="inlineStr">
         <is>
@@ -57384,11 +57384,11 @@
       </c>
       <c r="G245" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H245" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I245" s="13" t="n">
         <v>23</v>
@@ -57400,22 +57400,22 @@
         <v>29</v>
       </c>
       <c r="L245" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M245" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N245" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O245" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P245" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q245" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R245" s="14" t="inlineStr">
         <is>
@@ -59219,7 +59219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K351"/>
+  <dimension ref="A1:K370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -79130,8 +79130,1091 @@
         </is>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>221435</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>احمد سامى عثمان الدى</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>221435@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>14:27:38</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>221508</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>هاله عادل محمد احمد على</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>221508@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>14:27:40</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>221587</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>ليم عثمان السر الشمباتي</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>221587@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>14:27:42</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>221409</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>نعمه ليبان عبدى</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>221409@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>14:27:52</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>221013</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>قاسم مفلح الرفاعى</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>221013@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>14:27:54</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>221432</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>راويه ادريس جمعه جاسر</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>221432@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>14:27:59</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>221756</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>ماريا صالح حسن مثنى محمد</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>221756@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>14:28:01</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>221294</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>هاله يحى ابكر ابراهيم</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>221294@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>14:28:06</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>221622</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>محمود محمد ادن</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>221622@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>14:28:10</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>221478</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>جود عمادالدين خلف الله احمد</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>221478@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>14:28:19</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>221764</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>محمد نور ديب محمود الحمامي</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>221764@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>14:28:38</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>221527</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>شهد محمد عبدالرحمن ادريس</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>221527@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>14:28:44</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>212160</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>المى عماد تركمانى</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>212160@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>14:29:03</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>221600</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>مروان معاوية عثمان الطيب</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>221600@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>14:29:11</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>222036</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>عثمان على محمد خالد</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>222036@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>14:29:24</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>220877</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>محمد نور عبد المنعم كرنازي</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>220877@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>14:29:32</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>221675</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>ساره بنت سعيد بن عثمان الكناني</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>221675@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>14:41:00</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>222058</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>رفا السيد قسم الله السيد</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>222058@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>14:41:09</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>221404</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>محمد يزن محمد مازن ماوردى</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>221404@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>14:41:13</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K351"/>
+  <autoFilter ref="A1:K370"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$370</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$394</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -9121,18 +9121,18 @@
           <t>211620@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F37" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F37" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G37" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H37" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>23</v>
@@ -9144,22 +9144,22 @@
         <v>29</v>
       </c>
       <c r="L37" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N37" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O37" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="14" t="inlineStr">
         <is>
@@ -9592,11 +9592,11 @@
       </c>
       <c r="G39" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H39" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I39" s="13" t="n">
         <v>23</v>
@@ -9608,22 +9608,22 @@
         <v>29</v>
       </c>
       <c r="L39" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O39" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="14" t="inlineStr">
         <is>
@@ -12608,11 +12608,11 @@
       </c>
       <c r="G52" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H52" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>23</v>
@@ -12624,22 +12624,22 @@
         <v>29</v>
       </c>
       <c r="L52" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O52" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="14" t="inlineStr">
         <is>
@@ -15624,11 +15624,11 @@
       </c>
       <c r="G65" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H65" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I65" s="13" t="n">
         <v>23</v>
@@ -15640,22 +15640,22 @@
         <v>29</v>
       </c>
       <c r="L65" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M65" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N65" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O65" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q65" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="14" t="inlineStr">
         <is>
@@ -26521,18 +26521,18 @@
           <t>221329@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F112" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F112" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G112" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H112" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I112" s="13" t="n">
         <v>23</v>
@@ -26544,22 +26544,22 @@
         <v>29</v>
       </c>
       <c r="L112" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N112" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O112" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q112" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R112" s="14" t="inlineStr">
         <is>
@@ -34641,18 +34641,18 @@
           <t>221539@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F147" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F147" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G147" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H147" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I147" s="13" t="n">
         <v>23</v>
@@ -34664,22 +34664,22 @@
         <v>29</v>
       </c>
       <c r="L147" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M147" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N147" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O147" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P147" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q147" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R147" s="14" t="inlineStr">
         <is>
@@ -37657,18 +37657,18 @@
           <t>221599@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F160" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F160" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G160" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H160" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I160" s="13" t="n">
         <v>23</v>
@@ -37680,22 +37680,22 @@
         <v>29</v>
       </c>
       <c r="L160" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M160" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N160" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O160" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P160" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q160" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R160" s="14" t="inlineStr">
         <is>
@@ -41833,18 +41833,18 @@
           <t>221695@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F178" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F178" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G178" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H178" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I178" s="13" t="n">
         <v>23</v>
@@ -41856,22 +41856,22 @@
         <v>29</v>
       </c>
       <c r="L178" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M178" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N178" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O178" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P178" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q178" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R178" s="14" t="inlineStr">
         <is>
@@ -43225,18 +43225,18 @@
           <t>221755@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F184" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F184" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G184" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H184" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I184" s="13" t="n">
         <v>23</v>
@@ -43248,22 +43248,22 @@
         <v>29</v>
       </c>
       <c r="L184" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M184" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N184" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O184" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P184" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q184" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R184" s="14" t="inlineStr">
         <is>
@@ -44160,11 +44160,11 @@
       </c>
       <c r="G188" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H188" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I188" s="13" t="n">
         <v>23</v>
@@ -44176,22 +44176,22 @@
         <v>29</v>
       </c>
       <c r="L188" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M188" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N188" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O188" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P188" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q188" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R188" s="14" t="inlineStr">
         <is>
@@ -45777,18 +45777,18 @@
           <t>221822@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F195" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F195" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G195" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H195" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I195" s="13" t="n">
         <v>23</v>
@@ -45800,22 +45800,22 @@
         <v>29</v>
       </c>
       <c r="L195" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M195" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N195" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O195" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P195" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q195" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R195" s="14" t="inlineStr">
         <is>
@@ -46009,18 +46009,18 @@
           <t>221826@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F196" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F196" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G196" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H196" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I196" s="13" t="n">
         <v>23</v>
@@ -46032,22 +46032,22 @@
         <v>29</v>
       </c>
       <c r="L196" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M196" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N196" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O196" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P196" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q196" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R196" s="14" t="inlineStr">
         <is>
@@ -47640,11 +47640,11 @@
       </c>
       <c r="G203" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H203" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I203" s="13" t="n">
         <v>23</v>
@@ -47656,22 +47656,22 @@
         <v>29</v>
       </c>
       <c r="L203" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M203" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N203" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O203" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P203" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q203" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R203" s="14" t="inlineStr">
         <is>
@@ -49257,18 +49257,18 @@
           <t>221909@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F210" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F210" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G210" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H210" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I210" s="13" t="n">
         <v>23</v>
@@ -49280,22 +49280,22 @@
         <v>29</v>
       </c>
       <c r="L210" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M210" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N210" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O210" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P210" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q210" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R210" s="14" t="inlineStr">
         <is>
@@ -49728,11 +49728,11 @@
       </c>
       <c r="G212" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H212" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I212" s="13" t="n">
         <v>23</v>
@@ -49744,22 +49744,22 @@
         <v>29</v>
       </c>
       <c r="L212" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M212" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N212" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O212" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P212" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q212" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R212" s="14" t="inlineStr">
         <is>
@@ -50192,11 +50192,11 @@
       </c>
       <c r="G214" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H214" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I214" s="13" t="n">
         <v>23</v>
@@ -50208,22 +50208,22 @@
         <v>29</v>
       </c>
       <c r="L214" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M214" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N214" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O214" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P214" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q214" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R214" s="14" t="inlineStr">
         <is>
@@ -50888,11 +50888,11 @@
       </c>
       <c r="G217" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H217" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I217" s="13" t="n">
         <v>23</v>
@@ -50904,22 +50904,22 @@
         <v>29</v>
       </c>
       <c r="L217" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M217" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N217" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O217" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P217" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q217" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R217" s="14" t="inlineStr">
         <is>
@@ -52737,18 +52737,18 @@
           <t>221966@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F225" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F225" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G225" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H225" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I225" s="13" t="n">
         <v>23</v>
@@ -52760,22 +52760,22 @@
         <v>29</v>
       </c>
       <c r="L225" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M225" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N225" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O225" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P225" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q225" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R225" s="14" t="inlineStr">
         <is>
@@ -53208,11 +53208,11 @@
       </c>
       <c r="G227" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H227" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I227" s="13" t="n">
         <v>23</v>
@@ -53224,22 +53224,22 @@
         <v>29</v>
       </c>
       <c r="L227" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M227" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N227" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O227" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P227" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q227" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R227" s="14" t="inlineStr">
         <is>
@@ -53440,11 +53440,11 @@
       </c>
       <c r="G228" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H228" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I228" s="13" t="n">
         <v>23</v>
@@ -53456,22 +53456,22 @@
         <v>29</v>
       </c>
       <c r="L228" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M228" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N228" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O228" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P228" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q228" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R228" s="14" t="inlineStr">
         <is>
@@ -54136,11 +54136,11 @@
       </c>
       <c r="G231" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H231" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I231" s="13" t="n">
         <v>23</v>
@@ -54152,22 +54152,22 @@
         <v>29</v>
       </c>
       <c r="L231" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M231" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N231" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O231" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P231" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q231" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R231" s="14" t="inlineStr">
         <is>
@@ -55528,11 +55528,11 @@
       </c>
       <c r="G237" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H237" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I237" s="13" t="n">
         <v>23</v>
@@ -55544,22 +55544,22 @@
         <v>29</v>
       </c>
       <c r="L237" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M237" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N237" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O237" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P237" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q237" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R237" s="14" t="inlineStr">
         <is>
@@ -56217,18 +56217,18 @@
           <t>222032@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F240" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F240" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G240" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H240" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I240" s="13" t="n">
         <v>23</v>
@@ -56240,22 +56240,22 @@
         <v>29</v>
       </c>
       <c r="L240" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M240" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N240" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O240" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P240" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q240" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R240" s="14" t="inlineStr">
         <is>
@@ -56920,11 +56920,11 @@
       </c>
       <c r="G243" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H243" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I243" s="13" t="n">
         <v>23</v>
@@ -56936,22 +56936,22 @@
         <v>29</v>
       </c>
       <c r="L243" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M243" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N243" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O243" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P243" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q243" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R243" s="14" t="inlineStr">
         <is>
@@ -59219,7 +59219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K370"/>
+  <dimension ref="A1:K394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -80213,8 +80213,1376 @@
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>221966</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>ساكى جوزيف اليساما زونقبيتى</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>221966@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>14:26:29</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>221599</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>سلمى عبد الرحمن عبيد موسى</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>221599@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>14:26:33</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>221909</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>ديكتور يمبيك بول نيان</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>221909@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>14:26:39</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>221774</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>يدجوك جيمس كوانقو اكوك</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>221774@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>14:26:41</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>221938</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>مانويلا ناكوتا مارينو لوكالى</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>221938@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>14:26:41</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>221996</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>نياقوط فال توت دوير</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>221996@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>14:26:43</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>211620</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>محمودول اسلام</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>211620@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>14:26:48</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>222053</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>صباح سيف الدين عثمان اسحق</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>222053@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>14:26:56</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>211776</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>رقيه ادريسو</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>211776@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>14:28:58</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>221822</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>سعادة يوسف عليو</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>221822@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>14:44:55</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>221866</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>امينة موسى رمبو</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>221866@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>14:45:01</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>221914</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>معز اشتياق</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>221914@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>14:45:06</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>221755</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>سعدية عاشق</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>221755@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>14:45:12</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>221539</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>تحريم شوكات مالك</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>221539@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>14:45:16</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>222032</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>احمد شوقى عبد الرحيم طه</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>222032@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>14:45:22</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>222002</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>يوسف عثمان باباغانا</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>222002@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>14:45:30</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>222027</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>خيرية عبد الرازق</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>222027@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>14:45:36</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>212386</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>لويد اليكس موجا</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>212386@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>14:45:49</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>221695</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>اروب ميجوك دودى باقوير</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>221695@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>14:46:10</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>221329</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>خديجة اولو اتوين ادونبكو</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>221329@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>14:46:18</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>221826</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>بخيتة اوت قور كول</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>221826@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>14:46:25</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>221982</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>امنويل اكوى اقوتو كوت</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>221982@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>14:46:34</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>221923</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>ليفو سوزى وليام جوزيف</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>221923@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>14:46:59</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>212145</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>سميه لاوان شايبو</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>212145@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>14:47:35</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K370"/>
+  <autoFilter ref="A1:K394"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$394</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$414</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -5641,18 +5641,18 @@
           <t>210935@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F22" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F22" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G22" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H22" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="13" t="n">
         <v>23</v>
@@ -5664,22 +5664,22 @@
         <v>29</v>
       </c>
       <c r="L22" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O22" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q22" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="14" t="inlineStr">
         <is>
@@ -5880,11 +5880,11 @@
       </c>
       <c r="G23" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H23" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="13" t="n">
         <v>23</v>
@@ -5896,22 +5896,22 @@
         <v>29</v>
       </c>
       <c r="L23" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O23" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q23" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="14" t="inlineStr">
         <is>
@@ -10752,11 +10752,11 @@
       </c>
       <c r="G44" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H44" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I44" s="13" t="n">
         <v>23</v>
@@ -10768,22 +10768,22 @@
         <v>29</v>
       </c>
       <c r="L44" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O44" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q44" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="14" t="inlineStr">
         <is>
@@ -15160,11 +15160,11 @@
       </c>
       <c r="G63" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H63" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I63" s="13" t="n">
         <v>23</v>
@@ -15176,22 +15176,22 @@
         <v>29</v>
       </c>
       <c r="L63" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M63" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N63" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O63" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q63" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="14" t="inlineStr">
         <is>
@@ -22584,11 +22584,11 @@
       </c>
       <c r="G95" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H95" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I95" s="13" t="n">
         <v>23</v>
@@ -22600,22 +22600,22 @@
         <v>29</v>
       </c>
       <c r="L95" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M95" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N95" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O95" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q95" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" s="14" t="inlineStr">
         <is>
@@ -23744,11 +23744,11 @@
       </c>
       <c r="G100" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H100" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I100" s="13" t="n">
         <v>23</v>
@@ -23760,22 +23760,22 @@
         <v>29</v>
       </c>
       <c r="L100" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M100" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N100" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O100" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q100" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" s="14" t="inlineStr">
         <is>
@@ -27224,11 +27224,11 @@
       </c>
       <c r="G115" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H115" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I115" s="13" t="n">
         <v>23</v>
@@ -27240,22 +27240,22 @@
         <v>29</v>
       </c>
       <c r="L115" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M115" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N115" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O115" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P115" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q115" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R115" s="14" t="inlineStr">
         <is>
@@ -29544,11 +29544,11 @@
       </c>
       <c r="G125" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H125" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I125" s="13" t="n">
         <v>23</v>
@@ -29560,22 +29560,22 @@
         <v>29</v>
       </c>
       <c r="L125" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M125" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N125" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O125" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P125" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q125" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125" s="14" t="inlineStr">
         <is>
@@ -30008,11 +30008,11 @@
       </c>
       <c r="G127" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H127" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I127" s="13" t="n">
         <v>23</v>
@@ -30024,22 +30024,22 @@
         <v>29</v>
       </c>
       <c r="L127" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M127" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N127" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O127" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P127" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q127" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127" s="14" t="inlineStr">
         <is>
@@ -32553,18 +32553,18 @@
           <t>221506@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F138" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F138" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G138" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H138" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I138" s="13" t="n">
         <v>23</v>
@@ -32576,22 +32576,22 @@
         <v>29</v>
       </c>
       <c r="L138" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M138" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N138" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O138" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P138" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q138" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138" s="14" t="inlineStr">
         <is>
@@ -34873,18 +34873,18 @@
           <t>221546@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F148" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F148" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G148" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H148" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I148" s="13" t="n">
         <v>23</v>
@@ -34896,22 +34896,22 @@
         <v>29</v>
       </c>
       <c r="L148" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M148" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N148" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O148" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P148" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q148" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R148" s="14" t="inlineStr">
         <is>
@@ -35569,18 +35569,18 @@
           <t>221566@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F151" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F151" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G151" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H151" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I151" s="13" t="n">
         <v>23</v>
@@ -35592,22 +35592,22 @@
         <v>29</v>
       </c>
       <c r="L151" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N151" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O151" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P151" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q151" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R151" s="14" t="inlineStr">
         <is>
@@ -36040,11 +36040,11 @@
       </c>
       <c r="G153" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H153" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I153" s="13" t="n">
         <v>23</v>
@@ -36056,22 +36056,22 @@
         <v>29</v>
       </c>
       <c r="L153" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M153" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N153" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O153" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P153" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q153" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R153" s="14" t="inlineStr">
         <is>
@@ -36504,11 +36504,11 @@
       </c>
       <c r="G155" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H155" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I155" s="13" t="n">
         <v>23</v>
@@ -36520,22 +36520,22 @@
         <v>29</v>
       </c>
       <c r="L155" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M155" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N155" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O155" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P155" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q155" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R155" s="14" t="inlineStr">
         <is>
@@ -40209,18 +40209,18 @@
           <t>221653@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F171" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F171" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G171" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H171" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I171" s="13" t="n">
         <v>23</v>
@@ -40232,22 +40232,22 @@
         <v>29</v>
       </c>
       <c r="L171" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M171" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N171" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O171" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P171" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q171" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R171" s="14" t="inlineStr">
         <is>
@@ -40448,11 +40448,11 @@
       </c>
       <c r="G172" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H172" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I172" s="13" t="n">
         <v>23</v>
@@ -40464,22 +40464,22 @@
         <v>29</v>
       </c>
       <c r="L172" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M172" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N172" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O172" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P172" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q172" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R172" s="14" t="inlineStr">
         <is>
@@ -44849,18 +44849,18 @@
           <t>221802@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F191" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F191" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G191" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H191" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I191" s="13" t="n">
         <v>23</v>
@@ -44872,22 +44872,22 @@
         <v>29</v>
       </c>
       <c r="L191" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M191" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N191" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O191" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P191" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q191" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R191" s="14" t="inlineStr">
         <is>
@@ -47169,18 +47169,18 @@
           <t>221863@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F201" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F201" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G201" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H201" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I201" s="13" t="n">
         <v>23</v>
@@ -47192,22 +47192,22 @@
         <v>29</v>
       </c>
       <c r="L201" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M201" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N201" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O201" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P201" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q201" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R201" s="14" t="inlineStr">
         <is>
@@ -53672,11 +53672,11 @@
       </c>
       <c r="G229" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H229" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I229" s="13" t="n">
         <v>23</v>
@@ -53688,22 +53688,22 @@
         <v>29</v>
       </c>
       <c r="L229" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M229" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N229" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O229" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P229" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q229" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R229" s="14" t="inlineStr">
         <is>
@@ -54593,18 +54593,18 @@
           <t>222004@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F233" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G233" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H233" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I233" s="13" t="n">
         <v>23</v>
@@ -54616,22 +54616,22 @@
         <v>29</v>
       </c>
       <c r="L233" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M233" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N233" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O233" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P233" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q233" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R233" s="14" t="inlineStr">
         <is>
@@ -59219,7 +59219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K394"/>
+  <dimension ref="A1:K414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -81581,8 +81581,1148 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>221579</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>لينا مكرم محمد يسن</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>221579@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>14:23:11</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>221574</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>عمر براء رجب</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>221574@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>14:23:17</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>221654</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>محمد اسامه بابكر احمد</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>221654@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>14:23:22</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>221566</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>مصطفى سامى محمد عبد الله</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>221566@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>14:23:27</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>221506</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>فاطمه احمد اسماعيل الناجي</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>221506@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>14:23:39</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>220990</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>جاد زياد سلوم</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>220990@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>14:23:48</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>222004</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>احمد ايمن احمد بشير</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>222004@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>14:23:52</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>210935</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>يعقوب سليمان يعقوب يحى</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>210935@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>14:23:56</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>221653</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>يزن يحيى سليمان طبش</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>221653@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>14:24:10</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>221546</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>محمدزين ابوبكر محمد زين احمد</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>221546@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>14:24:20</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>221863</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>ميسم ايمن زيدان</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>221863@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>14:24:31</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>221802</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>بشاير ابوبكر على عيسى ابراهيم</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>221802@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>14:24:42</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>210967</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>ملاك كمال اسماعيل ابو جلاله</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>210967@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>14:24:57</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>221357</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>عبد الله محمد نصر قناوى</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>221357@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>14:38:41</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>211915</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>ابايزيد عبد الله سعيد ابو رصاص</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>211915@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>14:38:49</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>221031</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>امنيه عبدالله عبد اللطيف محمد</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>221031@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>14:40:56</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>212318</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>مازن مصدق يس عبد اللطيف</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>212318@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>14:41:03</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>221433</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>عادل سامي احمد طه</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>221433@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>14:42:09</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>221437</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>مهند عدنان دخل الله ماضي</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>221437@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>14:43:37</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>221997</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>خالد مبارك احمد عثمان</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>221997@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>14:46:28</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K394"/>
+  <autoFilter ref="A1:K414"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$414</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$421</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -26760,11 +26760,11 @@
       </c>
       <c r="G113" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H113" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I113" s="13" t="n">
         <v>23</v>
@@ -26776,22 +26776,22 @@
         <v>29</v>
       </c>
       <c r="L113" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M113" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N113" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O113" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P113" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q113" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" s="14" t="inlineStr">
         <is>
@@ -26992,11 +26992,11 @@
       </c>
       <c r="G114" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H114" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I114" s="13" t="n">
         <v>23</v>
@@ -27008,22 +27008,22 @@
         <v>29</v>
       </c>
       <c r="L114" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M114" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N114" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O114" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P114" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q114" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R114" s="14" t="inlineStr">
         <is>
@@ -30704,11 +30704,11 @@
       </c>
       <c r="G130" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H130" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I130" s="13" t="n">
         <v>23</v>
@@ -30720,22 +30720,22 @@
         <v>29</v>
       </c>
       <c r="L130" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M130" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N130" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O130" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P130" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q130" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R130" s="14" t="inlineStr">
         <is>
@@ -46937,18 +46937,18 @@
           <t>221850@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F200" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F200" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G200" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H200" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I200" s="13" t="n">
         <v>23</v>
@@ -46960,22 +46960,22 @@
         <v>29</v>
       </c>
       <c r="L200" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M200" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N200" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O200" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P200" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q200" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R200" s="14" t="inlineStr">
         <is>
@@ -49032,11 +49032,11 @@
       </c>
       <c r="G209" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H209" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I209" s="13" t="n">
         <v>23</v>
@@ -49048,22 +49048,22 @@
         <v>29</v>
       </c>
       <c r="L209" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M209" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N209" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O209" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P209" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q209" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R209" s="14" t="inlineStr">
         <is>
@@ -50656,11 +50656,11 @@
       </c>
       <c r="G216" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H216" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I216" s="13" t="n">
         <v>23</v>
@@ -50672,22 +50672,22 @@
         <v>29</v>
       </c>
       <c r="L216" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M216" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N216" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O216" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P216" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q216" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R216" s="14" t="inlineStr">
         <is>
@@ -54361,18 +54361,18 @@
           <t>222003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F232" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G232" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H232" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I232" s="13" t="n">
         <v>23</v>
@@ -54384,22 +54384,22 @@
         <v>29</v>
       </c>
       <c r="L232" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M232" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N232" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O232" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P232" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q232" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R232" s="14" t="inlineStr">
         <is>
@@ -59219,7 +59219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K414"/>
+  <dimension ref="A1:K421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -82721,8 +82721,407 @@
         </is>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>221459</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>محمد الطيب محمد زين</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>221459@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>14:23:17</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>221933</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>معاذ انور عبدالله</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>221933@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>14:23:21</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>221850</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>مؤمن محمد عبد الله محمد</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>221850@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>14:23:22</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>222003</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>اسراء بدر الدين جعفر عثمان</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>222003@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>14:23:24</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>221351</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>ريان الطاهر عبد الله ناصر</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>221351@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>14:23:28</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>221904</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>عائشه نور شيهو</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>221904@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>14:23:31</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>221355</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>لمى ابكر سعيد جبرين محمد</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>221355@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>14:23:34</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K414"/>
+  <autoFilter ref="A1:K421"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$477</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -92,7 +92,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB97D"/>
+        <fgColor rgb="00FFF1A6"/>
       </patternFill>
     </fill>
     <fill>
@@ -147,7 +147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF1A6"/>
+        <fgColor rgb="00FFB97D"/>
       </patternFill>
     </fill>
     <fill>
@@ -1003,16 +1003,16 @@
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G2" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H2" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>23</v>
@@ -1024,10 +1024,10 @@
         <v>29</v>
       </c>
       <c r="L2" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" s="14" t="n">
         <v>5</v>
@@ -1111,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="AI2" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="18" t="n">
         <v>0</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="G3" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H3" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>23</v>
@@ -1256,10 +1256,10 @@
         <v>29</v>
       </c>
       <c r="L3" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14" t="n">
         <v>5</v>
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="AI3" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="18" t="n">
         <v>1</v>
@@ -1697,7 +1697,7 @@
           <t>201441@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F5" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -3321,18 +3321,18 @@
           <t>202107@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F12" s="24" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G12" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H12" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>23</v>
@@ -3344,10 +3344,10 @@
         <v>29</v>
       </c>
       <c r="L12" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="14" t="n">
         <v>5</v>
@@ -3431,7 +3431,7 @@
         <v>6</v>
       </c>
       <c r="AI12" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="18" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
           <t>210576@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -4249,18 +4249,18 @@
           <t>210826@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F16" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F16" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G16" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H16" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="13" t="n">
         <v>23</v>
@@ -4272,10 +4272,10 @@
         <v>29</v>
       </c>
       <c r="L16" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16" s="14" t="n">
         <v>5</v>
@@ -4359,7 +4359,7 @@
         <v>6</v>
       </c>
       <c r="AI16" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="18" t="n">
         <v>0</v>
@@ -4945,18 +4945,18 @@
           <t>210870@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F19" s="24" t="inlineStr">
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G19" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H19" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="13" t="n">
         <v>23</v>
@@ -4968,10 +4968,10 @@
         <v>29</v>
       </c>
       <c r="L19" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="14" t="n">
         <v>5</v>
@@ -5055,7 +5055,7 @@
         <v>6</v>
       </c>
       <c r="AI19" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="18" t="n">
         <v>0</v>
@@ -5177,7 +5177,7 @@
           <t>210926@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F20" s="24" t="inlineStr">
+      <c r="F20" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -5873,7 +5873,7 @@
           <t>210967@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F23" s="11" t="inlineStr">
+      <c r="F23" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -6105,7 +6105,7 @@
           <t>210998@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F24" s="24" t="inlineStr">
+      <c r="F24" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -7961,7 +7961,7 @@
           <t>211294@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F32" s="11" t="inlineStr">
+      <c r="F32" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -8425,7 +8425,7 @@
           <t>211569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F34" s="11" t="inlineStr">
+      <c r="F34" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -9121,7 +9121,7 @@
           <t>211620@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F37" s="11" t="inlineStr">
+      <c r="F37" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -9353,18 +9353,18 @@
           <t>211704@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F38" s="24" t="inlineStr">
+      <c r="F38" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G38" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H38" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>23</v>
@@ -9376,10 +9376,10 @@
         <v>29</v>
       </c>
       <c r="L38" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38" s="14" t="n">
         <v>5</v>
@@ -9463,7 +9463,7 @@
         <v>6</v>
       </c>
       <c r="AI38" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="18" t="n">
         <v>0</v>
@@ -9585,7 +9585,7 @@
           <t>211776@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F39" s="11" t="inlineStr">
+      <c r="F39" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -9817,7 +9817,7 @@
           <t>211788@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F40" s="11" t="inlineStr">
+      <c r="F40" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -10745,18 +10745,18 @@
           <t>211915@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F44" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F44" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G44" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H44" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" s="13" t="n">
         <v>23</v>
@@ -10768,10 +10768,10 @@
         <v>29</v>
       </c>
       <c r="L44" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M44" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="14" t="n">
         <v>5</v>
@@ -10855,7 +10855,7 @@
         <v>6</v>
       </c>
       <c r="AI44" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ44" s="18" t="n">
         <v>1</v>
@@ -10977,7 +10977,7 @@
           <t>211963@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F45" s="11" t="inlineStr">
+      <c r="F45" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -11441,7 +11441,7 @@
           <t>211970@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F47" s="11" t="inlineStr">
+      <c r="F47" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -11673,7 +11673,7 @@
           <t>212039@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F48" s="11" t="inlineStr">
+      <c r="F48" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -12369,18 +12369,18 @@
           <t>212125@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F51" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F51" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G51" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H51" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" s="13" t="n">
         <v>23</v>
@@ -12392,10 +12392,10 @@
         <v>29</v>
       </c>
       <c r="L51" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N51" s="14" t="n">
         <v>5</v>
@@ -12479,7 +12479,7 @@
         <v>6</v>
       </c>
       <c r="AI51" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" s="18" t="n">
         <v>0</v>
@@ -12603,16 +12603,16 @@
       </c>
       <c r="F52" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G52" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H52" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>23</v>
@@ -12624,10 +12624,10 @@
         <v>29</v>
       </c>
       <c r="L52" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M52" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" s="14" t="n">
         <v>5</v>
@@ -12711,7 +12711,7 @@
         <v>6</v>
       </c>
       <c r="AI52" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ52" s="18" t="n">
         <v>1</v>
@@ -13065,18 +13065,18 @@
           <t>212160@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F54" s="11" t="inlineStr">
+      <c r="F54" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H54" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>23</v>
@@ -13088,10 +13088,10 @@
         <v>29</v>
       </c>
       <c r="L54" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" s="14" t="n">
         <v>5</v>
@@ -13175,7 +13175,7 @@
         <v>6</v>
       </c>
       <c r="AI54" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ54" s="18" t="n">
         <v>0</v>
@@ -13297,18 +13297,18 @@
           <t>212163@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F55" s="11" t="inlineStr">
+      <c r="F55" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G55" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H55" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I55" s="13" t="n">
         <v>23</v>
@@ -13320,10 +13320,10 @@
         <v>29</v>
       </c>
       <c r="L55" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" s="14" t="n">
         <v>5</v>
@@ -13407,7 +13407,7 @@
         <v>6</v>
       </c>
       <c r="AI55" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55" s="18" t="n">
         <v>0</v>
@@ -13993,18 +13993,18 @@
           <t>212211@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F58" s="11" t="inlineStr">
+      <c r="F58" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G58" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H58" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I58" s="13" t="n">
         <v>23</v>
@@ -14016,10 +14016,10 @@
         <v>29</v>
       </c>
       <c r="L58" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" s="14" t="n">
         <v>5</v>
@@ -14103,7 +14103,7 @@
         <v>6</v>
       </c>
       <c r="AI58" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ58" s="18" t="n">
         <v>0</v>
@@ -14921,7 +14921,7 @@
           <t>212308@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F62" s="11" t="inlineStr">
+      <c r="F62" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -15153,7 +15153,7 @@
           <t>212318@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F63" s="24" t="inlineStr">
+      <c r="F63" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -15617,18 +15617,18 @@
           <t>212386@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F65" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F65" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G65" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H65" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I65" s="13" t="n">
         <v>23</v>
@@ -15640,10 +15640,10 @@
         <v>29</v>
       </c>
       <c r="L65" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65" s="14" t="n">
         <v>5</v>
@@ -15727,7 +15727,7 @@
         <v>6</v>
       </c>
       <c r="AI65" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ65" s="18" t="n">
         <v>1</v>
@@ -16313,18 +16313,18 @@
           <t>212412@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F68" s="24" t="inlineStr">
+      <c r="F68" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G68" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H68" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I68" s="13" t="n">
         <v>23</v>
@@ -16336,10 +16336,10 @@
         <v>29</v>
       </c>
       <c r="L68" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M68" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N68" s="14" t="n">
         <v>5</v>
@@ -16423,7 +16423,7 @@
         <v>6</v>
       </c>
       <c r="AI68" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ68" s="18" t="n">
         <v>0</v>
@@ -17009,7 +17009,7 @@
           <t>212442@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F71" s="24" t="inlineStr">
+      <c r="F71" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -17705,7 +17705,7 @@
           <t>212543@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F74" s="24" t="inlineStr">
+      <c r="F74" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -17937,7 +17937,7 @@
           <t>220304@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F75" s="24" t="inlineStr">
+      <c r="F75" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18169,7 +18169,7 @@
           <t>220314@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F76" s="24" t="inlineStr">
+      <c r="F76" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18401,7 +18401,7 @@
           <t>220370@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F77" s="24" t="inlineStr">
+      <c r="F77" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18633,7 +18633,7 @@
           <t>220428@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F78" s="24" t="inlineStr">
+      <c r="F78" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18865,7 +18865,7 @@
           <t>220444@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F79" s="24" t="inlineStr">
+      <c r="F79" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -19329,7 +19329,7 @@
           <t>220618@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F81" s="11" t="inlineStr">
+      <c r="F81" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -19561,7 +19561,7 @@
           <t>220675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F82" s="11" t="inlineStr">
+      <c r="F82" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -20025,7 +20025,7 @@
           <t>220766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="24" t="inlineStr">
+      <c r="F84" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -20257,7 +20257,7 @@
           <t>220811@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F85" s="24" t="inlineStr">
+      <c r="F85" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -21417,7 +21417,7 @@
           <t>220926@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F90" s="11" t="inlineStr">
+      <c r="F90" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -22113,7 +22113,7 @@
           <t>220967@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F93" s="11" t="inlineStr">
+      <c r="F93" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -22577,7 +22577,7 @@
           <t>220990@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F95" s="24" t="inlineStr">
+      <c r="F95" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -22809,7 +22809,7 @@
           <t>221000@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F96" s="11" t="inlineStr">
+      <c r="F96" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -23041,7 +23041,7 @@
           <t>221013@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F97" s="24" t="inlineStr">
+      <c r="F97" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -23273,7 +23273,7 @@
           <t>221022@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F98" s="24" t="inlineStr">
+      <c r="F98" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -23505,7 +23505,7 @@
           <t>221027@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F99" s="11" t="inlineStr">
+      <c r="F99" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -23737,7 +23737,7 @@
           <t>221031@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F100" s="24" t="inlineStr">
+      <c r="F100" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -25361,7 +25361,7 @@
           <t>221294@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F107" s="24" t="inlineStr">
+      <c r="F107" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -25593,7 +25593,7 @@
           <t>221307@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F108" s="11" t="inlineStr">
+      <c r="F108" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -26059,16 +26059,16 @@
       </c>
       <c r="F110" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G110" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H110" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>23</v>
@@ -26080,10 +26080,10 @@
         <v>29</v>
       </c>
       <c r="L110" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M110" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N110" s="14" t="n">
         <v>5</v>
@@ -26167,7 +26167,7 @@
         <v>6</v>
       </c>
       <c r="AI110" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ110" s="18" t="n">
         <v>0</v>
@@ -26289,7 +26289,7 @@
           <t>221324@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F111" s="24" t="inlineStr">
+      <c r="F111" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26521,7 +26521,7 @@
           <t>221329@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F112" s="11" t="inlineStr">
+      <c r="F112" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -26753,7 +26753,7 @@
           <t>221351@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F113" s="24" t="inlineStr">
+      <c r="F113" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26985,7 +26985,7 @@
           <t>221355@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F114" s="24" t="inlineStr">
+      <c r="F114" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27217,18 +27217,18 @@
           <t>221357@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F115" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F115" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G115" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H115" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I115" s="13" t="n">
         <v>23</v>
@@ -27240,10 +27240,10 @@
         <v>29</v>
       </c>
       <c r="L115" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M115" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N115" s="14" t="n">
         <v>5</v>
@@ -27327,7 +27327,7 @@
         <v>6</v>
       </c>
       <c r="AI115" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ115" s="18" t="n">
         <v>1</v>
@@ -27681,7 +27681,7 @@
           <t>221375@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F117" s="24" t="inlineStr">
+      <c r="F117" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27913,7 +27913,7 @@
           <t>221404@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F118" s="24" t="inlineStr">
+      <c r="F118" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28145,7 +28145,7 @@
           <t>221409@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F119" s="11" t="inlineStr">
+      <c r="F119" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -28377,7 +28377,7 @@
           <t>221415@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F120" s="24" t="inlineStr">
+      <c r="F120" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29305,7 +29305,7 @@
           <t>221432@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F124" s="24" t="inlineStr">
+      <c r="F124" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29539,16 +29539,16 @@
       </c>
       <c r="F125" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G125" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H125" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I125" s="13" t="n">
         <v>23</v>
@@ -29560,10 +29560,10 @@
         <v>29</v>
       </c>
       <c r="L125" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M125" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N125" s="14" t="n">
         <v>5</v>
@@ -29647,7 +29647,7 @@
         <v>6</v>
       </c>
       <c r="AI125" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ125" s="18" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
           <t>221435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F126" s="24" t="inlineStr">
+      <c r="F126" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30003,16 +30003,16 @@
       </c>
       <c r="F127" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G127" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H127" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I127" s="13" t="n">
         <v>23</v>
@@ -30024,10 +30024,10 @@
         <v>29</v>
       </c>
       <c r="L127" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M127" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N127" s="14" t="n">
         <v>5</v>
@@ -30111,7 +30111,7 @@
         <v>6</v>
       </c>
       <c r="AI127" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ127" s="18" t="n">
         <v>0</v>
@@ -30233,18 +30233,18 @@
           <t>221438@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F128" s="11" t="inlineStr">
+      <c r="F128" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G128" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H128" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I128" s="13" t="n">
         <v>23</v>
@@ -30256,10 +30256,10 @@
         <v>29</v>
       </c>
       <c r="L128" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M128" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N128" s="14" t="n">
         <v>5</v>
@@ -30343,7 +30343,7 @@
         <v>6</v>
       </c>
       <c r="AI128" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ128" s="18" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
           <t>221459@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F130" s="24" t="inlineStr">
+      <c r="F130" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30929,18 +30929,18 @@
           <t>221476@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F131" s="11" t="inlineStr">
+      <c r="F131" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G131" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H131" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I131" s="13" t="n">
         <v>23</v>
@@ -30952,10 +30952,10 @@
         <v>29</v>
       </c>
       <c r="L131" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M131" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N131" s="14" t="n">
         <v>5</v>
@@ -31039,7 +31039,7 @@
         <v>6</v>
       </c>
       <c r="AI131" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ131" s="18" t="n">
         <v>0</v>
@@ -31161,7 +31161,7 @@
           <t>221478@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F132" s="11" t="inlineStr">
+      <c r="F132" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -31393,7 +31393,7 @@
           <t>221484@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F133" s="11" t="inlineStr">
+      <c r="F133" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -31625,18 +31625,18 @@
           <t>221494@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F134" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F134" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G134" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H134" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>23</v>
@@ -31648,10 +31648,10 @@
         <v>29</v>
       </c>
       <c r="L134" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M134" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N134" s="14" t="n">
         <v>5</v>
@@ -31735,7 +31735,7 @@
         <v>6</v>
       </c>
       <c r="AI134" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ134" s="18" t="n">
         <v>1</v>
@@ -31857,7 +31857,7 @@
           <t>221495@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F135" s="11" t="inlineStr">
+      <c r="F135" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -32553,7 +32553,7 @@
           <t>221506@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F138" s="24" t="inlineStr">
+      <c r="F138" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -32785,18 +32785,18 @@
           <t>221507@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F139" s="11" t="inlineStr">
+      <c r="F139" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G139" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H139" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I139" s="13" t="n">
         <v>23</v>
@@ -32808,10 +32808,10 @@
         <v>29</v>
       </c>
       <c r="L139" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M139" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N139" s="14" t="n">
         <v>5</v>
@@ -32895,7 +32895,7 @@
         <v>6</v>
       </c>
       <c r="AI139" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ139" s="18" t="n">
         <v>0</v>
@@ -33017,7 +33017,7 @@
           <t>221508@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F140" s="24" t="inlineStr">
+      <c r="F140" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -33251,16 +33251,16 @@
       </c>
       <c r="F141" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G141" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H141" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I141" s="13" t="n">
         <v>23</v>
@@ -33272,10 +33272,10 @@
         <v>29</v>
       </c>
       <c r="L141" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M141" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N141" s="14" t="n">
         <v>5</v>
@@ -33359,7 +33359,7 @@
         <v>6</v>
       </c>
       <c r="AI141" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ141" s="18" t="n">
         <v>1</v>
@@ -33713,18 +33713,18 @@
           <t>221522@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F143" s="24" t="inlineStr">
+      <c r="F143" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G143" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H143" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I143" s="13" t="n">
         <v>23</v>
@@ -33736,10 +33736,10 @@
         <v>29</v>
       </c>
       <c r="L143" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M143" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N143" s="14" t="n">
         <v>5</v>
@@ -33823,7 +33823,7 @@
         <v>6</v>
       </c>
       <c r="AI143" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ143" s="18" t="n">
         <v>1</v>
@@ -33945,7 +33945,7 @@
           <t>221523@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F144" s="11" t="inlineStr">
+      <c r="F144" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -34177,18 +34177,18 @@
           <t>221527@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F145" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F145" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G145" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H145" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>23</v>
@@ -34200,10 +34200,10 @@
         <v>29</v>
       </c>
       <c r="L145" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M145" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N145" s="14" t="n">
         <v>5</v>
@@ -34287,7 +34287,7 @@
         <v>6</v>
       </c>
       <c r="AI145" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ145" s="18" t="n">
         <v>0</v>
@@ -34409,18 +34409,18 @@
           <t>221536@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="24" t="inlineStr">
+      <c r="F146" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G146" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H146" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>23</v>
@@ -34432,10 +34432,10 @@
         <v>29</v>
       </c>
       <c r="L146" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M146" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N146" s="14" t="n">
         <v>5</v>
@@ -34519,7 +34519,7 @@
         <v>6</v>
       </c>
       <c r="AI146" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ146" s="18" t="n">
         <v>1</v>
@@ -34641,18 +34641,18 @@
           <t>221539@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F147" s="24" t="inlineStr">
+      <c r="F147" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G147" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H147" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I147" s="13" t="n">
         <v>23</v>
@@ -34664,10 +34664,10 @@
         <v>29</v>
       </c>
       <c r="L147" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M147" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N147" s="14" t="n">
         <v>5</v>
@@ -34751,7 +34751,7 @@
         <v>6</v>
       </c>
       <c r="AI147" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ147" s="18" t="n">
         <v>1</v>
@@ -34873,7 +34873,7 @@
           <t>221546@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F148" s="24" t="inlineStr">
+      <c r="F148" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -35337,7 +35337,7 @@
           <t>221558@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F150" s="11" t="inlineStr">
+      <c r="F150" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -35569,7 +35569,7 @@
           <t>221566@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F151" s="11" t="inlineStr">
+      <c r="F151" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -35801,7 +35801,7 @@
           <t>221569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="24" t="inlineStr">
+      <c r="F152" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -36033,7 +36033,7 @@
           <t>221574@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F153" s="24" t="inlineStr">
+      <c r="F153" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -36267,16 +36267,16 @@
       </c>
       <c r="F154" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G154" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H154" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I154" s="13" t="n">
         <v>23</v>
@@ -36288,10 +36288,10 @@
         <v>29</v>
       </c>
       <c r="L154" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M154" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N154" s="14" t="n">
         <v>5</v>
@@ -36375,7 +36375,7 @@
         <v>6</v>
       </c>
       <c r="AI154" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ154" s="18" t="n">
         <v>1</v>
@@ -36497,18 +36497,18 @@
           <t>221579@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F155" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F155" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G155" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H155" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I155" s="13" t="n">
         <v>23</v>
@@ -36520,10 +36520,10 @@
         <v>29</v>
       </c>
       <c r="L155" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M155" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N155" s="14" t="n">
         <v>5</v>
@@ -36607,7 +36607,7 @@
         <v>6</v>
       </c>
       <c r="AI155" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ155" s="18" t="n">
         <v>1</v>
@@ -36729,7 +36729,7 @@
           <t>221583@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F156" s="24" t="inlineStr">
+      <c r="F156" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -36961,7 +36961,7 @@
           <t>221584@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F157" s="11" t="inlineStr">
+      <c r="F157" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -37195,16 +37195,16 @@
       </c>
       <c r="F158" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G158" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H158" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>23</v>
@@ -37216,10 +37216,10 @@
         <v>29</v>
       </c>
       <c r="L158" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M158" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N158" s="14" t="n">
         <v>5</v>
@@ -37303,7 +37303,7 @@
         <v>6</v>
       </c>
       <c r="AI158" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ158" s="18" t="n">
         <v>1</v>
@@ -37425,7 +37425,7 @@
           <t>221589@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F159" s="11" t="inlineStr">
+      <c r="F159" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -37657,18 +37657,18 @@
           <t>221599@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F160" s="24" t="inlineStr">
+      <c r="F160" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G160" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H160" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I160" s="13" t="n">
         <v>23</v>
@@ -37680,10 +37680,10 @@
         <v>29</v>
       </c>
       <c r="L160" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M160" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N160" s="14" t="n">
         <v>5</v>
@@ -37767,7 +37767,7 @@
         <v>6</v>
       </c>
       <c r="AI160" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ160" s="18" t="n">
         <v>1</v>
@@ -37889,7 +37889,7 @@
           <t>221600@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="24" t="inlineStr">
+      <c r="F161" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -38121,7 +38121,7 @@
           <t>221606@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F162" s="24" t="inlineStr">
+      <c r="F162" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -38353,7 +38353,7 @@
           <t>221617@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F163" s="11" t="inlineStr">
+      <c r="F163" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -38585,7 +38585,7 @@
           <t>221622@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F164" s="11" t="inlineStr">
+      <c r="F164" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -38817,7 +38817,7 @@
           <t>221629@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F165" s="11" t="inlineStr">
+      <c r="F165" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -39051,16 +39051,16 @@
       </c>
       <c r="F166" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G166" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H166" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I166" s="13" t="n">
         <v>23</v>
@@ -39072,10 +39072,10 @@
         <v>29</v>
       </c>
       <c r="L166" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M166" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N166" s="14" t="n">
         <v>5</v>
@@ -39159,7 +39159,7 @@
         <v>6</v>
       </c>
       <c r="AI166" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ166" s="18" t="n">
         <v>1</v>
@@ -39977,7 +39977,7 @@
           <t>221649@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F170" s="11" t="inlineStr">
+      <c r="F170" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -40209,18 +40209,18 @@
           <t>221653@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F171" s="24" t="inlineStr">
+      <c r="F171" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G171" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H171" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I171" s="13" t="n">
         <v>23</v>
@@ -40232,10 +40232,10 @@
         <v>29</v>
       </c>
       <c r="L171" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M171" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N171" s="14" t="n">
         <v>5</v>
@@ -40319,7 +40319,7 @@
         <v>6</v>
       </c>
       <c r="AI171" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ171" s="18" t="n">
         <v>0</v>
@@ -40443,16 +40443,16 @@
       </c>
       <c r="F172" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G172" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H172" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I172" s="13" t="n">
         <v>23</v>
@@ -40464,10 +40464,10 @@
         <v>29</v>
       </c>
       <c r="L172" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M172" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N172" s="14" t="n">
         <v>5</v>
@@ -40551,7 +40551,7 @@
         <v>6</v>
       </c>
       <c r="AI172" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ172" s="18" t="n">
         <v>0</v>
@@ -40673,7 +40673,7 @@
           <t>221660@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F173" s="11" t="inlineStr">
+      <c r="F173" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -40905,7 +40905,7 @@
           <t>221668@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F174" s="11" t="inlineStr">
+      <c r="F174" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -41137,7 +41137,7 @@
           <t>221675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="24" t="inlineStr">
+      <c r="F175" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -41833,18 +41833,18 @@
           <t>221695@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F178" s="11" t="inlineStr">
+      <c r="F178" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G178" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H178" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I178" s="13" t="n">
         <v>23</v>
@@ -41856,10 +41856,10 @@
         <v>29</v>
       </c>
       <c r="L178" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M178" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N178" s="14" t="n">
         <v>5</v>
@@ -41943,7 +41943,7 @@
         <v>6</v>
       </c>
       <c r="AI178" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ178" s="18" t="n">
         <v>0</v>
@@ -42065,7 +42065,7 @@
           <t>221699@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F179" s="11" t="inlineStr">
+      <c r="F179" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -42529,7 +42529,7 @@
           <t>221720@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F181" s="11" t="inlineStr">
+      <c r="F181" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -42761,7 +42761,7 @@
           <t>221730@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F182" s="24" t="inlineStr">
+      <c r="F182" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -43225,18 +43225,18 @@
           <t>221755@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F184" s="24" t="inlineStr">
+      <c r="F184" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G184" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H184" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I184" s="13" t="n">
         <v>23</v>
@@ -43248,10 +43248,10 @@
         <v>29</v>
       </c>
       <c r="L184" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M184" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N184" s="14" t="n">
         <v>5</v>
@@ -43335,7 +43335,7 @@
         <v>6</v>
       </c>
       <c r="AI184" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ184" s="18" t="n">
         <v>1</v>
@@ -43457,18 +43457,18 @@
           <t>221756@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F185" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G185" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H185" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I185" s="13" t="n">
         <v>23</v>
@@ -43480,10 +43480,10 @@
         <v>29</v>
       </c>
       <c r="L185" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M185" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N185" s="14" t="n">
         <v>5</v>
@@ -43567,7 +43567,7 @@
         <v>6</v>
       </c>
       <c r="AI185" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ185" s="18" t="n">
         <v>1</v>
@@ -43689,7 +43689,7 @@
           <t>221764@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F186" s="24" t="inlineStr">
+      <c r="F186" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -44155,16 +44155,16 @@
       </c>
       <c r="F188" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G188" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H188" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I188" s="13" t="n">
         <v>23</v>
@@ -44176,10 +44176,10 @@
         <v>29</v>
       </c>
       <c r="L188" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M188" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N188" s="14" t="n">
         <v>5</v>
@@ -44263,7 +44263,7 @@
         <v>6</v>
       </c>
       <c r="AI188" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ188" s="18" t="n">
         <v>1</v>
@@ -44385,7 +44385,7 @@
           <t>221779@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F189" s="24" t="inlineStr">
+      <c r="F189" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -44617,7 +44617,7 @@
           <t>221799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="24" t="inlineStr">
+      <c r="F190" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -44849,7 +44849,7 @@
           <t>221802@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F191" s="24" t="inlineStr">
+      <c r="F191" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -45313,7 +45313,7 @@
           <t>221810@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F193" s="11" t="inlineStr">
+      <c r="F193" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -45545,7 +45545,7 @@
           <t>221818@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F194" s="11" t="inlineStr">
+      <c r="F194" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -45777,7 +45777,7 @@
           <t>221822@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F195" s="24" t="inlineStr">
+      <c r="F195" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -46009,18 +46009,18 @@
           <t>221826@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F196" s="24" t="inlineStr">
+      <c r="F196" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G196" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H196" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I196" s="13" t="n">
         <v>23</v>
@@ -46032,10 +46032,10 @@
         <v>29</v>
       </c>
       <c r="L196" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M196" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N196" s="14" t="n">
         <v>5</v>
@@ -46119,7 +46119,7 @@
         <v>6</v>
       </c>
       <c r="AI196" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ196" s="18" t="n">
         <v>1</v>
@@ -46241,7 +46241,7 @@
           <t>221833@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F197" s="24" t="inlineStr">
+      <c r="F197" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -46473,7 +46473,7 @@
           <t>221838@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F198" s="11" t="inlineStr">
+      <c r="F198" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -46705,7 +46705,7 @@
           <t>221842@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F199" s="11" t="inlineStr">
+      <c r="F199" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -46944,11 +46944,11 @@
       </c>
       <c r="G200" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H200" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I200" s="13" t="n">
         <v>23</v>
@@ -46960,10 +46960,10 @@
         <v>29</v>
       </c>
       <c r="L200" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M200" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200" s="14" t="n">
         <v>5</v>
@@ -47047,7 +47047,7 @@
         <v>6</v>
       </c>
       <c r="AI200" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ200" s="18" t="n">
         <v>1</v>
@@ -47169,7 +47169,7 @@
           <t>221863@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F201" s="24" t="inlineStr">
+      <c r="F201" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -47633,7 +47633,7 @@
           <t>221866@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F203" s="11" t="inlineStr">
+      <c r="F203" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -47865,7 +47865,7 @@
           <t>221869@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F204" s="11" t="inlineStr">
+      <c r="F204" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -49025,7 +49025,7 @@
           <t>221904@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F209" s="11" t="inlineStr">
+      <c r="F209" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -49257,7 +49257,7 @@
           <t>221909@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F210" s="24" t="inlineStr">
+      <c r="F210" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -49491,16 +49491,16 @@
       </c>
       <c r="F211" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G211" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H211" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I211" s="13" t="n">
         <v>23</v>
@@ -49512,10 +49512,10 @@
         <v>29</v>
       </c>
       <c r="L211" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M211" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N211" s="14" t="n">
         <v>5</v>
@@ -49599,7 +49599,7 @@
         <v>6</v>
       </c>
       <c r="AI211" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ211" s="18" t="n">
         <v>1</v>
@@ -49723,16 +49723,16 @@
       </c>
       <c r="F212" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G212" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H212" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I212" s="13" t="n">
         <v>23</v>
@@ -49744,10 +49744,10 @@
         <v>29</v>
       </c>
       <c r="L212" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M212" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N212" s="14" t="n">
         <v>5</v>
@@ -49831,7 +49831,7 @@
         <v>6</v>
       </c>
       <c r="AI212" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ212" s="18" t="n">
         <v>0</v>
@@ -50187,16 +50187,16 @@
       </c>
       <c r="F214" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G214" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H214" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I214" s="13" t="n">
         <v>23</v>
@@ -50208,10 +50208,10 @@
         <v>29</v>
       </c>
       <c r="L214" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M214" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N214" s="14" t="n">
         <v>5</v>
@@ -50295,7 +50295,7 @@
         <v>6</v>
       </c>
       <c r="AI214" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ214" s="18" t="n">
         <v>0</v>
@@ -50417,18 +50417,18 @@
           <t>221930@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F215" s="24" t="inlineStr">
+      <c r="F215" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G215" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H215" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I215" s="13" t="n">
         <v>23</v>
@@ -50440,10 +50440,10 @@
         <v>29</v>
       </c>
       <c r="L215" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M215" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N215" s="14" t="n">
         <v>5</v>
@@ -50527,7 +50527,7 @@
         <v>6</v>
       </c>
       <c r="AI215" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ215" s="18" t="n">
         <v>0</v>
@@ -50649,7 +50649,7 @@
           <t>221933@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F216" s="11" t="inlineStr">
+      <c r="F216" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -50881,18 +50881,18 @@
           <t>221938@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F217" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G217" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H217" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I217" s="13" t="n">
         <v>23</v>
@@ -50904,10 +50904,10 @@
         <v>29</v>
       </c>
       <c r="L217" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M217" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N217" s="14" t="n">
         <v>5</v>
@@ -50991,7 +50991,7 @@
         <v>6</v>
       </c>
       <c r="AI217" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ217" s="18" t="n">
         <v>1</v>
@@ -51113,18 +51113,18 @@
           <t>221940@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F218" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F218" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G218" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H218" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I218" s="13" t="n">
         <v>23</v>
@@ -51136,10 +51136,10 @@
         <v>29</v>
       </c>
       <c r="L218" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M218" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N218" s="14" t="n">
         <v>5</v>
@@ -51223,7 +51223,7 @@
         <v>6</v>
       </c>
       <c r="AI218" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ218" s="18" t="n">
         <v>0</v>
@@ -51345,18 +51345,18 @@
           <t>221944@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F219" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F219" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G219" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H219" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I219" s="13" t="n">
         <v>23</v>
@@ -51368,10 +51368,10 @@
         <v>29</v>
       </c>
       <c r="L219" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M219" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N219" s="14" t="n">
         <v>5</v>
@@ -51455,7 +51455,7 @@
         <v>6</v>
       </c>
       <c r="AI219" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ219" s="18" t="n">
         <v>1</v>
@@ -51577,18 +51577,18 @@
           <t>221948@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F220" s="11" t="inlineStr">
+      <c r="F220" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G220" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H220" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I220" s="13" t="n">
         <v>23</v>
@@ -51600,10 +51600,10 @@
         <v>29</v>
       </c>
       <c r="L220" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M220" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N220" s="14" t="n">
         <v>5</v>
@@ -51687,7 +51687,7 @@
         <v>6</v>
       </c>
       <c r="AI220" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ220" s="18" t="n">
         <v>0</v>
@@ -51809,7 +51809,7 @@
           <t>221949@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F221" s="11" t="inlineStr">
+      <c r="F221" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -52737,18 +52737,18 @@
           <t>221966@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F225" s="24" t="inlineStr">
+      <c r="F225" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G225" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H225" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I225" s="13" t="n">
         <v>23</v>
@@ -52760,10 +52760,10 @@
         <v>29</v>
       </c>
       <c r="L225" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M225" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N225" s="14" t="n">
         <v>5</v>
@@ -52847,7 +52847,7 @@
         <v>6</v>
       </c>
       <c r="AI225" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ225" s="18" t="n">
         <v>1</v>
@@ -53201,7 +53201,7 @@
           <t>221982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="24" t="inlineStr">
+      <c r="F227" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -53435,16 +53435,16 @@
       </c>
       <c r="F228" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G228" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H228" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I228" s="13" t="n">
         <v>23</v>
@@ -53456,10 +53456,10 @@
         <v>29</v>
       </c>
       <c r="L228" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M228" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N228" s="14" t="n">
         <v>5</v>
@@ -53543,7 +53543,7 @@
         <v>6</v>
       </c>
       <c r="AI228" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ228" s="18" t="n">
         <v>1</v>
@@ -53667,16 +53667,16 @@
       </c>
       <c r="F229" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G229" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H229" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I229" s="13" t="n">
         <v>23</v>
@@ -53688,10 +53688,10 @@
         <v>29</v>
       </c>
       <c r="L229" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M229" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N229" s="14" t="n">
         <v>5</v>
@@ -53775,7 +53775,7 @@
         <v>6</v>
       </c>
       <c r="AI229" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ229" s="18" t="n">
         <v>1</v>
@@ -54129,7 +54129,7 @@
           <t>222002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F231" s="11" t="inlineStr">
+      <c r="F231" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -54600,11 +54600,11 @@
       </c>
       <c r="G233" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H233" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I233" s="13" t="n">
         <v>23</v>
@@ -54616,10 +54616,10 @@
         <v>29</v>
       </c>
       <c r="L233" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M233" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233" s="14" t="n">
         <v>5</v>
@@ -54703,7 +54703,7 @@
         <v>6</v>
       </c>
       <c r="AI233" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ233" s="18" t="n">
         <v>1</v>
@@ -55289,7 +55289,7 @@
           <t>222026@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F236" s="24" t="inlineStr">
+      <c r="F236" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -55521,7 +55521,7 @@
           <t>222027@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F237" s="11" t="inlineStr">
+      <c r="F237" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -55753,7 +55753,7 @@
           <t>222028@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F238" s="24" t="inlineStr">
+      <c r="F238" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -56217,7 +56217,7 @@
           <t>222032@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F240" s="24" t="inlineStr">
+      <c r="F240" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -56449,18 +56449,18 @@
           <t>222035@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F241" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F241" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G241" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H241" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I241" s="13" t="n">
         <v>23</v>
@@ -56472,10 +56472,10 @@
         <v>29</v>
       </c>
       <c r="L241" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M241" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N241" s="14" t="n">
         <v>5</v>
@@ -56559,7 +56559,7 @@
         <v>6</v>
       </c>
       <c r="AI241" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ241" s="18" t="n">
         <v>1</v>
@@ -56681,7 +56681,7 @@
           <t>222036@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F242" s="24" t="inlineStr">
+      <c r="F242" s="11" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -56913,18 +56913,18 @@
           <t>222053@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F243" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F243" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G243" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H243" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I243" s="13" t="n">
         <v>23</v>
@@ -56936,10 +56936,10 @@
         <v>29</v>
       </c>
       <c r="L243" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M243" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N243" s="14" t="n">
         <v>5</v>
@@ -57023,7 +57023,7 @@
         <v>6</v>
       </c>
       <c r="AI243" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ243" s="18" t="n">
         <v>0</v>
@@ -57377,18 +57377,18 @@
           <t>222058@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F245" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F245" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G245" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H245" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I245" s="13" t="n">
         <v>23</v>
@@ -57400,10 +57400,10 @@
         <v>29</v>
       </c>
       <c r="L245" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M245" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N245" s="14" t="n">
         <v>5</v>
@@ -57487,7 +57487,7 @@
         <v>6</v>
       </c>
       <c r="AI245" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ245" s="18" t="n">
         <v>0</v>
@@ -57611,16 +57611,16 @@
       </c>
       <c r="F246" s="11" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G246" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H246" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I246" s="13" t="n">
         <v>23</v>
@@ -57632,10 +57632,10 @@
         <v>29</v>
       </c>
       <c r="L246" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M246" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N246" s="14" t="n">
         <v>5</v>
@@ -57719,7 +57719,7 @@
         <v>6</v>
       </c>
       <c r="AI246" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ246" s="18" t="n">
         <v>1</v>
@@ -58073,7 +58073,7 @@
           <t>222076@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="11" t="inlineStr">
+      <c r="F248" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -58305,7 +58305,7 @@
           <t>222079@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F249" s="11" t="inlineStr">
+      <c r="F249" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -59001,7 +59001,7 @@
           <t>222113@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F252" s="11" t="inlineStr">
+      <c r="F252" s="24" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -59219,7 +59219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K421"/>
+  <dimension ref="A1:K477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -83120,8 +83120,3200 @@
         </is>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>222004</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>احمد ايمن احمد بشير</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>222004@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>12:36:53</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>221850</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>مؤمن محمد عبد الله محمد</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>221850@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>12:36:55</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>221774</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>يدجوك جيمس كوانقو اكوك</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>221774@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>12:36:57</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>221631</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>رغد الحاج حسين عبدالمتعال</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>221631@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>12:37:00</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>221599</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>سلمى عبد الرحمن عبيد موسى</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>221599@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>12:37:03</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>221494</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>حسن الصادق مصطفى الحاج</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>221494@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>12:37:04</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>222053</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>صباح سيف الدين عثمان اسحق</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>222053@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>12:37:06</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>200540</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>محمد سعيد ابراهيم عواد درويش</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>200540@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>12:37:08</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>221938</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>مانويلا ناكوتا مارينو لوكالى</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>221938@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>12:37:11</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>211915</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>ابايزيد عبد الله سعيد ابو رصاص</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>211915@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>12:37:13</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>221996</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>نياقوط فال توت دوير</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>221996@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>12:37:15</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>210870</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>عبد الله جعفر عثمان جعفر</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>210870@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>12:37:16</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>221966</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>ساكى جوزيف اليساما زونقبيتى</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>221966@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>12:37:21</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>221587</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>ليم عثمان السر الشمباتي</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>221587@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>12:37:22</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>212412</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>شارلز ماكوك مالوك</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>212412@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>12:37:24</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>خديجة ادم محمد ادريس موسى</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>202107@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>12:37:26</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>221438</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>كان فار نيانق كيج</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>221438@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>12:37:28</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>221756</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>ماريا صالح حسن مثنى محمد</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>221756@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>12:37:30</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>221579</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>لينا مكرم محمد يسن</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>221579@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>12:37:37</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>190252</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>عبد الله طلعت عبد اللطيف عواد شالق</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>190252@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>12:37:50</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>221923</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>ليفو سوزى وليام جوزيف</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>221923@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>12:38:16</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>221940</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>محمد حسين شاهد نور</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>221940@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>12:38:27</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>221914</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>معز اشتياق</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>221914@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>12:38:34</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>221944</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>ضحى عمر سيف الدين محمد</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>221944@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>12:38:39</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>211704</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>الياس احمد بكردان</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>211704@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>12:39:03</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>221911</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>دينق ضيو نقوك اكوانق</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>221911@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>12:39:09</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>221536</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>عبده دفع الله سليمان كوكو</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>221536@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>12:39:16</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>221510</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>أماني عبدالله محمد صالح عبدربه</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>221510@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>12:39:31</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>221522</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>آدم محمد احمد البديرات</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>221522@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>12:39:39</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>221437</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>مهند عدنان دخل الله ماضي</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>221437@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>12:39:47</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>221997</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>خالد مبارك احمد عثمان</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>221997@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>12:39:53</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>212386</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>لويد اليكس موجا</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>212386@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>12:40:00</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>210826</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>بشر محمد قدح سليم</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>210826@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>12:40:08</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>221654</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>محمد اسامه بابكر احمد</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>221654@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>12:40:14</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>222063</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>محمد مصطفى حامد التوم</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>222063@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>12:40:25</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>221653</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>يزن يحيى سليمان طبش</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>221653@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>12:40:33</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>212145</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>سميه لاوان شايبو</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>212145@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>12:40:43</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>222035</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>علا عبد الوهاب خليل محمود</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>222035@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>12:41:01</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>221695</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>اروب ميجوك دودى باقوير</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>221695@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>12:41:10</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>212211</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>سوزان جيريمياه لادو</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>212211@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>12:41:19</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>221826</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>بخيتة اوت قور كول</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>221826@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>12:41:36</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>221948</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>سانتينو اتيم شول دينق</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>221948@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>12:41:45</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>221527</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>شهد محمد عبدالرحمن ادريس</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>221527@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>12:41:52</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>221357</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>عبد الله محمد نصر قناوى</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>221357@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>12:42:00</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>221507</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>قتيبه فايز السعيد</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>221507@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>12:42:08</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>212163</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>رقيه احمد عبد الله</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>212163@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>12:42:29</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>221539</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>تحريم شوكات مالك</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>221539@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>12:42:38</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>221755</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>سعدية عاشق</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>221755@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>12:42:45</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>221930</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>احمد محمود عبد الباقى محمد</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>221930@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>12:42:53</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>222058</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>رفا السيد قسم الله السيد</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>222058@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>12:42:59</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>221476</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>صالح هيثم صالح سواحلي</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>221476@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>12:43:25</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>221577</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>ريل امير عوض محمدين</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>221577@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>12:43:32</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>221433</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>عادل سامي احمد طه</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>221433@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>12:43:56</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>212125</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>راما محمد الحاج محمد</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>212125@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>12:44:11</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>212160</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>المى عماد تركمانى</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>212160@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>12:44:18</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>221319</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>روان صلاح طاهر الوهباني</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>221319@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>PARASITOLOGY</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>12:44:25</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K421"/>
+  <autoFilter ref="A1:K477"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$480</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$494</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -23088,11 +23088,11 @@
       </c>
       <c r="G98" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H98" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>22</v>
@@ -23104,22 +23104,22 @@
         <v>29</v>
       </c>
       <c r="L98" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M98" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N98" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O98" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P98" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q98" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" s="14" t="inlineStr">
         <is>
@@ -25388,11 +25388,11 @@
       </c>
       <c r="G108" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H108" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>22</v>
@@ -25404,22 +25404,22 @@
         <v>29</v>
       </c>
       <c r="L108" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M108" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N108" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O108" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q108" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R108" s="14" t="inlineStr">
         <is>
@@ -37808,11 +37808,11 @@
       </c>
       <c r="G162" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H162" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I162" s="13" t="n">
         <v>22</v>
@@ -37824,22 +37824,22 @@
         <v>29</v>
       </c>
       <c r="L162" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M162" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N162" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O162" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P162" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q162" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R162" s="14" t="inlineStr">
         <is>
@@ -41718,11 +41718,11 @@
       </c>
       <c r="G179" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H179" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I179" s="13" t="n">
         <v>22</v>
@@ -41734,22 +41734,22 @@
         <v>29</v>
       </c>
       <c r="L179" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M179" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N179" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O179" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P179" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q179" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R179" s="14" t="inlineStr">
         <is>
@@ -44011,18 +44011,18 @@
           <t>221779@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F189" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F189" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G189" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H189" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I189" s="13" t="n">
         <v>22</v>
@@ -44034,22 +44034,22 @@
         <v>29</v>
       </c>
       <c r="L189" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M189" s="13" t="n">
         <v>3</v>
-      </c>
-      <c r="M189" s="13" t="n">
-        <v>4</v>
       </c>
       <c r="N189" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O189" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P189" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q189" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R189" s="14" t="inlineStr">
         <is>
@@ -44241,18 +44241,18 @@
           <t>221799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F190" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G190" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H190" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I190" s="13" t="n">
         <v>22</v>
@@ -44264,22 +44264,22 @@
         <v>29</v>
       </c>
       <c r="L190" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M190" s="13" t="n">
         <v>3</v>
-      </c>
-      <c r="M190" s="13" t="n">
-        <v>4</v>
       </c>
       <c r="N190" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O190" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P190" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q190" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R190" s="14" t="inlineStr">
         <is>
@@ -49998,11 +49998,11 @@
       </c>
       <c r="G215" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H215" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I215" s="13" t="n">
         <v>22</v>
@@ -50014,22 +50014,22 @@
         <v>29</v>
       </c>
       <c r="L215" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M215" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N215" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O215" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P215" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q215" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R215" s="14" t="inlineStr">
         <is>
@@ -50911,18 +50911,18 @@
           <t>221944@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F219" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F219" s="22" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G219" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H219" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I219" s="13" t="n">
         <v>22</v>
@@ -50934,22 +50934,22 @@
         <v>29</v>
       </c>
       <c r="L219" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M219" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N219" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O219" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P219" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q219" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R219" s="14" t="inlineStr">
         <is>
@@ -51371,18 +51371,18 @@
           <t>221949@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F221" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F221" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G221" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H221" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I221" s="13" t="n">
         <v>22</v>
@@ -51394,22 +51394,22 @@
         <v>29</v>
       </c>
       <c r="L221" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M221" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N221" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O221" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P221" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q221" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R221" s="14" t="inlineStr">
         <is>
@@ -54828,11 +54828,11 @@
       </c>
       <c r="G236" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H236" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I236" s="13" t="n">
         <v>22</v>
@@ -54844,22 +54844,22 @@
         <v>29</v>
       </c>
       <c r="L236" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M236" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N236" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O236" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P236" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q236" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R236" s="14" t="inlineStr">
         <is>
@@ -55288,11 +55288,11 @@
       </c>
       <c r="G238" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H238" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I238" s="13" t="n">
         <v>22</v>
@@ -55304,22 +55304,22 @@
         <v>29</v>
       </c>
       <c r="L238" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M238" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N238" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O238" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P238" s="14" t="n">
         <v>1</v>
       </c>
       <c r="Q238" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R238" s="14" t="inlineStr">
         <is>
@@ -56668,11 +56668,11 @@
       </c>
       <c r="G244" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H244" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I244" s="13" t="n">
         <v>22</v>
@@ -56684,22 +56684,22 @@
         <v>29</v>
       </c>
       <c r="L244" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M244" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N244" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O244" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P244" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q244" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R244" s="14" t="inlineStr">
         <is>
@@ -57121,18 +57121,18 @@
           <t>222063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F246" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F246" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G246" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H246" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I246" s="13" t="n">
         <v>22</v>
@@ -57144,22 +57144,22 @@
         <v>29</v>
       </c>
       <c r="L246" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M246" s="13" t="n">
         <v>3</v>
-      </c>
-      <c r="M246" s="13" t="n">
-        <v>4</v>
       </c>
       <c r="N246" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O246" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P246" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q246" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R246" s="14" t="inlineStr">
         <is>
@@ -58508,11 +58508,11 @@
       </c>
       <c r="G252" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H252" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I252" s="13" t="n">
         <v>22</v>
@@ -58524,22 +58524,22 @@
         <v>29</v>
       </c>
       <c r="L252" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M252" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N252" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O252" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P252" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q252" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252" s="14" t="inlineStr">
         <is>
@@ -58717,7 +58717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K480"/>
+  <dimension ref="A1:K494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -85981,8 +85981,806 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>222113</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>ابرار محمد عبد الله عبد الحميد</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>222113@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>14:23:17</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>221799</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>سعاد عبد الماجد احمد عيسى</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>221799@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>14:23:21</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>221779</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>اميرة رمضان سلمان ابو جامع</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>221779@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>14:23:22</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>221699</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>بيسان محمود محمد عبد الكريم</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>221699@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>14:23:28</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>221606</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>راوية الطاهر عبدالله ناصر</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>221606@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>14:23:31</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>221307</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>دعاء عاصم على العوض</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>221307@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>14:23:34</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>222028</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>هاجر عبد الحفيظ سيد صالح</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>222028@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>14:23:22</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>221022</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>شهد عبدالعظيم فرج بابكر</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>221022@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>14:23:24</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>221944</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>ضحى عمر سيف الدين محمد</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>221944@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>14:23:28</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>222056</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>الغالى ادم عيسى رحيل</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>222056@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>14:23:31</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>222063</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>محمد مصطفى حامد التوم</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>222063@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>14:23:34</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>221949</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>محمد لطفى الزبير البشير</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>221949@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>14:23:17</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>222026</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>عثمان موسى محمد ادم</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>222026@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>14:23:28</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>221930</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>احمد محمود عبد الباقى محمد</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>221930@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>14:23:34</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K480"/>
+  <autoFilter ref="A1:K494"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$494</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$502</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -43,7 +43,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill/>
     </fill>
@@ -137,7 +137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF1A6"/>
+        <fgColor rgb="003388D5"/>
       </patternFill>
     </fill>
     <fill>
@@ -148,6 +148,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF7C7C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF1A6"/>
       </patternFill>
     </fill>
     <fill>
@@ -171,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -243,7 +248,10 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1008,11 +1016,11 @@
       </c>
       <c r="G2" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H2" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>21</v>
@@ -1024,10 +1032,10 @@
         <v>29</v>
       </c>
       <c r="L2" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" s="14" t="n">
         <v>5</v>
@@ -1076,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="Z2" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="16" t="n">
         <v>0</v>
@@ -1231,16 +1239,16 @@
       </c>
       <c r="F3" s="22" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G3" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H3" s="13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>21</v>
@@ -1252,10 +1260,10 @@
         <v>29</v>
       </c>
       <c r="L3" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M3" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="14" t="n">
         <v>5</v>
@@ -1304,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="Z3" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="16" t="n">
         <v>0</v>
@@ -5561,7 +5569,7 @@
           <t>210935@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F22" s="22" t="inlineStr">
+      <c r="F22" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -10577,7 +10585,7 @@
           <t>211915@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F44" s="22" t="inlineStr">
+      <c r="F44" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -15137,7 +15145,7 @@
           <t>212322@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F64" s="22" t="inlineStr">
+      <c r="F64" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -15365,7 +15373,7 @@
           <t>212386@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F65" s="22" t="inlineStr">
+      <c r="F65" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -19697,18 +19705,18 @@
           <t>220766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F84" s="25" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G84" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H84" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>21</v>
@@ -19720,10 +19728,10 @@
         <v>29</v>
       </c>
       <c r="L84" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M84" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N84" s="14" t="n">
         <v>5</v>
@@ -19772,7 +19780,7 @@
         <v>3</v>
       </c>
       <c r="Z84" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA84" s="16" t="n">
         <v>0</v>
@@ -20609,7 +20617,7 @@
           <t>220877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F88" s="22" t="inlineStr">
+      <c r="F88" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -22889,7 +22897,7 @@
           <t>221022@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F98" s="22" t="inlineStr">
+      <c r="F98" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26765,7 +26773,7 @@
           <t>221357@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F115" s="22" t="inlineStr">
+      <c r="F115" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29273,18 +29281,18 @@
           <t>221435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F126" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F126" s="25" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G126" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H126" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I126" s="13" t="n">
         <v>21</v>
@@ -29296,10 +29304,10 @@
         <v>29</v>
       </c>
       <c r="L126" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M126" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N126" s="14" t="n">
         <v>5</v>
@@ -29348,7 +29356,7 @@
         <v>3</v>
       </c>
       <c r="Z126" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA126" s="16" t="n">
         <v>0</v>
@@ -30185,7 +30193,7 @@
           <t>221459@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F130" s="22" t="inlineStr">
+      <c r="F130" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31097,18 +31105,18 @@
           <t>221494@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F134" s="22" t="inlineStr">
+      <c r="F134" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G134" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H134" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>21</v>
@@ -31120,10 +31128,10 @@
         <v>29</v>
       </c>
       <c r="L134" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M134" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N134" s="14" t="n">
         <v>5</v>
@@ -31172,7 +31180,7 @@
         <v>3</v>
       </c>
       <c r="Z134" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA134" s="16" t="n">
         <v>0</v>
@@ -33605,7 +33613,7 @@
           <t>221527@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F145" s="22" t="inlineStr">
+      <c r="F145" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -35885,7 +35893,7 @@
           <t>221579@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F155" s="22" t="inlineStr">
+      <c r="F155" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -37481,18 +37489,18 @@
           <t>221606@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F162" s="22" t="inlineStr">
+      <c r="F162" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
       </c>
       <c r="G162" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H162" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I162" s="13" t="n">
         <v>21</v>
@@ -37504,10 +37512,10 @@
         <v>29</v>
       </c>
       <c r="L162" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M162" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N162" s="14" t="n">
         <v>5</v>
@@ -37556,7 +37564,7 @@
         <v>3</v>
       </c>
       <c r="Z162" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA162" s="16" t="n">
         <v>0</v>
@@ -39768,11 +39776,11 @@
       </c>
       <c r="G172" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H172" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I172" s="13" t="n">
         <v>21</v>
@@ -39784,10 +39792,10 @@
         <v>29</v>
       </c>
       <c r="L172" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M172" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N172" s="14" t="n">
         <v>5</v>
@@ -39836,7 +39844,7 @@
         <v>3</v>
       </c>
       <c r="Z172" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA172" s="16" t="n">
         <v>0</v>
@@ -40673,7 +40681,7 @@
           <t>221682@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F176" s="22" t="inlineStr">
+      <c r="F176" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -42725,7 +42733,7 @@
           <t>221756@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="22" t="inlineStr">
+      <c r="F185" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -46145,7 +46153,7 @@
           <t>221850@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F200" s="22" t="inlineStr">
+      <c r="F200" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -49565,7 +49573,7 @@
           <t>221930@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F215" s="22" t="inlineStr">
+      <c r="F215" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -49793,18 +49801,18 @@
           <t>221933@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F216" s="24" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F216" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G216" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H216" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I216" s="13" t="n">
         <v>21</v>
@@ -49816,10 +49824,10 @@
         <v>29</v>
       </c>
       <c r="L216" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M216" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N216" s="14" t="n">
         <v>5</v>
@@ -49868,7 +49876,7 @@
         <v>3</v>
       </c>
       <c r="Z216" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA216" s="16" t="n">
         <v>0</v>
@@ -50021,7 +50029,7 @@
           <t>221938@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="22" t="inlineStr">
+      <c r="F217" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -50477,7 +50485,7 @@
           <t>221944@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F219" s="22" t="inlineStr">
+      <c r="F219" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -53441,7 +53449,7 @@
           <t>222003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="22" t="inlineStr">
+      <c r="F232" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -53669,7 +53677,7 @@
           <t>222004@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="22" t="inlineStr">
+      <c r="F233" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -54353,7 +54361,7 @@
           <t>222026@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F236" s="22" t="inlineStr">
+      <c r="F236" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -54809,7 +54817,7 @@
           <t>222028@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F238" s="22" t="inlineStr">
+      <c r="F238" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -55493,7 +55501,7 @@
           <t>222035@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F241" s="22" t="inlineStr">
+      <c r="F241" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -55949,7 +55957,7 @@
           <t>222053@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F243" s="22" t="inlineStr">
+      <c r="F243" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -56405,7 +56413,7 @@
           <t>222058@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F245" s="22" t="inlineStr">
+      <c r="F245" s="25" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -58215,7 +58223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K494"/>
+  <dimension ref="A1:K502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -58240,57 +58248,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="25" t="inlineStr">
+      <c r="A1" s="26" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="B1" s="25" t="inlineStr">
+      <c r="B1" s="26" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="25" t="inlineStr">
+      <c r="C1" s="26" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="D1" s="25" t="inlineStr">
+      <c r="D1" s="26" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="26" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="F1" s="25" t="inlineStr">
+      <c r="F1" s="26" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="26" t="inlineStr">
         <is>
           <t>Session</t>
         </is>
       </c>
-      <c r="H1" s="25" t="inlineStr">
+      <c r="H1" s="26" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="I1" s="26" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" s="25" t="inlineStr">
+      <c r="J1" s="26" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="26" t="inlineStr">
         <is>
           <t>Validation Group</t>
         </is>
@@ -62674,7 +62682,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J78" s="26" t="n">
+      <c r="J78" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K78" t="inlineStr">
@@ -62729,7 +62737,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J79" s="26" t="n">
+      <c r="J79" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K79" t="inlineStr">
@@ -62784,7 +62792,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J80" s="26" t="n">
+      <c r="J80" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K80" t="inlineStr">
@@ -62839,7 +62847,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J81" s="26" t="n">
+      <c r="J81" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K81" t="inlineStr">
@@ -62894,7 +62902,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J82" s="26" t="n">
+      <c r="J82" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K82" t="inlineStr">
@@ -62949,7 +62957,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J83" s="26" t="n">
+      <c r="J83" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K83" t="inlineStr">
@@ -63004,7 +63012,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J84" s="26" t="n">
+      <c r="J84" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K84" t="inlineStr">
@@ -63059,7 +63067,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J85" s="26" t="n">
+      <c r="J85" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K85" t="inlineStr">
@@ -63114,7 +63122,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J86" s="26" t="n">
+      <c r="J86" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K86" t="inlineStr">
@@ -63169,7 +63177,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J87" s="26" t="n">
+      <c r="J87" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K87" t="inlineStr">
@@ -63224,7 +63232,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J88" s="26" t="n">
+      <c r="J88" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K88" t="inlineStr">
@@ -63279,7 +63287,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J89" s="26" t="n">
+      <c r="J89" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K89" t="inlineStr">
@@ -63334,7 +63342,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J90" s="26" t="n">
+      <c r="J90" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K90" t="inlineStr">
@@ -63389,7 +63397,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J91" s="26" t="n">
+      <c r="J91" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K91" t="inlineStr">
@@ -63444,7 +63452,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J92" s="26" t="n">
+      <c r="J92" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K92" t="inlineStr">
@@ -63499,7 +63507,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J93" s="26" t="n">
+      <c r="J93" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K93" t="inlineStr">
@@ -63554,7 +63562,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J94" s="26" t="n">
+      <c r="J94" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K94" t="inlineStr">
@@ -63609,7 +63617,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J95" s="26" t="n">
+      <c r="J95" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K95" t="inlineStr">
@@ -63664,7 +63672,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J96" s="26" t="n">
+      <c r="J96" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K96" t="inlineStr">
@@ -63719,7 +63727,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J97" s="26" t="n">
+      <c r="J97" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K97" t="inlineStr">
@@ -63774,7 +63782,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J98" s="26" t="n">
+      <c r="J98" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K98" t="inlineStr">
@@ -63829,7 +63837,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J99" s="26" t="n">
+      <c r="J99" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K99" t="inlineStr">
@@ -63884,7 +63892,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J100" s="26" t="n">
+      <c r="J100" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K100" t="inlineStr">
@@ -63939,7 +63947,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J101" s="26" t="n">
+      <c r="J101" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K101" t="inlineStr">
@@ -63994,7 +64002,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J102" s="26" t="n">
+      <c r="J102" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K102" t="inlineStr">
@@ -64049,7 +64057,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J103" s="26" t="n">
+      <c r="J103" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K103" t="inlineStr">
@@ -64104,7 +64112,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J104" s="26" t="n">
+      <c r="J104" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K104" t="inlineStr">
@@ -64159,7 +64167,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J105" s="26" t="n">
+      <c r="J105" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K105" t="inlineStr">
@@ -64214,7 +64222,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J106" s="26" t="n">
+      <c r="J106" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K106" t="inlineStr">
@@ -64269,7 +64277,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J107" s="26" t="n">
+      <c r="J107" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K107" t="inlineStr">
@@ -64324,7 +64332,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J108" s="26" t="n">
+      <c r="J108" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K108" t="inlineStr">
@@ -64379,7 +64387,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J109" s="26" t="n">
+      <c r="J109" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K109" t="inlineStr">
@@ -64434,7 +64442,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J110" s="26" t="n">
+      <c r="J110" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K110" t="inlineStr">
@@ -64489,7 +64497,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J111" s="26" t="n">
+      <c r="J111" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K111" t="inlineStr">
@@ -64544,7 +64552,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J112" s="26" t="n">
+      <c r="J112" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K112" t="inlineStr">
@@ -64599,7 +64607,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J113" s="26" t="n">
+      <c r="J113" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K113" t="inlineStr">
@@ -64654,7 +64662,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J114" s="26" t="n">
+      <c r="J114" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K114" t="inlineStr">
@@ -64709,7 +64717,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J115" s="26" t="n">
+      <c r="J115" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K115" t="inlineStr">
@@ -64764,7 +64772,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J116" s="26" t="n">
+      <c r="J116" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K116" t="inlineStr">
@@ -64819,7 +64827,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J117" s="26" t="n">
+      <c r="J117" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K117" t="inlineStr">
@@ -64874,7 +64882,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J118" s="26" t="n">
+      <c r="J118" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K118" t="inlineStr">
@@ -64929,7 +64937,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J119" s="26" t="n">
+      <c r="J119" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K119" t="inlineStr">
@@ -64984,7 +64992,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J120" s="26" t="n">
+      <c r="J120" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K120" t="inlineStr">
@@ -65039,7 +65047,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J121" s="26" t="n">
+      <c r="J121" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K121" t="inlineStr">
@@ -65094,7 +65102,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J122" s="26" t="n">
+      <c r="J122" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K122" t="inlineStr">
@@ -65149,7 +65157,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J123" s="26" t="n">
+      <c r="J123" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K123" t="inlineStr">
@@ -65204,7 +65212,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J124" s="26" t="n">
+      <c r="J124" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K124" t="inlineStr">
@@ -65259,7 +65267,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J125" s="26" t="n">
+      <c r="J125" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K125" t="inlineStr">
@@ -65314,7 +65322,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J126" s="26" t="n">
+      <c r="J126" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K126" t="inlineStr">
@@ -65369,7 +65377,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J127" s="26" t="n">
+      <c r="J127" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K127" t="inlineStr">
@@ -65424,7 +65432,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J128" s="26" t="n">
+      <c r="J128" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K128" t="inlineStr">
@@ -65479,7 +65487,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J129" s="26" t="n">
+      <c r="J129" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K129" t="inlineStr">
@@ -65534,7 +65542,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J130" s="26" t="n">
+      <c r="J130" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K130" t="inlineStr">
@@ -65589,7 +65597,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J131" s="26" t="n">
+      <c r="J131" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K131" t="inlineStr">
@@ -65644,7 +65652,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J132" s="26" t="n">
+      <c r="J132" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K132" t="inlineStr">
@@ -65699,7 +65707,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J133" s="26" t="n">
+      <c r="J133" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K133" t="inlineStr">
@@ -65754,7 +65762,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J134" s="26" t="n">
+      <c r="J134" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K134" t="inlineStr">
@@ -65809,7 +65817,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J135" s="26" t="n">
+      <c r="J135" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K135" t="inlineStr">
@@ -65864,7 +65872,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J136" s="26" t="n">
+      <c r="J136" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K136" t="inlineStr">
@@ -65919,7 +65927,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J137" s="26" t="n">
+      <c r="J137" s="27" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K137" t="inlineStr">
@@ -86277,8 +86285,464 @@
         </is>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>200540</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>محمد سعيد ابراهيم عواد درويش</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>200540@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>08:49:54</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>221606</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>راوية الطاهر عبدالله ناصر</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>221606@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>08:49:58</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>221654</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>محمد اسامه بابكر احمد</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>221654@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>08:50:01</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>221435</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>احمد سامى عثمان الدى</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>221435@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>08:50:04</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>221494</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>حسن الصادق مصطفى الحاج</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>221494@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>08:50:08</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>220766</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>ميار بنت خالد بن محمد الشيخ</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>220766@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>08:50:24</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>221933</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>معاذ انور عبدالله</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>221933@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>08:50:30</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>190252</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>عبد الله طلعت عبد اللطيف عواد شالق</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>190252@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>HISTOLOGY</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>08:50:40</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K494"/>
+  <autoFilter ref="A1:K502"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$502</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$518</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19081,18 +19081,18 @@
           <t>220675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F82" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F82" s="24" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G82" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H82" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I82" s="13" t="n">
         <v>20</v>
@@ -19104,16 +19104,16 @@
         <v>29</v>
       </c>
       <c r="L82" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N82" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O82" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82" s="14" t="n">
         <v>0</v>
@@ -21574,11 +21574,11 @@
       </c>
       <c r="G93" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H93" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I93" s="13" t="n">
         <v>20</v>
@@ -21590,16 +21590,16 @@
         <v>29</v>
       </c>
       <c r="L93" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M93" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N93" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O93" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" s="14" t="n">
         <v>0</v>
@@ -22026,11 +22026,11 @@
       </c>
       <c r="G95" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H95" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I95" s="13" t="n">
         <v>20</v>
@@ -22042,16 +22042,16 @@
         <v>29</v>
       </c>
       <c r="L95" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M95" s="13" t="n">
         <v>4</v>
-      </c>
-      <c r="M95" s="13" t="n">
-        <v>5</v>
       </c>
       <c r="N95" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O95" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P95" s="14" t="n">
         <v>1</v>
@@ -22252,11 +22252,11 @@
       </c>
       <c r="G96" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H96" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>20</v>
@@ -22268,16 +22268,16 @@
         <v>29</v>
       </c>
       <c r="L96" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M96" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N96" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O96" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P96" s="14" t="n">
         <v>1</v>
@@ -24731,18 +24731,18 @@
           <t>221294@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F107" s="24" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F107" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G107" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H107" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I107" s="13" t="n">
         <v>20</v>
@@ -24754,16 +24754,16 @@
         <v>29</v>
       </c>
       <c r="L107" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M107" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N107" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O107" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P107" s="14" t="n">
         <v>0</v>
@@ -24957,18 +24957,18 @@
           <t>221307@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F108" s="24" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F108" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G108" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H108" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>20</v>
@@ -24980,16 +24980,16 @@
         <v>29</v>
       </c>
       <c r="L108" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M108" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N108" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O108" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P108" s="14" t="n">
         <v>0</v>
@@ -25409,18 +25409,18 @@
           <t>221319@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F110" s="24" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F110" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G110" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H110" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>20</v>
@@ -25432,16 +25432,16 @@
         <v>29</v>
       </c>
       <c r="L110" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M110" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N110" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O110" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P110" s="14" t="n">
         <v>1</v>
@@ -25635,18 +25635,18 @@
           <t>221324@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F111" s="24" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F111" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G111" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H111" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I111" s="13" t="n">
         <v>20</v>
@@ -25658,16 +25658,16 @@
         <v>29</v>
       </c>
       <c r="L111" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M111" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N111" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O111" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P111" s="14" t="n">
         <v>1</v>
@@ -26991,18 +26991,18 @@
           <t>221375@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F117" s="24" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F117" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G117" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H117" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I117" s="13" t="n">
         <v>20</v>
@@ -27014,16 +27014,16 @@
         <v>29</v>
       </c>
       <c r="L117" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M117" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N117" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O117" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117" s="14" t="n">
         <v>0</v>
@@ -27224,11 +27224,11 @@
       </c>
       <c r="G118" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H118" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I118" s="13" t="n">
         <v>20</v>
@@ -27240,16 +27240,16 @@
         <v>29</v>
       </c>
       <c r="L118" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M118" s="13" t="n">
         <v>4</v>
-      </c>
-      <c r="M118" s="13" t="n">
-        <v>5</v>
       </c>
       <c r="N118" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O118" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P118" s="14" t="n">
         <v>1</v>
@@ -27669,18 +27669,18 @@
           <t>221415@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F120" s="24" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F120" s="11" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G120" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H120" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>20</v>
@@ -27692,16 +27692,16 @@
         <v>29</v>
       </c>
       <c r="L120" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M120" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N120" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O120" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120" s="14" t="n">
         <v>0</v>
@@ -29025,18 +29025,18 @@
           <t>221435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F126" s="11" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F126" s="22" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G126" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H126" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I126" s="13" t="n">
         <v>20</v>
@@ -29048,16 +29048,16 @@
         <v>29</v>
       </c>
       <c r="L126" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M126" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N126" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O126" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P126" s="14" t="n">
         <v>1</v>
@@ -29484,11 +29484,11 @@
       </c>
       <c r="G128" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H128" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I128" s="13" t="n">
         <v>20</v>
@@ -29500,16 +29500,16 @@
         <v>29</v>
       </c>
       <c r="L128" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M128" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N128" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O128" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128" s="14" t="n">
         <v>0</v>
@@ -30162,11 +30162,11 @@
       </c>
       <c r="G131" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H131" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I131" s="13" t="n">
         <v>20</v>
@@ -30178,16 +30178,16 @@
         <v>29</v>
       </c>
       <c r="L131" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M131" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N131" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O131" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P131" s="14" t="n">
         <v>1</v>
@@ -30840,11 +30840,11 @@
       </c>
       <c r="G134" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H134" s="13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>20</v>
@@ -30856,16 +30856,16 @@
         <v>29</v>
       </c>
       <c r="L134" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M134" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N134" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O134" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P134" s="14" t="n">
         <v>1</v>
@@ -37620,11 +37620,11 @@
       </c>
       <c r="G164" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H164" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I164" s="13" t="n">
         <v>20</v>
@@ -37636,16 +37636,16 @@
         <v>29</v>
       </c>
       <c r="L164" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M164" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N164" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O164" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P164" s="14" t="n">
         <v>1</v>
@@ -57713,7 +57713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K502"/>
+  <dimension ref="A1:K518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -86231,8 +86231,920 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>221435</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>احمد سامى عثمان الدى</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>221435@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>10:34:25</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>221494</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>حسن الصادق مصطفى الحاج</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>221494@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>10:34:30</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>220990</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>جاد زياد سلوم</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>220990@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>10:34:34</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>221438</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>كان فار نيانق كيج</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>221438@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>10:34:38</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>221415</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>داليا عبد العزيز مبروك عبد العزيز بكار</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>221415@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>10:34:43</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>221622</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>محمود محمد ادن</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>221622@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>10:34:50</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>221294</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>هاله يحى ابكر ابراهيم</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>221294@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>10:34:58</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>221375</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>محمد عمران محمد الهندى</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>221375@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>10:35:17</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>221404</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>محمد يزن محمد مازن ماوردى</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>221404@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>10:35:23</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>221324</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>مجد ذوقان خليل قيشاوي</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>221324@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>10:35:31</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>220675</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>محمد بدرالدين عبد العال عبد العال صبح</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>220675@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>10:35:36</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>221000</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>ابوبكر محمد قايد الثوابي</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>221000@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>10:35:55</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>221476</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>صالح هيثم صالح سواحلي</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>221476@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>10:36:02</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>220967</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>لارا حربي عبدالله الزيادات</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>220967@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>10:36:13</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>221319</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>روان صلاح طاهر الوهباني</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>221319@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>10:36:22</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>221307</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>دعاء عاصم على العوض</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>221307@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>10:36:29</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K502"/>
+  <autoFilter ref="A1:K518"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$518</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$550</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -12208,11 +12208,11 @@
       </c>
       <c r="G52" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H52" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>19</v>
@@ -12224,16 +12224,16 @@
         <v>29</v>
       </c>
       <c r="L52" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M52" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N52" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O52" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" s="14" t="n">
         <v>0</v>
@@ -12242,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="R52" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="14" t="inlineStr">
         <is>
@@ -15120,11 +15120,11 @@
       </c>
       <c r="G65" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H65" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" s="13" t="n">
         <v>19</v>
@@ -15136,16 +15136,16 @@
         <v>29</v>
       </c>
       <c r="L65" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M65" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N65" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O65" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P65" s="14" t="n">
         <v>1</v>
@@ -15154,7 +15154,7 @@
         <v>1</v>
       </c>
       <c r="R65" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="14" t="inlineStr">
         <is>
@@ -25648,11 +25648,11 @@
       </c>
       <c r="G112" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H112" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I112" s="13" t="n">
         <v>19</v>
@@ -25664,16 +25664,16 @@
         <v>29</v>
       </c>
       <c r="L112" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N112" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O112" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P112" s="14" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>1</v>
       </c>
       <c r="R112" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S112" s="14" t="inlineStr">
         <is>
@@ -26320,11 +26320,11 @@
       </c>
       <c r="G115" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H115" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I115" s="13" t="n">
         <v>19</v>
@@ -26336,16 +26336,16 @@
         <v>29</v>
       </c>
       <c r="L115" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M115" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N115" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O115" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P115" s="14" t="n">
         <v>1</v>
@@ -26354,7 +26354,7 @@
         <v>1</v>
       </c>
       <c r="R115" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115" s="14" t="inlineStr">
         <is>
@@ -29680,11 +29680,11 @@
       </c>
       <c r="G130" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H130" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I130" s="13" t="n">
         <v>19</v>
@@ -29696,16 +29696,16 @@
         <v>29</v>
       </c>
       <c r="L130" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M130" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N130" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O130" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P130" s="14" t="n">
         <v>1</v>
@@ -29714,7 +29714,7 @@
         <v>1</v>
       </c>
       <c r="R130" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S130" s="14" t="inlineStr">
         <is>
@@ -33257,18 +33257,18 @@
           <t>221536@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F146" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G146" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H146" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>19</v>
@@ -33280,16 +33280,16 @@
         <v>29</v>
       </c>
       <c r="L146" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M146" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N146" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O146" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" s="14" t="n">
         <v>0</v>
@@ -33298,7 +33298,7 @@
         <v>0</v>
       </c>
       <c r="R146" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S146" s="14" t="inlineStr">
         <is>
@@ -33481,18 +33481,18 @@
           <t>221539@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F147" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F147" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G147" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H147" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I147" s="13" t="n">
         <v>19</v>
@@ -33504,16 +33504,16 @@
         <v>29</v>
       </c>
       <c r="L147" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M147" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N147" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O147" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P147" s="14" t="n">
         <v>0</v>
@@ -33522,7 +33522,7 @@
         <v>1</v>
       </c>
       <c r="R147" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S147" s="14" t="inlineStr">
         <is>
@@ -34160,11 +34160,11 @@
       </c>
       <c r="G150" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H150" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I150" s="13" t="n">
         <v>19</v>
@@ -34176,16 +34176,16 @@
         <v>29</v>
       </c>
       <c r="L150" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M150" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N150" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O150" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P150" s="14" t="n">
         <v>0</v>
@@ -34194,7 +34194,7 @@
         <v>0</v>
       </c>
       <c r="R150" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S150" s="14" t="inlineStr">
         <is>
@@ -34608,11 +34608,11 @@
       </c>
       <c r="G152" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H152" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I152" s="13" t="n">
         <v>19</v>
@@ -34624,16 +34624,16 @@
         <v>29</v>
       </c>
       <c r="L152" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M152" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N152" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O152" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P152" s="14" t="n">
         <v>1</v>
@@ -34642,7 +34642,7 @@
         <v>0</v>
       </c>
       <c r="R152" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S152" s="14" t="inlineStr">
         <is>
@@ -35280,11 +35280,11 @@
       </c>
       <c r="G155" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H155" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I155" s="13" t="n">
         <v>19</v>
@@ -35296,16 +35296,16 @@
         <v>29</v>
       </c>
       <c r="L155" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M155" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N155" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O155" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P155" s="14" t="n">
         <v>1</v>
@@ -35314,7 +35314,7 @@
         <v>1</v>
       </c>
       <c r="R155" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S155" s="14" t="inlineStr">
         <is>
@@ -36169,18 +36169,18 @@
           <t>221589@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F159" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F159" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G159" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H159" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I159" s="13" t="n">
         <v>19</v>
@@ -36192,16 +36192,16 @@
         <v>29</v>
       </c>
       <c r="L159" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M159" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N159" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O159" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159" s="14" t="n">
         <v>0</v>
@@ -36210,7 +36210,7 @@
         <v>0</v>
       </c>
       <c r="R159" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S159" s="14" t="inlineStr">
         <is>
@@ -36393,18 +36393,18 @@
           <t>221599@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F160" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F160" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G160" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H160" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I160" s="13" t="n">
         <v>19</v>
@@ -36416,16 +36416,16 @@
         <v>29</v>
       </c>
       <c r="L160" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M160" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N160" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O160" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P160" s="14" t="n">
         <v>1</v>
@@ -36434,7 +36434,7 @@
         <v>1</v>
       </c>
       <c r="R160" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S160" s="14" t="inlineStr">
         <is>
@@ -36617,18 +36617,18 @@
           <t>221600@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F161" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G161" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H161" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I161" s="13" t="n">
         <v>19</v>
@@ -36640,16 +36640,16 @@
         <v>29</v>
       </c>
       <c r="L161" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M161" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N161" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O161" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P161" s="14" t="n">
         <v>1</v>
@@ -36658,7 +36658,7 @@
         <v>1</v>
       </c>
       <c r="R161" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S161" s="14" t="inlineStr">
         <is>
@@ -36841,18 +36841,18 @@
           <t>221606@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F162" s="24" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F162" s="22" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G162" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H162" s="13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I162" s="13" t="n">
         <v>19</v>
@@ -36864,16 +36864,16 @@
         <v>29</v>
       </c>
       <c r="L162" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M162" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N162" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O162" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P162" s="14" t="n">
         <v>1</v>
@@ -36882,7 +36882,7 @@
         <v>1</v>
       </c>
       <c r="R162" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S162" s="14" t="inlineStr">
         <is>
@@ -37744,11 +37744,11 @@
       </c>
       <c r="G166" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H166" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I166" s="13" t="n">
         <v>19</v>
@@ -37760,16 +37760,16 @@
         <v>29</v>
       </c>
       <c r="L166" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M166" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N166" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O166" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P166" s="14" t="n">
         <v>1</v>
@@ -37778,7 +37778,7 @@
         <v>0</v>
       </c>
       <c r="R166" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S166" s="14" t="inlineStr">
         <is>
@@ -38857,18 +38857,18 @@
           <t>221653@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F171" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F171" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G171" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H171" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I171" s="13" t="n">
         <v>19</v>
@@ -38880,16 +38880,16 @@
         <v>29</v>
       </c>
       <c r="L171" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M171" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N171" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O171" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P171" s="14" t="n">
         <v>0</v>
@@ -38898,7 +38898,7 @@
         <v>1</v>
       </c>
       <c r="R171" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S171" s="14" t="inlineStr">
         <is>
@@ -39081,18 +39081,18 @@
           <t>221654@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F172" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F172" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G172" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H172" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I172" s="13" t="n">
         <v>19</v>
@@ -39104,16 +39104,16 @@
         <v>29</v>
       </c>
       <c r="L172" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M172" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N172" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O172" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P172" s="14" t="n">
         <v>0</v>
@@ -39122,7 +39122,7 @@
         <v>1</v>
       </c>
       <c r="R172" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S172" s="14" t="inlineStr">
         <is>
@@ -39529,18 +39529,18 @@
           <t>221668@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F174" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F174" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G174" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H174" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I174" s="13" t="n">
         <v>19</v>
@@ -39552,16 +39552,16 @@
         <v>29</v>
       </c>
       <c r="L174" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M174" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N174" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O174" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P174" s="14" t="n">
         <v>0</v>
@@ -39570,7 +39570,7 @@
         <v>0</v>
       </c>
       <c r="R174" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S174" s="14" t="inlineStr">
         <is>
@@ -39753,18 +39753,18 @@
           <t>221675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F175" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G175" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H175" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I175" s="13" t="n">
         <v>19</v>
@@ -39776,16 +39776,16 @@
         <v>29</v>
       </c>
       <c r="L175" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M175" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N175" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O175" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P175" s="14" t="n">
         <v>1</v>
@@ -39794,7 +39794,7 @@
         <v>1</v>
       </c>
       <c r="R175" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S175" s="14" t="inlineStr">
         <is>
@@ -41769,18 +41769,18 @@
           <t>221755@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F184" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F184" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G184" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H184" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I184" s="13" t="n">
         <v>19</v>
@@ -41792,16 +41792,16 @@
         <v>29</v>
       </c>
       <c r="L184" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M184" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N184" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O184" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P184" s="14" t="n">
         <v>0</v>
@@ -41810,7 +41810,7 @@
         <v>1</v>
       </c>
       <c r="R184" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S184" s="14" t="inlineStr">
         <is>
@@ -42000,11 +42000,11 @@
       </c>
       <c r="G185" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H185" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I185" s="13" t="n">
         <v>19</v>
@@ -42016,16 +42016,16 @@
         <v>29</v>
       </c>
       <c r="L185" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M185" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N185" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O185" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P185" s="14" t="n">
         <v>1</v>
@@ -42034,7 +42034,7 @@
         <v>1</v>
       </c>
       <c r="R185" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S185" s="14" t="inlineStr">
         <is>
@@ -42672,11 +42672,11 @@
       </c>
       <c r="G188" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H188" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I188" s="13" t="n">
         <v>19</v>
@@ -42688,16 +42688,16 @@
         <v>29</v>
       </c>
       <c r="L188" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M188" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N188" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O188" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P188" s="14" t="n">
         <v>0</v>
@@ -42706,7 +42706,7 @@
         <v>1</v>
       </c>
       <c r="R188" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S188" s="14" t="inlineStr">
         <is>
@@ -44240,11 +44240,11 @@
       </c>
       <c r="G195" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H195" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I195" s="13" t="n">
         <v>19</v>
@@ -44256,16 +44256,16 @@
         <v>29</v>
       </c>
       <c r="L195" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M195" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N195" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O195" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P195" s="14" t="n">
         <v>0</v>
@@ -44274,7 +44274,7 @@
         <v>1</v>
       </c>
       <c r="R195" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S195" s="14" t="inlineStr">
         <is>
@@ -44457,18 +44457,18 @@
           <t>221826@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F196" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F196" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G196" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H196" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I196" s="13" t="n">
         <v>19</v>
@@ -44480,16 +44480,16 @@
         <v>29</v>
       </c>
       <c r="L196" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M196" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N196" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O196" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P196" s="14" t="n">
         <v>0</v>
@@ -44498,7 +44498,7 @@
         <v>1</v>
       </c>
       <c r="R196" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S196" s="14" t="inlineStr">
         <is>
@@ -46025,18 +46025,18 @@
           <t>221866@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F203" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F203" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G203" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H203" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I203" s="13" t="n">
         <v>19</v>
@@ -46048,16 +46048,16 @@
         <v>29</v>
       </c>
       <c r="L203" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M203" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N203" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O203" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P203" s="14" t="n">
         <v>0</v>
@@ -46066,7 +46066,7 @@
         <v>1</v>
       </c>
       <c r="R203" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S203" s="14" t="inlineStr">
         <is>
@@ -46928,11 +46928,11 @@
       </c>
       <c r="G207" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H207" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I207" s="13" t="n">
         <v>19</v>
@@ -46944,16 +46944,16 @@
         <v>29</v>
       </c>
       <c r="L207" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N207" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O207" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P207" s="14" t="n">
         <v>0</v>
@@ -46962,7 +46962,7 @@
         <v>0</v>
       </c>
       <c r="R207" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S207" s="14" t="inlineStr">
         <is>
@@ -47369,18 +47369,18 @@
           <t>221904@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F209" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F209" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G209" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H209" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I209" s="13" t="n">
         <v>19</v>
@@ -47392,16 +47392,16 @@
         <v>29</v>
       </c>
       <c r="L209" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M209" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N209" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O209" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P209" s="14" t="n">
         <v>0</v>
@@ -47410,7 +47410,7 @@
         <v>1</v>
       </c>
       <c r="R209" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S209" s="14" t="inlineStr">
         <is>
@@ -47600,11 +47600,11 @@
       </c>
       <c r="G210" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H210" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I210" s="13" t="n">
         <v>19</v>
@@ -47616,16 +47616,16 @@
         <v>29</v>
       </c>
       <c r="L210" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M210" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N210" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O210" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P210" s="14" t="n">
         <v>0</v>
@@ -47634,7 +47634,7 @@
         <v>1</v>
       </c>
       <c r="R210" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S210" s="14" t="inlineStr">
         <is>
@@ -48048,11 +48048,11 @@
       </c>
       <c r="G212" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H212" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I212" s="13" t="n">
         <v>19</v>
@@ -48064,16 +48064,16 @@
         <v>29</v>
       </c>
       <c r="L212" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M212" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N212" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O212" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P212" s="14" t="n">
         <v>0</v>
@@ -48082,7 +48082,7 @@
         <v>1</v>
       </c>
       <c r="R212" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S212" s="14" t="inlineStr">
         <is>
@@ -48944,11 +48944,11 @@
       </c>
       <c r="G216" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H216" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I216" s="13" t="n">
         <v>19</v>
@@ -48960,16 +48960,16 @@
         <v>29</v>
       </c>
       <c r="L216" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M216" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N216" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O216" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P216" s="14" t="n">
         <v>0</v>
@@ -48978,7 +48978,7 @@
         <v>1</v>
       </c>
       <c r="R216" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S216" s="14" t="inlineStr">
         <is>
@@ -50953,18 +50953,18 @@
           <t>221966@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F225" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F225" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G225" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H225" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I225" s="13" t="n">
         <v>19</v>
@@ -50976,16 +50976,16 @@
         <v>29</v>
       </c>
       <c r="L225" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M225" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N225" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O225" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P225" s="14" t="n">
         <v>0</v>
@@ -50994,7 +50994,7 @@
         <v>1</v>
       </c>
       <c r="R225" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S225" s="14" t="inlineStr">
         <is>
@@ -52745,18 +52745,18 @@
           <t>222004@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="24" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F233" s="22" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G233" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H233" s="13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I233" s="13" t="n">
         <v>19</v>
@@ -52768,16 +52768,16 @@
         <v>29</v>
       </c>
       <c r="L233" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M233" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N233" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O233" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P233" s="14" t="n">
         <v>1</v>
@@ -52786,7 +52786,7 @@
         <v>1</v>
       </c>
       <c r="R233" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S233" s="14" t="inlineStr">
         <is>
@@ -57211,7 +57211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K518"/>
+  <dimension ref="A1:K550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -86641,8 +86641,1832 @@
         </is>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>221822</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>سعادة يوسف عليو</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>221822@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>10:38:30</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>221826</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>بخيتة اوت قور كول</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>221826@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>10:38:40</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>212386</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>لويد اليكس موجا</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>212386@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>10:39:02</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>221755</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>سعدية عاشق</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>221755@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>10:39:08</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>221539</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>تحريم شوكات مالك</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>221539@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>10:39:13</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>221866</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>امينة موسى رمبو</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>221866@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>10:39:17</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>221914</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>معز اشتياق</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>221914@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>10:39:28</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>212145</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>سميه لاوان شايبو</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>212145@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>10:39:39</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>221329</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>خديجة اولو اتوين ادونبكو</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>221329@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>10:40:02</t>
+        </is>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>221895</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>عمر ادول فاروق</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>221895@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>10:40:13</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>221966</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>ساكى جوزيف اليساما زونقبيتى</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>221966@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>10:20:23</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>221599</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>سلمى عبد الرحمن عبيد موسى</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>221599@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>10:20:26</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>221909</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>ديكتور يمبيك بول نيان</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>221909@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>10:20:30</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>221904</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>عائشه نور شيهو</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>221904@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>10:20:33</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>221774</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>يدجوك جيمس كوانقو اكوك</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>221774@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>10:20:37</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>221933</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>معاذ انور عبدالله</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>221933@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>10:20:41</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>221668</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>محمد اسامه حسين</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>221668@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>10:20:44</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>221600</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>مروان معاوية عثمان الطيب</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>221600@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>10:16:50</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>221558</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>محمد عادل عوض باحاج</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>221558@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>10:16:55</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>222004</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>احمد ايمن احمد بشير</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>222004@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>10:16:58</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>221459</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>محمد الطيب محمد زين</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>221459@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>10:17:00</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>221536</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>عبده دفع الله سليمان كوكو</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>221536@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>10:17:18</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>221606</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>راوية الطاهر عبدالله ناصر</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>221606@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>10:17:25</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>221631</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>رغد الحاج حسين عبدالمتعال</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>221631@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>10:17:25</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>221569</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>هبه جعفر محمد شوكت</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>221569@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>10:17:27</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>221756</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>ماريا صالح حسن مثنى محمد</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>221756@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>10:17:29</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>221579</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>لينا مكرم محمد يسن</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>221579@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>10:17:29</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>221357</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>عبد الله محمد نصر قناوى</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>221357@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>10:17:48</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>221654</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>محمد اسامه بابكر احمد</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>221654@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>10:19:35</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>221675</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>ساره بنت سعيد بن عثمان الكناني</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>221675@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>10:19:43</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>221653</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>يزن يحيى سليمان طبش</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>221653@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>10:45:00</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>221589</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>أوينق استيفن أجوك مو</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>221589@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>10:45:27</t>
+        </is>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K518"/>
+  <autoFilter ref="A1:K550"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$550</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$562</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -8176,11 +8176,11 @@
       </c>
       <c r="G34" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H34" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="13" t="n">
         <v>19</v>
@@ -8192,16 +8192,16 @@
         <v>29</v>
       </c>
       <c r="L34" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N34" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O34" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="14" t="n">
         <v>1</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="14" t="inlineStr">
         <is>
@@ -26089,18 +26089,18 @@
           <t>221355@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F114" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F114" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G114" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H114" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I114" s="13" t="n">
         <v>19</v>
@@ -26112,16 +26112,16 @@
         <v>29</v>
       </c>
       <c r="L114" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M114" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N114" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O114" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P114" s="14" t="n">
         <v>1</v>
@@ -26130,7 +26130,7 @@
         <v>1</v>
       </c>
       <c r="R114" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114" s="14" t="inlineStr">
         <is>
@@ -35728,11 +35728,11 @@
       </c>
       <c r="G157" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H157" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I157" s="13" t="n">
         <v>19</v>
@@ -35744,16 +35744,16 @@
         <v>29</v>
       </c>
       <c r="L157" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M157" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N157" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O157" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P157" s="14" t="n">
         <v>0</v>
@@ -35762,7 +35762,7 @@
         <v>0</v>
       </c>
       <c r="R157" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S157" s="14" t="inlineStr">
         <is>
@@ -35952,11 +35952,11 @@
       </c>
       <c r="G158" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H158" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>19</v>
@@ -35968,16 +35968,16 @@
         <v>29</v>
       </c>
       <c r="L158" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M158" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N158" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O158" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P158" s="14" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>1</v>
       </c>
       <c r="R158" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S158" s="14" t="inlineStr">
         <is>
@@ -51401,18 +51401,18 @@
           <t>221982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F227" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G227" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H227" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I227" s="13" t="n">
         <v>19</v>
@@ -51424,16 +51424,16 @@
         <v>29</v>
       </c>
       <c r="L227" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M227" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N227" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O227" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P227" s="14" t="n">
         <v>0</v>
@@ -51442,7 +51442,7 @@
         <v>1</v>
       </c>
       <c r="R227" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S227" s="14" t="inlineStr">
         <is>
@@ -53648,11 +53648,11 @@
       </c>
       <c r="G237" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H237" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I237" s="13" t="n">
         <v>19</v>
@@ -53664,16 +53664,16 @@
         <v>29</v>
       </c>
       <c r="L237" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M237" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N237" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O237" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P237" s="14" t="n">
         <v>0</v>
@@ -53682,7 +53682,7 @@
         <v>1</v>
       </c>
       <c r="R237" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S237" s="14" t="inlineStr">
         <is>
@@ -54544,11 +54544,11 @@
       </c>
       <c r="G241" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H241" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I241" s="13" t="n">
         <v>19</v>
@@ -54560,16 +54560,16 @@
         <v>29</v>
       </c>
       <c r="L241" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M241" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N241" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O241" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P241" s="14" t="n">
         <v>1</v>
@@ -54578,7 +54578,7 @@
         <v>0</v>
       </c>
       <c r="R241" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S241" s="14" t="inlineStr">
         <is>
@@ -55216,11 +55216,11 @@
       </c>
       <c r="G244" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H244" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I244" s="13" t="n">
         <v>19</v>
@@ -55232,16 +55232,16 @@
         <v>29</v>
       </c>
       <c r="L244" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M244" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N244" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O244" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P244" s="14" t="n">
         <v>0</v>
@@ -55250,7 +55250,7 @@
         <v>1</v>
       </c>
       <c r="R244" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S244" s="14" t="inlineStr">
         <is>
@@ -55657,18 +55657,18 @@
           <t>222063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F246" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F246" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G246" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H246" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I246" s="13" t="n">
         <v>19</v>
@@ -55680,16 +55680,16 @@
         <v>29</v>
       </c>
       <c r="L246" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M246" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N246" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O246" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P246" s="14" t="n">
         <v>0</v>
@@ -55698,7 +55698,7 @@
         <v>1</v>
       </c>
       <c r="R246" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S246" s="14" t="inlineStr">
         <is>
@@ -56112,11 +56112,11 @@
       </c>
       <c r="G248" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H248" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I248" s="13" t="n">
         <v>19</v>
@@ -56128,16 +56128,16 @@
         <v>29</v>
       </c>
       <c r="L248" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M248" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N248" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O248" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P248" s="14" t="n">
         <v>0</v>
@@ -56146,7 +56146,7 @@
         <v>0</v>
       </c>
       <c r="R248" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S248" s="14" t="inlineStr">
         <is>
@@ -56560,11 +56560,11 @@
       </c>
       <c r="G250" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H250" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I250" s="13" t="n">
         <v>19</v>
@@ -56576,16 +56576,16 @@
         <v>29</v>
       </c>
       <c r="L250" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M250" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N250" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O250" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P250" s="14" t="n">
         <v>0</v>
@@ -56594,7 +56594,7 @@
         <v>0</v>
       </c>
       <c r="R250" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S250" s="14" t="inlineStr">
         <is>
@@ -57008,11 +57008,11 @@
       </c>
       <c r="G252" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H252" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I252" s="13" t="n">
         <v>19</v>
@@ -57024,16 +57024,16 @@
         <v>29</v>
       </c>
       <c r="L252" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M252" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N252" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O252" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P252" s="14" t="n">
         <v>0</v>
@@ -57042,7 +57042,7 @@
         <v>1</v>
       </c>
       <c r="R252" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S252" s="14" t="inlineStr">
         <is>
@@ -57211,7 +57211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K550"/>
+  <dimension ref="A1:K562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -88465,8 +88465,692 @@
         </is>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>222063</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>محمد مصطفى حامد التوم</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>222063@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>10:41:13</t>
+        </is>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>221587</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>ليم عثمان السر الشمباتي</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>221587@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>10:41:16</t>
+        </is>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>221355</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>لمى ابكر سعيد جبرين محمد</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>221355@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>10:41:20</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>211569</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>سميره محمد عيسى علي</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>211569@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>10:41:34</t>
+        </is>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>222035</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>علا عبد الوهاب خليل محمود</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>222035@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>10:41:40</t>
+        </is>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>222113</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>ابرار محمد عبد الله عبد الحميد</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>222113@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>10:41:46</t>
+        </is>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>222097</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>روان محمد عثمان محمد</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>222097@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>10:41:51</t>
+        </is>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>221584</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>عزه بنت محمد بن عوض الصمداني</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>221584@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>10:41:58</t>
+        </is>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>222076</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>ابرار عبد الماجد عبد العزيز عثمان</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>222076@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>10:42:11</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>222027</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>خيرية عبد الرازق</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>222027@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>10:42:24</t>
+        </is>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>221982</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>امنويل اكوى اقوتو كوت</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>221982@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>10:42:31</t>
+        </is>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>222056</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>الغالى ادم عيسى رحيل</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>222056@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>10:42:41</t>
+        </is>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K550"/>
+  <autoFilter ref="A1:K562"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$562</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$575</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -11984,11 +11984,11 @@
       </c>
       <c r="G51" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H51" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I51" s="13" t="n">
         <v>19</v>
@@ -12000,16 +12000,16 @@
         <v>29</v>
       </c>
       <c r="L51" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N51" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O51" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="14" t="n">
         <v>0</v>
@@ -12018,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="14" t="inlineStr">
         <is>
@@ -12649,18 +12649,18 @@
           <t>212160@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F54" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F54" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H54" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>19</v>
@@ -12672,16 +12672,16 @@
         <v>29</v>
       </c>
       <c r="L54" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M54" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N54" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O54" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" s="14" t="n">
         <v>0</v>
@@ -12690,7 +12690,7 @@
         <v>1</v>
       </c>
       <c r="R54" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="14" t="inlineStr">
         <is>
@@ -14448,11 +14448,11 @@
       </c>
       <c r="G62" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H62" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>19</v>
@@ -14464,16 +14464,16 @@
         <v>29</v>
       </c>
       <c r="L62" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N62" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O62" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="14" t="n">
         <v>0</v>
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="14" t="inlineStr">
         <is>
@@ -14665,18 +14665,18 @@
           <t>212318@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F63" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F63" s="24" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G63" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H63" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63" s="13" t="n">
         <v>19</v>
@@ -14688,16 +14688,16 @@
         <v>29</v>
       </c>
       <c r="L63" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M63" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N63" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O63" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P63" s="14" t="n">
         <v>1</v>
@@ -14706,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="R63" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="14" t="inlineStr">
         <is>
@@ -14896,11 +14896,11 @@
       </c>
       <c r="G64" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H64" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>19</v>
@@ -14912,16 +14912,16 @@
         <v>29</v>
       </c>
       <c r="L64" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M64" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O64" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P64" s="14" t="n">
         <v>1</v>
@@ -14930,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="R64" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="14" t="inlineStr">
         <is>
@@ -16464,11 +16464,11 @@
       </c>
       <c r="G71" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H71" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I71" s="13" t="n">
         <v>19</v>
@@ -16480,16 +16480,16 @@
         <v>29</v>
       </c>
       <c r="L71" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M71" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N71" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O71" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P71" s="14" t="n">
         <v>0</v>
@@ -16498,7 +16498,7 @@
         <v>1</v>
       </c>
       <c r="R71" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="14" t="inlineStr">
         <is>
@@ -17360,11 +17360,11 @@
       </c>
       <c r="G75" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H75" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I75" s="13" t="n">
         <v>19</v>
@@ -17376,16 +17376,16 @@
         <v>29</v>
       </c>
       <c r="L75" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M75" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N75" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O75" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="14" t="n">
         <v>0</v>
@@ -17394,7 +17394,7 @@
         <v>0</v>
       </c>
       <c r="R75" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="14" t="inlineStr">
         <is>
@@ -17584,11 +17584,11 @@
       </c>
       <c r="G76" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H76" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I76" s="13" t="n">
         <v>19</v>
@@ -17600,16 +17600,16 @@
         <v>29</v>
       </c>
       <c r="L76" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M76" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N76" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O76" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P76" s="14" t="n">
         <v>1</v>
@@ -17618,7 +17618,7 @@
         <v>1</v>
       </c>
       <c r="R76" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" s="14" t="inlineStr">
         <is>
@@ -18032,11 +18032,11 @@
       </c>
       <c r="G78" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H78" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I78" s="13" t="n">
         <v>19</v>
@@ -18048,16 +18048,16 @@
         <v>29</v>
       </c>
       <c r="L78" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M78" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N78" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O78" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P78" s="14" t="n">
         <v>0</v>
@@ -18066,7 +18066,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="14" t="inlineStr">
         <is>
@@ -18697,18 +18697,18 @@
           <t>220618@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F81" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F81" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G81" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H81" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I81" s="13" t="n">
         <v>19</v>
@@ -18720,16 +18720,16 @@
         <v>29</v>
       </c>
       <c r="L81" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M81" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N81" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O81" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P81" s="14" t="n">
         <v>1</v>
@@ -18738,7 +18738,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="14" t="inlineStr">
         <is>
@@ -19152,11 +19152,11 @@
       </c>
       <c r="G83" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H83" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I83" s="13" t="n">
         <v>19</v>
@@ -19168,16 +19168,16 @@
         <v>29</v>
       </c>
       <c r="L83" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N83" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O83" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" s="14" t="n">
         <v>0</v>
@@ -19186,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" s="14" t="inlineStr">
         <is>
@@ -19376,11 +19376,11 @@
       </c>
       <c r="G84" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H84" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>19</v>
@@ -19392,16 +19392,16 @@
         <v>29</v>
       </c>
       <c r="L84" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M84" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N84" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O84" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P84" s="14" t="n">
         <v>0</v>
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="R84" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S84" s="14" t="inlineStr">
         <is>
@@ -39984,11 +39984,11 @@
       </c>
       <c r="G176" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H176" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I176" s="13" t="n">
         <v>19</v>
@@ -40000,16 +40000,16 @@
         <v>29</v>
       </c>
       <c r="L176" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M176" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N176" s="14" t="n">
         <v>5</v>
       </c>
       <c r="O176" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P176" s="14" t="n">
         <v>1</v>
@@ -40018,7 +40018,7 @@
         <v>1</v>
       </c>
       <c r="R176" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S176" s="14" t="inlineStr">
         <is>
@@ -57211,7 +57211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K562"/>
+  <dimension ref="A1:K575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -89149,8 +89149,749 @@
         </is>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>220766</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>ميار بنت خالد بن محمد الشيخ</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>220766@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>10:16:02</t>
+        </is>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>212442</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>رميساء محى الدين الامين الطيب</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>212442@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>10:16:08</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>220428</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>بسمله محمد عبد الحميد محمد</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>220428@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>10:16:19</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>221682</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>سرين حاج صدوق</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>221682@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>10:16:27</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>212318</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>مازن مصدق يس عبد اللطيف</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>212318@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>10:16:35</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>220743</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>مصطفى كرم سلامه سليمان</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>220743@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>10:16:43</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>212322</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>مهند حافظ عابدين الفاضل</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>212322@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>10:16:49</t>
+        </is>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>220304</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>احمد الكامل محمد عبدون عثمان</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>220304@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>10:16:56</t>
+        </is>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>212308</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>سحر محمد يوسف محمد</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>212308@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>10:17:04</t>
+        </is>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>212125</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>راما محمد الحاج محمد</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>212125@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>10:17:18</t>
+        </is>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>220618</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>غيداء مرزوق الرفاعى</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>220618@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J573" t="inlineStr">
+        <is>
+          <t>10:17:30</t>
+        </is>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>212160</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>المى عماد تركمانى</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>212160@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J574" t="inlineStr">
+        <is>
+          <t>10:17:41</t>
+        </is>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>220314</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>احمد ربيع قطب عبد المطلب بهوت</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>220314@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J575" t="inlineStr">
+        <is>
+          <t>10:21:42</t>
+        </is>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K562"/>
+  <autoFilter ref="A1:K575"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BH$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$575</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$594</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -9062,7 +9062,7 @@
       </c>
       <c r="G37" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H37" s="12" t="inlineStr">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="I37" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" s="13" t="n">
         <v>18</v>
@@ -9086,10 +9086,10 @@
         <v>29</v>
       </c>
       <c r="N37" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P37" s="14" t="n">
         <v>5</v>
@@ -9120,10 +9120,10 @@
         <v>2</v>
       </c>
       <c r="X37" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="15" t="inlineStr">
         <is>
@@ -16875,14 +16875,14 @@
           <t>212442@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F71" s="11" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F71" s="23" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G71" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H71" s="12" t="inlineStr">
@@ -16891,7 +16891,7 @@
         </is>
       </c>
       <c r="I71" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J71" s="13" t="n">
         <v>18</v>
@@ -16906,10 +16906,10 @@
         <v>29</v>
       </c>
       <c r="N71" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P71" s="14" t="n">
         <v>5</v>
@@ -16940,10 +16940,10 @@
         <v>2</v>
       </c>
       <c r="X71" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z71" s="15" t="inlineStr">
         <is>
@@ -17565,14 +17565,14 @@
           <t>212543@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F74" s="11" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F74" s="23" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G74" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H74" s="12" t="inlineStr">
@@ -17581,7 +17581,7 @@
         </is>
       </c>
       <c r="I74" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J74" s="13" t="n">
         <v>18</v>
@@ -17596,10 +17596,10 @@
         <v>29</v>
       </c>
       <c r="N74" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P74" s="14" t="n">
         <v>5</v>
@@ -17630,10 +17630,10 @@
         <v>2</v>
       </c>
       <c r="X74" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z74" s="15" t="inlineStr">
         <is>
@@ -17795,14 +17795,14 @@
           <t>220304@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F75" s="11" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F75" s="23" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G75" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H75" s="12" t="inlineStr">
@@ -17811,7 +17811,7 @@
         </is>
       </c>
       <c r="I75" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J75" s="13" t="n">
         <v>18</v>
@@ -17826,10 +17826,10 @@
         <v>29</v>
       </c>
       <c r="N75" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O75" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P75" s="14" t="n">
         <v>5</v>
@@ -17860,10 +17860,10 @@
         <v>2</v>
       </c>
       <c r="X75" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z75" s="15" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
       </c>
       <c r="G93" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H93" s="12" t="inlineStr">
@@ -21951,7 +21951,7 @@
         </is>
       </c>
       <c r="I93" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J93" s="13" t="n">
         <v>18</v>
@@ -21966,10 +21966,10 @@
         <v>29</v>
       </c>
       <c r="N93" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O93" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P93" s="14" t="n">
         <v>5</v>
@@ -22000,10 +22000,10 @@
         <v>2</v>
       </c>
       <c r="X93" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y93" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z93" s="15" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
       </c>
       <c r="G96" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H96" s="12" t="inlineStr">
@@ -22641,7 +22641,7 @@
         </is>
       </c>
       <c r="I96" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J96" s="13" t="n">
         <v>18</v>
@@ -22656,10 +22656,10 @@
         <v>29</v>
       </c>
       <c r="N96" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O96" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P96" s="14" t="n">
         <v>5</v>
@@ -22690,10 +22690,10 @@
         <v>2</v>
       </c>
       <c r="X96" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y96" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z96" s="15" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
       </c>
       <c r="G147" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H147" s="12" t="inlineStr">
@@ -34371,7 +34371,7 @@
         </is>
       </c>
       <c r="I147" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J147" s="13" t="n">
         <v>18</v>
@@ -34386,10 +34386,10 @@
         <v>29</v>
       </c>
       <c r="N147" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O147" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O147" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P147" s="14" t="n">
         <v>5</v>
@@ -34420,10 +34420,10 @@
         <v>2</v>
       </c>
       <c r="X147" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y147" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z147" s="15" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
       </c>
       <c r="G180" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H180" s="12" t="inlineStr">
@@ -41961,7 +41961,7 @@
         </is>
       </c>
       <c r="I180" s="13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J180" s="13" t="n">
         <v>18</v>
@@ -41976,10 +41976,10 @@
         <v>29</v>
       </c>
       <c r="N180" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O180" s="13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P180" s="14" t="n">
         <v>5</v>
@@ -42010,10 +42010,10 @@
         <v>2</v>
       </c>
       <c r="X180" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y180" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z180" s="15" t="inlineStr">
         <is>
@@ -42872,7 +42872,7 @@
       </c>
       <c r="G184" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H184" s="12" t="inlineStr">
@@ -42881,7 +42881,7 @@
         </is>
       </c>
       <c r="I184" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J184" s="13" t="n">
         <v>18</v>
@@ -42896,10 +42896,10 @@
         <v>29</v>
       </c>
       <c r="N184" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O184" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O184" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P184" s="14" t="n">
         <v>5</v>
@@ -42930,10 +42930,10 @@
         <v>2</v>
       </c>
       <c r="X184" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y184" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z184" s="15" t="inlineStr">
         <is>
@@ -45395,14 +45395,14 @@
           <t>221822@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F195" s="11" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F195" s="23" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G195" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H195" s="12" t="inlineStr">
@@ -45411,7 +45411,7 @@
         </is>
       </c>
       <c r="I195" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J195" s="13" t="n">
         <v>18</v>
@@ -45426,10 +45426,10 @@
         <v>29</v>
       </c>
       <c r="N195" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O195" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P195" s="14" t="n">
         <v>5</v>
@@ -45460,10 +45460,10 @@
         <v>2</v>
       </c>
       <c r="X195" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y195" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z195" s="15" t="inlineStr">
         <is>
@@ -45862,7 +45862,7 @@
       </c>
       <c r="G197" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H197" s="12" t="inlineStr">
@@ -45871,7 +45871,7 @@
         </is>
       </c>
       <c r="I197" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J197" s="13" t="n">
         <v>18</v>
@@ -45886,10 +45886,10 @@
         <v>29</v>
       </c>
       <c r="N197" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O197" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P197" s="14" t="n">
         <v>5</v>
@@ -45920,10 +45920,10 @@
         <v>2</v>
       </c>
       <c r="X197" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y197" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z197" s="15" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
       </c>
       <c r="G209" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H209" s="12" t="inlineStr">
@@ -48631,7 +48631,7 @@
         </is>
       </c>
       <c r="I209" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J209" s="13" t="n">
         <v>18</v>
@@ -48646,10 +48646,10 @@
         <v>29</v>
       </c>
       <c r="N209" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P209" s="14" t="n">
         <v>5</v>
@@ -48680,10 +48680,10 @@
         <v>2</v>
       </c>
       <c r="X209" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y209" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z209" s="15" t="inlineStr">
         <is>
@@ -51152,7 +51152,7 @@
       </c>
       <c r="G220" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H220" s="12" t="inlineStr">
@@ -51161,7 +51161,7 @@
         </is>
       </c>
       <c r="I220" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J220" s="13" t="n">
         <v>18</v>
@@ -51176,10 +51176,10 @@
         <v>29</v>
       </c>
       <c r="N220" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O220" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P220" s="14" t="n">
         <v>5</v>
@@ -51210,10 +51210,10 @@
         <v>2</v>
       </c>
       <c r="X220" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y220" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z220" s="15" t="inlineStr">
         <is>
@@ -53912,7 +53912,7 @@
       </c>
       <c r="G232" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H232" s="12" t="inlineStr">
@@ -53921,7 +53921,7 @@
         </is>
       </c>
       <c r="I232" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J232" s="13" t="n">
         <v>18</v>
@@ -53936,10 +53936,10 @@
         <v>29</v>
       </c>
       <c r="N232" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O232" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O232" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P232" s="14" t="n">
         <v>5</v>
@@ -53970,10 +53970,10 @@
         <v>2</v>
       </c>
       <c r="X232" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y232" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z232" s="15" t="inlineStr">
         <is>
@@ -54142,7 +54142,7 @@
       </c>
       <c r="G233" s="12" t="inlineStr">
         <is>
-          <t>24.1%</t>
+          <t>27.6%</t>
         </is>
       </c>
       <c r="H233" s="12" t="inlineStr">
@@ -54151,7 +54151,7 @@
         </is>
       </c>
       <c r="I233" s="13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J233" s="13" t="n">
         <v>18</v>
@@ -54166,10 +54166,10 @@
         <v>29</v>
       </c>
       <c r="N233" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O233" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P233" s="14" t="n">
         <v>5</v>
@@ -54200,10 +54200,10 @@
         <v>2</v>
       </c>
       <c r="X233" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y233" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z233" s="15" t="inlineStr">
         <is>
@@ -55292,7 +55292,7 @@
       </c>
       <c r="G238" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H238" s="12" t="inlineStr">
@@ -55301,7 +55301,7 @@
         </is>
       </c>
       <c r="I238" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J238" s="13" t="n">
         <v>18</v>
@@ -55316,10 +55316,10 @@
         <v>29</v>
       </c>
       <c r="N238" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O238" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O238" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P238" s="14" t="n">
         <v>5</v>
@@ -55350,10 +55350,10 @@
         <v>2</v>
       </c>
       <c r="X238" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y238" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z238" s="15" t="inlineStr">
         <is>
@@ -56442,7 +56442,7 @@
       </c>
       <c r="G243" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H243" s="12" t="inlineStr">
@@ -56451,7 +56451,7 @@
         </is>
       </c>
       <c r="I243" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J243" s="13" t="n">
         <v>18</v>
@@ -56466,10 +56466,10 @@
         <v>29</v>
       </c>
       <c r="N243" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O243" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O243" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P243" s="14" t="n">
         <v>5</v>
@@ -56500,10 +56500,10 @@
         <v>2</v>
       </c>
       <c r="X243" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y243" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z243" s="15" t="inlineStr">
         <is>
@@ -56902,7 +56902,7 @@
       </c>
       <c r="G245" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H245" s="12" t="inlineStr">
@@ -56911,7 +56911,7 @@
         </is>
       </c>
       <c r="I245" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J245" s="13" t="n">
         <v>18</v>
@@ -56926,10 +56926,10 @@
         <v>29</v>
       </c>
       <c r="N245" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O245" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O245" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P245" s="14" t="n">
         <v>5</v>
@@ -56960,10 +56960,10 @@
         <v>2</v>
       </c>
       <c r="X245" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y245" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z245" s="15" t="inlineStr">
         <is>
@@ -57592,7 +57592,7 @@
       </c>
       <c r="G248" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H248" s="12" t="inlineStr">
@@ -57601,7 +57601,7 @@
         </is>
       </c>
       <c r="I248" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J248" s="13" t="n">
         <v>18</v>
@@ -57616,10 +57616,10 @@
         <v>29</v>
       </c>
       <c r="N248" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O248" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P248" s="14" t="n">
         <v>5</v>
@@ -57650,10 +57650,10 @@
         <v>2</v>
       </c>
       <c r="X248" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y248" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z248" s="15" t="inlineStr">
         <is>
@@ -58721,7 +58721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K575"/>
+  <dimension ref="A1:K594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -58737,9 +58737,9 @@
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="18" customWidth="1" min="11" max="11"/>
@@ -91400,8 +91400,1091 @@
         </is>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>221539</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>تحريم شوكات مالك</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>221539@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>11:28:04</t>
+        </is>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>221755</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>سعدية عاشق</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>221755@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>11:28:16</t>
+        </is>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>221833</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>صفا محمود صايل صايل</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>221833@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>11:28:49</t>
+        </is>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>222058</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>رفا السيد قسم الله السيد</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>222058@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>11:31:08</t>
+        </is>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>221904</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>عائشه نور شيهو</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>221904@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>11:31:54</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>221948</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>سانتينو اتيم شول دينق</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>221948@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>11:32:33</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>221714</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>زينب عبد اللطيف بيبى فاروق</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>221714@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>11:34:55</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>221822</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>سعادة يوسف عليو</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>221822@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>11:35:26</t>
+        </is>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>211620</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>محمودول اسلام</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>211620@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>11:35:49</t>
+        </is>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>222076</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>ابرار عبد الماجد عبد العزيز عثمان</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>222076@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>11:36:26</t>
+        </is>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>212442</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>رميساء محى الدين الامين الطيب</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>212442@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>11:36:42</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>220304</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>احمد الكامل محمد عبدون عثمان</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>220304@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>11:37:00</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>220967</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>لارا حربي عبدالله الزيادات</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>220967@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>11:37:18</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>212543</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>زينب سيف الدين محمد ادم</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>212543@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>11:37:37</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>222028</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>هاجر عبد الحفيظ سيد صالح</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>222028@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>11:37:49</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>222003</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>اسراء بدر الدين جعفر عثمان</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>222003@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>11:37:54</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>221000</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>ابوبكر محمد قايد الثوابي</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>221000@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>11:38:06</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>222004</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>احمد ايمن احمد بشير</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>222004@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>11:38:18</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>222053</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>صباح سيف الدين عثمان اسحق</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>222053@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>BIOCHEMISTRY LAB/CBL</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>11:38:41</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K575"/>
+  <autoFilter ref="A1:K594"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BH$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$594</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$619</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -43,7 +43,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
@@ -147,6 +147,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFF1A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D3D3D3"/>
       </patternFill>
     </fill>
@@ -166,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,7 +240,10 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -11592,7 +11600,7 @@
       </c>
       <c r="G48" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H48" s="12" t="inlineStr">
@@ -11601,7 +11609,7 @@
         </is>
       </c>
       <c r="I48" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" s="13" t="n">
         <v>18</v>
@@ -11616,16 +11624,16 @@
         <v>29</v>
       </c>
       <c r="N48" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P48" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q48" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R48" s="14" t="n">
         <v>1</v>
@@ -12282,7 +12290,7 @@
       </c>
       <c r="G51" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H51" s="12" t="inlineStr">
@@ -12291,7 +12299,7 @@
         </is>
       </c>
       <c r="I51" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J51" s="13" t="n">
         <v>18</v>
@@ -12306,16 +12314,16 @@
         <v>29</v>
       </c>
       <c r="N51" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P51" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q51" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R51" s="14" t="n">
         <v>0</v>
@@ -12972,7 +12980,7 @@
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H54" s="12" t="inlineStr">
@@ -12981,7 +12989,7 @@
         </is>
       </c>
       <c r="I54" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54" s="13" t="n">
         <v>18</v>
@@ -12996,16 +13004,16 @@
         <v>29</v>
       </c>
       <c r="N54" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O54" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P54" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q54" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R54" s="14" t="n">
         <v>0</v>
@@ -13202,7 +13210,7 @@
       </c>
       <c r="G55" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H55" s="12" t="inlineStr">
@@ -13211,7 +13219,7 @@
         </is>
       </c>
       <c r="I55" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J55" s="13" t="n">
         <v>18</v>
@@ -13226,16 +13234,16 @@
         <v>29</v>
       </c>
       <c r="N55" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O55" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P55" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q55" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="14" t="n">
         <v>0</v>
@@ -14812,7 +14820,7 @@
       </c>
       <c r="G62" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H62" s="12" t="inlineStr">
@@ -14821,7 +14829,7 @@
         </is>
       </c>
       <c r="I62" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J62" s="13" t="n">
         <v>18</v>
@@ -14836,16 +14844,16 @@
         <v>29</v>
       </c>
       <c r="N62" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O62" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P62" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q62" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R62" s="14" t="n">
         <v>0</v>
@@ -15042,7 +15050,7 @@
       </c>
       <c r="G63" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H63" s="12" t="inlineStr">
@@ -15051,7 +15059,7 @@
         </is>
       </c>
       <c r="I63" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J63" s="13" t="n">
         <v>18</v>
@@ -15066,16 +15074,16 @@
         <v>29</v>
       </c>
       <c r="N63" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O63" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O63" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P63" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q63" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R63" s="14" t="n">
         <v>1</v>
@@ -16882,7 +16890,7 @@
       </c>
       <c r="G71" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H71" s="12" t="inlineStr">
@@ -16891,7 +16899,7 @@
         </is>
       </c>
       <c r="I71" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J71" s="13" t="n">
         <v>18</v>
@@ -16906,16 +16914,16 @@
         <v>29</v>
       </c>
       <c r="N71" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O71" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O71" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P71" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q71" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R71" s="14" t="n">
         <v>0</v>
@@ -17572,7 +17580,7 @@
       </c>
       <c r="G74" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H74" s="12" t="inlineStr">
@@ -17581,7 +17589,7 @@
         </is>
       </c>
       <c r="I74" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J74" s="13" t="n">
         <v>18</v>
@@ -17596,16 +17604,16 @@
         <v>29</v>
       </c>
       <c r="N74" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O74" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O74" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P74" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q74" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R74" s="14" t="n">
         <v>1</v>
@@ -17802,7 +17810,7 @@
       </c>
       <c r="G75" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H75" s="12" t="inlineStr">
@@ -17811,7 +17819,7 @@
         </is>
       </c>
       <c r="I75" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J75" s="13" t="n">
         <v>18</v>
@@ -17826,16 +17834,16 @@
         <v>29</v>
       </c>
       <c r="N75" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O75" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O75" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P75" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q75" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R75" s="14" t="n">
         <v>0</v>
@@ -18025,14 +18033,14 @@
           <t>220314@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F76" s="11" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F76" s="23" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G76" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H76" s="12" t="inlineStr">
@@ -18041,7 +18049,7 @@
         </is>
       </c>
       <c r="I76" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J76" s="13" t="n">
         <v>18</v>
@@ -18056,16 +18064,16 @@
         <v>29</v>
       </c>
       <c r="N76" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O76" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P76" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q76" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R76" s="14" t="n">
         <v>1</v>
@@ -18262,7 +18270,7 @@
       </c>
       <c r="G77" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H77" s="12" t="inlineStr">
@@ -18271,7 +18279,7 @@
         </is>
       </c>
       <c r="I77" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J77" s="13" t="n">
         <v>18</v>
@@ -18286,16 +18294,16 @@
         <v>29</v>
       </c>
       <c r="N77" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P77" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q77" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R77" s="14" t="n">
         <v>0</v>
@@ -19182,7 +19190,7 @@
       </c>
       <c r="G81" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H81" s="12" t="inlineStr">
@@ -19191,7 +19199,7 @@
         </is>
       </c>
       <c r="I81" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J81" s="13" t="n">
         <v>18</v>
@@ -19206,16 +19214,16 @@
         <v>29</v>
       </c>
       <c r="N81" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O81" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P81" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q81" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R81" s="14" t="n">
         <v>1</v>
@@ -19412,7 +19420,7 @@
       </c>
       <c r="G82" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H82" s="12" t="inlineStr">
@@ -19421,7 +19429,7 @@
         </is>
       </c>
       <c r="I82" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J82" s="13" t="n">
         <v>18</v>
@@ -19436,16 +19444,16 @@
         <v>29</v>
       </c>
       <c r="N82" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O82" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P82" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q82" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R82" s="14" t="n">
         <v>0</v>
@@ -21022,7 +21030,7 @@
       </c>
       <c r="G89" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H89" s="12" t="inlineStr">
@@ -21031,7 +21039,7 @@
         </is>
       </c>
       <c r="I89" s="13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J89" s="13" t="n">
         <v>18</v>
@@ -21046,16 +21054,16 @@
         <v>29</v>
       </c>
       <c r="N89" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" s="13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P89" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q89" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" s="14" t="n">
         <v>0</v>
@@ -21252,7 +21260,7 @@
       </c>
       <c r="G90" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H90" s="12" t="inlineStr">
@@ -21261,7 +21269,7 @@
         </is>
       </c>
       <c r="I90" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J90" s="13" t="n">
         <v>18</v>
@@ -21276,16 +21284,16 @@
         <v>29</v>
       </c>
       <c r="N90" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O90" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P90" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q90" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" s="14" t="n">
         <v>0</v>
@@ -35505,14 +35513,14 @@
           <t>221569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="11" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F152" s="23" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G152" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H152" s="12" t="inlineStr">
@@ -35521,7 +35529,7 @@
         </is>
       </c>
       <c r="I152" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J152" s="13" t="n">
         <v>18</v>
@@ -35536,16 +35544,16 @@
         <v>29</v>
       </c>
       <c r="N152" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O152" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P152" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q152" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R152" s="14" t="n">
         <v>1</v>
@@ -36195,14 +36203,14 @@
           <t>221579@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F155" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F155" s="22" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G155" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H155" s="12" t="inlineStr">
@@ -36211,7 +36219,7 @@
         </is>
       </c>
       <c r="I155" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J155" s="13" t="n">
         <v>18</v>
@@ -36226,16 +36234,16 @@
         <v>29</v>
       </c>
       <c r="N155" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O155" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P155" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q155" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R155" s="14" t="n">
         <v>1</v>
@@ -46092,7 +46100,7 @@
       </c>
       <c r="G198" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H198" s="12" t="inlineStr">
@@ -46101,7 +46109,7 @@
         </is>
       </c>
       <c r="I198" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J198" s="13" t="n">
         <v>18</v>
@@ -46116,16 +46124,16 @@
         <v>29</v>
       </c>
       <c r="N198" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O198" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P198" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q198" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R198" s="14" t="n">
         <v>0</v>
@@ -46545,14 +46553,14 @@
           <t>221850@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F200" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F200" s="22" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G200" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H200" s="12" t="inlineStr">
@@ -46561,7 +46569,7 @@
         </is>
       </c>
       <c r="I200" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J200" s="13" t="n">
         <v>18</v>
@@ -46576,16 +46584,16 @@
         <v>29</v>
       </c>
       <c r="N200" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O200" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P200" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q200" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R200" s="14" t="n">
         <v>1</v>
@@ -50002,7 +50010,7 @@
       </c>
       <c r="G215" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H215" s="12" t="inlineStr">
@@ -50011,7 +50019,7 @@
         </is>
       </c>
       <c r="I215" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J215" s="13" t="n">
         <v>18</v>
@@ -50026,16 +50034,16 @@
         <v>29</v>
       </c>
       <c r="N215" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O215" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O215" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P215" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q215" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R215" s="14" t="n">
         <v>1</v>
@@ -54135,14 +54143,14 @@
           <t>222004@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="22" t="inlineStr">
-        <is>
-          <t>Moderate Risk</t>
+      <c r="F233" s="24" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G233" s="12" t="inlineStr">
         <is>
-          <t>27.6%</t>
+          <t>31.0%</t>
         </is>
       </c>
       <c r="H233" s="12" t="inlineStr">
@@ -54151,7 +54159,7 @@
         </is>
       </c>
       <c r="I233" s="13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J233" s="13" t="n">
         <v>18</v>
@@ -54166,16 +54174,16 @@
         <v>29</v>
       </c>
       <c r="N233" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O233" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P233" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q233" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R233" s="14" t="n">
         <v>1</v>
@@ -54832,7 +54840,7 @@
       </c>
       <c r="G236" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H236" s="12" t="inlineStr">
@@ -54841,7 +54849,7 @@
         </is>
       </c>
       <c r="I236" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J236" s="13" t="n">
         <v>18</v>
@@ -54856,16 +54864,16 @@
         <v>29</v>
       </c>
       <c r="N236" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O236" s="13" t="n">
         <v>5</v>
-      </c>
-      <c r="O236" s="13" t="n">
-        <v>6</v>
       </c>
       <c r="P236" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q236" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R236" s="14" t="n">
         <v>1</v>
@@ -55752,7 +55760,7 @@
       </c>
       <c r="G240" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H240" s="12" t="inlineStr">
@@ -55761,7 +55769,7 @@
         </is>
       </c>
       <c r="I240" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J240" s="13" t="n">
         <v>18</v>
@@ -55776,16 +55784,16 @@
         <v>29</v>
       </c>
       <c r="N240" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O240" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P240" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q240" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R240" s="14" t="n">
         <v>0</v>
@@ -55975,14 +55983,14 @@
           <t>222035@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F241" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F241" s="22" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G241" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H241" s="12" t="inlineStr">
@@ -55991,7 +55999,7 @@
         </is>
       </c>
       <c r="I241" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J241" s="13" t="n">
         <v>18</v>
@@ -56006,16 +56014,16 @@
         <v>29</v>
       </c>
       <c r="N241" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O241" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P241" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q241" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R241" s="14" t="n">
         <v>1</v>
@@ -56435,14 +56443,14 @@
           <t>222053@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F243" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F243" s="22" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G243" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H243" s="12" t="inlineStr">
@@ -56451,7 +56459,7 @@
         </is>
       </c>
       <c r="I243" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J243" s="13" t="n">
         <v>18</v>
@@ -56466,16 +56474,16 @@
         <v>29</v>
       </c>
       <c r="N243" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O243" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P243" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q243" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R243" s="14" t="n">
         <v>1</v>
@@ -58721,7 +58729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K594"/>
+  <dimension ref="A1:K619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -58746,57 +58754,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="24" t="inlineStr">
+      <c r="A1" s="25" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="B1" s="24" t="inlineStr">
+      <c r="B1" s="25" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="24" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="D1" s="24" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="E1" s="24" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="F1" s="24" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="G1" s="24" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
         <is>
           <t>Session</t>
         </is>
       </c>
-      <c r="H1" s="24" t="inlineStr">
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="I1" s="24" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" s="24" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="K1" s="24" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>Validation Group</t>
         </is>
@@ -63180,7 +63188,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J78" s="25" t="n">
+      <c r="J78" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K78" t="inlineStr">
@@ -63235,7 +63243,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J79" s="25" t="n">
+      <c r="J79" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K79" t="inlineStr">
@@ -63290,7 +63298,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J80" s="25" t="n">
+      <c r="J80" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K80" t="inlineStr">
@@ -63345,7 +63353,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J81" s="25" t="n">
+      <c r="J81" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K81" t="inlineStr">
@@ -63400,7 +63408,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J82" s="25" t="n">
+      <c r="J82" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K82" t="inlineStr">
@@ -63455,7 +63463,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J83" s="25" t="n">
+      <c r="J83" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K83" t="inlineStr">
@@ -63510,7 +63518,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J84" s="25" t="n">
+      <c r="J84" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K84" t="inlineStr">
@@ -63565,7 +63573,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J85" s="25" t="n">
+      <c r="J85" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K85" t="inlineStr">
@@ -63620,7 +63628,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J86" s="25" t="n">
+      <c r="J86" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K86" t="inlineStr">
@@ -63675,7 +63683,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J87" s="25" t="n">
+      <c r="J87" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K87" t="inlineStr">
@@ -63730,7 +63738,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J88" s="25" t="n">
+      <c r="J88" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K88" t="inlineStr">
@@ -63785,7 +63793,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J89" s="25" t="n">
+      <c r="J89" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K89" t="inlineStr">
@@ -63840,7 +63848,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J90" s="25" t="n">
+      <c r="J90" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K90" t="inlineStr">
@@ -63895,7 +63903,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J91" s="25" t="n">
+      <c r="J91" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K91" t="inlineStr">
@@ -63950,7 +63958,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J92" s="25" t="n">
+      <c r="J92" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K92" t="inlineStr">
@@ -64005,7 +64013,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J93" s="25" t="n">
+      <c r="J93" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K93" t="inlineStr">
@@ -64060,7 +64068,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J94" s="25" t="n">
+      <c r="J94" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K94" t="inlineStr">
@@ -64115,7 +64123,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J95" s="25" t="n">
+      <c r="J95" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K95" t="inlineStr">
@@ -64170,7 +64178,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J96" s="25" t="n">
+      <c r="J96" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K96" t="inlineStr">
@@ -64225,7 +64233,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J97" s="25" t="n">
+      <c r="J97" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K97" t="inlineStr">
@@ -64280,7 +64288,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J98" s="25" t="n">
+      <c r="J98" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K98" t="inlineStr">
@@ -64335,7 +64343,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J99" s="25" t="n">
+      <c r="J99" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K99" t="inlineStr">
@@ -64390,7 +64398,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J100" s="25" t="n">
+      <c r="J100" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K100" t="inlineStr">
@@ -64445,7 +64453,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J101" s="25" t="n">
+      <c r="J101" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K101" t="inlineStr">
@@ -64500,7 +64508,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J102" s="25" t="n">
+      <c r="J102" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K102" t="inlineStr">
@@ -64555,7 +64563,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J103" s="25" t="n">
+      <c r="J103" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K103" t="inlineStr">
@@ -64610,7 +64618,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J104" s="25" t="n">
+      <c r="J104" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K104" t="inlineStr">
@@ -64665,7 +64673,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J105" s="25" t="n">
+      <c r="J105" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K105" t="inlineStr">
@@ -64720,7 +64728,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J106" s="25" t="n">
+      <c r="J106" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K106" t="inlineStr">
@@ -64775,7 +64783,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J107" s="25" t="n">
+      <c r="J107" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K107" t="inlineStr">
@@ -64830,7 +64838,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J108" s="25" t="n">
+      <c r="J108" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K108" t="inlineStr">
@@ -64885,7 +64893,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J109" s="25" t="n">
+      <c r="J109" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K109" t="inlineStr">
@@ -64940,7 +64948,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J110" s="25" t="n">
+      <c r="J110" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K110" t="inlineStr">
@@ -64995,7 +65003,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J111" s="25" t="n">
+      <c r="J111" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K111" t="inlineStr">
@@ -65050,7 +65058,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J112" s="25" t="n">
+      <c r="J112" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K112" t="inlineStr">
@@ -65105,7 +65113,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J113" s="25" t="n">
+      <c r="J113" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K113" t="inlineStr">
@@ -65160,7 +65168,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J114" s="25" t="n">
+      <c r="J114" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K114" t="inlineStr">
@@ -65215,7 +65223,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J115" s="25" t="n">
+      <c r="J115" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K115" t="inlineStr">
@@ -65270,7 +65278,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J116" s="25" t="n">
+      <c r="J116" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K116" t="inlineStr">
@@ -65325,7 +65333,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J117" s="25" t="n">
+      <c r="J117" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K117" t="inlineStr">
@@ -65380,7 +65388,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J118" s="25" t="n">
+      <c r="J118" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K118" t="inlineStr">
@@ -65435,7 +65443,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J119" s="25" t="n">
+      <c r="J119" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K119" t="inlineStr">
@@ -65490,7 +65498,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J120" s="25" t="n">
+      <c r="J120" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K120" t="inlineStr">
@@ -65545,7 +65553,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J121" s="25" t="n">
+      <c r="J121" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K121" t="inlineStr">
@@ -65600,7 +65608,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J122" s="25" t="n">
+      <c r="J122" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K122" t="inlineStr">
@@ -65655,7 +65663,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J123" s="25" t="n">
+      <c r="J123" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K123" t="inlineStr">
@@ -65710,7 +65718,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J124" s="25" t="n">
+      <c r="J124" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K124" t="inlineStr">
@@ -65765,7 +65773,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J125" s="25" t="n">
+      <c r="J125" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K125" t="inlineStr">
@@ -65820,7 +65828,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J126" s="25" t="n">
+      <c r="J126" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K126" t="inlineStr">
@@ -65875,7 +65883,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J127" s="25" t="n">
+      <c r="J127" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K127" t="inlineStr">
@@ -65930,7 +65938,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J128" s="25" t="n">
+      <c r="J128" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K128" t="inlineStr">
@@ -65985,7 +65993,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J129" s="25" t="n">
+      <c r="J129" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K129" t="inlineStr">
@@ -66040,7 +66048,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J130" s="25" t="n">
+      <c r="J130" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K130" t="inlineStr">
@@ -66095,7 +66103,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J131" s="25" t="n">
+      <c r="J131" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K131" t="inlineStr">
@@ -66150,7 +66158,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J132" s="25" t="n">
+      <c r="J132" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K132" t="inlineStr">
@@ -66205,7 +66213,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J133" s="25" t="n">
+      <c r="J133" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K133" t="inlineStr">
@@ -66260,7 +66268,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J134" s="25" t="n">
+      <c r="J134" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K134" t="inlineStr">
@@ -66315,7 +66323,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J135" s="25" t="n">
+      <c r="J135" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K135" t="inlineStr">
@@ -66370,7 +66378,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J136" s="25" t="n">
+      <c r="J136" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K136" t="inlineStr">
@@ -66425,7 +66433,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J137" s="25" t="n">
+      <c r="J137" s="26" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K137" t="inlineStr">
@@ -92483,8 +92491,1433 @@
         </is>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>222026</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>عثمان موسى محمد ادم</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>222026@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>12:27:39</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>221930</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>احمد محمود عبد الباقى محمد</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>221930@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>12:27:43</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>220304</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>احمد الكامل محمد عبدون عثمان</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>220304@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>12:27:49</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>221850</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>مؤمن محمد عبد الله محمد</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>221850@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>12:27:50</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>222004</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>احمد ايمن احمد بشير</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>222004@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>12:27:53</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>212039</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>حسين زيدان خلف</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>212039@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>12:28:01</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>220370</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>اغيد مرزوق الرفاعى</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>220370@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>12:28:04</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>221569</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>هبه جعفر محمد شوكت</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>221569@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>12:28:10</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>221579</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>لينا مكرم محمد يسن</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>221579@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>12:28:13</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>220881</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>مها ماجد غنيمة</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>220881@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>12:28:14</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>222053</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>صباح سيف الدين عثمان اسحق</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>222053@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>12:28:17</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>220926</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>علي عبدالله عبدالمجيد احمد</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>220926@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>12:28:22</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>222035</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>علا عبد الوهاب خليل محمود</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>222035@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>12:28:27</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>212442</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>رميساء محى الدين الامين الطيب</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>212442@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>12:28:31</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>220675</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>محمد بدرالدين عبد العال عبد العال صبح</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>220675@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>12:28:36</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>220314</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>احمد ربيع قطب عبد المطلب بهوت</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>220314@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>12:28:40</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>221838</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>الاء سيد احمد احمد ابن ادريس</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>221838@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>12:28:44</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>222032</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>احمد شوقى عبد الرحيم طه</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>222032@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>12:28:51</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>212125</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>راما محمد الحاج محمد</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>212125@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>12:29:00</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>212160</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>المى عماد تركمانى</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>212160@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>12:29:03</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>212163</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>رقيه احمد عبد الله</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>212163@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>12:29:07</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>212308</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>سحر محمد يوسف محمد</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>212308@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>12:29:12</t>
+        </is>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>212543</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>زينب سيف الدين محمد ادم</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>212543@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>12:29:19</t>
+        </is>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>220618</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>غيداء مرزوق الرفاعى</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>220618@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>12:29:26</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>212318</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>مازن مصدق يس عبد اللطيف</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>212318@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>12:50:20</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K594"/>
+  <autoFilter ref="A1:K619"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -43,7 +43,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill/>
     </fill>
@@ -137,17 +137,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB97D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF7C7C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF1A6"/>
+        <fgColor rgb="00FFB97D"/>
       </patternFill>
     </fill>
     <fill>
@@ -171,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -240,10 +235,7 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1032,10 +1024,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="13" t="n">
         <v>29</v>
@@ -1047,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P2" s="14" t="n">
         <v>5</v>
@@ -1064,10 +1056,8 @@
       <c r="T2" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U2" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U2" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V2" s="14" t="inlineStr">
         <is>
@@ -1245,7 +1235,7 @@
       </c>
       <c r="F3" s="22" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G3" s="12" t="inlineStr">
@@ -1262,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="J3" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="13" t="n">
         <v>29</v>
@@ -1277,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="O3" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="14" t="n">
         <v>5</v>
@@ -1294,10 +1284,8 @@
       <c r="T3" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U3" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U3" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V3" s="14" t="inlineStr">
         <is>
@@ -1492,10 +1480,10 @@
         <v>23</v>
       </c>
       <c r="J4" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="13" t="n">
         <v>29</v>
@@ -1507,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="14" t="n">
         <v>5</v>
@@ -1524,10 +1512,8 @@
       <c r="T4" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U4" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U4" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="inlineStr">
         <is>
@@ -1722,10 +1708,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="13" t="n">
         <v>29</v>
@@ -1737,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P5" s="14" t="n">
         <v>5</v>
@@ -1754,10 +1740,8 @@
       <c r="T5" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U5" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U5" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V5" s="14" t="inlineStr">
         <is>
@@ -1952,10 +1936,10 @@
         <v>23</v>
       </c>
       <c r="J6" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="13" t="n">
         <v>29</v>
@@ -1967,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P6" s="14" t="n">
         <v>5</v>
@@ -1984,10 +1968,8 @@
       <c r="T6" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U6" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U6" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V6" s="14" t="inlineStr">
         <is>
@@ -2182,10 +2164,10 @@
         <v>23</v>
       </c>
       <c r="J7" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="13" t="n">
         <v>29</v>
@@ -2197,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="14" t="n">
         <v>5</v>
@@ -2214,10 +2196,8 @@
       <c r="T7" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U7" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U7" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V7" s="14" t="inlineStr">
         <is>
@@ -2412,10 +2392,10 @@
         <v>23</v>
       </c>
       <c r="J8" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L8" s="13" t="n">
         <v>29</v>
@@ -2427,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" s="14" t="n">
         <v>5</v>
@@ -2444,10 +2424,8 @@
       <c r="T8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U8" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U8" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V8" s="14" t="inlineStr">
         <is>
@@ -2642,10 +2620,10 @@
         <v>23</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="13" t="n">
         <v>29</v>
@@ -2657,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P9" s="14" t="n">
         <v>5</v>
@@ -2674,10 +2652,8 @@
       <c r="T9" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U9" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U9" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V9" s="14" t="inlineStr">
         <is>
@@ -2872,10 +2848,10 @@
         <v>23</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="13" t="n">
         <v>29</v>
@@ -2887,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="14" t="n">
         <v>5</v>
@@ -2904,10 +2880,8 @@
       <c r="T10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U10" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U10" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V10" s="14" t="inlineStr">
         <is>
@@ -3102,10 +3076,10 @@
         <v>23</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L11" s="13" t="n">
         <v>29</v>
@@ -3117,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P11" s="14" t="n">
         <v>5</v>
@@ -3134,10 +3108,8 @@
       <c r="T11" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U11" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U11" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V11" s="14" t="inlineStr">
         <is>
@@ -3332,10 +3304,10 @@
         <v>19</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="13" t="n">
         <v>29</v>
@@ -3347,7 +3319,7 @@
         <v>4</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P12" s="14" t="n">
         <v>5</v>
@@ -3364,10 +3336,8 @@
       <c r="T12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U12" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U12" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V12" s="14" t="inlineStr">
         <is>
@@ -3562,10 +3532,10 @@
         <v>23</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="13" t="n">
         <v>29</v>
@@ -3577,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="14" t="n">
         <v>5</v>
@@ -3594,10 +3564,8 @@
       <c r="T13" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U13" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U13" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V13" s="14" t="inlineStr">
         <is>
@@ -3792,10 +3760,10 @@
         <v>21</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" s="13" t="n">
         <v>29</v>
@@ -3807,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P14" s="14" t="n">
         <v>5</v>
@@ -3824,10 +3792,8 @@
       <c r="T14" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U14" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U14" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V14" s="14" t="inlineStr">
         <is>
@@ -4022,10 +3988,10 @@
         <v>23</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" s="13" t="n">
         <v>29</v>
@@ -4037,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P15" s="14" t="n">
         <v>5</v>
@@ -4054,10 +4020,8 @@
       <c r="T15" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U15" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U15" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V15" s="14" t="inlineStr">
         <is>
@@ -4252,10 +4216,10 @@
         <v>22</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="13" t="n">
         <v>29</v>
@@ -4267,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P16" s="14" t="n">
         <v>5</v>
@@ -4284,10 +4248,8 @@
       <c r="T16" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U16" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U16" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="14" t="inlineStr">
         <is>
@@ -4482,10 +4444,10 @@
         <v>23</v>
       </c>
       <c r="J17" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L17" s="13" t="n">
         <v>29</v>
@@ -4497,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P17" s="14" t="n">
         <v>5</v>
@@ -4514,10 +4476,8 @@
       <c r="T17" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U17" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U17" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="14" t="inlineStr">
         <is>
@@ -4712,10 +4672,10 @@
         <v>23</v>
       </c>
       <c r="J18" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L18" s="13" t="n">
         <v>29</v>
@@ -4727,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P18" s="14" t="n">
         <v>5</v>
@@ -4744,10 +4704,8 @@
       <c r="T18" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U18" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U18" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V18" s="14" t="inlineStr">
         <is>
@@ -4942,10 +4900,10 @@
         <v>19</v>
       </c>
       <c r="J19" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="13" t="n">
         <v>29</v>
@@ -4957,7 +4915,7 @@
         <v>4</v>
       </c>
       <c r="O19" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P19" s="14" t="n">
         <v>5</v>
@@ -4974,10 +4932,8 @@
       <c r="T19" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U19" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U19" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="14" t="inlineStr">
         <is>
@@ -5172,10 +5128,10 @@
         <v>20</v>
       </c>
       <c r="J20" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20" s="13" t="n">
         <v>29</v>
@@ -5187,7 +5143,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P20" s="14" t="n">
         <v>5</v>
@@ -5204,10 +5160,8 @@
       <c r="T20" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U20" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U20" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="14" t="inlineStr">
         <is>
@@ -5402,10 +5356,10 @@
         <v>23</v>
       </c>
       <c r="J21" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L21" s="13" t="n">
         <v>29</v>
@@ -5417,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P21" s="14" t="n">
         <v>5</v>
@@ -5434,10 +5388,8 @@
       <c r="T21" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U21" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U21" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V21" s="14" t="inlineStr">
         <is>
@@ -5613,9 +5565,9 @@
           <t>210935@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F22" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F22" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G22" s="12" t="inlineStr">
@@ -5632,10 +5584,10 @@
         <v>18</v>
       </c>
       <c r="J22" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" s="13" t="n">
         <v>29</v>
@@ -5647,7 +5599,7 @@
         <v>5</v>
       </c>
       <c r="O22" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P22" s="14" t="n">
         <v>5</v>
@@ -5664,10 +5616,8 @@
       <c r="T22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U22" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U22" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="14" t="inlineStr">
         <is>
@@ -5862,10 +5812,10 @@
         <v>21</v>
       </c>
       <c r="J23" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L23" s="13" t="n">
         <v>29</v>
@@ -5877,7 +5827,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P23" s="14" t="n">
         <v>5</v>
@@ -5894,10 +5844,8 @@
       <c r="T23" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U23" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U23" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="14" t="inlineStr">
         <is>
@@ -6092,10 +6040,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L24" s="13" t="n">
         <v>29</v>
@@ -6107,7 +6055,7 @@
         <v>4</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P24" s="14" t="n">
         <v>5</v>
@@ -6124,10 +6072,8 @@
       <c r="T24" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U24" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U24" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V24" s="14" t="inlineStr">
         <is>
@@ -6322,10 +6268,10 @@
         <v>23</v>
       </c>
       <c r="J25" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L25" s="13" t="n">
         <v>29</v>
@@ -6337,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P25" s="14" t="n">
         <v>5</v>
@@ -6354,10 +6300,8 @@
       <c r="T25" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U25" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U25" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V25" s="14" t="inlineStr">
         <is>
@@ -6552,10 +6496,10 @@
         <v>23</v>
       </c>
       <c r="J26" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L26" s="13" t="n">
         <v>29</v>
@@ -6567,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P26" s="14" t="n">
         <v>5</v>
@@ -6584,10 +6528,8 @@
       <c r="T26" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U26" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U26" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V26" s="14" t="inlineStr">
         <is>
@@ -6782,10 +6724,10 @@
         <v>23</v>
       </c>
       <c r="J27" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L27" s="13" t="n">
         <v>29</v>
@@ -6797,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P27" s="14" t="n">
         <v>5</v>
@@ -6814,10 +6756,8 @@
       <c r="T27" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U27" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U27" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V27" s="14" t="inlineStr">
         <is>
@@ -7012,10 +6952,10 @@
         <v>23</v>
       </c>
       <c r="J28" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L28" s="13" t="n">
         <v>29</v>
@@ -7027,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P28" s="14" t="n">
         <v>5</v>
@@ -7044,10 +6984,8 @@
       <c r="T28" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U28" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U28" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V28" s="14" t="inlineStr">
         <is>
@@ -7242,10 +7180,10 @@
         <v>23</v>
       </c>
       <c r="J29" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K29" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" s="13" t="n">
         <v>29</v>
@@ -7257,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P29" s="14" t="n">
         <v>5</v>
@@ -7274,10 +7212,8 @@
       <c r="T29" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U29" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U29" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V29" s="14" t="inlineStr">
         <is>
@@ -7472,10 +7408,10 @@
         <v>23</v>
       </c>
       <c r="J30" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K30" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L30" s="13" t="n">
         <v>29</v>
@@ -7487,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P30" s="14" t="n">
         <v>5</v>
@@ -7504,10 +7440,8 @@
       <c r="T30" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U30" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U30" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V30" s="14" t="inlineStr">
         <is>
@@ -7702,10 +7636,10 @@
         <v>23</v>
       </c>
       <c r="J31" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L31" s="13" t="n">
         <v>29</v>
@@ -7717,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P31" s="14" t="n">
         <v>5</v>
@@ -7734,10 +7668,8 @@
       <c r="T31" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U31" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U31" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="14" t="inlineStr">
         <is>
@@ -7932,10 +7864,10 @@
         <v>21</v>
       </c>
       <c r="J32" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L32" s="13" t="n">
         <v>29</v>
@@ -7947,7 +7879,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P32" s="14" t="n">
         <v>5</v>
@@ -7964,10 +7896,8 @@
       <c r="T32" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U32" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U32" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V32" s="14" t="inlineStr">
         <is>
@@ -8162,10 +8092,10 @@
         <v>23</v>
       </c>
       <c r="J33" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L33" s="13" t="n">
         <v>29</v>
@@ -8177,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P33" s="14" t="n">
         <v>5</v>
@@ -8194,10 +8124,8 @@
       <c r="T33" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U33" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U33" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V33" s="14" t="inlineStr">
         <is>
@@ -8392,10 +8320,10 @@
         <v>21</v>
       </c>
       <c r="J34" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K34" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L34" s="13" t="n">
         <v>29</v>
@@ -8407,7 +8335,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P34" s="14" t="n">
         <v>5</v>
@@ -8424,10 +8352,8 @@
       <c r="T34" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U34" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U34" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V34" s="14" t="inlineStr">
         <is>
@@ -8622,10 +8548,10 @@
         <v>23</v>
       </c>
       <c r="J35" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K35" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L35" s="13" t="n">
         <v>29</v>
@@ -8637,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P35" s="14" t="n">
         <v>5</v>
@@ -8654,10 +8580,8 @@
       <c r="T35" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U35" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U35" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V35" s="14" t="inlineStr">
         <is>
@@ -8852,10 +8776,10 @@
         <v>23</v>
       </c>
       <c r="J36" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K36" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L36" s="13" t="n">
         <v>29</v>
@@ -8867,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P36" s="14" t="n">
         <v>5</v>
@@ -8884,10 +8808,8 @@
       <c r="T36" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U36" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U36" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V36" s="14" t="inlineStr">
         <is>
@@ -9082,10 +9004,10 @@
         <v>21</v>
       </c>
       <c r="J37" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L37" s="13" t="n">
         <v>29</v>
@@ -9097,7 +9019,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P37" s="14" t="n">
         <v>5</v>
@@ -9114,10 +9036,8 @@
       <c r="T37" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U37" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U37" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="14" t="inlineStr">
         <is>
@@ -9312,10 +9232,10 @@
         <v>19</v>
       </c>
       <c r="J38" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K38" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L38" s="13" t="n">
         <v>29</v>
@@ -9327,7 +9247,7 @@
         <v>4</v>
       </c>
       <c r="O38" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P38" s="14" t="n">
         <v>5</v>
@@ -9344,10 +9264,8 @@
       <c r="T38" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U38" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U38" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V38" s="14" t="inlineStr">
         <is>
@@ -9542,10 +9460,10 @@
         <v>21</v>
       </c>
       <c r="J39" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K39" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L39" s="13" t="n">
         <v>29</v>
@@ -9557,7 +9475,7 @@
         <v>2</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P39" s="14" t="n">
         <v>5</v>
@@ -9574,10 +9492,8 @@
       <c r="T39" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U39" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U39" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="14" t="inlineStr">
         <is>
@@ -9772,10 +9688,10 @@
         <v>21</v>
       </c>
       <c r="J40" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L40" s="13" t="n">
         <v>29</v>
@@ -9787,7 +9703,7 @@
         <v>2</v>
       </c>
       <c r="O40" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P40" s="14" t="n">
         <v>5</v>
@@ -9804,10 +9720,8 @@
       <c r="T40" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U40" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U40" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V40" s="14" t="inlineStr">
         <is>
@@ -10002,10 +9916,10 @@
         <v>23</v>
       </c>
       <c r="J41" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L41" s="13" t="n">
         <v>29</v>
@@ -10017,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P41" s="14" t="n">
         <v>5</v>
@@ -10034,10 +9948,8 @@
       <c r="T41" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U41" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U41" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V41" s="14" t="inlineStr">
         <is>
@@ -10232,10 +10144,10 @@
         <v>23</v>
       </c>
       <c r="J42" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K42" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L42" s="13" t="n">
         <v>29</v>
@@ -10247,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P42" s="14" t="n">
         <v>5</v>
@@ -10264,10 +10176,8 @@
       <c r="T42" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U42" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U42" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V42" s="14" t="inlineStr">
         <is>
@@ -10462,10 +10372,10 @@
         <v>23</v>
       </c>
       <c r="J43" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K43" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L43" s="13" t="n">
         <v>29</v>
@@ -10477,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P43" s="14" t="n">
         <v>5</v>
@@ -10494,10 +10404,8 @@
       <c r="T43" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U43" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U43" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="14" t="inlineStr">
         <is>
@@ -10673,9 +10581,9 @@
           <t>211915@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F44" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F44" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G44" s="12" t="inlineStr">
@@ -10692,10 +10600,10 @@
         <v>18</v>
       </c>
       <c r="J44" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K44" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L44" s="13" t="n">
         <v>29</v>
@@ -10707,7 +10615,7 @@
         <v>5</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P44" s="14" t="n">
         <v>5</v>
@@ -10724,10 +10632,8 @@
       <c r="T44" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U44" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U44" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V44" s="14" t="inlineStr">
         <is>
@@ -10922,10 +10828,10 @@
         <v>21</v>
       </c>
       <c r="J45" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K45" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L45" s="13" t="n">
         <v>29</v>
@@ -10937,7 +10843,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P45" s="14" t="n">
         <v>5</v>
@@ -10954,10 +10860,8 @@
       <c r="T45" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U45" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U45" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="14" t="inlineStr">
         <is>
@@ -11152,10 +11056,10 @@
         <v>23</v>
       </c>
       <c r="J46" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K46" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L46" s="13" t="n">
         <v>29</v>
@@ -11167,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P46" s="14" t="n">
         <v>5</v>
@@ -11184,10 +11088,8 @@
       <c r="T46" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U46" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U46" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V46" s="14" t="inlineStr">
         <is>
@@ -11382,10 +11284,10 @@
         <v>21</v>
       </c>
       <c r="J47" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K47" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L47" s="13" t="n">
         <v>29</v>
@@ -11397,7 +11299,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P47" s="14" t="n">
         <v>5</v>
@@ -11414,10 +11316,8 @@
       <c r="T47" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U47" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U47" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="14" t="inlineStr">
         <is>
@@ -11612,10 +11512,10 @@
         <v>21</v>
       </c>
       <c r="J48" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K48" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L48" s="13" t="n">
         <v>29</v>
@@ -11627,7 +11527,7 @@
         <v>2</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P48" s="14" t="n">
         <v>5</v>
@@ -11644,10 +11544,8 @@
       <c r="T48" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U48" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U48" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V48" s="14" t="inlineStr">
         <is>
@@ -11842,10 +11740,10 @@
         <v>23</v>
       </c>
       <c r="J49" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K49" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L49" s="13" t="n">
         <v>29</v>
@@ -11857,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P49" s="14" t="n">
         <v>5</v>
@@ -11874,10 +11772,8 @@
       <c r="T49" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U49" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U49" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="14" t="inlineStr">
         <is>
@@ -12072,10 +11968,10 @@
         <v>23</v>
       </c>
       <c r="J50" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L50" s="13" t="n">
         <v>29</v>
@@ -12087,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P50" s="14" t="n">
         <v>5</v>
@@ -12104,10 +12000,8 @@
       <c r="T50" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U50" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U50" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V50" s="14" t="inlineStr">
         <is>
@@ -12302,10 +12196,10 @@
         <v>20</v>
       </c>
       <c r="J51" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K51" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L51" s="13" t="n">
         <v>29</v>
@@ -12317,7 +12211,7 @@
         <v>3</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P51" s="14" t="n">
         <v>5</v>
@@ -12334,10 +12228,8 @@
       <c r="T51" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U51" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U51" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V51" s="14" t="inlineStr">
         <is>
@@ -12532,10 +12424,10 @@
         <v>19</v>
       </c>
       <c r="J52" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K52" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L52" s="13" t="n">
         <v>29</v>
@@ -12547,7 +12439,7 @@
         <v>4</v>
       </c>
       <c r="O52" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P52" s="14" t="n">
         <v>5</v>
@@ -12564,10 +12456,8 @@
       <c r="T52" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U52" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U52" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V52" s="14" t="inlineStr">
         <is>
@@ -12762,10 +12652,10 @@
         <v>23</v>
       </c>
       <c r="J53" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L53" s="13" t="n">
         <v>29</v>
@@ -12777,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P53" s="14" t="n">
         <v>5</v>
@@ -12794,10 +12684,8 @@
       <c r="T53" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U53" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U53" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V53" s="14" t="inlineStr">
         <is>
@@ -12992,10 +12880,10 @@
         <v>19</v>
       </c>
       <c r="J54" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K54" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L54" s="13" t="n">
         <v>29</v>
@@ -13007,7 +12895,7 @@
         <v>4</v>
       </c>
       <c r="O54" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P54" s="14" t="n">
         <v>5</v>
@@ -13024,10 +12912,8 @@
       <c r="T54" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U54" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U54" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V54" s="14" t="inlineStr">
         <is>
@@ -13222,10 +13108,10 @@
         <v>20</v>
       </c>
       <c r="J55" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K55" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L55" s="13" t="n">
         <v>29</v>
@@ -13237,7 +13123,7 @@
         <v>3</v>
       </c>
       <c r="O55" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P55" s="14" t="n">
         <v>5</v>
@@ -13254,10 +13140,8 @@
       <c r="T55" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U55" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U55" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V55" s="14" t="inlineStr">
         <is>
@@ -13452,10 +13336,10 @@
         <v>23</v>
       </c>
       <c r="J56" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K56" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L56" s="13" t="n">
         <v>29</v>
@@ -13467,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P56" s="14" t="n">
         <v>5</v>
@@ -13484,10 +13368,8 @@
       <c r="T56" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U56" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U56" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V56" s="14" t="inlineStr">
         <is>
@@ -13682,10 +13564,10 @@
         <v>23</v>
       </c>
       <c r="J57" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K57" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L57" s="13" t="n">
         <v>29</v>
@@ -13697,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P57" s="14" t="n">
         <v>5</v>
@@ -13714,10 +13596,8 @@
       <c r="T57" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U57" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U57" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="14" t="inlineStr">
         <is>
@@ -13912,10 +13792,10 @@
         <v>21</v>
       </c>
       <c r="J58" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K58" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L58" s="13" t="n">
         <v>29</v>
@@ -13927,7 +13807,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P58" s="14" t="n">
         <v>5</v>
@@ -13944,10 +13824,8 @@
       <c r="T58" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U58" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U58" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V58" s="14" t="inlineStr">
         <is>
@@ -14142,10 +14020,10 @@
         <v>23</v>
       </c>
       <c r="J59" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L59" s="13" t="n">
         <v>29</v>
@@ -14157,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P59" s="14" t="n">
         <v>5</v>
@@ -14174,10 +14052,8 @@
       <c r="T59" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U59" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U59" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V59" s="14" t="inlineStr">
         <is>
@@ -14372,10 +14248,10 @@
         <v>23</v>
       </c>
       <c r="J60" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K60" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L60" s="13" t="n">
         <v>29</v>
@@ -14387,7 +14263,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P60" s="14" t="n">
         <v>5</v>
@@ -14404,10 +14280,8 @@
       <c r="T60" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U60" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U60" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V60" s="14" t="inlineStr">
         <is>
@@ -14602,10 +14476,10 @@
         <v>23</v>
       </c>
       <c r="J61" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K61" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L61" s="13" t="n">
         <v>29</v>
@@ -14617,7 +14491,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P61" s="14" t="n">
         <v>5</v>
@@ -14634,10 +14508,8 @@
       <c r="T61" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U61" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U61" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="14" t="inlineStr">
         <is>
@@ -14832,10 +14704,10 @@
         <v>20</v>
       </c>
       <c r="J62" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K62" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L62" s="13" t="n">
         <v>29</v>
@@ -14847,7 +14719,7 @@
         <v>3</v>
       </c>
       <c r="O62" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P62" s="14" t="n">
         <v>5</v>
@@ -14864,10 +14736,8 @@
       <c r="T62" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U62" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U62" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V62" s="14" t="inlineStr">
         <is>
@@ -15043,7 +14913,7 @@
           <t>212318@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F63" s="23" t="inlineStr">
+      <c r="F63" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -15062,10 +14932,10 @@
         <v>17</v>
       </c>
       <c r="J63" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K63" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L63" s="13" t="n">
         <v>29</v>
@@ -15077,7 +14947,7 @@
         <v>6</v>
       </c>
       <c r="O63" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P63" s="14" t="n">
         <v>5</v>
@@ -15094,10 +14964,8 @@
       <c r="T63" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U63" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U63" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V63" s="14" t="inlineStr">
         <is>
@@ -15273,7 +15141,7 @@
           <t>212322@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F64" s="23" t="inlineStr">
+      <c r="F64" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -15292,10 +15160,10 @@
         <v>17</v>
       </c>
       <c r="J64" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K64" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L64" s="13" t="n">
         <v>29</v>
@@ -15307,7 +15175,7 @@
         <v>6</v>
       </c>
       <c r="O64" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P64" s="14" t="n">
         <v>5</v>
@@ -15324,10 +15192,8 @@
       <c r="T64" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U64" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U64" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V64" s="14" t="inlineStr">
         <is>
@@ -15503,7 +15369,7 @@
           <t>212386@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F65" s="23" t="inlineStr">
+      <c r="F65" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -15522,10 +15388,10 @@
         <v>17</v>
       </c>
       <c r="J65" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K65" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L65" s="13" t="n">
         <v>29</v>
@@ -15537,7 +15403,7 @@
         <v>6</v>
       </c>
       <c r="O65" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P65" s="14" t="n">
         <v>5</v>
@@ -15554,10 +15420,8 @@
       <c r="T65" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U65" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U65" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V65" s="14" t="inlineStr">
         <is>
@@ -15752,10 +15616,10 @@
         <v>23</v>
       </c>
       <c r="J66" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K66" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L66" s="13" t="n">
         <v>29</v>
@@ -15767,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P66" s="14" t="n">
         <v>5</v>
@@ -15784,10 +15648,8 @@
       <c r="T66" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U66" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U66" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V66" s="14" t="inlineStr">
         <is>
@@ -15982,10 +15844,10 @@
         <v>23</v>
       </c>
       <c r="J67" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K67" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L67" s="13" t="n">
         <v>29</v>
@@ -15997,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P67" s="14" t="n">
         <v>5</v>
@@ -16014,10 +15876,8 @@
       <c r="T67" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U67" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U67" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="14" t="inlineStr">
         <is>
@@ -16212,10 +16072,10 @@
         <v>19</v>
       </c>
       <c r="J68" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K68" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L68" s="13" t="n">
         <v>29</v>
@@ -16227,7 +16087,7 @@
         <v>4</v>
       </c>
       <c r="O68" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P68" s="14" t="n">
         <v>5</v>
@@ -16244,10 +16104,8 @@
       <c r="T68" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U68" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U68" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V68" s="14" t="inlineStr">
         <is>
@@ -16442,10 +16300,10 @@
         <v>23</v>
       </c>
       <c r="J69" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K69" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L69" s="13" t="n">
         <v>29</v>
@@ -16457,7 +16315,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P69" s="14" t="n">
         <v>5</v>
@@ -16474,10 +16332,8 @@
       <c r="T69" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U69" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U69" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="14" t="inlineStr">
         <is>
@@ -16672,10 +16528,10 @@
         <v>23</v>
       </c>
       <c r="J70" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K70" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L70" s="13" t="n">
         <v>29</v>
@@ -16687,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P70" s="14" t="n">
         <v>5</v>
@@ -16704,10 +16560,8 @@
       <c r="T70" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U70" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U70" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V70" s="14" t="inlineStr">
         <is>
@@ -16883,7 +16737,7 @@
           <t>212442@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F71" s="23" t="inlineStr">
+      <c r="F71" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -16902,10 +16756,10 @@
         <v>17</v>
       </c>
       <c r="J71" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K71" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L71" s="13" t="n">
         <v>29</v>
@@ -16917,7 +16771,7 @@
         <v>6</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P71" s="14" t="n">
         <v>5</v>
@@ -16934,10 +16788,8 @@
       <c r="T71" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U71" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U71" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V71" s="14" t="inlineStr">
         <is>
@@ -17132,10 +16984,10 @@
         <v>23</v>
       </c>
       <c r="J72" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K72" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L72" s="13" t="n">
         <v>29</v>
@@ -17147,7 +16999,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P72" s="14" t="n">
         <v>5</v>
@@ -17164,10 +17016,8 @@
       <c r="T72" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U72" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U72" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V72" s="14" t="inlineStr">
         <is>
@@ -17362,10 +17212,10 @@
         <v>23</v>
       </c>
       <c r="J73" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K73" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L73" s="13" t="n">
         <v>29</v>
@@ -17377,7 +17227,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P73" s="14" t="n">
         <v>5</v>
@@ -17394,10 +17244,8 @@
       <c r="T73" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U73" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U73" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V73" s="14" t="inlineStr">
         <is>
@@ -17573,7 +17421,7 @@
           <t>212543@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F74" s="23" t="inlineStr">
+      <c r="F74" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -17592,10 +17440,10 @@
         <v>17</v>
       </c>
       <c r="J74" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K74" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L74" s="13" t="n">
         <v>29</v>
@@ -17607,7 +17455,7 @@
         <v>6</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P74" s="14" t="n">
         <v>5</v>
@@ -17624,10 +17472,8 @@
       <c r="T74" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U74" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U74" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V74" s="14" t="inlineStr">
         <is>
@@ -17803,7 +17649,7 @@
           <t>220304@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F75" s="23" t="inlineStr">
+      <c r="F75" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -17822,10 +17668,10 @@
         <v>17</v>
       </c>
       <c r="J75" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K75" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L75" s="13" t="n">
         <v>29</v>
@@ -17837,7 +17683,7 @@
         <v>6</v>
       </c>
       <c r="O75" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P75" s="14" t="n">
         <v>5</v>
@@ -17854,10 +17700,8 @@
       <c r="T75" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U75" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U75" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V75" s="14" t="inlineStr">
         <is>
@@ -18033,9 +17877,9 @@
           <t>220314@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F76" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F76" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G76" s="12" t="inlineStr">
@@ -18052,10 +17896,10 @@
         <v>18</v>
       </c>
       <c r="J76" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K76" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L76" s="13" t="n">
         <v>29</v>
@@ -18067,7 +17911,7 @@
         <v>5</v>
       </c>
       <c r="O76" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P76" s="14" t="n">
         <v>5</v>
@@ -18084,10 +17928,8 @@
       <c r="T76" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U76" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U76" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V76" s="14" t="inlineStr">
         <is>
@@ -18282,10 +18124,10 @@
         <v>19</v>
       </c>
       <c r="J77" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K77" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L77" s="13" t="n">
         <v>29</v>
@@ -18297,7 +18139,7 @@
         <v>4</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P77" s="14" t="n">
         <v>5</v>
@@ -18314,10 +18156,8 @@
       <c r="T77" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U77" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U77" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V77" s="14" t="inlineStr">
         <is>
@@ -18512,10 +18352,10 @@
         <v>19</v>
       </c>
       <c r="J78" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K78" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L78" s="13" t="n">
         <v>29</v>
@@ -18527,7 +18367,7 @@
         <v>4</v>
       </c>
       <c r="O78" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P78" s="14" t="n">
         <v>5</v>
@@ -18544,10 +18384,8 @@
       <c r="T78" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U78" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U78" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V78" s="14" t="inlineStr">
         <is>
@@ -18742,10 +18580,10 @@
         <v>19</v>
       </c>
       <c r="J79" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K79" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L79" s="13" t="n">
         <v>29</v>
@@ -18757,7 +18595,7 @@
         <v>4</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P79" s="14" t="n">
         <v>5</v>
@@ -18774,10 +18612,8 @@
       <c r="T79" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U79" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U79" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V79" s="14" t="inlineStr">
         <is>
@@ -18972,10 +18808,10 @@
         <v>23</v>
       </c>
       <c r="J80" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K80" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L80" s="13" t="n">
         <v>29</v>
@@ -18987,7 +18823,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P80" s="14" t="n">
         <v>5</v>
@@ -19004,10 +18840,8 @@
       <c r="T80" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U80" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U80" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V80" s="14" t="inlineStr">
         <is>
@@ -19202,10 +19036,10 @@
         <v>19</v>
       </c>
       <c r="J81" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K81" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L81" s="13" t="n">
         <v>29</v>
@@ -19217,7 +19051,7 @@
         <v>4</v>
       </c>
       <c r="O81" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P81" s="14" t="n">
         <v>5</v>
@@ -19234,10 +19068,8 @@
       <c r="T81" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U81" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U81" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V81" s="14" t="inlineStr">
         <is>
@@ -19432,10 +19264,10 @@
         <v>20</v>
       </c>
       <c r="J82" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K82" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L82" s="13" t="n">
         <v>29</v>
@@ -19447,7 +19279,7 @@
         <v>3</v>
       </c>
       <c r="O82" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P82" s="14" t="n">
         <v>5</v>
@@ -19464,10 +19296,8 @@
       <c r="T82" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U82" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U82" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V82" s="14" t="inlineStr">
         <is>
@@ -19662,10 +19492,10 @@
         <v>22</v>
       </c>
       <c r="J83" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K83" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L83" s="13" t="n">
         <v>29</v>
@@ -19677,7 +19507,7 @@
         <v>1</v>
       </c>
       <c r="O83" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P83" s="14" t="n">
         <v>5</v>
@@ -19694,10 +19524,8 @@
       <c r="T83" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U83" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U83" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V83" s="14" t="inlineStr">
         <is>
@@ -19873,7 +19701,7 @@
           <t>220766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="23" t="inlineStr">
+      <c r="F84" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -19892,10 +19720,10 @@
         <v>17</v>
       </c>
       <c r="J84" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K84" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L84" s="13" t="n">
         <v>29</v>
@@ -19907,7 +19735,7 @@
         <v>6</v>
       </c>
       <c r="O84" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P84" s="14" t="n">
         <v>5</v>
@@ -19924,10 +19752,8 @@
       <c r="T84" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U84" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U84" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V84" s="14" t="inlineStr">
         <is>
@@ -20122,10 +19948,10 @@
         <v>20</v>
       </c>
       <c r="J85" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K85" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L85" s="13" t="n">
         <v>29</v>
@@ -20137,7 +19963,7 @@
         <v>3</v>
       </c>
       <c r="O85" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P85" s="14" t="n">
         <v>5</v>
@@ -20154,10 +19980,8 @@
       <c r="T85" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U85" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U85" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V85" s="14" t="inlineStr">
         <is>
@@ -20352,10 +20176,10 @@
         <v>23</v>
       </c>
       <c r="J86" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K86" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L86" s="13" t="n">
         <v>29</v>
@@ -20367,7 +20191,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P86" s="14" t="n">
         <v>5</v>
@@ -20384,10 +20208,8 @@
       <c r="T86" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U86" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U86" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V86" s="14" t="inlineStr">
         <is>
@@ -20582,10 +20404,10 @@
         <v>23</v>
       </c>
       <c r="J87" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K87" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L87" s="13" t="n">
         <v>29</v>
@@ -20597,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P87" s="14" t="n">
         <v>5</v>
@@ -20614,10 +20436,8 @@
       <c r="T87" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U87" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U87" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V87" s="14" t="inlineStr">
         <is>
@@ -20793,9 +20613,9 @@
           <t>220877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F88" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F88" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G88" s="12" t="inlineStr">
@@ -20812,10 +20632,10 @@
         <v>18</v>
       </c>
       <c r="J88" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K88" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L88" s="13" t="n">
         <v>29</v>
@@ -20827,7 +20647,7 @@
         <v>5</v>
       </c>
       <c r="O88" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P88" s="14" t="n">
         <v>5</v>
@@ -20844,10 +20664,8 @@
       <c r="T88" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U88" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U88" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V88" s="14" t="inlineStr">
         <is>
@@ -21042,10 +20860,10 @@
         <v>22</v>
       </c>
       <c r="J89" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K89" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L89" s="13" t="n">
         <v>29</v>
@@ -21057,7 +20875,7 @@
         <v>1</v>
       </c>
       <c r="O89" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P89" s="14" t="n">
         <v>5</v>
@@ -21074,10 +20892,8 @@
       <c r="T89" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U89" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U89" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V89" s="14" t="inlineStr">
         <is>
@@ -21272,10 +21088,10 @@
         <v>21</v>
       </c>
       <c r="J90" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K90" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L90" s="13" t="n">
         <v>29</v>
@@ -21287,7 +21103,7 @@
         <v>2</v>
       </c>
       <c r="O90" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P90" s="14" t="n">
         <v>5</v>
@@ -21304,10 +21120,8 @@
       <c r="T90" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U90" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U90" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V90" s="14" t="inlineStr">
         <is>
@@ -21502,10 +21316,10 @@
         <v>23</v>
       </c>
       <c r="J91" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K91" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L91" s="13" t="n">
         <v>29</v>
@@ -21517,7 +21331,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P91" s="14" t="n">
         <v>5</v>
@@ -21534,10 +21348,8 @@
       <c r="T91" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U91" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U91" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V91" s="14" t="inlineStr">
         <is>
@@ -21732,10 +21544,10 @@
         <v>23</v>
       </c>
       <c r="J92" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K92" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L92" s="13" t="n">
         <v>29</v>
@@ -21747,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P92" s="14" t="n">
         <v>5</v>
@@ -21764,10 +21576,8 @@
       <c r="T92" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U92" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U92" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V92" s="14" t="inlineStr">
         <is>
@@ -21962,10 +21772,10 @@
         <v>19</v>
       </c>
       <c r="J93" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K93" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L93" s="13" t="n">
         <v>29</v>
@@ -21977,7 +21787,7 @@
         <v>4</v>
       </c>
       <c r="O93" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P93" s="14" t="n">
         <v>5</v>
@@ -21994,10 +21804,8 @@
       <c r="T93" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U93" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U93" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V93" s="14" t="inlineStr">
         <is>
@@ -22192,10 +22000,10 @@
         <v>23</v>
       </c>
       <c r="J94" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K94" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L94" s="13" t="n">
         <v>29</v>
@@ -22207,7 +22015,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P94" s="14" t="n">
         <v>5</v>
@@ -22224,10 +22032,8 @@
       <c r="T94" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U94" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U94" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V94" s="14" t="inlineStr">
         <is>
@@ -22403,9 +22209,9 @@
           <t>220990@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F95" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F95" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G95" s="12" t="inlineStr">
@@ -22422,10 +22228,10 @@
         <v>18</v>
       </c>
       <c r="J95" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K95" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L95" s="13" t="n">
         <v>29</v>
@@ -22437,7 +22243,7 @@
         <v>5</v>
       </c>
       <c r="O95" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P95" s="14" t="n">
         <v>5</v>
@@ -22454,10 +22260,8 @@
       <c r="T95" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U95" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U95" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V95" s="14" t="inlineStr">
         <is>
@@ -22652,10 +22456,10 @@
         <v>19</v>
       </c>
       <c r="J96" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K96" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L96" s="13" t="n">
         <v>29</v>
@@ -22667,7 +22471,7 @@
         <v>4</v>
       </c>
       <c r="O96" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P96" s="14" t="n">
         <v>5</v>
@@ -22684,10 +22488,8 @@
       <c r="T96" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U96" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U96" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V96" s="14" t="inlineStr">
         <is>
@@ -22882,10 +22684,10 @@
         <v>20</v>
       </c>
       <c r="J97" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K97" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L97" s="13" t="n">
         <v>29</v>
@@ -22897,7 +22699,7 @@
         <v>3</v>
       </c>
       <c r="O97" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P97" s="14" t="n">
         <v>5</v>
@@ -22914,10 +22716,8 @@
       <c r="T97" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U97" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U97" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V97" s="14" t="inlineStr">
         <is>
@@ -23093,9 +22893,9 @@
           <t>221022@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F98" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F98" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G98" s="12" t="inlineStr">
@@ -23112,10 +22912,10 @@
         <v>18</v>
       </c>
       <c r="J98" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K98" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L98" s="13" t="n">
         <v>29</v>
@@ -23127,7 +22927,7 @@
         <v>5</v>
       </c>
       <c r="O98" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P98" s="14" t="n">
         <v>5</v>
@@ -23144,10 +22944,8 @@
       <c r="T98" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U98" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U98" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V98" s="14" t="inlineStr">
         <is>
@@ -23342,10 +23140,10 @@
         <v>22</v>
       </c>
       <c r="J99" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K99" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L99" s="13" t="n">
         <v>29</v>
@@ -23357,7 +23155,7 @@
         <v>1</v>
       </c>
       <c r="O99" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P99" s="14" t="n">
         <v>5</v>
@@ -23374,10 +23172,8 @@
       <c r="T99" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U99" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U99" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V99" s="14" t="inlineStr">
         <is>
@@ -23572,10 +23368,10 @@
         <v>19</v>
       </c>
       <c r="J100" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K100" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L100" s="13" t="n">
         <v>29</v>
@@ -23587,7 +23383,7 @@
         <v>4</v>
       </c>
       <c r="O100" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P100" s="14" t="n">
         <v>5</v>
@@ -23604,10 +23400,8 @@
       <c r="T100" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U100" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U100" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V100" s="14" t="inlineStr">
         <is>
@@ -23802,10 +23596,10 @@
         <v>23</v>
       </c>
       <c r="J101" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K101" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L101" s="13" t="n">
         <v>29</v>
@@ -23817,7 +23611,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P101" s="14" t="n">
         <v>5</v>
@@ -23834,10 +23628,8 @@
       <c r="T101" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U101" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U101" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V101" s="14" t="inlineStr">
         <is>
@@ -24032,10 +23824,10 @@
         <v>23</v>
       </c>
       <c r="J102" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K102" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L102" s="13" t="n">
         <v>29</v>
@@ -24047,7 +23839,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P102" s="14" t="n">
         <v>5</v>
@@ -24064,10 +23856,8 @@
       <c r="T102" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U102" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U102" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V102" s="14" t="inlineStr">
         <is>
@@ -24262,10 +24052,10 @@
         <v>23</v>
       </c>
       <c r="J103" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K103" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L103" s="13" t="n">
         <v>29</v>
@@ -24277,7 +24067,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P103" s="14" t="n">
         <v>5</v>
@@ -24294,10 +24084,8 @@
       <c r="T103" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U103" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U103" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V103" s="14" t="inlineStr">
         <is>
@@ -24492,10 +24280,10 @@
         <v>23</v>
       </c>
       <c r="J104" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K104" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L104" s="13" t="n">
         <v>29</v>
@@ -24507,7 +24295,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P104" s="14" t="n">
         <v>5</v>
@@ -24524,10 +24312,8 @@
       <c r="T104" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U104" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U104" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V104" s="14" t="inlineStr">
         <is>
@@ -24722,10 +24508,10 @@
         <v>23</v>
       </c>
       <c r="J105" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K105" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L105" s="13" t="n">
         <v>29</v>
@@ -24737,7 +24523,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P105" s="14" t="n">
         <v>5</v>
@@ -24754,10 +24540,8 @@
       <c r="T105" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U105" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U105" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V105" s="14" t="inlineStr">
         <is>
@@ -24952,10 +24736,10 @@
         <v>23</v>
       </c>
       <c r="J106" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K106" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L106" s="13" t="n">
         <v>29</v>
@@ -24967,7 +24751,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P106" s="14" t="n">
         <v>5</v>
@@ -24984,10 +24768,8 @@
       <c r="T106" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U106" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U106" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V106" s="14" t="inlineStr">
         <is>
@@ -25182,10 +24964,10 @@
         <v>19</v>
       </c>
       <c r="J107" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K107" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L107" s="13" t="n">
         <v>29</v>
@@ -25197,7 +24979,7 @@
         <v>4</v>
       </c>
       <c r="O107" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P107" s="14" t="n">
         <v>5</v>
@@ -25214,10 +24996,8 @@
       <c r="T107" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U107" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U107" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V107" s="14" t="inlineStr">
         <is>
@@ -25412,10 +25192,10 @@
         <v>19</v>
       </c>
       <c r="J108" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K108" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L108" s="13" t="n">
         <v>29</v>
@@ -25427,7 +25207,7 @@
         <v>4</v>
       </c>
       <c r="O108" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P108" s="14" t="n">
         <v>5</v>
@@ -25444,10 +25224,8 @@
       <c r="T108" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U108" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U108" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V108" s="14" t="inlineStr">
         <is>
@@ -25642,10 +25420,10 @@
         <v>23</v>
       </c>
       <c r="J109" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K109" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L109" s="13" t="n">
         <v>29</v>
@@ -25657,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P109" s="14" t="n">
         <v>5</v>
@@ -25674,10 +25452,8 @@
       <c r="T109" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U109" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U109" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V109" s="14" t="inlineStr">
         <is>
@@ -25872,10 +25648,10 @@
         <v>19</v>
       </c>
       <c r="J110" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K110" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L110" s="13" t="n">
         <v>29</v>
@@ -25887,7 +25663,7 @@
         <v>4</v>
       </c>
       <c r="O110" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P110" s="14" t="n">
         <v>5</v>
@@ -25904,10 +25680,8 @@
       <c r="T110" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U110" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U110" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V110" s="14" t="inlineStr">
         <is>
@@ -26102,10 +25876,10 @@
         <v>19</v>
       </c>
       <c r="J111" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K111" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L111" s="13" t="n">
         <v>29</v>
@@ -26117,7 +25891,7 @@
         <v>4</v>
       </c>
       <c r="O111" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P111" s="14" t="n">
         <v>5</v>
@@ -26134,10 +25908,8 @@
       <c r="T111" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U111" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U111" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V111" s="14" t="inlineStr">
         <is>
@@ -26332,10 +26104,10 @@
         <v>21</v>
       </c>
       <c r="J112" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K112" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L112" s="13" t="n">
         <v>29</v>
@@ -26347,7 +26119,7 @@
         <v>2</v>
       </c>
       <c r="O112" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P112" s="14" t="n">
         <v>5</v>
@@ -26364,10 +26136,8 @@
       <c r="T112" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U112" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U112" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V112" s="14" t="inlineStr">
         <is>
@@ -26562,10 +26332,10 @@
         <v>19</v>
       </c>
       <c r="J113" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K113" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L113" s="13" t="n">
         <v>29</v>
@@ -26577,7 +26347,7 @@
         <v>4</v>
       </c>
       <c r="O113" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P113" s="14" t="n">
         <v>5</v>
@@ -26594,10 +26364,8 @@
       <c r="T113" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U113" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U113" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V113" s="14" t="inlineStr">
         <is>
@@ -26773,9 +26541,9 @@
           <t>221355@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F114" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F114" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G114" s="12" t="inlineStr">
@@ -26792,10 +26560,10 @@
         <v>18</v>
       </c>
       <c r="J114" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K114" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L114" s="13" t="n">
         <v>29</v>
@@ -26807,7 +26575,7 @@
         <v>5</v>
       </c>
       <c r="O114" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P114" s="14" t="n">
         <v>5</v>
@@ -26824,10 +26592,8 @@
       <c r="T114" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U114" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U114" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V114" s="14" t="inlineStr">
         <is>
@@ -27003,7 +26769,7 @@
           <t>221357@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F115" s="23" t="inlineStr">
+      <c r="F115" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -27022,10 +26788,10 @@
         <v>17</v>
       </c>
       <c r="J115" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K115" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L115" s="13" t="n">
         <v>29</v>
@@ -27037,7 +26803,7 @@
         <v>6</v>
       </c>
       <c r="O115" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P115" s="14" t="n">
         <v>5</v>
@@ -27054,10 +26820,8 @@
       <c r="T115" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U115" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U115" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V115" s="14" t="inlineStr">
         <is>
@@ -27252,10 +27016,10 @@
         <v>23</v>
       </c>
       <c r="J116" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K116" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L116" s="13" t="n">
         <v>29</v>
@@ -27267,7 +27031,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P116" s="14" t="n">
         <v>5</v>
@@ -27284,10 +27048,8 @@
       <c r="T116" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U116" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U116" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V116" s="14" t="inlineStr">
         <is>
@@ -27482,10 +27244,10 @@
         <v>19</v>
       </c>
       <c r="J117" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K117" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L117" s="13" t="n">
         <v>29</v>
@@ -27497,7 +27259,7 @@
         <v>4</v>
       </c>
       <c r="O117" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P117" s="14" t="n">
         <v>5</v>
@@ -27514,10 +27276,8 @@
       <c r="T117" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U117" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U117" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V117" s="14" t="inlineStr">
         <is>
@@ -27693,9 +27453,9 @@
           <t>221404@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F118" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F118" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G118" s="12" t="inlineStr">
@@ -27712,10 +27472,10 @@
         <v>18</v>
       </c>
       <c r="J118" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K118" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L118" s="13" t="n">
         <v>29</v>
@@ -27727,7 +27487,7 @@
         <v>5</v>
       </c>
       <c r="O118" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P118" s="14" t="n">
         <v>5</v>
@@ -27744,10 +27504,8 @@
       <c r="T118" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U118" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U118" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V118" s="14" t="inlineStr">
         <is>
@@ -27942,10 +27700,10 @@
         <v>21</v>
       </c>
       <c r="J119" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K119" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L119" s="13" t="n">
         <v>29</v>
@@ -27957,7 +27715,7 @@
         <v>2</v>
       </c>
       <c r="O119" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P119" s="14" t="n">
         <v>5</v>
@@ -27974,10 +27732,8 @@
       <c r="T119" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U119" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U119" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V119" s="14" t="inlineStr">
         <is>
@@ -28172,10 +27928,10 @@
         <v>19</v>
       </c>
       <c r="J120" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K120" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L120" s="13" t="n">
         <v>29</v>
@@ -28187,7 +27943,7 @@
         <v>4</v>
       </c>
       <c r="O120" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P120" s="14" t="n">
         <v>5</v>
@@ -28204,10 +27960,8 @@
       <c r="T120" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U120" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U120" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V120" s="14" t="inlineStr">
         <is>
@@ -28402,10 +28156,10 @@
         <v>23</v>
       </c>
       <c r="J121" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K121" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L121" s="13" t="n">
         <v>29</v>
@@ -28417,7 +28171,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P121" s="14" t="n">
         <v>5</v>
@@ -28434,10 +28188,8 @@
       <c r="T121" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U121" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U121" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V121" s="14" t="inlineStr">
         <is>
@@ -28632,10 +28384,10 @@
         <v>23</v>
       </c>
       <c r="J122" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K122" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L122" s="13" t="n">
         <v>29</v>
@@ -28647,7 +28399,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P122" s="14" t="n">
         <v>5</v>
@@ -28664,10 +28416,8 @@
       <c r="T122" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U122" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U122" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V122" s="14" t="inlineStr">
         <is>
@@ -28862,10 +28612,10 @@
         <v>23</v>
       </c>
       <c r="J123" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K123" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L123" s="13" t="n">
         <v>29</v>
@@ -28877,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P123" s="14" t="n">
         <v>5</v>
@@ -28894,10 +28644,8 @@
       <c r="T123" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U123" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U123" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V123" s="14" t="inlineStr">
         <is>
@@ -29092,10 +28840,10 @@
         <v>20</v>
       </c>
       <c r="J124" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K124" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L124" s="13" t="n">
         <v>29</v>
@@ -29107,7 +28855,7 @@
         <v>3</v>
       </c>
       <c r="O124" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P124" s="14" t="n">
         <v>5</v>
@@ -29124,10 +28872,8 @@
       <c r="T124" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U124" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U124" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V124" s="14" t="inlineStr">
         <is>
@@ -29322,10 +29068,10 @@
         <v>20</v>
       </c>
       <c r="J125" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K125" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L125" s="13" t="n">
         <v>29</v>
@@ -29337,7 +29083,7 @@
         <v>3</v>
       </c>
       <c r="O125" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P125" s="14" t="n">
         <v>5</v>
@@ -29354,10 +29100,8 @@
       <c r="T125" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U125" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U125" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V125" s="14" t="inlineStr">
         <is>
@@ -29533,7 +29277,7 @@
           <t>221435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F126" s="23" t="inlineStr">
+      <c r="F126" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -29552,10 +29296,10 @@
         <v>17</v>
       </c>
       <c r="J126" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K126" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L126" s="13" t="n">
         <v>29</v>
@@ -29567,7 +29311,7 @@
         <v>6</v>
       </c>
       <c r="O126" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P126" s="14" t="n">
         <v>5</v>
@@ -29584,10 +29328,8 @@
       <c r="T126" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U126" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U126" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V126" s="14" t="inlineStr">
         <is>
@@ -29782,10 +29524,10 @@
         <v>20</v>
       </c>
       <c r="J127" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K127" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L127" s="13" t="n">
         <v>29</v>
@@ -29797,7 +29539,7 @@
         <v>3</v>
       </c>
       <c r="O127" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P127" s="14" t="n">
         <v>5</v>
@@ -29814,10 +29556,8 @@
       <c r="T127" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U127" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U127" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V127" s="14" t="inlineStr">
         <is>
@@ -30012,10 +29752,10 @@
         <v>20</v>
       </c>
       <c r="J128" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K128" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L128" s="13" t="n">
         <v>29</v>
@@ -30027,7 +29767,7 @@
         <v>3</v>
       </c>
       <c r="O128" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P128" s="14" t="n">
         <v>5</v>
@@ -30044,10 +29784,8 @@
       <c r="T128" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U128" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U128" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V128" s="14" t="inlineStr">
         <is>
@@ -30242,10 +29980,10 @@
         <v>23</v>
       </c>
       <c r="J129" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K129" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L129" s="13" t="n">
         <v>29</v>
@@ -30257,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P129" s="14" t="n">
         <v>5</v>
@@ -30274,10 +30012,8 @@
       <c r="T129" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U129" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U129" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V129" s="14" t="inlineStr">
         <is>
@@ -30453,7 +30189,7 @@
           <t>221459@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F130" s="23" t="inlineStr">
+      <c r="F130" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -30472,10 +30208,10 @@
         <v>17</v>
       </c>
       <c r="J130" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K130" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L130" s="13" t="n">
         <v>29</v>
@@ -30487,7 +30223,7 @@
         <v>6</v>
       </c>
       <c r="O130" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P130" s="14" t="n">
         <v>5</v>
@@ -30504,10 +30240,8 @@
       <c r="T130" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U130" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U130" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V130" s="14" t="inlineStr">
         <is>
@@ -30702,10 +30436,10 @@
         <v>20</v>
       </c>
       <c r="J131" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K131" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L131" s="13" t="n">
         <v>29</v>
@@ -30717,7 +30451,7 @@
         <v>3</v>
       </c>
       <c r="O131" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P131" s="14" t="n">
         <v>5</v>
@@ -30734,10 +30468,8 @@
       <c r="T131" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U131" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U131" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V131" s="14" t="inlineStr">
         <is>
@@ -30932,10 +30664,10 @@
         <v>22</v>
       </c>
       <c r="J132" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K132" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L132" s="13" t="n">
         <v>29</v>
@@ -30947,7 +30679,7 @@
         <v>1</v>
       </c>
       <c r="O132" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P132" s="14" t="n">
         <v>5</v>
@@ -30964,10 +30696,8 @@
       <c r="T132" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U132" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U132" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V132" s="14" t="inlineStr">
         <is>
@@ -31162,10 +30892,10 @@
         <v>21</v>
       </c>
       <c r="J133" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K133" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L133" s="13" t="n">
         <v>29</v>
@@ -31177,7 +30907,7 @@
         <v>2</v>
       </c>
       <c r="O133" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P133" s="14" t="n">
         <v>5</v>
@@ -31194,10 +30924,8 @@
       <c r="T133" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U133" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U133" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V133" s="14" t="inlineStr">
         <is>
@@ -31375,7 +31103,7 @@
       </c>
       <c r="F134" s="22" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G134" s="12" t="inlineStr">
@@ -31392,10 +31120,10 @@
         <v>16</v>
       </c>
       <c r="J134" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K134" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L134" s="13" t="n">
         <v>29</v>
@@ -31407,7 +31135,7 @@
         <v>7</v>
       </c>
       <c r="O134" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P134" s="14" t="n">
         <v>5</v>
@@ -31424,10 +31152,8 @@
       <c r="T134" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U134" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U134" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V134" s="14" t="inlineStr">
         <is>
@@ -31622,10 +31348,10 @@
         <v>22</v>
       </c>
       <c r="J135" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K135" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L135" s="13" t="n">
         <v>29</v>
@@ -31637,7 +31363,7 @@
         <v>1</v>
       </c>
       <c r="O135" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P135" s="14" t="n">
         <v>5</v>
@@ -31654,10 +31380,8 @@
       <c r="T135" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U135" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U135" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V135" s="14" t="inlineStr">
         <is>
@@ -31852,10 +31576,10 @@
         <v>23</v>
       </c>
       <c r="J136" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K136" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L136" s="13" t="n">
         <v>29</v>
@@ -31867,7 +31591,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P136" s="14" t="n">
         <v>5</v>
@@ -31884,10 +31608,8 @@
       <c r="T136" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U136" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U136" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V136" s="14" t="inlineStr">
         <is>
@@ -32082,10 +31804,10 @@
         <v>23</v>
       </c>
       <c r="J137" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K137" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L137" s="13" t="n">
         <v>29</v>
@@ -32097,7 +31819,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P137" s="14" t="n">
         <v>5</v>
@@ -32114,10 +31836,8 @@
       <c r="T137" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U137" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U137" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V137" s="14" t="inlineStr">
         <is>
@@ -32312,10 +32032,10 @@
         <v>20</v>
       </c>
       <c r="J138" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K138" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L138" s="13" t="n">
         <v>29</v>
@@ -32327,7 +32047,7 @@
         <v>3</v>
       </c>
       <c r="O138" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P138" s="14" t="n">
         <v>5</v>
@@ -32344,10 +32064,8 @@
       <c r="T138" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U138" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U138" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V138" s="14" t="inlineStr">
         <is>
@@ -32542,10 +32260,10 @@
         <v>21</v>
       </c>
       <c r="J139" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K139" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L139" s="13" t="n">
         <v>29</v>
@@ -32557,7 +32275,7 @@
         <v>2</v>
       </c>
       <c r="O139" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P139" s="14" t="n">
         <v>5</v>
@@ -32574,10 +32292,8 @@
       <c r="T139" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U139" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U139" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V139" s="14" t="inlineStr">
         <is>
@@ -32772,10 +32488,10 @@
         <v>19</v>
       </c>
       <c r="J140" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K140" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L140" s="13" t="n">
         <v>29</v>
@@ -32787,7 +32503,7 @@
         <v>4</v>
       </c>
       <c r="O140" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P140" s="14" t="n">
         <v>5</v>
@@ -32804,10 +32520,8 @@
       <c r="T140" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U140" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U140" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V140" s="14" t="inlineStr">
         <is>
@@ -33002,10 +32716,10 @@
         <v>20</v>
       </c>
       <c r="J141" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K141" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L141" s="13" t="n">
         <v>29</v>
@@ -33017,7 +32731,7 @@
         <v>3</v>
       </c>
       <c r="O141" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P141" s="14" t="n">
         <v>5</v>
@@ -33034,10 +32748,8 @@
       <c r="T141" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U141" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U141" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V141" s="14" t="inlineStr">
         <is>
@@ -33232,10 +32944,10 @@
         <v>23</v>
       </c>
       <c r="J142" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K142" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L142" s="13" t="n">
         <v>29</v>
@@ -33247,7 +32959,7 @@
         <v>0</v>
       </c>
       <c r="O142" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P142" s="14" t="n">
         <v>5</v>
@@ -33264,10 +32976,8 @@
       <c r="T142" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U142" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U142" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V142" s="14" t="inlineStr">
         <is>
@@ -33462,10 +33172,10 @@
         <v>19</v>
       </c>
       <c r="J143" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K143" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L143" s="13" t="n">
         <v>29</v>
@@ -33477,7 +33187,7 @@
         <v>4</v>
       </c>
       <c r="O143" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P143" s="14" t="n">
         <v>5</v>
@@ -33494,10 +33204,8 @@
       <c r="T143" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U143" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U143" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V143" s="14" t="inlineStr">
         <is>
@@ -33692,10 +33400,10 @@
         <v>22</v>
       </c>
       <c r="J144" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K144" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L144" s="13" t="n">
         <v>29</v>
@@ -33707,7 +33415,7 @@
         <v>1</v>
       </c>
       <c r="O144" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P144" s="14" t="n">
         <v>5</v>
@@ -33724,10 +33432,8 @@
       <c r="T144" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U144" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U144" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V144" s="14" t="inlineStr">
         <is>
@@ -33903,9 +33609,9 @@
           <t>221527@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F145" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F145" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G145" s="12" t="inlineStr">
@@ -33922,10 +33628,10 @@
         <v>18</v>
       </c>
       <c r="J145" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K145" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L145" s="13" t="n">
         <v>29</v>
@@ -33937,7 +33643,7 @@
         <v>5</v>
       </c>
       <c r="O145" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P145" s="14" t="n">
         <v>5</v>
@@ -33954,10 +33660,8 @@
       <c r="T145" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U145" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U145" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V145" s="14" t="inlineStr">
         <is>
@@ -34133,9 +33837,9 @@
           <t>221536@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F146" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G146" s="12" t="inlineStr">
@@ -34152,10 +33856,10 @@
         <v>18</v>
       </c>
       <c r="J146" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K146" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L146" s="13" t="n">
         <v>29</v>
@@ -34167,7 +33871,7 @@
         <v>5</v>
       </c>
       <c r="O146" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P146" s="14" t="n">
         <v>5</v>
@@ -34184,10 +33888,8 @@
       <c r="T146" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U146" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U146" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V146" s="14" t="inlineStr">
         <is>
@@ -34363,7 +34065,7 @@
           <t>221539@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F147" s="23" t="inlineStr">
+      <c r="F147" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -34382,10 +34084,10 @@
         <v>17</v>
       </c>
       <c r="J147" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K147" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L147" s="13" t="n">
         <v>29</v>
@@ -34397,7 +34099,7 @@
         <v>6</v>
       </c>
       <c r="O147" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P147" s="14" t="n">
         <v>5</v>
@@ -34414,10 +34116,8 @@
       <c r="T147" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U147" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U147" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V147" s="14" t="inlineStr">
         <is>
@@ -34612,10 +34312,10 @@
         <v>20</v>
       </c>
       <c r="J148" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K148" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L148" s="13" t="n">
         <v>29</v>
@@ -34627,7 +34327,7 @@
         <v>3</v>
       </c>
       <c r="O148" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P148" s="14" t="n">
         <v>5</v>
@@ -34644,10 +34344,8 @@
       <c r="T148" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U148" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U148" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V148" s="14" t="inlineStr">
         <is>
@@ -34842,10 +34540,10 @@
         <v>23</v>
       </c>
       <c r="J149" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K149" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L149" s="13" t="n">
         <v>29</v>
@@ -34857,7 +34555,7 @@
         <v>0</v>
       </c>
       <c r="O149" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P149" s="14" t="n">
         <v>5</v>
@@ -34874,10 +34572,8 @@
       <c r="T149" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U149" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U149" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V149" s="14" t="inlineStr">
         <is>
@@ -35072,10 +34768,10 @@
         <v>21</v>
       </c>
       <c r="J150" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K150" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L150" s="13" t="n">
         <v>29</v>
@@ -35087,7 +34783,7 @@
         <v>2</v>
       </c>
       <c r="O150" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P150" s="14" t="n">
         <v>5</v>
@@ -35104,10 +34800,8 @@
       <c r="T150" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U150" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U150" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V150" s="14" t="inlineStr">
         <is>
@@ -35302,10 +34996,10 @@
         <v>22</v>
       </c>
       <c r="J151" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K151" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L151" s="13" t="n">
         <v>29</v>
@@ -35317,7 +35011,7 @@
         <v>1</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P151" s="14" t="n">
         <v>5</v>
@@ -35334,10 +35028,8 @@
       <c r="T151" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U151" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U151" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V151" s="14" t="inlineStr">
         <is>
@@ -35513,9 +35205,9 @@
           <t>221569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F152" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G152" s="12" t="inlineStr">
@@ -35532,10 +35224,10 @@
         <v>18</v>
       </c>
       <c r="J152" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K152" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L152" s="13" t="n">
         <v>29</v>
@@ -35547,7 +35239,7 @@
         <v>5</v>
       </c>
       <c r="O152" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P152" s="14" t="n">
         <v>5</v>
@@ -35564,10 +35256,8 @@
       <c r="T152" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U152" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U152" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V152" s="14" t="inlineStr">
         <is>
@@ -35762,10 +35452,10 @@
         <v>19</v>
       </c>
       <c r="J153" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K153" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L153" s="13" t="n">
         <v>29</v>
@@ -35777,7 +35467,7 @@
         <v>4</v>
       </c>
       <c r="O153" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P153" s="14" t="n">
         <v>5</v>
@@ -35794,10 +35484,8 @@
       <c r="T153" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U153" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U153" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V153" s="14" t="inlineStr">
         <is>
@@ -35992,10 +35680,10 @@
         <v>20</v>
       </c>
       <c r="J154" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K154" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L154" s="13" t="n">
         <v>29</v>
@@ -36007,7 +35695,7 @@
         <v>3</v>
       </c>
       <c r="O154" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P154" s="14" t="n">
         <v>5</v>
@@ -36024,10 +35712,8 @@
       <c r="T154" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U154" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U154" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V154" s="14" t="inlineStr">
         <is>
@@ -36205,7 +35891,7 @@
       </c>
       <c r="F155" s="22" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G155" s="12" t="inlineStr">
@@ -36222,10 +35908,10 @@
         <v>16</v>
       </c>
       <c r="J155" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K155" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L155" s="13" t="n">
         <v>29</v>
@@ -36237,7 +35923,7 @@
         <v>7</v>
       </c>
       <c r="O155" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P155" s="14" t="n">
         <v>5</v>
@@ -36254,10 +35940,8 @@
       <c r="T155" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U155" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U155" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V155" s="14" t="inlineStr">
         <is>
@@ -36452,10 +36136,10 @@
         <v>20</v>
       </c>
       <c r="J156" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K156" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L156" s="13" t="n">
         <v>29</v>
@@ -36467,7 +36151,7 @@
         <v>3</v>
       </c>
       <c r="O156" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P156" s="14" t="n">
         <v>5</v>
@@ -36484,10 +36168,8 @@
       <c r="T156" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U156" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U156" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V156" s="14" t="inlineStr">
         <is>
@@ -36682,10 +36364,10 @@
         <v>21</v>
       </c>
       <c r="J157" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K157" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L157" s="13" t="n">
         <v>29</v>
@@ -36697,7 +36379,7 @@
         <v>2</v>
       </c>
       <c r="O157" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P157" s="14" t="n">
         <v>5</v>
@@ -36714,10 +36396,8 @@
       <c r="T157" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U157" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U157" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V157" s="14" t="inlineStr">
         <is>
@@ -36912,10 +36592,10 @@
         <v>19</v>
       </c>
       <c r="J158" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K158" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L158" s="13" t="n">
         <v>29</v>
@@ -36927,7 +36607,7 @@
         <v>4</v>
       </c>
       <c r="O158" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P158" s="14" t="n">
         <v>5</v>
@@ -36944,10 +36624,8 @@
       <c r="T158" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U158" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U158" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V158" s="14" t="inlineStr">
         <is>
@@ -37142,10 +36820,10 @@
         <v>20</v>
       </c>
       <c r="J159" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K159" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L159" s="13" t="n">
         <v>29</v>
@@ -37157,7 +36835,7 @@
         <v>3</v>
       </c>
       <c r="O159" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P159" s="14" t="n">
         <v>5</v>
@@ -37174,10 +36852,8 @@
       <c r="T159" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U159" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U159" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V159" s="14" t="inlineStr">
         <is>
@@ -37353,9 +37029,9 @@
           <t>221599@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F160" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F160" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G160" s="12" t="inlineStr">
@@ -37372,10 +37048,10 @@
         <v>18</v>
       </c>
       <c r="J160" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K160" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L160" s="13" t="n">
         <v>29</v>
@@ -37387,7 +37063,7 @@
         <v>5</v>
       </c>
       <c r="O160" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P160" s="14" t="n">
         <v>5</v>
@@ -37404,10 +37080,8 @@
       <c r="T160" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U160" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U160" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V160" s="14" t="inlineStr">
         <is>
@@ -37583,9 +37257,9 @@
           <t>221600@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F161" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G161" s="12" t="inlineStr">
@@ -37602,10 +37276,10 @@
         <v>18</v>
       </c>
       <c r="J161" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K161" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L161" s="13" t="n">
         <v>29</v>
@@ -37617,7 +37291,7 @@
         <v>5</v>
       </c>
       <c r="O161" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P161" s="14" t="n">
         <v>5</v>
@@ -37634,10 +37308,8 @@
       <c r="T161" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U161" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U161" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V161" s="14" t="inlineStr">
         <is>
@@ -37815,7 +37487,7 @@
       </c>
       <c r="F162" s="22" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G162" s="12" t="inlineStr">
@@ -37832,10 +37504,10 @@
         <v>16</v>
       </c>
       <c r="J162" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K162" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L162" s="13" t="n">
         <v>29</v>
@@ -37847,7 +37519,7 @@
         <v>7</v>
       </c>
       <c r="O162" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P162" s="14" t="n">
         <v>5</v>
@@ -37864,10 +37536,8 @@
       <c r="T162" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U162" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U162" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V162" s="14" t="inlineStr">
         <is>
@@ -38062,10 +37732,10 @@
         <v>22</v>
       </c>
       <c r="J163" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K163" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L163" s="13" t="n">
         <v>29</v>
@@ -38077,7 +37747,7 @@
         <v>1</v>
       </c>
       <c r="O163" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P163" s="14" t="n">
         <v>5</v>
@@ -38094,10 +37764,8 @@
       <c r="T163" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U163" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U163" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V163" s="14" t="inlineStr">
         <is>
@@ -38292,10 +37960,10 @@
         <v>20</v>
       </c>
       <c r="J164" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K164" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L164" s="13" t="n">
         <v>29</v>
@@ -38307,7 +37975,7 @@
         <v>3</v>
       </c>
       <c r="O164" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P164" s="14" t="n">
         <v>5</v>
@@ -38324,10 +37992,8 @@
       <c r="T164" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U164" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U164" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V164" s="14" t="inlineStr">
         <is>
@@ -38522,10 +38188,10 @@
         <v>21</v>
       </c>
       <c r="J165" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K165" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L165" s="13" t="n">
         <v>29</v>
@@ -38537,7 +38203,7 @@
         <v>2</v>
       </c>
       <c r="O165" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P165" s="14" t="n">
         <v>5</v>
@@ -38554,10 +38220,8 @@
       <c r="T165" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U165" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U165" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V165" s="14" t="inlineStr">
         <is>
@@ -38752,10 +38416,10 @@
         <v>19</v>
       </c>
       <c r="J166" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K166" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L166" s="13" t="n">
         <v>29</v>
@@ -38767,7 +38431,7 @@
         <v>4</v>
       </c>
       <c r="O166" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P166" s="14" t="n">
         <v>5</v>
@@ -38784,10 +38448,8 @@
       <c r="T166" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U166" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U166" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V166" s="14" t="inlineStr">
         <is>
@@ -38982,10 +38644,10 @@
         <v>23</v>
       </c>
       <c r="J167" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K167" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L167" s="13" t="n">
         <v>29</v>
@@ -38997,7 +38659,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P167" s="14" t="n">
         <v>5</v>
@@ -39014,10 +38676,8 @@
       <c r="T167" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U167" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U167" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V167" s="14" t="inlineStr">
         <is>
@@ -39212,10 +38872,10 @@
         <v>23</v>
       </c>
       <c r="J168" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K168" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L168" s="13" t="n">
         <v>29</v>
@@ -39227,7 +38887,7 @@
         <v>0</v>
       </c>
       <c r="O168" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P168" s="14" t="n">
         <v>5</v>
@@ -39244,10 +38904,8 @@
       <c r="T168" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U168" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U168" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V168" s="14" t="inlineStr">
         <is>
@@ -39442,10 +39100,10 @@
         <v>23</v>
       </c>
       <c r="J169" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K169" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L169" s="13" t="n">
         <v>29</v>
@@ -39457,7 +39115,7 @@
         <v>0</v>
       </c>
       <c r="O169" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P169" s="14" t="n">
         <v>5</v>
@@ -39474,10 +39132,8 @@
       <c r="T169" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U169" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U169" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V169" s="14" t="inlineStr">
         <is>
@@ -39672,10 +39328,10 @@
         <v>22</v>
       </c>
       <c r="J170" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K170" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L170" s="13" t="n">
         <v>29</v>
@@ -39687,7 +39343,7 @@
         <v>1</v>
       </c>
       <c r="O170" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P170" s="14" t="n">
         <v>5</v>
@@ -39704,10 +39360,8 @@
       <c r="T170" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U170" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U170" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V170" s="14" t="inlineStr">
         <is>
@@ -39883,9 +39537,9 @@
           <t>221653@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F171" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F171" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G171" s="12" t="inlineStr">
@@ -39902,10 +39556,10 @@
         <v>18</v>
       </c>
       <c r="J171" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K171" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L171" s="13" t="n">
         <v>29</v>
@@ -39917,7 +39571,7 @@
         <v>5</v>
       </c>
       <c r="O171" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P171" s="14" t="n">
         <v>5</v>
@@ -39934,10 +39588,8 @@
       <c r="T171" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U171" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U171" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V171" s="14" t="inlineStr">
         <is>
@@ -40113,9 +39765,9 @@
           <t>221654@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F172" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F172" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G172" s="12" t="inlineStr">
@@ -40132,10 +39784,10 @@
         <v>18</v>
       </c>
       <c r="J172" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K172" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L172" s="13" t="n">
         <v>29</v>
@@ -40147,7 +39799,7 @@
         <v>5</v>
       </c>
       <c r="O172" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P172" s="14" t="n">
         <v>5</v>
@@ -40164,10 +39816,8 @@
       <c r="T172" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U172" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U172" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V172" s="14" t="inlineStr">
         <is>
@@ -40362,10 +40012,10 @@
         <v>22</v>
       </c>
       <c r="J173" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K173" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L173" s="13" t="n">
         <v>29</v>
@@ -40377,7 +40027,7 @@
         <v>1</v>
       </c>
       <c r="O173" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P173" s="14" t="n">
         <v>5</v>
@@ -40394,10 +40044,8 @@
       <c r="T173" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U173" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U173" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V173" s="14" t="inlineStr">
         <is>
@@ -40592,10 +40240,10 @@
         <v>20</v>
       </c>
       <c r="J174" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K174" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L174" s="13" t="n">
         <v>29</v>
@@ -40607,7 +40255,7 @@
         <v>3</v>
       </c>
       <c r="O174" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P174" s="14" t="n">
         <v>5</v>
@@ -40624,10 +40272,8 @@
       <c r="T174" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U174" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U174" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V174" s="14" t="inlineStr">
         <is>
@@ -40803,9 +40449,9 @@
           <t>221675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F175" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G175" s="12" t="inlineStr">
@@ -40822,10 +40468,10 @@
         <v>18</v>
       </c>
       <c r="J175" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K175" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L175" s="13" t="n">
         <v>29</v>
@@ -40837,7 +40483,7 @@
         <v>5</v>
       </c>
       <c r="O175" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P175" s="14" t="n">
         <v>5</v>
@@ -40854,10 +40500,8 @@
       <c r="T175" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U175" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U175" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V175" s="14" t="inlineStr">
         <is>
@@ -41033,7 +40677,7 @@
           <t>221682@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F176" s="23" t="inlineStr">
+      <c r="F176" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -41052,10 +40696,10 @@
         <v>17</v>
       </c>
       <c r="J176" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K176" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L176" s="13" t="n">
         <v>29</v>
@@ -41067,7 +40711,7 @@
         <v>6</v>
       </c>
       <c r="O176" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P176" s="14" t="n">
         <v>5</v>
@@ -41084,10 +40728,8 @@
       <c r="T176" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U176" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U176" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V176" s="14" t="inlineStr">
         <is>
@@ -41282,10 +40924,10 @@
         <v>23</v>
       </c>
       <c r="J177" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K177" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L177" s="13" t="n">
         <v>29</v>
@@ -41297,7 +40939,7 @@
         <v>0</v>
       </c>
       <c r="O177" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P177" s="14" t="n">
         <v>5</v>
@@ -41314,10 +40956,8 @@
       <c r="T177" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U177" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U177" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V177" s="14" t="inlineStr">
         <is>
@@ -41512,10 +41152,10 @@
         <v>21</v>
       </c>
       <c r="J178" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K178" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L178" s="13" t="n">
         <v>29</v>
@@ -41527,7 +41167,7 @@
         <v>2</v>
       </c>
       <c r="O178" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P178" s="14" t="n">
         <v>5</v>
@@ -41544,10 +41184,8 @@
       <c r="T178" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U178" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U178" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V178" s="14" t="inlineStr">
         <is>
@@ -41742,10 +41380,10 @@
         <v>20</v>
       </c>
       <c r="J179" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K179" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L179" s="13" t="n">
         <v>29</v>
@@ -41757,7 +41395,7 @@
         <v>3</v>
       </c>
       <c r="O179" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P179" s="14" t="n">
         <v>5</v>
@@ -41774,10 +41412,8 @@
       <c r="T179" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U179" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U179" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V179" s="14" t="inlineStr">
         <is>
@@ -41972,10 +41608,10 @@
         <v>22</v>
       </c>
       <c r="J180" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K180" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L180" s="13" t="n">
         <v>29</v>
@@ -41987,7 +41623,7 @@
         <v>1</v>
       </c>
       <c r="O180" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P180" s="14" t="n">
         <v>5</v>
@@ -42004,10 +41640,8 @@
       <c r="T180" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U180" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U180" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V180" s="14" t="inlineStr">
         <is>
@@ -42202,10 +41836,10 @@
         <v>22</v>
       </c>
       <c r="J181" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K181" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L181" s="13" t="n">
         <v>29</v>
@@ -42217,7 +41851,7 @@
         <v>1</v>
       </c>
       <c r="O181" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P181" s="14" t="n">
         <v>5</v>
@@ -42234,10 +41868,8 @@
       <c r="T181" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U181" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U181" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V181" s="14" t="inlineStr">
         <is>
@@ -42432,10 +42064,10 @@
         <v>20</v>
       </c>
       <c r="J182" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K182" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L182" s="13" t="n">
         <v>29</v>
@@ -42447,7 +42079,7 @@
         <v>3</v>
       </c>
       <c r="O182" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P182" s="14" t="n">
         <v>5</v>
@@ -42464,10 +42096,8 @@
       <c r="T182" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U182" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U182" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V182" s="14" t="inlineStr">
         <is>
@@ -42662,10 +42292,10 @@
         <v>23</v>
       </c>
       <c r="J183" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K183" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L183" s="13" t="n">
         <v>29</v>
@@ -42677,7 +42307,7 @@
         <v>0</v>
       </c>
       <c r="O183" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P183" s="14" t="n">
         <v>5</v>
@@ -42694,10 +42324,8 @@
       <c r="T183" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U183" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U183" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V183" s="14" t="inlineStr">
         <is>
@@ -42873,7 +42501,7 @@
           <t>221755@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F184" s="23" t="inlineStr">
+      <c r="F184" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -42892,10 +42520,10 @@
         <v>17</v>
       </c>
       <c r="J184" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K184" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L184" s="13" t="n">
         <v>29</v>
@@ -42907,7 +42535,7 @@
         <v>6</v>
       </c>
       <c r="O184" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P184" s="14" t="n">
         <v>5</v>
@@ -42924,10 +42552,8 @@
       <c r="T184" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U184" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U184" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V184" s="14" t="inlineStr">
         <is>
@@ -43103,7 +42729,7 @@
           <t>221756@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="23" t="inlineStr">
+      <c r="F185" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -43122,10 +42748,10 @@
         <v>17</v>
       </c>
       <c r="J185" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K185" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L185" s="13" t="n">
         <v>29</v>
@@ -43137,7 +42763,7 @@
         <v>6</v>
       </c>
       <c r="O185" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P185" s="14" t="n">
         <v>5</v>
@@ -43154,10 +42780,8 @@
       <c r="T185" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U185" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U185" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V185" s="14" t="inlineStr">
         <is>
@@ -43352,10 +42976,10 @@
         <v>19</v>
       </c>
       <c r="J186" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K186" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L186" s="13" t="n">
         <v>29</v>
@@ -43367,7 +42991,7 @@
         <v>4</v>
       </c>
       <c r="O186" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P186" s="14" t="n">
         <v>5</v>
@@ -43384,10 +43008,8 @@
       <c r="T186" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U186" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U186" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V186" s="14" t="inlineStr">
         <is>
@@ -43582,10 +43204,10 @@
         <v>23</v>
       </c>
       <c r="J187" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K187" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L187" s="13" t="n">
         <v>29</v>
@@ -43597,7 +43219,7 @@
         <v>0</v>
       </c>
       <c r="O187" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P187" s="14" t="n">
         <v>5</v>
@@ -43614,10 +43236,8 @@
       <c r="T187" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U187" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U187" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V187" s="14" t="inlineStr">
         <is>
@@ -43812,10 +43432,10 @@
         <v>19</v>
       </c>
       <c r="J188" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K188" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L188" s="13" t="n">
         <v>29</v>
@@ -43827,7 +43447,7 @@
         <v>4</v>
       </c>
       <c r="O188" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P188" s="14" t="n">
         <v>5</v>
@@ -43844,10 +43464,8 @@
       <c r="T188" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U188" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U188" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V188" s="14" t="inlineStr">
         <is>
@@ -44042,10 +43660,10 @@
         <v>19</v>
       </c>
       <c r="J189" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K189" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L189" s="13" t="n">
         <v>29</v>
@@ -44057,7 +43675,7 @@
         <v>4</v>
       </c>
       <c r="O189" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P189" s="14" t="n">
         <v>5</v>
@@ -44074,10 +43692,8 @@
       <c r="T189" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U189" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U189" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V189" s="14" t="inlineStr">
         <is>
@@ -44272,10 +43888,10 @@
         <v>19</v>
       </c>
       <c r="J190" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K190" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L190" s="13" t="n">
         <v>29</v>
@@ -44287,7 +43903,7 @@
         <v>4</v>
       </c>
       <c r="O190" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P190" s="14" t="n">
         <v>5</v>
@@ -44304,10 +43920,8 @@
       <c r="T190" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U190" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U190" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V190" s="14" t="inlineStr">
         <is>
@@ -44502,10 +44116,10 @@
         <v>20</v>
       </c>
       <c r="J191" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K191" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L191" s="13" t="n">
         <v>29</v>
@@ -44517,7 +44131,7 @@
         <v>3</v>
       </c>
       <c r="O191" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P191" s="14" t="n">
         <v>5</v>
@@ -44534,10 +44148,8 @@
       <c r="T191" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U191" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U191" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V191" s="14" t="inlineStr">
         <is>
@@ -44732,10 +44344,10 @@
         <v>23</v>
       </c>
       <c r="J192" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K192" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L192" s="13" t="n">
         <v>29</v>
@@ -44747,7 +44359,7 @@
         <v>0</v>
       </c>
       <c r="O192" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P192" s="14" t="n">
         <v>5</v>
@@ -44764,10 +44376,8 @@
       <c r="T192" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U192" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U192" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V192" s="14" t="inlineStr">
         <is>
@@ -44962,10 +44572,10 @@
         <v>21</v>
       </c>
       <c r="J193" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K193" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L193" s="13" t="n">
         <v>29</v>
@@ -44977,7 +44587,7 @@
         <v>2</v>
       </c>
       <c r="O193" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P193" s="14" t="n">
         <v>5</v>
@@ -44994,10 +44604,8 @@
       <c r="T193" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U193" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U193" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V193" s="14" t="inlineStr">
         <is>
@@ -45192,10 +44800,10 @@
         <v>21</v>
       </c>
       <c r="J194" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K194" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L194" s="13" t="n">
         <v>29</v>
@@ -45207,7 +44815,7 @@
         <v>2</v>
       </c>
       <c r="O194" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P194" s="14" t="n">
         <v>5</v>
@@ -45224,10 +44832,8 @@
       <c r="T194" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U194" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U194" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V194" s="14" t="inlineStr">
         <is>
@@ -45403,9 +45009,9 @@
           <t>221822@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F195" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F195" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G195" s="12" t="inlineStr">
@@ -45422,10 +45028,10 @@
         <v>18</v>
       </c>
       <c r="J195" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K195" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L195" s="13" t="n">
         <v>29</v>
@@ -45437,7 +45043,7 @@
         <v>5</v>
       </c>
       <c r="O195" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P195" s="14" t="n">
         <v>5</v>
@@ -45454,10 +45060,8 @@
       <c r="T195" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U195" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U195" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V195" s="14" t="inlineStr">
         <is>
@@ -45633,9 +45237,9 @@
           <t>221826@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F196" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F196" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G196" s="12" t="inlineStr">
@@ -45652,10 +45256,10 @@
         <v>18</v>
       </c>
       <c r="J196" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K196" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L196" s="13" t="n">
         <v>29</v>
@@ -45667,7 +45271,7 @@
         <v>5</v>
       </c>
       <c r="O196" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P196" s="14" t="n">
         <v>5</v>
@@ -45684,10 +45288,8 @@
       <c r="T196" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U196" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U196" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V196" s="14" t="inlineStr">
         <is>
@@ -45882,10 +45484,10 @@
         <v>19</v>
       </c>
       <c r="J197" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K197" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L197" s="13" t="n">
         <v>29</v>
@@ -45897,7 +45499,7 @@
         <v>4</v>
       </c>
       <c r="O197" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P197" s="14" t="n">
         <v>5</v>
@@ -45914,10 +45516,8 @@
       <c r="T197" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U197" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U197" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V197" s="14" t="inlineStr">
         <is>
@@ -46112,10 +45712,10 @@
         <v>20</v>
       </c>
       <c r="J198" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K198" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L198" s="13" t="n">
         <v>29</v>
@@ -46127,7 +45727,7 @@
         <v>3</v>
       </c>
       <c r="O198" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P198" s="14" t="n">
         <v>5</v>
@@ -46144,10 +45744,8 @@
       <c r="T198" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U198" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U198" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V198" s="14" t="inlineStr">
         <is>
@@ -46342,10 +45940,10 @@
         <v>21</v>
       </c>
       <c r="J199" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K199" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L199" s="13" t="n">
         <v>29</v>
@@ -46357,7 +45955,7 @@
         <v>2</v>
       </c>
       <c r="O199" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P199" s="14" t="n">
         <v>5</v>
@@ -46374,10 +45972,8 @@
       <c r="T199" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U199" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U199" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V199" s="14" t="inlineStr">
         <is>
@@ -46555,7 +46151,7 @@
       </c>
       <c r="F200" s="22" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G200" s="12" t="inlineStr">
@@ -46572,10 +46168,10 @@
         <v>16</v>
       </c>
       <c r="J200" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K200" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L200" s="13" t="n">
         <v>29</v>
@@ -46587,7 +46183,7 @@
         <v>7</v>
       </c>
       <c r="O200" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P200" s="14" t="n">
         <v>5</v>
@@ -46604,10 +46200,8 @@
       <c r="T200" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U200" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U200" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V200" s="14" t="inlineStr">
         <is>
@@ -46802,10 +46396,10 @@
         <v>20</v>
       </c>
       <c r="J201" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K201" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L201" s="13" t="n">
         <v>29</v>
@@ -46817,7 +46411,7 @@
         <v>3</v>
       </c>
       <c r="O201" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P201" s="14" t="n">
         <v>5</v>
@@ -46834,10 +46428,8 @@
       <c r="T201" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U201" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U201" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V201" s="14" t="inlineStr">
         <is>
@@ -47032,10 +46624,10 @@
         <v>23</v>
       </c>
       <c r="J202" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K202" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L202" s="13" t="n">
         <v>29</v>
@@ -47047,7 +46639,7 @@
         <v>0</v>
       </c>
       <c r="O202" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P202" s="14" t="n">
         <v>5</v>
@@ -47064,10 +46656,8 @@
       <c r="T202" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U202" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U202" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V202" s="14" t="inlineStr">
         <is>
@@ -47262,10 +46852,10 @@
         <v>20</v>
       </c>
       <c r="J203" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K203" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L203" s="13" t="n">
         <v>29</v>
@@ -47277,7 +46867,7 @@
         <v>3</v>
       </c>
       <c r="O203" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P203" s="14" t="n">
         <v>5</v>
@@ -47294,10 +46884,8 @@
       <c r="T203" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U203" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U203" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V203" s="14" t="inlineStr">
         <is>
@@ -47492,10 +47080,10 @@
         <v>21</v>
       </c>
       <c r="J204" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K204" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L204" s="13" t="n">
         <v>29</v>
@@ -47507,7 +47095,7 @@
         <v>2</v>
       </c>
       <c r="O204" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P204" s="14" t="n">
         <v>5</v>
@@ -47524,10 +47112,8 @@
       <c r="T204" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U204" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U204" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V204" s="14" t="inlineStr">
         <is>
@@ -47722,10 +47308,10 @@
         <v>23</v>
       </c>
       <c r="J205" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K205" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L205" s="13" t="n">
         <v>29</v>
@@ -47737,7 +47323,7 @@
         <v>0</v>
       </c>
       <c r="O205" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P205" s="14" t="n">
         <v>5</v>
@@ -47754,10 +47340,8 @@
       <c r="T205" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U205" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U205" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V205" s="14" t="inlineStr">
         <is>
@@ -47952,10 +47536,10 @@
         <v>23</v>
       </c>
       <c r="J206" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K206" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L206" s="13" t="n">
         <v>29</v>
@@ -47967,7 +47551,7 @@
         <v>0</v>
       </c>
       <c r="O206" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P206" s="14" t="n">
         <v>5</v>
@@ -47984,10 +47568,8 @@
       <c r="T206" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U206" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U206" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V206" s="14" t="inlineStr">
         <is>
@@ -48182,10 +47764,10 @@
         <v>22</v>
       </c>
       <c r="J207" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K207" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L207" s="13" t="n">
         <v>29</v>
@@ -48197,7 +47779,7 @@
         <v>1</v>
       </c>
       <c r="O207" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P207" s="14" t="n">
         <v>5</v>
@@ -48214,10 +47796,8 @@
       <c r="T207" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U207" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U207" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V207" s="14" t="inlineStr">
         <is>
@@ -48412,10 +47992,10 @@
         <v>23</v>
       </c>
       <c r="J208" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K208" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L208" s="13" t="n">
         <v>29</v>
@@ -48427,7 +48007,7 @@
         <v>0</v>
       </c>
       <c r="O208" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P208" s="14" t="n">
         <v>5</v>
@@ -48444,10 +48024,8 @@
       <c r="T208" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U208" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U208" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V208" s="14" t="inlineStr">
         <is>
@@ -48642,10 +48220,10 @@
         <v>19</v>
       </c>
       <c r="J209" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K209" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L209" s="13" t="n">
         <v>29</v>
@@ -48657,7 +48235,7 @@
         <v>4</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P209" s="14" t="n">
         <v>5</v>
@@ -48674,10 +48252,8 @@
       <c r="T209" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U209" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U209" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V209" s="14" t="inlineStr">
         <is>
@@ -48872,10 +48448,10 @@
         <v>19</v>
       </c>
       <c r="J210" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K210" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L210" s="13" t="n">
         <v>29</v>
@@ -48887,7 +48463,7 @@
         <v>4</v>
       </c>
       <c r="O210" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P210" s="14" t="n">
         <v>5</v>
@@ -48904,10 +48480,8 @@
       <c r="T210" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U210" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U210" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V210" s="14" t="inlineStr">
         <is>
@@ -49102,10 +48676,10 @@
         <v>20</v>
       </c>
       <c r="J211" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K211" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L211" s="13" t="n">
         <v>29</v>
@@ -49117,7 +48691,7 @@
         <v>3</v>
       </c>
       <c r="O211" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P211" s="14" t="n">
         <v>5</v>
@@ -49134,10 +48708,8 @@
       <c r="T211" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U211" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U211" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V211" s="14" t="inlineStr">
         <is>
@@ -49332,10 +48904,10 @@
         <v>19</v>
       </c>
       <c r="J212" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K212" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L212" s="13" t="n">
         <v>29</v>
@@ -49347,7 +48919,7 @@
         <v>4</v>
       </c>
       <c r="O212" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P212" s="14" t="n">
         <v>5</v>
@@ -49364,10 +48936,8 @@
       <c r="T212" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U212" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U212" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V212" s="14" t="inlineStr">
         <is>
@@ -49562,10 +49132,10 @@
         <v>23</v>
       </c>
       <c r="J213" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K213" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L213" s="13" t="n">
         <v>29</v>
@@ -49577,7 +49147,7 @@
         <v>0</v>
       </c>
       <c r="O213" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P213" s="14" t="n">
         <v>5</v>
@@ -49594,10 +49164,8 @@
       <c r="T213" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U213" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U213" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V213" s="14" t="inlineStr">
         <is>
@@ -49792,10 +49360,10 @@
         <v>20</v>
       </c>
       <c r="J214" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K214" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L214" s="13" t="n">
         <v>29</v>
@@ -49807,7 +49375,7 @@
         <v>3</v>
       </c>
       <c r="O214" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P214" s="14" t="n">
         <v>5</v>
@@ -49824,10 +49392,8 @@
       <c r="T214" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U214" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U214" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V214" s="14" t="inlineStr">
         <is>
@@ -50003,7 +49569,7 @@
           <t>221930@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F215" s="23" t="inlineStr">
+      <c r="F215" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -50022,10 +49588,10 @@
         <v>17</v>
       </c>
       <c r="J215" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K215" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L215" s="13" t="n">
         <v>29</v>
@@ -50037,7 +49603,7 @@
         <v>6</v>
       </c>
       <c r="O215" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P215" s="14" t="n">
         <v>5</v>
@@ -50054,10 +49620,8 @@
       <c r="T215" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U215" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U215" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V215" s="14" t="inlineStr">
         <is>
@@ -50252,10 +49816,10 @@
         <v>19</v>
       </c>
       <c r="J216" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K216" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L216" s="13" t="n">
         <v>29</v>
@@ -50267,7 +49831,7 @@
         <v>4</v>
       </c>
       <c r="O216" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P216" s="14" t="n">
         <v>5</v>
@@ -50284,10 +49848,8 @@
       <c r="T216" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U216" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U216" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V216" s="14" t="inlineStr">
         <is>
@@ -50463,9 +50025,9 @@
           <t>221938@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F217" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G217" s="12" t="inlineStr">
@@ -50482,10 +50044,10 @@
         <v>18</v>
       </c>
       <c r="J217" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K217" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L217" s="13" t="n">
         <v>29</v>
@@ -50497,7 +50059,7 @@
         <v>5</v>
       </c>
       <c r="O217" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P217" s="14" t="n">
         <v>5</v>
@@ -50514,10 +50076,8 @@
       <c r="T217" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U217" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U217" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V217" s="14" t="inlineStr">
         <is>
@@ -50712,10 +50272,10 @@
         <v>22</v>
       </c>
       <c r="J218" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K218" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L218" s="13" t="n">
         <v>29</v>
@@ -50727,7 +50287,7 @@
         <v>1</v>
       </c>
       <c r="O218" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P218" s="14" t="n">
         <v>5</v>
@@ -50744,10 +50304,8 @@
       <c r="T218" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U218" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U218" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V218" s="14" t="inlineStr">
         <is>
@@ -50923,7 +50481,7 @@
           <t>221944@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F219" s="23" t="inlineStr">
+      <c r="F219" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -50942,10 +50500,10 @@
         <v>17</v>
       </c>
       <c r="J219" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K219" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L219" s="13" t="n">
         <v>29</v>
@@ -50957,7 +50515,7 @@
         <v>6</v>
       </c>
       <c r="O219" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P219" s="14" t="n">
         <v>5</v>
@@ -50974,10 +50532,8 @@
       <c r="T219" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U219" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U219" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V219" s="14" t="inlineStr">
         <is>
@@ -51172,10 +50728,10 @@
         <v>20</v>
       </c>
       <c r="J220" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K220" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L220" s="13" t="n">
         <v>29</v>
@@ -51187,7 +50743,7 @@
         <v>3</v>
       </c>
       <c r="O220" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P220" s="14" t="n">
         <v>5</v>
@@ -51204,10 +50760,8 @@
       <c r="T220" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U220" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U220" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V220" s="14" t="inlineStr">
         <is>
@@ -51402,10 +50956,10 @@
         <v>21</v>
       </c>
       <c r="J221" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K221" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L221" s="13" t="n">
         <v>29</v>
@@ -51417,7 +50971,7 @@
         <v>2</v>
       </c>
       <c r="O221" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P221" s="14" t="n">
         <v>5</v>
@@ -51434,10 +50988,8 @@
       <c r="T221" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U221" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U221" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V221" s="14" t="inlineStr">
         <is>
@@ -51632,10 +51184,10 @@
         <v>23</v>
       </c>
       <c r="J222" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K222" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L222" s="13" t="n">
         <v>29</v>
@@ -51647,7 +51199,7 @@
         <v>0</v>
       </c>
       <c r="O222" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P222" s="14" t="n">
         <v>5</v>
@@ -51664,10 +51216,8 @@
       <c r="T222" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U222" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U222" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V222" s="14" t="inlineStr">
         <is>
@@ -51862,10 +51412,10 @@
         <v>23</v>
       </c>
       <c r="J223" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K223" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L223" s="13" t="n">
         <v>29</v>
@@ -51877,7 +51427,7 @@
         <v>0</v>
       </c>
       <c r="O223" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P223" s="14" t="n">
         <v>5</v>
@@ -51894,10 +51444,8 @@
       <c r="T223" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U223" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U223" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V223" s="14" t="inlineStr">
         <is>
@@ -52092,10 +51640,10 @@
         <v>23</v>
       </c>
       <c r="J224" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K224" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L224" s="13" t="n">
         <v>29</v>
@@ -52107,7 +51655,7 @@
         <v>0</v>
       </c>
       <c r="O224" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P224" s="14" t="n">
         <v>5</v>
@@ -52124,10 +51672,8 @@
       <c r="T224" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U224" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U224" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V224" s="14" t="inlineStr">
         <is>
@@ -52303,9 +51849,9 @@
           <t>221966@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F225" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F225" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G225" s="12" t="inlineStr">
@@ -52322,10 +51868,10 @@
         <v>18</v>
       </c>
       <c r="J225" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K225" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L225" s="13" t="n">
         <v>29</v>
@@ -52337,7 +51883,7 @@
         <v>5</v>
       </c>
       <c r="O225" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P225" s="14" t="n">
         <v>5</v>
@@ -52354,10 +51900,8 @@
       <c r="T225" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U225" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U225" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V225" s="14" t="inlineStr">
         <is>
@@ -52552,10 +52096,10 @@
         <v>23</v>
       </c>
       <c r="J226" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K226" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L226" s="13" t="n">
         <v>29</v>
@@ -52567,7 +52111,7 @@
         <v>0</v>
       </c>
       <c r="O226" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P226" s="14" t="n">
         <v>5</v>
@@ -52584,10 +52128,8 @@
       <c r="T226" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U226" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U226" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V226" s="14" t="inlineStr">
         <is>
@@ -52763,9 +52305,9 @@
           <t>221982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F227" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G227" s="12" t="inlineStr">
@@ -52782,10 +52324,10 @@
         <v>18</v>
       </c>
       <c r="J227" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K227" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L227" s="13" t="n">
         <v>29</v>
@@ -52797,7 +52339,7 @@
         <v>5</v>
       </c>
       <c r="O227" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P227" s="14" t="n">
         <v>5</v>
@@ -52814,10 +52356,8 @@
       <c r="T227" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U227" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U227" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V227" s="14" t="inlineStr">
         <is>
@@ -53012,10 +52552,10 @@
         <v>20</v>
       </c>
       <c r="J228" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K228" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L228" s="13" t="n">
         <v>29</v>
@@ -53027,7 +52567,7 @@
         <v>3</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P228" s="14" t="n">
         <v>5</v>
@@ -53044,10 +52584,8 @@
       <c r="T228" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U228" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U228" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V228" s="14" t="inlineStr">
         <is>
@@ -53242,10 +52780,10 @@
         <v>20</v>
       </c>
       <c r="J229" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K229" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L229" s="13" t="n">
         <v>29</v>
@@ -53257,7 +52795,7 @@
         <v>3</v>
       </c>
       <c r="O229" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P229" s="14" t="n">
         <v>5</v>
@@ -53274,10 +52812,8 @@
       <c r="T229" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U229" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U229" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V229" s="14" t="inlineStr">
         <is>
@@ -53472,10 +53008,10 @@
         <v>23</v>
       </c>
       <c r="J230" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K230" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L230" s="13" t="n">
         <v>29</v>
@@ -53487,7 +53023,7 @@
         <v>0</v>
       </c>
       <c r="O230" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P230" s="14" t="n">
         <v>5</v>
@@ -53504,10 +53040,8 @@
       <c r="T230" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U230" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U230" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V230" s="14" t="inlineStr">
         <is>
@@ -53702,10 +53236,10 @@
         <v>21</v>
       </c>
       <c r="J231" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K231" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L231" s="13" t="n">
         <v>29</v>
@@ -53717,7 +53251,7 @@
         <v>2</v>
       </c>
       <c r="O231" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P231" s="14" t="n">
         <v>5</v>
@@ -53734,10 +53268,8 @@
       <c r="T231" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U231" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U231" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V231" s="14" t="inlineStr">
         <is>
@@ -53913,7 +53445,7 @@
           <t>222003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="23" t="inlineStr">
+      <c r="F232" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -53932,10 +53464,10 @@
         <v>17</v>
       </c>
       <c r="J232" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K232" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L232" s="13" t="n">
         <v>29</v>
@@ -53947,7 +53479,7 @@
         <v>6</v>
       </c>
       <c r="O232" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P232" s="14" t="n">
         <v>5</v>
@@ -53964,10 +53496,8 @@
       <c r="T232" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U232" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U232" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V232" s="14" t="inlineStr">
         <is>
@@ -54143,9 +53673,9 @@
           <t>222004@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="24" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F233" s="23" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G233" s="12" t="inlineStr">
@@ -54162,10 +53692,10 @@
         <v>14</v>
       </c>
       <c r="J233" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K233" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L233" s="13" t="n">
         <v>29</v>
@@ -54177,7 +53707,7 @@
         <v>9</v>
       </c>
       <c r="O233" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P233" s="14" t="n">
         <v>5</v>
@@ -54194,10 +53724,8 @@
       <c r="T233" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U233" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U233" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V233" s="14" t="inlineStr">
         <is>
@@ -54392,10 +53920,10 @@
         <v>23</v>
       </c>
       <c r="J234" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K234" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L234" s="13" t="n">
         <v>29</v>
@@ -54407,7 +53935,7 @@
         <v>0</v>
       </c>
       <c r="O234" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P234" s="14" t="n">
         <v>5</v>
@@ -54424,10 +53952,8 @@
       <c r="T234" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U234" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U234" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V234" s="14" t="inlineStr">
         <is>
@@ -54622,10 +54148,10 @@
         <v>23</v>
       </c>
       <c r="J235" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K235" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L235" s="13" t="n">
         <v>29</v>
@@ -54637,7 +54163,7 @@
         <v>0</v>
       </c>
       <c r="O235" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P235" s="14" t="n">
         <v>5</v>
@@ -54654,10 +54180,8 @@
       <c r="T235" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U235" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U235" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V235" s="14" t="inlineStr">
         <is>
@@ -54833,7 +54357,7 @@
           <t>222026@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F236" s="23" t="inlineStr">
+      <c r="F236" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -54852,10 +54376,10 @@
         <v>17</v>
       </c>
       <c r="J236" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K236" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L236" s="13" t="n">
         <v>29</v>
@@ -54867,7 +54391,7 @@
         <v>6</v>
       </c>
       <c r="O236" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P236" s="14" t="n">
         <v>5</v>
@@ -54884,10 +54408,8 @@
       <c r="T236" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U236" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U236" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V236" s="14" t="inlineStr">
         <is>
@@ -55082,10 +54604,10 @@
         <v>19</v>
       </c>
       <c r="J237" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K237" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L237" s="13" t="n">
         <v>29</v>
@@ -55097,7 +54619,7 @@
         <v>4</v>
       </c>
       <c r="O237" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P237" s="14" t="n">
         <v>5</v>
@@ -55114,10 +54636,8 @@
       <c r="T237" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U237" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U237" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V237" s="14" t="inlineStr">
         <is>
@@ -55293,7 +54813,7 @@
           <t>222028@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F238" s="23" t="inlineStr">
+      <c r="F238" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -55312,10 +54832,10 @@
         <v>17</v>
       </c>
       <c r="J238" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K238" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L238" s="13" t="n">
         <v>29</v>
@@ -55327,7 +54847,7 @@
         <v>6</v>
       </c>
       <c r="O238" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P238" s="14" t="n">
         <v>5</v>
@@ -55344,10 +54864,8 @@
       <c r="T238" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U238" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U238" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V238" s="14" t="inlineStr">
         <is>
@@ -55542,10 +55060,10 @@
         <v>23</v>
       </c>
       <c r="J239" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K239" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L239" s="13" t="n">
         <v>29</v>
@@ -55557,7 +55075,7 @@
         <v>0</v>
       </c>
       <c r="O239" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P239" s="14" t="n">
         <v>5</v>
@@ -55574,10 +55092,8 @@
       <c r="T239" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U239" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U239" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V239" s="14" t="inlineStr">
         <is>
@@ -55772,10 +55288,10 @@
         <v>19</v>
       </c>
       <c r="J240" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K240" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L240" s="13" t="n">
         <v>29</v>
@@ -55787,7 +55303,7 @@
         <v>4</v>
       </c>
       <c r="O240" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P240" s="14" t="n">
         <v>5</v>
@@ -55804,10 +55320,8 @@
       <c r="T240" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U240" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U240" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V240" s="14" t="inlineStr">
         <is>
@@ -55985,7 +55499,7 @@
       </c>
       <c r="F241" s="22" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G241" s="12" t="inlineStr">
@@ -56002,10 +55516,10 @@
         <v>16</v>
       </c>
       <c r="J241" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K241" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L241" s="13" t="n">
         <v>29</v>
@@ -56017,7 +55531,7 @@
         <v>7</v>
       </c>
       <c r="O241" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P241" s="14" t="n">
         <v>5</v>
@@ -56034,10 +55548,8 @@
       <c r="T241" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U241" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U241" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V241" s="14" t="inlineStr">
         <is>
@@ -56232,10 +55744,10 @@
         <v>19</v>
       </c>
       <c r="J242" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K242" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L242" s="13" t="n">
         <v>29</v>
@@ -56247,7 +55759,7 @@
         <v>4</v>
       </c>
       <c r="O242" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P242" s="14" t="n">
         <v>5</v>
@@ -56264,10 +55776,8 @@
       <c r="T242" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U242" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U242" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V242" s="14" t="inlineStr">
         <is>
@@ -56445,7 +55955,7 @@
       </c>
       <c r="F243" s="22" t="inlineStr">
         <is>
-          <t>Moderate Risk</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G243" s="12" t="inlineStr">
@@ -56462,10 +55972,10 @@
         <v>16</v>
       </c>
       <c r="J243" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K243" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L243" s="13" t="n">
         <v>29</v>
@@ -56477,7 +55987,7 @@
         <v>7</v>
       </c>
       <c r="O243" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P243" s="14" t="n">
         <v>5</v>
@@ -56494,10 +56004,8 @@
       <c r="T243" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U243" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U243" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="V243" s="14" t="inlineStr">
         <is>
@@ -56692,10 +56200,10 @@
         <v>21</v>
       </c>
       <c r="J244" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K244" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L244" s="13" t="n">
         <v>29</v>
@@ -56707,7 +56215,7 @@
         <v>2</v>
       </c>
       <c r="O244" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P244" s="14" t="n">
         <v>5</v>
@@ -56724,10 +56232,8 @@
       <c r="T244" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U244" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U244" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V244" s="14" t="inlineStr">
         <is>
@@ -56903,7 +56409,7 @@
           <t>222058@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F245" s="23" t="inlineStr">
+      <c r="F245" s="22" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -56922,10 +56428,10 @@
         <v>17</v>
       </c>
       <c r="J245" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K245" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L245" s="13" t="n">
         <v>29</v>
@@ -56937,7 +56443,7 @@
         <v>6</v>
       </c>
       <c r="O245" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P245" s="14" t="n">
         <v>5</v>
@@ -56954,10 +56460,8 @@
       <c r="T245" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U245" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U245" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V245" s="14" t="inlineStr">
         <is>
@@ -57133,9 +56637,9 @@
           <t>222063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F246" s="23" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F246" s="11" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G246" s="12" t="inlineStr">
@@ -57152,10 +56656,10 @@
         <v>18</v>
       </c>
       <c r="J246" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K246" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L246" s="13" t="n">
         <v>29</v>
@@ -57167,7 +56671,7 @@
         <v>5</v>
       </c>
       <c r="O246" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P246" s="14" t="n">
         <v>5</v>
@@ -57184,10 +56688,8 @@
       <c r="T246" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U246" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U246" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V246" s="14" t="inlineStr">
         <is>
@@ -57382,10 +56884,10 @@
         <v>23</v>
       </c>
       <c r="J247" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K247" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L247" s="13" t="n">
         <v>29</v>
@@ -57397,7 +56899,7 @@
         <v>0</v>
       </c>
       <c r="O247" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P247" s="14" t="n">
         <v>5</v>
@@ -57414,10 +56916,8 @@
       <c r="T247" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U247" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U247" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V247" s="14" t="inlineStr">
         <is>
@@ -57612,10 +57112,10 @@
         <v>20</v>
       </c>
       <c r="J248" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K248" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L248" s="13" t="n">
         <v>29</v>
@@ -57627,7 +57127,7 @@
         <v>3</v>
       </c>
       <c r="O248" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P248" s="14" t="n">
         <v>5</v>
@@ -57644,10 +57144,8 @@
       <c r="T248" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U248" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U248" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V248" s="14" t="inlineStr">
         <is>
@@ -57842,10 +57340,10 @@
         <v>22</v>
       </c>
       <c r="J249" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K249" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L249" s="13" t="n">
         <v>29</v>
@@ -57857,7 +57355,7 @@
         <v>1</v>
       </c>
       <c r="O249" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P249" s="14" t="n">
         <v>5</v>
@@ -57874,10 +57372,8 @@
       <c r="T249" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U249" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U249" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V249" s="14" t="inlineStr">
         <is>
@@ -58072,10 +57568,10 @@
         <v>22</v>
       </c>
       <c r="J250" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K250" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L250" s="13" t="n">
         <v>29</v>
@@ -58087,7 +57583,7 @@
         <v>1</v>
       </c>
       <c r="O250" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P250" s="14" t="n">
         <v>5</v>
@@ -58104,10 +57600,8 @@
       <c r="T250" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U250" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U250" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V250" s="14" t="inlineStr">
         <is>
@@ -58302,10 +57796,10 @@
         <v>23</v>
       </c>
       <c r="J251" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K251" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L251" s="13" t="n">
         <v>29</v>
@@ -58317,7 +57811,7 @@
         <v>0</v>
       </c>
       <c r="O251" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P251" s="14" t="n">
         <v>5</v>
@@ -58334,10 +57828,8 @@
       <c r="T251" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U251" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U251" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V251" s="14" t="inlineStr">
         <is>
@@ -58532,10 +58024,10 @@
         <v>19</v>
       </c>
       <c r="J252" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K252" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L252" s="13" t="n">
         <v>29</v>
@@ -58547,7 +58039,7 @@
         <v>4</v>
       </c>
       <c r="O252" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P252" s="14" t="n">
         <v>5</v>
@@ -58564,10 +58056,8 @@
       <c r="T252" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="U252" s="14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U252" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="V252" s="14" t="inlineStr">
         <is>
@@ -58754,57 +58244,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="25" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="B1" s="25" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="25" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="D1" s="25" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="F1" s="25" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Session</t>
         </is>
       </c>
-      <c r="H1" s="25" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" s="25" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Validation Group</t>
         </is>
@@ -63188,7 +62678,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J78" s="26" t="n">
+      <c r="J78" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K78" t="inlineStr">
@@ -63243,7 +62733,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J79" s="26" t="n">
+      <c r="J79" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K79" t="inlineStr">
@@ -63298,7 +62788,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J80" s="26" t="n">
+      <c r="J80" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K80" t="inlineStr">
@@ -63353,7 +62843,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J81" s="26" t="n">
+      <c r="J81" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K81" t="inlineStr">
@@ -63408,7 +62898,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J82" s="26" t="n">
+      <c r="J82" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K82" t="inlineStr">
@@ -63463,7 +62953,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J83" s="26" t="n">
+      <c r="J83" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K83" t="inlineStr">
@@ -63518,7 +63008,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J84" s="26" t="n">
+      <c r="J84" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K84" t="inlineStr">
@@ -63573,7 +63063,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J85" s="26" t="n">
+      <c r="J85" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K85" t="inlineStr">
@@ -63628,7 +63118,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J86" s="26" t="n">
+      <c r="J86" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K86" t="inlineStr">
@@ -63683,7 +63173,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J87" s="26" t="n">
+      <c r="J87" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K87" t="inlineStr">
@@ -63738,7 +63228,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J88" s="26" t="n">
+      <c r="J88" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K88" t="inlineStr">
@@ -63793,7 +63283,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J89" s="26" t="n">
+      <c r="J89" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K89" t="inlineStr">
@@ -63848,7 +63338,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J90" s="26" t="n">
+      <c r="J90" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K90" t="inlineStr">
@@ -63903,7 +63393,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J91" s="26" t="n">
+      <c r="J91" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K91" t="inlineStr">
@@ -63958,7 +63448,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J92" s="26" t="n">
+      <c r="J92" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K92" t="inlineStr">
@@ -64013,7 +63503,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J93" s="26" t="n">
+      <c r="J93" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K93" t="inlineStr">
@@ -64068,7 +63558,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J94" s="26" t="n">
+      <c r="J94" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K94" t="inlineStr">
@@ -64123,7 +63613,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J95" s="26" t="n">
+      <c r="J95" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K95" t="inlineStr">
@@ -64178,7 +63668,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J96" s="26" t="n">
+      <c r="J96" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K96" t="inlineStr">
@@ -64233,7 +63723,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J97" s="26" t="n">
+      <c r="J97" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K97" t="inlineStr">
@@ -64288,7 +63778,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J98" s="26" t="n">
+      <c r="J98" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K98" t="inlineStr">
@@ -64343,7 +63833,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J99" s="26" t="n">
+      <c r="J99" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K99" t="inlineStr">
@@ -64398,7 +63888,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J100" s="26" t="n">
+      <c r="J100" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K100" t="inlineStr">
@@ -64453,7 +63943,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J101" s="26" t="n">
+      <c r="J101" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K101" t="inlineStr">
@@ -64508,7 +63998,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J102" s="26" t="n">
+      <c r="J102" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K102" t="inlineStr">
@@ -64563,7 +64053,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J103" s="26" t="n">
+      <c r="J103" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K103" t="inlineStr">
@@ -64618,7 +64108,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J104" s="26" t="n">
+      <c r="J104" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K104" t="inlineStr">
@@ -64673,7 +64163,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J105" s="26" t="n">
+      <c r="J105" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K105" t="inlineStr">
@@ -64728,7 +64218,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J106" s="26" t="n">
+      <c r="J106" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K106" t="inlineStr">
@@ -64783,7 +64273,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J107" s="26" t="n">
+      <c r="J107" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K107" t="inlineStr">
@@ -64838,7 +64328,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J108" s="26" t="n">
+      <c r="J108" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K108" t="inlineStr">
@@ -64893,7 +64383,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J109" s="26" t="n">
+      <c r="J109" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K109" t="inlineStr">
@@ -64948,7 +64438,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J110" s="26" t="n">
+      <c r="J110" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K110" t="inlineStr">
@@ -65003,7 +64493,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J111" s="26" t="n">
+      <c r="J111" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K111" t="inlineStr">
@@ -65058,7 +64548,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J112" s="26" t="n">
+      <c r="J112" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K112" t="inlineStr">
@@ -65113,7 +64603,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J113" s="26" t="n">
+      <c r="J113" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K113" t="inlineStr">
@@ -65168,7 +64658,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J114" s="26" t="n">
+      <c r="J114" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K114" t="inlineStr">
@@ -65223,7 +64713,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J115" s="26" t="n">
+      <c r="J115" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K115" t="inlineStr">
@@ -65278,7 +64768,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J116" s="26" t="n">
+      <c r="J116" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K116" t="inlineStr">
@@ -65333,7 +64823,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J117" s="26" t="n">
+      <c r="J117" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K117" t="inlineStr">
@@ -65388,7 +64878,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J118" s="26" t="n">
+      <c r="J118" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K118" t="inlineStr">
@@ -65443,7 +64933,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J119" s="26" t="n">
+      <c r="J119" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K119" t="inlineStr">
@@ -65498,7 +64988,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J120" s="26" t="n">
+      <c r="J120" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K120" t="inlineStr">
@@ -65553,7 +65043,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J121" s="26" t="n">
+      <c r="J121" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K121" t="inlineStr">
@@ -65608,7 +65098,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J122" s="26" t="n">
+      <c r="J122" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K122" t="inlineStr">
@@ -65663,7 +65153,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J123" s="26" t="n">
+      <c r="J123" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K123" t="inlineStr">
@@ -65718,7 +65208,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J124" s="26" t="n">
+      <c r="J124" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K124" t="inlineStr">
@@ -65773,7 +65263,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J125" s="26" t="n">
+      <c r="J125" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K125" t="inlineStr">
@@ -65828,7 +65318,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J126" s="26" t="n">
+      <c r="J126" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K126" t="inlineStr">
@@ -65883,7 +65373,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J127" s="26" t="n">
+      <c r="J127" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K127" t="inlineStr">
@@ -65938,7 +65428,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J128" s="26" t="n">
+      <c r="J128" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K128" t="inlineStr">
@@ -65993,7 +65483,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J129" s="26" t="n">
+      <c r="J129" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K129" t="inlineStr">
@@ -66048,7 +65538,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J130" s="26" t="n">
+      <c r="J130" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K130" t="inlineStr">
@@ -66103,7 +65593,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J131" s="26" t="n">
+      <c r="J131" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K131" t="inlineStr">
@@ -66158,7 +65648,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J132" s="26" t="n">
+      <c r="J132" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K132" t="inlineStr">
@@ -66213,7 +65703,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J133" s="26" t="n">
+      <c r="J133" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K133" t="inlineStr">
@@ -66268,7 +65758,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J134" s="26" t="n">
+      <c r="J134" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K134" t="inlineStr">
@@ -66323,7 +65813,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J135" s="26" t="n">
+      <c r="J135" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K135" t="inlineStr">
@@ -66378,7 +65868,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J136" s="26" t="n">
+      <c r="J136" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K136" t="inlineStr">
@@ -66433,7 +65923,7 @@
           <t>29/10/2025</t>
         </is>
       </c>
-      <c r="J137" s="26" t="n">
+      <c r="J137" s="25" t="n">
         <v>0.3541666666666667</v>
       </c>
       <c r="K137" t="inlineStr">

--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BH$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$619</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$648</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G2" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="I2" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="13" t="n">
         <v>17</v>
@@ -1036,16 +1036,16 @@
         <v>29</v>
       </c>
       <c r="N2" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q2" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="14" t="n">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="I5" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="13" t="n">
         <v>17</v>
@@ -1720,16 +1720,16 @@
         <v>29</v>
       </c>
       <c r="N5" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P5" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q5" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" s="14" t="n">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="14" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G12" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H12" s="12" t="inlineStr">
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="I12" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="13" t="n">
         <v>17</v>
@@ -3316,16 +3316,16 @@
         <v>29</v>
       </c>
       <c r="N12" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P12" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" s="14" t="n">
         <v>1</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="14" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="G16" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H16" s="12" t="inlineStr">
@@ -4213,7 +4213,7 @@
         </is>
       </c>
       <c r="I16" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="13" t="n">
         <v>17</v>
@@ -4228,16 +4228,16 @@
         <v>29</v>
       </c>
       <c r="N16" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q16" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="14" t="n">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="14" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="G19" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H19" s="12" t="inlineStr">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="I19" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="13" t="n">
         <v>17</v>
@@ -4912,16 +4912,16 @@
         <v>29</v>
       </c>
       <c r="N19" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O19" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P19" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q19" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19" s="14" t="n">
         <v>1</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="14" t="inlineStr">
         <is>
@@ -5565,14 +5565,14 @@
           <t>210935@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F22" s="11" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F22" s="22" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G22" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H22" s="12" t="inlineStr">
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="I22" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" s="13" t="n">
         <v>17</v>
@@ -5596,16 +5596,16 @@
         <v>29</v>
       </c>
       <c r="N22" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O22" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P22" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q22" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R22" s="14" t="n">
         <v>1</v>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="14" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
       </c>
       <c r="G24" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H24" s="12" t="inlineStr">
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="I24" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="13" t="n">
         <v>17</v>
@@ -6052,16 +6052,16 @@
         <v>29</v>
       </c>
       <c r="N24" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P24" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q24" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" s="14" t="n">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="14" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="G25" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H25" s="12" t="inlineStr">
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="I25" s="13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" s="13" t="n">
         <v>17</v>
@@ -6280,16 +6280,16 @@
         <v>29</v>
       </c>
       <c r="N25" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P25" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q25" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="14" t="n">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="14" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="G31" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H31" s="12" t="inlineStr">
@@ -7633,7 +7633,7 @@
         </is>
       </c>
       <c r="I31" s="13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" s="13" t="n">
         <v>17</v>
@@ -7648,16 +7648,16 @@
         <v>29</v>
       </c>
       <c r="N31" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P31" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q31" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="14" t="n">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="14" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="G38" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H38" s="12" t="inlineStr">
@@ -9229,7 +9229,7 @@
         </is>
       </c>
       <c r="I38" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J38" s="13" t="n">
         <v>17</v>
@@ -9244,16 +9244,16 @@
         <v>29</v>
       </c>
       <c r="N38" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O38" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P38" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q38" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" s="14" t="n">
         <v>0</v>
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="14" t="inlineStr">
         <is>
@@ -10581,14 +10581,14 @@
           <t>211915@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F44" s="11" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F44" s="22" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G44" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H44" s="12" t="inlineStr">
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="I44" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J44" s="13" t="n">
         <v>17</v>
@@ -10612,16 +10612,16 @@
         <v>29</v>
       </c>
       <c r="N44" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P44" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q44" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R44" s="14" t="n">
         <v>1</v>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="14" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
       </c>
       <c r="G45" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H45" s="12" t="inlineStr">
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="I45" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J45" s="13" t="n">
         <v>17</v>
@@ -10840,16 +10840,16 @@
         <v>29</v>
       </c>
       <c r="N45" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P45" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q45" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="14" t="n">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="14" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="G46" s="12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H46" s="12" t="inlineStr">
@@ -11053,7 +11053,7 @@
         </is>
       </c>
       <c r="I46" s="13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J46" s="13" t="n">
         <v>17</v>
@@ -11068,16 +11068,16 @@
         <v>29</v>
       </c>
       <c r="N46" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P46" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q46" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="14" t="n">
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" s="14" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="G47" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H47" s="12" t="inlineStr">
@@ -11281,7 +11281,7 @@
         </is>
       </c>
       <c r="I47" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J47" s="13" t="n">
         <v>17</v>
@@ -11296,16 +11296,16 @@
         <v>29</v>
       </c>
       <c r="N47" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O47" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P47" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q47" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="14" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="14" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
       </c>
       <c r="G64" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H64" s="12" t="inlineStr">
@@ -15157,7 +15157,7 @@
         </is>
       </c>
       <c r="I64" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J64" s="13" t="n">
         <v>17</v>
@@ -15172,16 +15172,16 @@
         <v>29</v>
       </c>
       <c r="N64" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O64" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P64" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q64" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R64" s="14" t="n">
         <v>1</v>
@@ -15193,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="U64" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" s="14" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
       </c>
       <c r="G78" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H78" s="12" t="inlineStr">
@@ -18349,7 +18349,7 @@
         </is>
       </c>
       <c r="I78" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J78" s="13" t="n">
         <v>17</v>
@@ -18364,16 +18364,16 @@
         <v>29</v>
       </c>
       <c r="N78" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O78" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P78" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q78" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R78" s="14" t="n">
         <v>0</v>
@@ -18385,7 +18385,7 @@
         <v>1</v>
       </c>
       <c r="U78" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78" s="14" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
       </c>
       <c r="G79" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H79" s="12" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="I79" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J79" s="13" t="n">
         <v>17</v>
@@ -18592,16 +18592,16 @@
         <v>29</v>
       </c>
       <c r="N79" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P79" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q79" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R79" s="14" t="n">
         <v>1</v>
@@ -18613,7 +18613,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79" s="14" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
       </c>
       <c r="G148" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H148" s="12" t="inlineStr">
@@ -34309,7 +34309,7 @@
         </is>
       </c>
       <c r="I148" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J148" s="13" t="n">
         <v>17</v>
@@ -34324,16 +34324,16 @@
         <v>29</v>
       </c>
       <c r="N148" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O148" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P148" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q148" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R148" s="14" t="n">
         <v>0</v>
@@ -34345,7 +34345,7 @@
         <v>0</v>
       </c>
       <c r="U148" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V148" s="14" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
       </c>
       <c r="G151" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H151" s="12" t="inlineStr">
@@ -34993,7 +34993,7 @@
         </is>
       </c>
       <c r="I151" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J151" s="13" t="n">
         <v>17</v>
@@ -35008,16 +35008,16 @@
         <v>29</v>
       </c>
       <c r="N151" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P151" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q151" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R151" s="14" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="U151" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V151" s="14" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
       </c>
       <c r="G154" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H154" s="12" t="inlineStr">
@@ -35677,7 +35677,7 @@
         </is>
       </c>
       <c r="I154" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J154" s="13" t="n">
         <v>17</v>
@@ -35692,16 +35692,16 @@
         <v>29</v>
       </c>
       <c r="N154" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O154" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P154" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q154" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R154" s="14" t="n">
         <v>1</v>
@@ -35713,7 +35713,7 @@
         <v>0</v>
       </c>
       <c r="U154" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V154" s="14" t="inlineStr">
         <is>
@@ -36124,7 +36124,7 @@
       </c>
       <c r="G156" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H156" s="12" t="inlineStr">
@@ -36133,7 +36133,7 @@
         </is>
       </c>
       <c r="I156" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J156" s="13" t="n">
         <v>17</v>
@@ -36148,16 +36148,16 @@
         <v>29</v>
       </c>
       <c r="N156" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O156" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P156" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q156" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R156" s="14" t="n">
         <v>1</v>
@@ -36169,7 +36169,7 @@
         <v>0</v>
       </c>
       <c r="U156" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V156" s="14" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
       </c>
       <c r="G170" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H170" s="12" t="inlineStr">
@@ -39325,7 +39325,7 @@
         </is>
       </c>
       <c r="I170" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J170" s="13" t="n">
         <v>17</v>
@@ -39340,16 +39340,16 @@
         <v>29</v>
       </c>
       <c r="N170" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O170" s="13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P170" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q170" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R170" s="14" t="n">
         <v>0</v>
@@ -39361,7 +39361,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V170" s="14" t="inlineStr">
         <is>
@@ -39765,14 +39765,14 @@
           <t>221654@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F172" s="11" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F172" s="22" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G172" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H172" s="12" t="inlineStr">
@@ -39781,7 +39781,7 @@
         </is>
       </c>
       <c r="I172" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J172" s="13" t="n">
         <v>17</v>
@@ -39796,16 +39796,16 @@
         <v>29</v>
       </c>
       <c r="N172" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O172" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P172" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q172" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R172" s="14" t="n">
         <v>0</v>
@@ -39817,7 +39817,7 @@
         <v>1</v>
       </c>
       <c r="U172" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V172" s="14" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
       </c>
       <c r="G185" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H185" s="12" t="inlineStr">
@@ -42745,7 +42745,7 @@
         </is>
       </c>
       <c r="I185" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J185" s="13" t="n">
         <v>17</v>
@@ -42760,16 +42760,16 @@
         <v>29</v>
       </c>
       <c r="N185" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O185" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P185" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q185" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R185" s="14" t="n">
         <v>1</v>
@@ -42781,7 +42781,7 @@
         <v>1</v>
       </c>
       <c r="U185" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V185" s="14" t="inlineStr">
         <is>
@@ -45928,7 +45928,7 @@
       </c>
       <c r="G199" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H199" s="12" t="inlineStr">
@@ -45937,7 +45937,7 @@
         </is>
       </c>
       <c r="I199" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J199" s="13" t="n">
         <v>17</v>
@@ -45952,16 +45952,16 @@
         <v>29</v>
       </c>
       <c r="N199" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O199" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P199" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q199" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R199" s="14" t="n">
         <v>1</v>
@@ -45973,7 +45973,7 @@
         <v>0</v>
       </c>
       <c r="U199" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V199" s="14" t="inlineStr">
         <is>
@@ -50944,7 +50944,7 @@
       </c>
       <c r="G221" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H221" s="12" t="inlineStr">
@@ -50953,7 +50953,7 @@
         </is>
       </c>
       <c r="I221" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J221" s="13" t="n">
         <v>17</v>
@@ -50968,16 +50968,16 @@
         <v>29</v>
       </c>
       <c r="N221" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O221" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P221" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q221" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R221" s="14" t="n">
         <v>0</v>
@@ -50989,7 +50989,7 @@
         <v>0</v>
       </c>
       <c r="U221" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V221" s="14" t="inlineStr">
         <is>
@@ -56637,14 +56637,14 @@
           <t>222063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F246" s="11" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F246" s="22" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G246" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H246" s="12" t="inlineStr">
@@ -56653,7 +56653,7 @@
         </is>
       </c>
       <c r="I246" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J246" s="13" t="n">
         <v>17</v>
@@ -56668,16 +56668,16 @@
         <v>29</v>
       </c>
       <c r="N246" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O246" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P246" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q246" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R246" s="14" t="n">
         <v>0</v>
@@ -56689,7 +56689,7 @@
         <v>1</v>
       </c>
       <c r="U246" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V246" s="14" t="inlineStr">
         <is>
@@ -57328,7 +57328,7 @@
       </c>
       <c r="G249" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H249" s="12" t="inlineStr">
@@ -57337,7 +57337,7 @@
         </is>
       </c>
       <c r="I249" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J249" s="13" t="n">
         <v>17</v>
@@ -57352,16 +57352,16 @@
         <v>29</v>
       </c>
       <c r="N249" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O249" s="13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P249" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q249" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R249" s="14" t="n">
         <v>0</v>
@@ -57373,7 +57373,7 @@
         <v>0</v>
       </c>
       <c r="U249" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V249" s="14" t="inlineStr">
         <is>
@@ -58012,7 +58012,7 @@
       </c>
       <c r="G252" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H252" s="12" t="inlineStr">
@@ -58021,7 +58021,7 @@
         </is>
       </c>
       <c r="I252" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J252" s="13" t="n">
         <v>17</v>
@@ -58036,16 +58036,16 @@
         <v>29</v>
       </c>
       <c r="N252" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O252" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P252" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q252" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R252" s="14" t="n">
         <v>0</v>
@@ -58057,7 +58057,7 @@
         <v>1</v>
       </c>
       <c r="U252" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V252" s="14" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K619"/>
+  <dimension ref="A1:K648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -93406,8 +93406,1661 @@
         </is>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>211970</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>محمد اسامه المحمد</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>211970@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>12:26:10</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>221654</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>محمد اسامه بابكر احمد</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>221654@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>12:26:16</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>210870</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>عبد الله جعفر عثمان جعفر</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>210870@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>12:26:21</t>
+        </is>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>211915</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>ابايزيد عبد الله سعيد ابو رصاص</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>211915@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>12:26:24</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>خديجة ادم محمد ادريس موسى</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>202107@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>12:26:27</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>221566</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>مصطفى سامى محمد عبد الله</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>221566@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>12:26:32</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>211964</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>زبرجد محمد عبد الرحيم جمعه</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>211964@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>12:26:45</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>211066</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>عبيده بنت عبد الله بن سالم البلوشية</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>211066@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>12:26:55</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>190252</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>عبد الله طلعت عبد اللطيف عواد شالق</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>190252@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>12:27:14</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>211963</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>الاء سمعان محمود العرايضه</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>211963@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>12:27:26</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>222079</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>محمود ابو القاسم محمد عبد الرحيم</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>222079@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>12:27:30</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>210935</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>يعقوب سليمان يعقوب يحى</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>210935@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>12:27:35</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>211704</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>الياس احمد بكردان</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>211704@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>12:27:49</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>222063</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>محمد مصطفى حامد التوم</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>222063@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>12:27:58</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>221949</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>محمد لطفى الزبير البشير</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>221949@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>12:28:05</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>221649</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>ماريا صالح اسحاق يوسكو</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>221649@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>12:28:12</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>221842</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>الشيماء خلف الله عوض الجيد احمد</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>221842@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>12:28:21</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>222113</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>ابرار محمد عبد الله عبد الحميد</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>222113@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>12:28:27</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>210998</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>زينب نادر عوض السيد عبد القادر</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>210998@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>12:28:34</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>220428</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>بسمله محمد عبد الحميد محمد</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>220428@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>12:28:41</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>211273</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>سندس عمر عراده ابو عراده</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>211273@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>12:28:50</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>210826</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>بشر محمد قدح سليم</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>210826@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>12:29:03</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>212322</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>مهند حافظ عابدين الفاضل</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>212322@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>12:29:10</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>221583</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>غدير بنت عمر بن سعيد الفارسية</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>221583@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>12:29:30</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>201441</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>هند محمد ادم عيسى</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>201441@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>12:41:38</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>220444</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>جنه تامر محمد يوسف</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>220444@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>12:41:43</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>221577</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>ريل امير عوض محمدين</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>221577@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>12:41:50</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>221756</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>ماريا صالح حسن مثنى محمد</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>221756@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>12:43:01</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>221546</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>محمدزين ابوبكر محمد زين احمد</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>221546@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>12:43:24</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K619"/>
+  <autoFilter ref="A1:K648"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BH$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$648</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$688</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -92,7 +92,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF4C4C"/>
+        <fgColor rgb="00FF7C7C"/>
       </patternFill>
     </fill>
     <fill>
@@ -137,12 +137,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF7C7C"/>
+        <fgColor rgb="00FFB97D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB97D"/>
+        <fgColor rgb="00FF4C4C"/>
       </patternFill>
     </fill>
     <fill>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G2" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="I2" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="13" t="n">
         <v>17</v>
@@ -1036,16 +1036,16 @@
         <v>29</v>
       </c>
       <c r="N2" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q2" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" s="14" t="n">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="14" t="n">
         <v>1</v>
@@ -1235,12 +1235,12 @@
       </c>
       <c r="F3" s="22" t="inlineStr">
         <is>
-          <t>High Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G3" s="12" t="inlineStr">
         <is>
-          <t>24.1%</t>
+          <t>27.6%</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="I3" s="13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="13" t="n">
         <v>17</v>
@@ -1264,16 +1264,16 @@
         <v>29</v>
       </c>
       <c r="N3" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P3" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q3" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" s="14" t="n">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="14" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
           <t>200970@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1689,7 +1689,7 @@
           <t>201441@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F5" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1917,7 +1917,7 @@
           <t>201477@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2145,7 +2145,7 @@
           <t>201630@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F7" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2373,7 +2373,7 @@
           <t>201651@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F8" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2601,7 +2601,7 @@
           <t>201853@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F9" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2829,7 +2829,7 @@
           <t>202011@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F10" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3057,7 +3057,7 @@
           <t>202095@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="F11" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3287,12 +3287,12 @@
       </c>
       <c r="F12" s="11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G12" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H12" s="12" t="inlineStr">
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="I12" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="13" t="n">
         <v>17</v>
@@ -3316,16 +3316,16 @@
         <v>29</v>
       </c>
       <c r="N12" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P12" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" s="14" t="n">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="14" t="n">
         <v>1</v>
@@ -3513,7 +3513,7 @@
           <t>210434@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="F13" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3741,14 +3741,14 @@
           <t>210576@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G14" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H14" s="12" t="inlineStr">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="I14" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="13" t="n">
         <v>17</v>
@@ -3772,16 +3772,16 @@
         <v>29</v>
       </c>
       <c r="N14" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P14" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q14" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="14" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="14" t="n">
         <v>0</v>
@@ -3969,7 +3969,7 @@
           <t>210803@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F15" s="11" t="inlineStr">
+      <c r="F15" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4197,7 +4197,7 @@
           <t>210826@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F16" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4425,7 +4425,7 @@
           <t>210851@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F17" s="11" t="inlineStr">
+      <c r="F17" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4653,7 +4653,7 @@
           <t>210865@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="F18" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4881,7 +4881,7 @@
           <t>210870@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F19" s="11" t="inlineStr">
+      <c r="F19" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5109,14 +5109,14 @@
           <t>210926@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F20" s="11" t="inlineStr">
+      <c r="F20" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G20" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H20" s="12" t="inlineStr">
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="I20" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="13" t="n">
         <v>17</v>
@@ -5140,16 +5140,16 @@
         <v>29</v>
       </c>
       <c r="N20" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O20" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P20" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q20" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="14" t="n">
         <v>0</v>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="14" t="n">
         <v>0</v>
@@ -5337,7 +5337,7 @@
           <t>210934@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F21" s="11" t="inlineStr">
+      <c r="F21" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5565,14 +5565,14 @@
           <t>210935@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F22" s="22" t="inlineStr">
+      <c r="F22" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
       </c>
       <c r="G22" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H22" s="12" t="inlineStr">
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="I22" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="13" t="n">
         <v>17</v>
@@ -5596,16 +5596,16 @@
         <v>29</v>
       </c>
       <c r="N22" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O22" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P22" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q22" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R22" s="14" t="n">
         <v>1</v>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="14" t="n">
         <v>1</v>
@@ -5793,14 +5793,14 @@
           <t>210967@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F23" s="11" t="inlineStr">
+      <c r="F23" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G23" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H23" s="12" t="inlineStr">
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="I23" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="13" t="n">
         <v>17</v>
@@ -5824,16 +5824,16 @@
         <v>29</v>
       </c>
       <c r="N23" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P23" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q23" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" s="14" t="n">
         <v>0</v>
@@ -5842,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="14" t="n">
         <v>0</v>
@@ -6023,12 +6023,12 @@
       </c>
       <c r="F24" s="11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G24" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H24" s="12" t="inlineStr">
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="I24" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="13" t="n">
         <v>17</v>
@@ -6052,16 +6052,16 @@
         <v>29</v>
       </c>
       <c r="N24" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P24" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q24" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R24" s="14" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="14" t="n">
         <v>1</v>
@@ -6249,7 +6249,7 @@
           <t>211066@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F25" s="11" t="inlineStr">
+      <c r="F25" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6477,7 +6477,7 @@
           <t>211089@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F26" s="11" t="inlineStr">
+      <c r="F26" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6705,7 +6705,7 @@
           <t>211170@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F27" s="11" t="inlineStr">
+      <c r="F27" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6933,7 +6933,7 @@
           <t>211190@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F28" s="11" t="inlineStr">
+      <c r="F28" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -7161,7 +7161,7 @@
           <t>211221@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F29" s="11" t="inlineStr">
+      <c r="F29" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -7389,7 +7389,7 @@
           <t>211244@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F30" s="11" t="inlineStr">
+      <c r="F30" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -7617,7 +7617,7 @@
           <t>211273@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F31" s="11" t="inlineStr">
+      <c r="F31" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -7845,7 +7845,7 @@
           <t>211294@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F32" s="11" t="inlineStr">
+      <c r="F32" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -8073,7 +8073,7 @@
           <t>211309@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F33" s="11" t="inlineStr">
+      <c r="F33" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -8301,7 +8301,7 @@
           <t>211569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F34" s="11" t="inlineStr">
+      <c r="F34" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -8529,7 +8529,7 @@
           <t>211573@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F35" s="11" t="inlineStr">
+      <c r="F35" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -8757,7 +8757,7 @@
           <t>211612@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F36" s="11" t="inlineStr">
+      <c r="F36" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -8985,14 +8985,14 @@
           <t>211620@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F37" s="11" t="inlineStr">
+      <c r="F37" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G37" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H37" s="12" t="inlineStr">
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="I37" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37" s="13" t="n">
         <v>17</v>
@@ -9016,16 +9016,16 @@
         <v>29</v>
       </c>
       <c r="N37" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O37" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P37" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q37" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R37" s="14" t="n">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="14" t="inlineStr">
         <is>
@@ -9215,12 +9215,12 @@
       </c>
       <c r="F38" s="11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G38" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H38" s="12" t="inlineStr">
@@ -9229,7 +9229,7 @@
         </is>
       </c>
       <c r="I38" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J38" s="13" t="n">
         <v>17</v>
@@ -9244,16 +9244,16 @@
         <v>29</v>
       </c>
       <c r="N38" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O38" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P38" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q38" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R38" s="14" t="n">
         <v>0</v>
@@ -9262,7 +9262,7 @@
         <v>1</v>
       </c>
       <c r="T38" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="14" t="n">
         <v>1</v>
@@ -9441,14 +9441,14 @@
           <t>211776@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F39" s="11" t="inlineStr">
+      <c r="F39" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G39" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H39" s="12" t="inlineStr">
@@ -9457,7 +9457,7 @@
         </is>
       </c>
       <c r="I39" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J39" s="13" t="n">
         <v>17</v>
@@ -9472,16 +9472,16 @@
         <v>29</v>
       </c>
       <c r="N39" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P39" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q39" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39" s="14" t="n">
         <v>0</v>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="14" t="inlineStr">
         <is>
@@ -9669,14 +9669,14 @@
           <t>211788@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F40" s="11" t="inlineStr">
+      <c r="F40" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G40" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H40" s="12" t="inlineStr">
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="I40" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J40" s="13" t="n">
         <v>17</v>
@@ -9700,16 +9700,16 @@
         <v>29</v>
       </c>
       <c r="N40" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P40" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q40" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="14" t="n">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="14" t="n">
         <v>0</v>
@@ -9897,7 +9897,7 @@
           <t>211801@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F41" s="11" t="inlineStr">
+      <c r="F41" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -10125,7 +10125,7 @@
           <t>211823@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F42" s="11" t="inlineStr">
+      <c r="F42" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -10353,7 +10353,7 @@
           <t>211835@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F43" s="11" t="inlineStr">
+      <c r="F43" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -10581,7 +10581,7 @@
           <t>211915@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F44" s="22" t="inlineStr">
+      <c r="F44" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -10809,7 +10809,7 @@
           <t>211963@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F45" s="11" t="inlineStr">
+      <c r="F45" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -11037,14 +11037,14 @@
           <t>211964@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F46" s="11" t="inlineStr">
+      <c r="F46" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G46" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H46" s="12" t="inlineStr">
@@ -11053,7 +11053,7 @@
         </is>
       </c>
       <c r="I46" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46" s="13" t="n">
         <v>17</v>
@@ -11068,16 +11068,16 @@
         <v>29</v>
       </c>
       <c r="N46" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O46" s="13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P46" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q46" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R46" s="14" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="14" t="n">
         <v>1</v>
@@ -11265,14 +11265,14 @@
           <t>211970@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F47" s="11" t="inlineStr">
+      <c r="F47" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G47" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H47" s="12" t="inlineStr">
@@ -11281,7 +11281,7 @@
         </is>
       </c>
       <c r="I47" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J47" s="13" t="n">
         <v>17</v>
@@ -11296,16 +11296,16 @@
         <v>29</v>
       </c>
       <c r="N47" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O47" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P47" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q47" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" s="14" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="14" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
           <t>212039@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F48" s="11" t="inlineStr">
+      <c r="F48" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -11721,7 +11721,7 @@
           <t>212061@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F49" s="11" t="inlineStr">
+      <c r="F49" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -11949,7 +11949,7 @@
           <t>212066@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F50" s="11" t="inlineStr">
+      <c r="F50" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -12177,7 +12177,7 @@
           <t>212125@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F51" s="11" t="inlineStr">
+      <c r="F51" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -12405,14 +12405,14 @@
           <t>212145@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F52" s="11" t="inlineStr">
+      <c r="F52" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G52" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H52" s="12" t="inlineStr">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="I52" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J52" s="13" t="n">
         <v>17</v>
@@ -12436,16 +12436,16 @@
         <v>29</v>
       </c>
       <c r="N52" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O52" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P52" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q52" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R52" s="14" t="n">
         <v>0</v>
@@ -12457,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="U52" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="14" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
           <t>212150@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F53" s="11" t="inlineStr">
+      <c r="F53" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -12861,7 +12861,7 @@
           <t>212160@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F54" s="11" t="inlineStr">
+      <c r="F54" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -13089,7 +13089,7 @@
           <t>212163@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F55" s="11" t="inlineStr">
+      <c r="F55" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -13317,7 +13317,7 @@
           <t>212199@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F56" s="11" t="inlineStr">
+      <c r="F56" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -13545,7 +13545,7 @@
           <t>212206@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F57" s="11" t="inlineStr">
+      <c r="F57" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -13773,14 +13773,14 @@
           <t>212211@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F58" s="11" t="inlineStr">
+      <c r="F58" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G58" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H58" s="12" t="inlineStr">
@@ -13789,7 +13789,7 @@
         </is>
       </c>
       <c r="I58" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J58" s="13" t="n">
         <v>17</v>
@@ -13804,16 +13804,16 @@
         <v>29</v>
       </c>
       <c r="N58" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O58" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P58" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q58" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R58" s="14" t="n">
         <v>0</v>
@@ -13825,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" s="14" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
           <t>212213@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F59" s="11" t="inlineStr">
+      <c r="F59" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -14229,7 +14229,7 @@
           <t>212257@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F60" s="11" t="inlineStr">
+      <c r="F60" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -14457,7 +14457,7 @@
           <t>212292@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F61" s="11" t="inlineStr">
+      <c r="F61" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -14685,7 +14685,7 @@
           <t>212308@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F62" s="11" t="inlineStr">
+      <c r="F62" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -14913,7 +14913,7 @@
           <t>212318@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F63" s="22" t="inlineStr">
+      <c r="F63" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -15141,7 +15141,7 @@
           <t>212322@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F64" s="22" t="inlineStr">
+      <c r="F64" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -15369,14 +15369,14 @@
           <t>212386@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F65" s="22" t="inlineStr">
+      <c r="F65" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
       </c>
       <c r="G65" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H65" s="12" t="inlineStr">
@@ -15385,7 +15385,7 @@
         </is>
       </c>
       <c r="I65" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J65" s="13" t="n">
         <v>17</v>
@@ -15400,16 +15400,16 @@
         <v>29</v>
       </c>
       <c r="N65" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O65" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P65" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q65" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R65" s="14" t="n">
         <v>1</v>
@@ -15421,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="U65" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" s="14" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
           <t>212400@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F66" s="11" t="inlineStr">
+      <c r="F66" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -15825,7 +15825,7 @@
           <t>212409@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F67" s="11" t="inlineStr">
+      <c r="F67" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -16053,14 +16053,14 @@
           <t>212412@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F68" s="11" t="inlineStr">
+      <c r="F68" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G68" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H68" s="12" t="inlineStr">
@@ -16069,7 +16069,7 @@
         </is>
       </c>
       <c r="I68" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J68" s="13" t="n">
         <v>17</v>
@@ -16084,16 +16084,16 @@
         <v>29</v>
       </c>
       <c r="N68" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O68" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P68" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q68" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R68" s="14" t="n">
         <v>1</v>
@@ -16105,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68" s="14" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
           <t>212435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F69" s="11" t="inlineStr">
+      <c r="F69" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -16509,7 +16509,7 @@
           <t>212441@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F70" s="11" t="inlineStr">
+      <c r="F70" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -16737,7 +16737,7 @@
           <t>212442@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F71" s="22" t="inlineStr">
+      <c r="F71" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -16965,7 +16965,7 @@
           <t>212443@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F72" s="11" t="inlineStr">
+      <c r="F72" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -17193,7 +17193,7 @@
           <t>212451@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F73" s="11" t="inlineStr">
+      <c r="F73" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -17421,14 +17421,14 @@
           <t>212543@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F74" s="22" t="inlineStr">
+      <c r="F74" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
       </c>
       <c r="G74" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H74" s="12" t="inlineStr">
@@ -17437,7 +17437,7 @@
         </is>
       </c>
       <c r="I74" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J74" s="13" t="n">
         <v>17</v>
@@ -17452,16 +17452,16 @@
         <v>29</v>
       </c>
       <c r="N74" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P74" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q74" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R74" s="14" t="n">
         <v>1</v>
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="T74" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="14" t="n">
         <v>1</v>
@@ -17649,7 +17649,7 @@
           <t>220304@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F75" s="22" t="inlineStr">
+      <c r="F75" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -17877,7 +17877,7 @@
           <t>220314@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F76" s="11" t="inlineStr">
+      <c r="F76" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -18105,7 +18105,7 @@
           <t>220370@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F77" s="11" t="inlineStr">
+      <c r="F77" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -18333,7 +18333,7 @@
           <t>220428@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F78" s="11" t="inlineStr">
+      <c r="F78" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -18561,7 +18561,7 @@
           <t>220444@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F79" s="11" t="inlineStr">
+      <c r="F79" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -18789,7 +18789,7 @@
           <t>220612@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F80" s="11" t="inlineStr">
+      <c r="F80" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -19017,7 +19017,7 @@
           <t>220618@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F81" s="11" t="inlineStr">
+      <c r="F81" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -19245,7 +19245,7 @@
           <t>220675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F82" s="11" t="inlineStr">
+      <c r="F82" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -19473,7 +19473,7 @@
           <t>220743@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F83" s="11" t="inlineStr">
+      <c r="F83" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -19701,7 +19701,7 @@
           <t>220766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="22" t="inlineStr">
+      <c r="F84" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -19929,7 +19929,7 @@
           <t>220811@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F85" s="11" t="inlineStr">
+      <c r="F85" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -20157,7 +20157,7 @@
           <t>220851@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F86" s="11" t="inlineStr">
+      <c r="F86" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -20385,7 +20385,7 @@
           <t>220868@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F87" s="11" t="inlineStr">
+      <c r="F87" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -20613,7 +20613,7 @@
           <t>220877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F88" s="11" t="inlineStr">
+      <c r="F88" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -20841,7 +20841,7 @@
           <t>220881@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F89" s="11" t="inlineStr">
+      <c r="F89" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -21069,7 +21069,7 @@
           <t>220926@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F90" s="11" t="inlineStr">
+      <c r="F90" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -21297,7 +21297,7 @@
           <t>220931@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F91" s="11" t="inlineStr">
+      <c r="F91" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -21525,7 +21525,7 @@
           <t>220944@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F92" s="11" t="inlineStr">
+      <c r="F92" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -21753,7 +21753,7 @@
           <t>220967@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F93" s="11" t="inlineStr">
+      <c r="F93" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -21981,7 +21981,7 @@
           <t>220976@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F94" s="11" t="inlineStr">
+      <c r="F94" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -22209,7 +22209,7 @@
           <t>220990@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F95" s="11" t="inlineStr">
+      <c r="F95" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -22437,7 +22437,7 @@
           <t>221000@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F96" s="11" t="inlineStr">
+      <c r="F96" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -22665,7 +22665,7 @@
           <t>221013@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F97" s="11" t="inlineStr">
+      <c r="F97" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -22893,7 +22893,7 @@
           <t>221022@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F98" s="11" t="inlineStr">
+      <c r="F98" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -23121,7 +23121,7 @@
           <t>221027@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F99" s="11" t="inlineStr">
+      <c r="F99" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -23349,7 +23349,7 @@
           <t>221031@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F100" s="11" t="inlineStr">
+      <c r="F100" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -23577,7 +23577,7 @@
           <t>221039@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F101" s="11" t="inlineStr">
+      <c r="F101" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -23805,7 +23805,7 @@
           <t>221209@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F102" s="11" t="inlineStr">
+      <c r="F102" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -24033,7 +24033,7 @@
           <t>221225@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F103" s="11" t="inlineStr">
+      <c r="F103" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -24261,7 +24261,7 @@
           <t>221254@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F104" s="11" t="inlineStr">
+      <c r="F104" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -24489,7 +24489,7 @@
           <t>221281@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F105" s="11" t="inlineStr">
+      <c r="F105" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -24717,7 +24717,7 @@
           <t>221289@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F106" s="11" t="inlineStr">
+      <c r="F106" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -24945,7 +24945,7 @@
           <t>221294@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F107" s="11" t="inlineStr">
+      <c r="F107" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -25173,7 +25173,7 @@
           <t>221307@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F108" s="11" t="inlineStr">
+      <c r="F108" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -25401,7 +25401,7 @@
           <t>221318@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F109" s="11" t="inlineStr">
+      <c r="F109" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -25629,7 +25629,7 @@
           <t>221319@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F110" s="11" t="inlineStr">
+      <c r="F110" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -25857,7 +25857,7 @@
           <t>221324@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F111" s="11" t="inlineStr">
+      <c r="F111" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -26085,14 +26085,14 @@
           <t>221329@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F112" s="11" t="inlineStr">
+      <c r="F112" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G112" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H112" s="12" t="inlineStr">
@@ -26101,7 +26101,7 @@
         </is>
       </c>
       <c r="I112" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J112" s="13" t="n">
         <v>17</v>
@@ -26116,16 +26116,16 @@
         <v>29</v>
       </c>
       <c r="N112" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O112" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P112" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q112" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R112" s="14" t="n">
         <v>0</v>
@@ -26137,7 +26137,7 @@
         <v>1</v>
       </c>
       <c r="U112" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V112" s="14" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
           <t>221351@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F113" s="11" t="inlineStr">
+      <c r="F113" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -26541,7 +26541,7 @@
           <t>221355@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F114" s="11" t="inlineStr">
+      <c r="F114" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -26769,7 +26769,7 @@
           <t>221357@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F115" s="22" t="inlineStr">
+      <c r="F115" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -26997,7 +26997,7 @@
           <t>221358@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F116" s="11" t="inlineStr">
+      <c r="F116" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -27225,7 +27225,7 @@
           <t>221375@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F117" s="11" t="inlineStr">
+      <c r="F117" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -27453,7 +27453,7 @@
           <t>221404@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F118" s="11" t="inlineStr">
+      <c r="F118" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -27681,7 +27681,7 @@
           <t>221409@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F119" s="11" t="inlineStr">
+      <c r="F119" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -27909,7 +27909,7 @@
           <t>221415@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F120" s="11" t="inlineStr">
+      <c r="F120" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -28137,7 +28137,7 @@
           <t>221422@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F121" s="11" t="inlineStr">
+      <c r="F121" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -28365,7 +28365,7 @@
           <t>221423@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F122" s="11" t="inlineStr">
+      <c r="F122" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -28593,7 +28593,7 @@
           <t>221427@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F123" s="11" t="inlineStr">
+      <c r="F123" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -28821,7 +28821,7 @@
           <t>221432@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F124" s="11" t="inlineStr">
+      <c r="F124" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -29049,7 +29049,7 @@
           <t>221433@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F125" s="11" t="inlineStr">
+      <c r="F125" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -29277,7 +29277,7 @@
           <t>221435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F126" s="22" t="inlineStr">
+      <c r="F126" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -29505,7 +29505,7 @@
           <t>221437@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F127" s="11" t="inlineStr">
+      <c r="F127" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -29733,7 +29733,7 @@
           <t>221438@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F128" s="11" t="inlineStr">
+      <c r="F128" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -29961,7 +29961,7 @@
           <t>221439@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F129" s="11" t="inlineStr">
+      <c r="F129" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -30189,7 +30189,7 @@
           <t>221459@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F130" s="22" t="inlineStr">
+      <c r="F130" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -30417,7 +30417,7 @@
           <t>221476@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F131" s="11" t="inlineStr">
+      <c r="F131" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -30645,7 +30645,7 @@
           <t>221478@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F132" s="11" t="inlineStr">
+      <c r="F132" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -30873,7 +30873,7 @@
           <t>221484@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F133" s="11" t="inlineStr">
+      <c r="F133" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -31101,7 +31101,7 @@
           <t>221494@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F134" s="22" t="inlineStr">
+      <c r="F134" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -31329,7 +31329,7 @@
           <t>221495@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F135" s="11" t="inlineStr">
+      <c r="F135" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -31557,7 +31557,7 @@
           <t>221496@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F136" s="11" t="inlineStr">
+      <c r="F136" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -31785,7 +31785,7 @@
           <t>221505@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F137" s="11" t="inlineStr">
+      <c r="F137" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -32013,7 +32013,7 @@
           <t>221506@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F138" s="11" t="inlineStr">
+      <c r="F138" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -32241,7 +32241,7 @@
           <t>221507@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F139" s="11" t="inlineStr">
+      <c r="F139" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -32469,7 +32469,7 @@
           <t>221508@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F140" s="11" t="inlineStr">
+      <c r="F140" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -32697,7 +32697,7 @@
           <t>221510@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F141" s="11" t="inlineStr">
+      <c r="F141" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -32925,7 +32925,7 @@
           <t>221512@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F142" s="11" t="inlineStr">
+      <c r="F142" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -33153,7 +33153,7 @@
           <t>221522@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F143" s="11" t="inlineStr">
+      <c r="F143" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -33381,7 +33381,7 @@
           <t>221523@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F144" s="11" t="inlineStr">
+      <c r="F144" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -33609,7 +33609,7 @@
           <t>221527@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F145" s="11" t="inlineStr">
+      <c r="F145" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -33837,7 +33837,7 @@
           <t>221536@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="11" t="inlineStr">
+      <c r="F146" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -34065,7 +34065,7 @@
           <t>221539@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F147" s="22" t="inlineStr">
+      <c r="F147" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -34293,7 +34293,7 @@
           <t>221546@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F148" s="11" t="inlineStr">
+      <c r="F148" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -34521,7 +34521,7 @@
           <t>221557@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F149" s="11" t="inlineStr">
+      <c r="F149" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -34749,7 +34749,7 @@
           <t>221558@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F150" s="11" t="inlineStr">
+      <c r="F150" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -34977,7 +34977,7 @@
           <t>221566@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F151" s="11" t="inlineStr">
+      <c r="F151" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -35205,7 +35205,7 @@
           <t>221569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="11" t="inlineStr">
+      <c r="F152" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -35433,7 +35433,7 @@
           <t>221574@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F153" s="11" t="inlineStr">
+      <c r="F153" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -35661,7 +35661,7 @@
           <t>221577@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F154" s="11" t="inlineStr">
+      <c r="F154" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -35889,7 +35889,7 @@
           <t>221579@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F155" s="22" t="inlineStr">
+      <c r="F155" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -36117,7 +36117,7 @@
           <t>221583@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F156" s="11" t="inlineStr">
+      <c r="F156" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -36345,7 +36345,7 @@
           <t>221584@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F157" s="11" t="inlineStr">
+      <c r="F157" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -36573,7 +36573,7 @@
           <t>221587@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F158" s="11" t="inlineStr">
+      <c r="F158" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -36801,14 +36801,14 @@
           <t>221589@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F159" s="11" t="inlineStr">
+      <c r="F159" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G159" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H159" s="12" t="inlineStr">
@@ -36817,7 +36817,7 @@
         </is>
       </c>
       <c r="I159" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J159" s="13" t="n">
         <v>17</v>
@@ -36832,16 +36832,16 @@
         <v>29</v>
       </c>
       <c r="N159" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O159" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P159" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q159" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R159" s="14" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>1</v>
       </c>
       <c r="U159" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V159" s="14" t="inlineStr">
         <is>
@@ -37031,12 +37031,12 @@
       </c>
       <c r="F160" s="11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G160" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H160" s="12" t="inlineStr">
@@ -37045,7 +37045,7 @@
         </is>
       </c>
       <c r="I160" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J160" s="13" t="n">
         <v>17</v>
@@ -37060,16 +37060,16 @@
         <v>29</v>
       </c>
       <c r="N160" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O160" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P160" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q160" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R160" s="14" t="n">
         <v>1</v>
@@ -37081,7 +37081,7 @@
         <v>1</v>
       </c>
       <c r="U160" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V160" s="14" t="inlineStr">
         <is>
@@ -37257,7 +37257,7 @@
           <t>221600@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="11" t="inlineStr">
+      <c r="F161" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -37485,7 +37485,7 @@
           <t>221606@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F162" s="22" t="inlineStr">
+      <c r="F162" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -37713,7 +37713,7 @@
           <t>221617@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F163" s="11" t="inlineStr">
+      <c r="F163" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -37941,7 +37941,7 @@
           <t>221622@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F164" s="11" t="inlineStr">
+      <c r="F164" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -38169,7 +38169,7 @@
           <t>221629@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F165" s="11" t="inlineStr">
+      <c r="F165" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -38397,7 +38397,7 @@
           <t>221631@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F166" s="11" t="inlineStr">
+      <c r="F166" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -38625,7 +38625,7 @@
           <t>221635@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F167" s="11" t="inlineStr">
+      <c r="F167" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -38853,7 +38853,7 @@
           <t>221636@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F168" s="11" t="inlineStr">
+      <c r="F168" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -39081,7 +39081,7 @@
           <t>221638@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F169" s="11" t="inlineStr">
+      <c r="F169" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -39309,7 +39309,7 @@
           <t>221649@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F170" s="11" t="inlineStr">
+      <c r="F170" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -39537,7 +39537,7 @@
           <t>221653@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F171" s="11" t="inlineStr">
+      <c r="F171" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -39765,7 +39765,7 @@
           <t>221654@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F172" s="22" t="inlineStr">
+      <c r="F172" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -39993,7 +39993,7 @@
           <t>221660@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F173" s="11" t="inlineStr">
+      <c r="F173" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -40221,14 +40221,14 @@
           <t>221668@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F174" s="11" t="inlineStr">
+      <c r="F174" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G174" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H174" s="12" t="inlineStr">
@@ -40237,7 +40237,7 @@
         </is>
       </c>
       <c r="I174" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J174" s="13" t="n">
         <v>17</v>
@@ -40252,16 +40252,16 @@
         <v>29</v>
       </c>
       <c r="N174" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O174" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P174" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q174" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R174" s="14" t="n">
         <v>0</v>
@@ -40273,7 +40273,7 @@
         <v>1</v>
       </c>
       <c r="U174" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V174" s="14" t="inlineStr">
         <is>
@@ -40449,7 +40449,7 @@
           <t>221675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="11" t="inlineStr">
+      <c r="F175" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -40677,7 +40677,7 @@
           <t>221682@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F176" s="22" t="inlineStr">
+      <c r="F176" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -40905,7 +40905,7 @@
           <t>221690@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F177" s="11" t="inlineStr">
+      <c r="F177" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -41133,14 +41133,14 @@
           <t>221695@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F178" s="11" t="inlineStr">
+      <c r="F178" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G178" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H178" s="12" t="inlineStr">
@@ -41149,7 +41149,7 @@
         </is>
       </c>
       <c r="I178" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J178" s="13" t="n">
         <v>17</v>
@@ -41164,16 +41164,16 @@
         <v>29</v>
       </c>
       <c r="N178" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O178" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P178" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q178" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R178" s="14" t="n">
         <v>0</v>
@@ -41185,7 +41185,7 @@
         <v>0</v>
       </c>
       <c r="U178" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V178" s="14" t="inlineStr">
         <is>
@@ -41361,7 +41361,7 @@
           <t>221699@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F179" s="11" t="inlineStr">
+      <c r="F179" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -41589,7 +41589,7 @@
           <t>221714@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F180" s="11" t="inlineStr">
+      <c r="F180" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -41817,7 +41817,7 @@
           <t>221720@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F181" s="11" t="inlineStr">
+      <c r="F181" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -42045,7 +42045,7 @@
           <t>221730@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F182" s="11" t="inlineStr">
+      <c r="F182" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -42273,7 +42273,7 @@
           <t>221744@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F183" s="11" t="inlineStr">
+      <c r="F183" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -42501,7 +42501,7 @@
           <t>221755@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F184" s="22" t="inlineStr">
+      <c r="F184" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -42729,7 +42729,7 @@
           <t>221756@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="22" t="inlineStr">
+      <c r="F185" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -42957,7 +42957,7 @@
           <t>221764@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F186" s="11" t="inlineStr">
+      <c r="F186" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -43185,7 +43185,7 @@
           <t>221768@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F187" s="11" t="inlineStr">
+      <c r="F187" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -43413,14 +43413,14 @@
           <t>221774@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F188" s="11" t="inlineStr">
+      <c r="F188" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G188" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H188" s="12" t="inlineStr">
@@ -43429,7 +43429,7 @@
         </is>
       </c>
       <c r="I188" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J188" s="13" t="n">
         <v>17</v>
@@ -43444,16 +43444,16 @@
         <v>29</v>
       </c>
       <c r="N188" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O188" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P188" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q188" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R188" s="14" t="n">
         <v>0</v>
@@ -43465,7 +43465,7 @@
         <v>1</v>
       </c>
       <c r="U188" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V188" s="14" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
           <t>221779@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F189" s="11" t="inlineStr">
+      <c r="F189" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -43869,7 +43869,7 @@
           <t>221799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="11" t="inlineStr">
+      <c r="F190" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -44097,7 +44097,7 @@
           <t>221802@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F191" s="11" t="inlineStr">
+      <c r="F191" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -44325,7 +44325,7 @@
           <t>221804@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F192" s="11" t="inlineStr">
+      <c r="F192" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -44553,7 +44553,7 @@
           <t>221810@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F193" s="11" t="inlineStr">
+      <c r="F193" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -44781,7 +44781,7 @@
           <t>221818@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F194" s="11" t="inlineStr">
+      <c r="F194" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -45011,12 +45011,12 @@
       </c>
       <c r="F195" s="11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G195" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H195" s="12" t="inlineStr">
@@ -45025,7 +45025,7 @@
         </is>
       </c>
       <c r="I195" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J195" s="13" t="n">
         <v>17</v>
@@ -45040,16 +45040,16 @@
         <v>29</v>
       </c>
       <c r="N195" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O195" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P195" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q195" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R195" s="14" t="n">
         <v>0</v>
@@ -45061,7 +45061,7 @@
         <v>1</v>
       </c>
       <c r="U195" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V195" s="14" t="inlineStr">
         <is>
@@ -45237,7 +45237,7 @@
           <t>221826@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F196" s="11" t="inlineStr">
+      <c r="F196" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -45465,14 +45465,14 @@
           <t>221833@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F197" s="11" t="inlineStr">
+      <c r="F197" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G197" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H197" s="12" t="inlineStr">
@@ -45481,7 +45481,7 @@
         </is>
       </c>
       <c r="I197" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J197" s="13" t="n">
         <v>17</v>
@@ -45496,16 +45496,16 @@
         <v>29</v>
       </c>
       <c r="N197" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O197" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P197" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q197" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R197" s="14" t="n">
         <v>0</v>
@@ -45517,7 +45517,7 @@
         <v>0</v>
       </c>
       <c r="U197" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V197" s="14" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
           <t>221838@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F198" s="11" t="inlineStr">
+      <c r="F198" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -45921,7 +45921,7 @@
           <t>221842@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F199" s="11" t="inlineStr">
+      <c r="F199" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -46149,7 +46149,7 @@
           <t>221850@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F200" s="22" t="inlineStr">
+      <c r="F200" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -46377,7 +46377,7 @@
           <t>221863@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F201" s="11" t="inlineStr">
+      <c r="F201" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -46605,7 +46605,7 @@
           <t>221864@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F202" s="11" t="inlineStr">
+      <c r="F202" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -46833,14 +46833,14 @@
           <t>221866@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F203" s="11" t="inlineStr">
+      <c r="F203" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G203" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H203" s="12" t="inlineStr">
@@ -46849,7 +46849,7 @@
         </is>
       </c>
       <c r="I203" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J203" s="13" t="n">
         <v>17</v>
@@ -46864,16 +46864,16 @@
         <v>29</v>
       </c>
       <c r="N203" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O203" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P203" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q203" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R203" s="14" t="n">
         <v>0</v>
@@ -46885,7 +46885,7 @@
         <v>1</v>
       </c>
       <c r="U203" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V203" s="14" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
           <t>221869@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F204" s="11" t="inlineStr">
+      <c r="F204" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -47289,7 +47289,7 @@
           <t>221876@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F205" s="11" t="inlineStr">
+      <c r="F205" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -47517,7 +47517,7 @@
           <t>221883@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F206" s="11" t="inlineStr">
+      <c r="F206" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -47745,14 +47745,14 @@
           <t>221895@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F207" s="11" t="inlineStr">
+      <c r="F207" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G207" s="12" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="H207" s="12" t="inlineStr">
@@ -47761,7 +47761,7 @@
         </is>
       </c>
       <c r="I207" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J207" s="13" t="n">
         <v>17</v>
@@ -47776,16 +47776,16 @@
         <v>29</v>
       </c>
       <c r="N207" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O207" s="13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P207" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q207" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R207" s="14" t="n">
         <v>0</v>
@@ -47797,7 +47797,7 @@
         <v>1</v>
       </c>
       <c r="U207" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V207" s="14" t="inlineStr">
         <is>
@@ -47973,7 +47973,7 @@
           <t>221902@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F208" s="11" t="inlineStr">
+      <c r="F208" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -48201,14 +48201,14 @@
           <t>221904@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F209" s="11" t="inlineStr">
+      <c r="F209" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G209" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H209" s="12" t="inlineStr">
@@ -48217,7 +48217,7 @@
         </is>
       </c>
       <c r="I209" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J209" s="13" t="n">
         <v>17</v>
@@ -48232,16 +48232,16 @@
         <v>29</v>
       </c>
       <c r="N209" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P209" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q209" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R209" s="14" t="n">
         <v>0</v>
@@ -48253,7 +48253,7 @@
         <v>1</v>
       </c>
       <c r="U209" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V209" s="14" t="inlineStr">
         <is>
@@ -48429,14 +48429,14 @@
           <t>221909@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F210" s="11" t="inlineStr">
+      <c r="F210" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G210" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H210" s="12" t="inlineStr">
@@ -48445,7 +48445,7 @@
         </is>
       </c>
       <c r="I210" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J210" s="13" t="n">
         <v>17</v>
@@ -48460,16 +48460,16 @@
         <v>29</v>
       </c>
       <c r="N210" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O210" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P210" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q210" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R210" s="14" t="n">
         <v>0</v>
@@ -48481,7 +48481,7 @@
         <v>1</v>
       </c>
       <c r="U210" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V210" s="14" t="inlineStr">
         <is>
@@ -48657,14 +48657,14 @@
           <t>221911@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F211" s="11" t="inlineStr">
+      <c r="F211" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G211" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H211" s="12" t="inlineStr">
@@ -48673,7 +48673,7 @@
         </is>
       </c>
       <c r="I211" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J211" s="13" t="n">
         <v>17</v>
@@ -48688,16 +48688,16 @@
         <v>29</v>
       </c>
       <c r="N211" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O211" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P211" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q211" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R211" s="14" t="n">
         <v>0</v>
@@ -48709,7 +48709,7 @@
         <v>0</v>
       </c>
       <c r="U211" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V211" s="14" t="inlineStr">
         <is>
@@ -48885,14 +48885,14 @@
           <t>221914@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F212" s="11" t="inlineStr">
+      <c r="F212" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G212" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H212" s="12" t="inlineStr">
@@ -48901,7 +48901,7 @@
         </is>
       </c>
       <c r="I212" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J212" s="13" t="n">
         <v>17</v>
@@ -48916,16 +48916,16 @@
         <v>29</v>
       </c>
       <c r="N212" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O212" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P212" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q212" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R212" s="14" t="n">
         <v>0</v>
@@ -48937,7 +48937,7 @@
         <v>1</v>
       </c>
       <c r="U212" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V212" s="14" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
           <t>221918@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F213" s="11" t="inlineStr">
+      <c r="F213" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -49341,7 +49341,7 @@
           <t>221923@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F214" s="11" t="inlineStr">
+      <c r="F214" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -49569,7 +49569,7 @@
           <t>221930@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F215" s="22" t="inlineStr">
+      <c r="F215" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -49797,7 +49797,7 @@
           <t>221933@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F216" s="11" t="inlineStr">
+      <c r="F216" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -50027,12 +50027,12 @@
       </c>
       <c r="F217" s="11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G217" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H217" s="12" t="inlineStr">
@@ -50041,7 +50041,7 @@
         </is>
       </c>
       <c r="I217" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J217" s="13" t="n">
         <v>17</v>
@@ -50056,16 +50056,16 @@
         <v>29</v>
       </c>
       <c r="N217" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O217" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P217" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q217" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R217" s="14" t="n">
         <v>0</v>
@@ -50077,7 +50077,7 @@
         <v>0</v>
       </c>
       <c r="U217" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V217" s="14" t="inlineStr">
         <is>
@@ -50253,7 +50253,7 @@
           <t>221940@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F218" s="11" t="inlineStr">
+      <c r="F218" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -50481,14 +50481,14 @@
           <t>221944@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F219" s="22" t="inlineStr">
+      <c r="F219" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
       </c>
       <c r="G219" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H219" s="12" t="inlineStr">
@@ -50497,7 +50497,7 @@
         </is>
       </c>
       <c r="I219" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J219" s="13" t="n">
         <v>17</v>
@@ -50512,16 +50512,16 @@
         <v>29</v>
       </c>
       <c r="N219" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O219" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P219" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q219" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R219" s="14" t="n">
         <v>0</v>
@@ -50533,7 +50533,7 @@
         <v>0</v>
       </c>
       <c r="U219" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V219" s="14" t="inlineStr">
         <is>
@@ -50709,14 +50709,14 @@
           <t>221948@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F220" s="11" t="inlineStr">
+      <c r="F220" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G220" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H220" s="12" t="inlineStr">
@@ -50725,7 +50725,7 @@
         </is>
       </c>
       <c r="I220" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J220" s="13" t="n">
         <v>17</v>
@@ -50740,16 +50740,16 @@
         <v>29</v>
       </c>
       <c r="N220" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O220" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P220" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q220" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R220" s="14" t="n">
         <v>0</v>
@@ -50761,7 +50761,7 @@
         <v>0</v>
       </c>
       <c r="U220" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V220" s="14" t="inlineStr">
         <is>
@@ -50937,7 +50937,7 @@
           <t>221949@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F221" s="11" t="inlineStr">
+      <c r="F221" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -51165,7 +51165,7 @@
           <t>221953@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F222" s="11" t="inlineStr">
+      <c r="F222" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -51393,7 +51393,7 @@
           <t>221962@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F223" s="11" t="inlineStr">
+      <c r="F223" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -51621,7 +51621,7 @@
           <t>221965@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F224" s="11" t="inlineStr">
+      <c r="F224" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -51851,12 +51851,12 @@
       </c>
       <c r="F225" s="11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G225" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H225" s="12" t="inlineStr">
@@ -51865,7 +51865,7 @@
         </is>
       </c>
       <c r="I225" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J225" s="13" t="n">
         <v>17</v>
@@ -51880,16 +51880,16 @@
         <v>29</v>
       </c>
       <c r="N225" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O225" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P225" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q225" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R225" s="14" t="n">
         <v>0</v>
@@ -51901,7 +51901,7 @@
         <v>1</v>
       </c>
       <c r="U225" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V225" s="14" t="inlineStr">
         <is>
@@ -52077,7 +52077,7 @@
           <t>221968@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F226" s="11" t="inlineStr">
+      <c r="F226" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -52305,7 +52305,7 @@
           <t>221982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="11" t="inlineStr">
+      <c r="F227" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -52533,14 +52533,14 @@
           <t>221996@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F228" s="11" t="inlineStr">
+      <c r="F228" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G228" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H228" s="12" t="inlineStr">
@@ -52549,7 +52549,7 @@
         </is>
       </c>
       <c r="I228" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J228" s="13" t="n">
         <v>17</v>
@@ -52564,16 +52564,16 @@
         <v>29</v>
       </c>
       <c r="N228" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P228" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q228" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R228" s="14" t="n">
         <v>0</v>
@@ -52585,7 +52585,7 @@
         <v>0</v>
       </c>
       <c r="U228" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V228" s="14" t="inlineStr">
         <is>
@@ -52761,7 +52761,7 @@
           <t>221997@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F229" s="11" t="inlineStr">
+      <c r="F229" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -52989,7 +52989,7 @@
           <t>221998@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F230" s="11" t="inlineStr">
+      <c r="F230" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -53217,14 +53217,14 @@
           <t>222002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F231" s="11" t="inlineStr">
+      <c r="F231" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G231" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H231" s="12" t="inlineStr">
@@ -53233,7 +53233,7 @@
         </is>
       </c>
       <c r="I231" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J231" s="13" t="n">
         <v>17</v>
@@ -53248,16 +53248,16 @@
         <v>29</v>
       </c>
       <c r="N231" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O231" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P231" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q231" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R231" s="14" t="n">
         <v>0</v>
@@ -53269,7 +53269,7 @@
         <v>0</v>
       </c>
       <c r="U231" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V231" s="14" t="inlineStr">
         <is>
@@ -53445,7 +53445,7 @@
           <t>222003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="22" t="inlineStr">
+      <c r="F232" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -53673,7 +53673,7 @@
           <t>222004@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="23" t="inlineStr">
+      <c r="F233" s="22" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -53901,7 +53901,7 @@
           <t>222011@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F234" s="11" t="inlineStr">
+      <c r="F234" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -54129,7 +54129,7 @@
           <t>222017@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F235" s="11" t="inlineStr">
+      <c r="F235" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -54357,7 +54357,7 @@
           <t>222026@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F236" s="22" t="inlineStr">
+      <c r="F236" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -54585,14 +54585,14 @@
           <t>222027@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F237" s="11" t="inlineStr">
+      <c r="F237" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="G237" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H237" s="12" t="inlineStr">
@@ -54601,7 +54601,7 @@
         </is>
       </c>
       <c r="I237" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J237" s="13" t="n">
         <v>17</v>
@@ -54616,16 +54616,16 @@
         <v>29</v>
       </c>
       <c r="N237" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O237" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P237" s="14" t="n">
         <v>5</v>
       </c>
       <c r="Q237" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R237" s="14" t="n">
         <v>0</v>
@@ -54637,7 +54637,7 @@
         <v>1</v>
       </c>
       <c r="U237" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V237" s="14" t="inlineStr">
         <is>
@@ -54813,7 +54813,7 @@
           <t>222028@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F238" s="22" t="inlineStr">
+      <c r="F238" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -55041,7 +55041,7 @@
           <t>222029@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F239" s="11" t="inlineStr">
+      <c r="F239" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -55269,7 +55269,7 @@
           <t>222032@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F240" s="11" t="inlineStr">
+      <c r="F240" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -55497,7 +55497,7 @@
           <t>222035@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F241" s="22" t="inlineStr">
+      <c r="F241" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -55725,7 +55725,7 @@
           <t>222036@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F242" s="11" t="inlineStr">
+      <c r="F242" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -55953,7 +55953,7 @@
           <t>222053@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F243" s="22" t="inlineStr">
+      <c r="F243" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -56181,7 +56181,7 @@
           <t>222056@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F244" s="11" t="inlineStr">
+      <c r="F244" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -56409,7 +56409,7 @@
           <t>222058@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F245" s="22" t="inlineStr">
+      <c r="F245" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -56637,7 +56637,7 @@
           <t>222063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F246" s="22" t="inlineStr">
+      <c r="F246" s="11" t="inlineStr">
         <is>
           <t>High Risk</t>
         </is>
@@ -56865,7 +56865,7 @@
           <t>222068@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F247" s="11" t="inlineStr">
+      <c r="F247" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -57093,7 +57093,7 @@
           <t>222076@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="11" t="inlineStr">
+      <c r="F248" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -57321,7 +57321,7 @@
           <t>222079@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F249" s="11" t="inlineStr">
+      <c r="F249" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -57549,7 +57549,7 @@
           <t>222097@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F250" s="11" t="inlineStr">
+      <c r="F250" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -57777,7 +57777,7 @@
           <t>222107@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F251" s="11" t="inlineStr">
+      <c r="F251" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -58005,7 +58005,7 @@
           <t>222113@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F252" s="11" t="inlineStr">
+      <c r="F252" s="23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -58219,7 +58219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K648"/>
+  <dimension ref="A1:K688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -95059,8 +95059,2288 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>211620</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>محمودول اسلام</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>211620@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>12:40:42</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>221668</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>محمد اسامه حسين</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>221668@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>12:40:43</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>212412</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>شارلز ماكوك مالوك</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>212412@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>12:40:45</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>221904</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>عائشه نور شيهو</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>221904@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>12:40:47</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>221774</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>يدجوك جيمس كوانقو اكوك</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>221774@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>12:40:55</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>211776</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>رقيه ادريسو</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>211776@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>12:41:00</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>221938</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>مانويلا ناكوتا مارينو لوكالى</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>221938@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>12:41:05</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>221966</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>ساكى جوزيف اليساما زونقبيتى</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>221966@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>12:41:07</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>221909</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>ديكتور يمبيك بول نيان</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>221909@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>12:41:09</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>221599</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>سلمى عبد الرحمن عبيد موسى</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>221599@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>12:41:10</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>221996</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>نياقوط فال توت دوير</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>221996@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>12:41:15</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>221914</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>معز اشتياق</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>221914@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>12:41:23</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>221833</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>صفا محمود صايل صايل</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>221833@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>12:41:31</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>221589</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>أوينق استيفن أجوك مو</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>221589@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>12:41:45</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>212145</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>سميه لاوان شايبو</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>212145@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>12:41:54</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>221695</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>اروب ميجوك دودى باقوير</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>221695@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>12:42:15</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>221944</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>ضحى عمر سيف الدين محمد</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>221944@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>12:42:20</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>221329</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>خديجة اولو اتوين ادونبكو</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>221329@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>12:42:30</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>221911</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>دينق ضيو نقوك اكوانق</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>221911@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>12:42:43</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>212211</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>سوزان جيريمياه لادو</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>212211@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>12:42:56</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>212386</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>لويد اليكس موجا</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>212386@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>12:43:02</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>222027</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>خيرية عبد الرازق</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>222027@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>12:43:12</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>221822</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>سعادة يوسف عليو</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>221822@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>12:43:17</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>221866</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>امينة موسى رمبو</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>221866@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>12:43:23</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>221948</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>سانتينو اتيم شول دينق</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>221948@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>12:43:42</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>221895</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>عمر ادول فاروق</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>221895@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>12:43:56</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>222002</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>يوسف عثمان باباغانا</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>222002@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>12:44:06</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>200540</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>محمد سعيد ابراهيم عواد درويش</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>200540@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>10:20:38</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>خديجة ادم محمد ادريس موسى</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>202107@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>10:20:44</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>190252</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>عبد الله طلعت عبد اللطيف عواد شالق</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>190252@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>10:20:49</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>211964</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>زبرجد محمد عبد الرحيم جمعه</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>211964@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>10:21:01</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>210935</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>يعقوب سليمان يعقوب يحى</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>210935@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>10:21:07</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>210967</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>ملاك كمال اسماعيل ابو جلاله</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>210967@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>10:21:09</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>211970</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>محمد اسامه المحمد</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>211970@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>10:21:22</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>211788</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>محمد صادق محمد الكردى</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>211788@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>10:21:37</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>211704</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>الياس احمد بكردان</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>211704@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>10:21:55</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>210576</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>عمرو محمد محمد ابراهيم</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>210576@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>10:22:01</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>210998</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>زينب نادر عوض السيد عبد القادر</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>210998@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>10:22:11</t>
+        </is>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>212543</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>زينب سيف الدين محمد ادم</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>212543@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>10:22:24</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>210926</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>كوثر محمد المبارك يوسف</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>210926@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>ANATOMY</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>10:22:43</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K648"/>
+  <autoFilter ref="A1:K688"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
+++ b/attendance_reports/Y2_B2526_GIT_&_Liver_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BH$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$688</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$712</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="G23" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H23" s="12" t="inlineStr">
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="I23" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="13" t="n">
         <v>17</v>
@@ -5824,10 +5824,10 @@
         <v>29</v>
       </c>
       <c r="N23" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O23" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P23" s="14" t="n">
         <v>5</v>
@@ -5887,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="AG23" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="17" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="G38" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H38" s="12" t="inlineStr">
@@ -9229,7 +9229,7 @@
         </is>
       </c>
       <c r="I38" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" s="13" t="n">
         <v>17</v>
@@ -9244,10 +9244,10 @@
         <v>29</v>
       </c>
       <c r="N38" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O38" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P38" s="14" t="n">
         <v>5</v>
@@ -9307,7 +9307,7 @@
         <v>2</v>
       </c>
       <c r="AG38" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38" s="17" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
       </c>
       <c r="G55" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H55" s="12" t="inlineStr">
@@ -13105,7 +13105,7 @@
         </is>
       </c>
       <c r="I55" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J55" s="13" t="n">
         <v>17</v>
@@ -13120,10 +13120,10 @@
         <v>29</v>
       </c>
       <c r="N55" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O55" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P55" s="14" t="n">
         <v>5</v>
@@ -13183,7 +13183,7 @@
         <v>2</v>
       </c>
       <c r="AG55" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH55" s="17" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
       </c>
       <c r="G100" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H100" s="12" t="inlineStr">
@@ -23365,7 +23365,7 @@
         </is>
       </c>
       <c r="I100" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J100" s="13" t="n">
         <v>17</v>
@@ -23380,10 +23380,10 @@
         <v>29</v>
       </c>
       <c r="N100" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O100" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P100" s="14" t="n">
         <v>5</v>
@@ -23443,7 +23443,7 @@
         <v>2</v>
       </c>
       <c r="AG100" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH100" s="17" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
       </c>
       <c r="G108" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H108" s="12" t="inlineStr">
@@ -25189,7 +25189,7 @@
         </is>
       </c>
       <c r="I108" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J108" s="13" t="n">
         <v>17</v>
@@ -25204,10 +25204,10 @@
         <v>29</v>
       </c>
       <c r="N108" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O108" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P108" s="14" t="n">
         <v>5</v>
@@ -25267,7 +25267,7 @@
         <v>2</v>
       </c>
       <c r="AG108" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH108" s="17" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
       </c>
       <c r="G110" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H110" s="12" t="inlineStr">
@@ -25645,7 +25645,7 @@
         </is>
       </c>
       <c r="I110" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J110" s="13" t="n">
         <v>17</v>
@@ -25660,10 +25660,10 @@
         <v>29</v>
       </c>
       <c r="N110" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O110" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P110" s="14" t="n">
         <v>5</v>
@@ -25723,7 +25723,7 @@
         <v>2</v>
       </c>
       <c r="AG110" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH110" s="17" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
       </c>
       <c r="G111" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H111" s="12" t="inlineStr">
@@ -25873,7 +25873,7 @@
         </is>
       </c>
       <c r="I111" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J111" s="13" t="n">
         <v>17</v>
@@ -25888,10 +25888,10 @@
         <v>29</v>
       </c>
       <c r="N111" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O111" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P111" s="14" t="n">
         <v>5</v>
@@ -25951,7 +25951,7 @@
         <v>2</v>
       </c>
       <c r="AG111" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH111" s="17" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
       </c>
       <c r="G130" s="12" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>24.1%</t>
         </is>
       </c>
       <c r="H130" s="12" t="inlineStr">
@@ -30205,7 +30205,7 @@
         </is>
       </c>
       <c r="I130" s="13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J130" s="13" t="n">
         <v>17</v>
@@ -30220,10 +30220,10 @@
         <v>29</v>
       </c>
       <c r="N130" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O130" s="13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P130" s="14" t="n">
         <v>5</v>
@@ -30283,7 +30283,7 @@
         <v>2</v>
       </c>
       <c r="AG130" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH130" s="17" t="inlineStr">
         <is>
@@ -31101,14 +31101,14 @@
           <t>221494@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F134" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F134" s="22" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G134" s="12" t="inlineStr">
         <is>
-          <t>24.1%</t>
+          <t>27.6%</t>
         </is>
       </c>
       <c r="H134" s="12" t="inlineStr">
@@ -31117,7 +31117,7 @@
         </is>
       </c>
       <c r="I134" s="13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J134" s="13" t="n">
         <v>17</v>
@@ -31132,10 +31132,10 @@
         <v>29</v>
       </c>
       <c r="N134" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O134" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P134" s="14" t="n">
         <v>5</v>
@@ -31195,7 +31195,7 @@
         <v>2</v>
       </c>
       <c r="AG134" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH134" s="17" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
       </c>
       <c r="G143" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H143" s="12" t="inlineStr">
@@ -33169,7 +33169,7 @@
         </is>
       </c>
       <c r="I143" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J143" s="13" t="n">
         <v>17</v>
@@ -33184,10 +33184,10 @@
         <v>29</v>
       </c>
       <c r="N143" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O143" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P143" s="14" t="n">
         <v>5</v>
@@ -33247,7 +33247,7 @@
         <v>2</v>
       </c>
       <c r="AG143" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH143" s="17" t="inlineStr">
         <is>
@@ -33609,14 +33609,14 @@
           <t>221527@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F145" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F145" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G145" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H145" s="12" t="inlineStr">
@@ -33625,7 +33625,7 @@
         </is>
       </c>
       <c r="I145" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J145" s="13" t="n">
         <v>17</v>
@@ -33640,10 +33640,10 @@
         <v>29</v>
       </c>
       <c r="N145" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O145" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P145" s="14" t="n">
         <v>5</v>
@@ -33703,7 +33703,7 @@
         <v>2</v>
       </c>
       <c r="AG145" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH145" s="17" t="inlineStr">
         <is>
@@ -33837,14 +33837,14 @@
           <t>221536@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F146" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G146" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H146" s="12" t="inlineStr">
@@ -33853,7 +33853,7 @@
         </is>
       </c>
       <c r="I146" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J146" s="13" t="n">
         <v>17</v>
@@ -33868,10 +33868,10 @@
         <v>29</v>
       </c>
       <c r="N146" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O146" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P146" s="14" t="n">
         <v>5</v>
@@ -33931,7 +33931,7 @@
         <v>2</v>
       </c>
       <c r="AG146" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH146" s="17" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
       </c>
       <c r="G148" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H148" s="12" t="inlineStr">
@@ -34309,7 +34309,7 @@
         </is>
       </c>
       <c r="I148" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J148" s="13" t="n">
         <v>17</v>
@@ -34324,10 +34324,10 @@
         <v>29</v>
       </c>
       <c r="N148" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O148" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P148" s="14" t="n">
         <v>5</v>
@@ -34387,7 +34387,7 @@
         <v>2</v>
       </c>
       <c r="AG148" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH148" s="17" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
       </c>
       <c r="G150" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H150" s="12" t="inlineStr">
@@ -34765,7 +34765,7 @@
         </is>
       </c>
       <c r="I150" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J150" s="13" t="n">
         <v>17</v>
@@ -34780,10 +34780,10 @@
         <v>29</v>
       </c>
       <c r="N150" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O150" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P150" s="14" t="n">
         <v>5</v>
@@ -34843,7 +34843,7 @@
         <v>2</v>
       </c>
       <c r="AG150" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH150" s="17" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
       </c>
       <c r="G151" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H151" s="12" t="inlineStr">
@@ -34993,7 +34993,7 @@
         </is>
       </c>
       <c r="I151" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J151" s="13" t="n">
         <v>17</v>
@@ -35008,10 +35008,10 @@
         <v>29</v>
       </c>
       <c r="N151" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P151" s="14" t="n">
         <v>5</v>
@@ -35071,7 +35071,7 @@
         <v>2</v>
       </c>
       <c r="AG151" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH151" s="17" t="inlineStr">
         <is>
@@ -35205,14 +35205,14 @@
           <t>221569@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F152" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G152" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H152" s="12" t="inlineStr">
@@ -35221,7 +35221,7 @@
         </is>
       </c>
       <c r="I152" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J152" s="13" t="n">
         <v>17</v>
@@ -35236,10 +35236,10 @@
         <v>29</v>
       </c>
       <c r="N152" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O152" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P152" s="14" t="n">
         <v>5</v>
@@ -35299,7 +35299,7 @@
         <v>2</v>
       </c>
       <c r="AG152" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH152" s="17" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
       </c>
       <c r="G157" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H157" s="12" t="inlineStr">
@@ -36361,7 +36361,7 @@
         </is>
       </c>
       <c r="I157" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J157" s="13" t="n">
         <v>17</v>
@@ -36376,10 +36376,10 @@
         <v>29</v>
       </c>
       <c r="N157" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O157" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P157" s="14" t="n">
         <v>5</v>
@@ -36439,7 +36439,7 @@
         <v>2</v>
       </c>
       <c r="AG157" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH157" s="17" t="inlineStr">
         <is>
@@ -40449,14 +40449,14 @@
           <t>221675@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F175" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G175" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H175" s="12" t="inlineStr">
@@ -40465,7 +40465,7 @@
         </is>
       </c>
       <c r="I175" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J175" s="13" t="n">
         <v>17</v>
@@ -40480,10 +40480,10 @@
         <v>29</v>
       </c>
       <c r="N175" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O175" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P175" s="14" t="n">
         <v>5</v>
@@ -40543,7 +40543,7 @@
         <v>2</v>
       </c>
       <c r="AG175" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH175" s="17" t="inlineStr">
         <is>
@@ -44560,7 +44560,7 @@
       </c>
       <c r="G193" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H193" s="12" t="inlineStr">
@@ -44569,7 +44569,7 @@
         </is>
       </c>
       <c r="I193" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J193" s="13" t="n">
         <v>17</v>
@@ -44584,10 +44584,10 @@
         <v>29</v>
       </c>
       <c r="N193" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O193" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P193" s="14" t="n">
         <v>5</v>
@@ -44647,7 +44647,7 @@
         <v>2</v>
       </c>
       <c r="AG193" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH193" s="17" t="inlineStr">
         <is>
@@ -44788,7 +44788,7 @@
       </c>
       <c r="G194" s="12" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="H194" s="12" t="inlineStr">
@@ -44797,7 +44797,7 @@
         </is>
       </c>
       <c r="I194" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J194" s="13" t="n">
         <v>17</v>
@@ -44812,10 +44812,10 @@
         <v>29</v>
       </c>
       <c r="N194" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O194" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P194" s="14" t="n">
         <v>5</v>
@@ -44875,7 +44875,7 @@
         <v>2</v>
       </c>
       <c r="AG194" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH194" s="17" t="inlineStr">
         <is>
@@ -45700,7 +45700,7 @@
       </c>
       <c r="G198" s="12" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="H198" s="12" t="inlineStr">
@@ -45709,7 +45709,7 @@
         </is>
       </c>
       <c r="I198" s="13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J198" s="13" t="n">
         <v>17</v>
@@ -45724,10 +45724,10 @@
         <v>29</v>
       </c>
       <c r="N198" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O198" s="13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P198" s="14" t="n">
         <v>5</v>
@@ -45787,7 +45787,7 @@
         <v>2</v>
       </c>
       <c r="AG198" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH198" s="17" t="inlineStr">
         <is>
@@ -52540,7 +52540,7 @@
       </c>
       <c r="G228" s="12" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H228" s="12" t="inlineStr">
@@ -52549,7 +52549,7 @@
         </is>
       </c>
       <c r="I228" s="13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J228" s="13" t="n">
         <v>17</v>
@@ -52564,10 +52564,10 @@
         <v>29</v>
       </c>
       <c r="N228" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P228" s="14" t="n">
         <v>5</v>
@@ -52627,7 +52627,7 @@
         <v>2</v>
       </c>
       <c r="AG228" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH228" s="17" t="inlineStr">
         <is>
@@ -55497,14 +55497,14 @@
           <t>222035@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F241" s="11" t="inlineStr">
-        <is>
-          <t>High Risk</t>
+      <c r="F241" s="22" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G241" s="12" t="inlineStr">
         <is>
-          <t>24.1%</t>
+          <t>27.6%</t>
         </is>
       </c>
       <c r="H241" s="12" t="inlineStr">
@@ -55513,7 +55513,7 @@
         </is>
       </c>
       <c r="I241" s="13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J241" s="13" t="n">
         <v>17</v>
@@ -55528,10 +55528,10 @@
         <v>29</v>
       </c>
       <c r="N241" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O241" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P241" s="14" t="n">
         <v>5</v>
@@ -55591,7 +55591,7 @@
         <v>2</v>
       </c>
       <c r="AG241" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH241" s="17" t="inlineStr">
         <is>
@@ -58005,14 +58005,14 @@
           <t>222113@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F252" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="F252" s="11" t="inlineStr">
+        <is>
+          <t>High Risk</t>
         </is>
       </c>
       <c r="G252" s="12" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H252" s="12" t="inlineStr">
@@ -58021,7 +58021,7 @@
         </is>
       </c>
       <c r="I252" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J252" s="13" t="n">
         <v>17</v>
@@ -58036,10 +58036,10 @@
         <v>29</v>
       </c>
       <c r="N252" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O252" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P252" s="14" t="n">
         <v>5</v>
@@ -58099,7 +58099,7 @@
         <v>2</v>
       </c>
       <c r="AG252" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH252" s="17" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K688"/>
+  <dimension ref="A1:K712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -97339,8 +97339,1376 @@
         </is>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>221031</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>امنيه عبدالله عبد اللطيف محمد</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>221031@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>09:21:14</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>221584</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>عزه بنت محمد بن عوض الصمداني</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>221584@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>09:21:33</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>221307</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>دعاء عاصم على العوض</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>221307@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>09:21:41</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>221818</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>جيهان محارب الشيخ الكيلاني</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>221818@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>09:21:52</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>221810</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>رهان محارب الشيخ الكيلاني</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>221810@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>09:22:09</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>221838</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>الاء سيد احمد احمد ابن ادريس</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>221838@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>09:22:20</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>222035</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>علا عبد الوهاب خليل محمود</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>222035@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>09:22:30</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>221319</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>روان صلاح طاهر الوهباني</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>221319@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>09:22:39</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>210967</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>ملاك كمال اسماعيل ابو جلاله</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>210967@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>09:23:01</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>222113</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>ابرار محمد عبد الله عبد الحميد</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>222113@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>09:23:10</t>
+        </is>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>221675</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>ساره بنت سعيد بن عثمان الكناني</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>221675@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>09:23:20</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>221527</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>شهد محمد عبدالرحمن ادريس</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>221527@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>09:23:44</t>
+        </is>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>211704</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>الياس احمد بكردان</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>211704@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>09:23:51</t>
+        </is>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>221324</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>مجد ذوقان خليل قيشاوي</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>221324@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>09:23:57</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>221566</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>مصطفى سامى محمد عبد الله</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>221566@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>09:24:09</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>221569</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>هبه جعفر محمد شوكت</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>221569@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>09:24:13</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>212163</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>رقيه احمد عبد الله</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>212163@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>09:24:52</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>221996</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>نياقوط فال توت دوير</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>221996@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>09:25:08</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>221558</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>محمد عادل عوض باحاج</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>221558@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>09:25:20</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>221494</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>حسن الصادق مصطفى الحاج</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>221494@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>09:25:24</t>
+        </is>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>221459</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>محمد الطيب محمد زين</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>221459@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>09:25:36</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>221536</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>عبده دفع الله سليمان كوكو</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>221536@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>09:25:44</t>
+        </is>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>221522</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>آدم محمد احمد البديرات</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>221522@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>09:25:51</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>221546</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>محمدزين ابوبكر محمد زين احمد</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>221546@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>MICROBIOLOGY</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>09:26:09</t>
+        </is>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K688"/>
+  <autoFilter ref="A1:K712"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>